--- a/public/db/Research Publications.xlsx
+++ b/public/db/Research Publications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/Website/public/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ritwik Sharma\OneDrive\Sunita Arya\Biodata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0CFFD07-C957-443F-98D4-2DB8BB9CFFF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD02736-9AB7-4BB3-B5BB-078320EDE1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11664" yWindow="480" windowWidth="10992" windowHeight="11376" tabRatio="842" firstSheet="1" activeTab="4" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
+    <workbookView xWindow="384" yWindow="480" windowWidth="22272" windowHeight="11376" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">References!$A$1:$A$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Research!$B$1:$L$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Research!$B$1:$L$62</definedName>
     <definedName name="_Hlk106315945" localSheetId="0">Research!#REF!</definedName>
     <definedName name="_Hlk106315982" localSheetId="0">Research!#REF!</definedName>
     <definedName name="_Hlk106316155" localSheetId="0">Research!#REF!</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="551">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -394,9 +394,6 @@
     <t>Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria, 9(2): 103-109</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.researchgate.net/publication/376173511_Effect_of_herbal_formulations_on_lemon_grass_oil_and_Basil_oil_on_MDR_Bacteria </t>
-  </si>
-  <si>
     <t>Green Technology to combat environmental degradation and sustainable food production: A Review, 9(2):118-123</t>
   </si>
   <si>
@@ -532,9 +529,6 @@
     <t>WoS</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/publication/368808686_Studies_on_Pathogenicity_of_Nematode_Infecting_Roses</t>
-  </si>
-  <si>
     <t>Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants</t>
   </si>
   <si>
@@ -553,9 +547,6 @@
     <t>https://www.faunajournal.com/archives/2023/vol10issue3/PartA/10-3-2-226.pdf</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/publication/378460110_A_REVIEW_ON_BEHAVIOR_OF_MUSCOVY_DUCK_CAIRINA_MOSCHATA</t>
-  </si>
-  <si>
     <t>IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH)</t>
   </si>
   <si>
@@ -605,9 +596,6 @@
   </si>
   <si>
     <t>478-485</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/384395463_Sustainable_Fisheries_Reducing_Poverty_through_Byproduct_Utilization</t>
   </si>
   <si>
     <t>Role of Metagenomics in Modern Science: A Review</t>
@@ -2129,6 +2117,9 @@
   </si>
   <si>
     <t>978-93-85810-00-8</t>
+  </si>
+  <si>
+    <t>Environment and Society 2020</t>
   </si>
   <si>
     <t>Dept. of Zoology, Govt. P.G. College, Saidabad</t>
@@ -2808,18 +2799,9 @@
     <t>52-55</t>
   </si>
   <si>
-    <t>Studies on Genetic components and Genotypic correlation in Orchids</t>
-  </si>
-  <si>
-    <t>Studies on Genetic diversity in Dahlia.</t>
-  </si>
-  <si>
     <t>Population Dynamics of lemon butterfly in citrus crop</t>
   </si>
   <si>
-    <t>(Suppl)</t>
-  </si>
-  <si>
     <t>Investigation on phenotypic correlation in gladiolus genotype</t>
   </si>
   <si>
@@ -2871,9 +2853,6 @@
     <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392655423_Population_Dynamics_of_lemon_butterfly_in_citrus_crop/links/684c1177131a7f2849f14e08/Population-Dynamics-of-lemon-butterfly-in-citrus-crop.pdf</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392654994_Insect_Pest_Management_of_Cabbage_with_the_help_of_ITK_Cow_Urine/links/684c1393131a7f2849f14e2d/Insect-Pest-Management-of-Cabbage-with-the-help-of-ITK-Cow-Urine.pdf</t>
-  </si>
-  <si>
     <t>International Research and Reviews</t>
   </si>
   <si>
@@ -3022,9 +3001,6 @@
   </si>
   <si>
     <t>Tewari, U.C.; Kumar, R.; Arya, S.</t>
-  </si>
-  <si>
-    <t>(Not found)</t>
   </si>
   <si>
     <t>Arya, S.</t>
@@ -3326,7 +3302,28 @@
     <t>https://naturelightpublications.com/wp-content/uploads/2024/09/Environment-and-Society-2023.pdf</t>
   </si>
   <si>
-    <t>Environment and Society</t>
+    <t>Suppl</t>
+  </si>
+  <si>
+    <t>https://www.irejournals.com/formatedpaper/1706341.pdf</t>
+  </si>
+  <si>
+    <t>https://d1wqtxts1xzle7.cloudfront.net/108239524/SCN_20231203_120408-libre.pdf?1701586266=&amp;response-content-disposition=attachment%3B+filename%3DBIOMETRICAL_STUDIES_OF_FLORIBUNDA_ROSES.pdf&amp;Expires=1749993558&amp;Signature=TxA5QiORXLoyvrxDAtIqcQTeLXKajxYBtxpBs6b8BR4LU4DNbHjhJz7jmmuzT1JSaE~9I~nE8YkzsUgrxLf25JBGosR0YMZL2ldDkI9S1~yBeKFMF3DkpF2GndzU3UCRhaz0atlC~Bbru-5rEbIy6nHpPypJ0TRByAaHqccY3si8e07o9qfnGgb2sUKdj1A8ZUBekIYQjRKOzJMH~JhLLDJHtCpaAj-WuKrpn39rMEtMtiTxxuAcxuuZ~CtFjCsq44jy14qY-dWbBkdH-W4WhFj8G5hWnlMfZGOa~7I3b6dkggl0tac~FAtErtUJdx83Pz9Btttk5NjyQdjU9MgniQ__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
+  </si>
+  <si>
+    <t>https://ijzi.net/Issue/0253335665IssueMS44.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.33745/ijzi.2023.v09i01.044</t>
+  </si>
+  <si>
+    <t>https://d1wqtxts1xzle7.cloudfront.net/123292489/Insect_Pest_Management_of_Cabbage_with_the_help_of_ITK_Cow_Urine.pdf?1749990533=&amp;response-content-disposition=attachment%3B+filename%3DInsect_Pest_Management_of_Cabbage_with_t.pdf&amp;Expires=1749994323&amp;Signature=YnZAWN3CtX4osXCqlhwd-mFOMrrcG2HY9z9s4~AEL8ETz5ERk6afmuG3-1qW3hB3eu4qhvR3bLiNpBK4pB20GrDeL0M7-ZVIFRBI4YFhJfwqnTBJObcXSFad59BbAriWPX1b~Ywm7GVEdcwrSBHXbAXVv5-GKCNiE2tW4HK5vTBqwjvqEzkIGvdsFQsaYjSHz5zIyzYSYFgJ-4wYEHmsMgcsNmcf8FvH1zmoovjNNAW6kpMDZXyHQqJyyMGF55Eps6KldNNFzEfbhcUjRT7VrCB63BEt8m5g7wOGZfnymwSPlNpcWzuHGXm18~~bEVuliVc0OvTAL~Nz~gefc1S1ag__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
+  </si>
+  <si>
+    <t>https://www.academia.edu/129962772/Insect_Pest_Management_of_Cabbage_with_the_help_of_ITK_Cow_Urine</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/376173511_Effect_of_herbal_formulations_on_lemon_grass_oil_and_Basil_oil_on_MDR_Bacteria</t>
   </si>
 </sst>
 </file>
@@ -3336,7 +3333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3422,13 +3419,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -3710,7 +3700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3749,7 +3739,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3788,24 +3778,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3838,7 +3828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3853,16 +3843,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3880,16 +3870,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3907,10 +3894,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -3941,6 +3925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4259,10 +4244,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="106" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4275,7 +4260,7 @@
     <col min="6" max="6" width="13.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" style="6" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" style="6" customWidth="1"/>
     <col min="12" max="12" width="51.88671875" customWidth="1"/>
@@ -4289,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C1" s="60" t="s">
         <v>2</v>
@@ -4322,23 +4307,23 @@
         <v>11</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>539</v>
-      </c>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="62" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -4354,7 +4339,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>16</v>
@@ -4365,16 +4350,16 @@
       <c r="K2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="67" t="s">
-        <v>404</v>
+      <c r="L2" s="66" t="s">
+        <v>398</v>
       </c>
       <c r="M2" s="61" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>457</v>
-      </c>
-      <c r="O2" s="64" t="str">
+        <v>450</v>
+      </c>
+      <c r="O2" s="63" t="str">
         <f>_xlfn.CONCAT(N2," (",D2,") ",B2, ". ", C2, ".", F2, " (",G2,"): ",H2)</f>
         <v>Tewari, U.C.; Kumar, R.; Arya, S. (1994-96) Association Studies in Roses. Farm Science Journal.6 (9): 189-191</v>
       </c>
@@ -4383,198 +4368,202 @@
       <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>20</v>
+      <c r="B3" s="62" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2003</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" s="44">
-        <v>4</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="44"/>
+        <v>12</v>
+      </c>
+      <c r="G3" s="44">
+        <v>2</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>378</v>
+      </c>
       <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="N3" s="46" t="s">
-        <v>458</v>
-      </c>
-      <c r="O3" s="64" t="str">
-        <f t="shared" ref="O3:O64" si="0">_xlfn.CONCAT(N3," (",D3,") ",B3, ". ", C3, ".", F3, " (",G3,"): ",H3)</f>
-        <v xml:space="preserve">(Not found) (1997-98) Studies on Genetic components and Genotypic correlation in Orchids. Recent Horticulture (now Horticultural Plant Journal).4 (-): </v>
+        <v>451</v>
+      </c>
+      <c r="O3" s="63" t="str">
+        <f t="shared" ref="O3:O62" si="0">_xlfn.CONCAT(N3," (",D3,") ",B3, ". ", C3, ".", F3, " (",G3,"): ",H3)</f>
+        <v>Arya, S. (2003) Population Dynamics of lemon butterfly in citrus crop. Farm Science Journal .12 (2): 507-511</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>3</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
+      <c r="B4" s="62" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2005</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" s="44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="44"/>
+        <v>543</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>378</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="68" t="s">
-        <v>16</v>
+      <c r="L4" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>16</v>
+        <v>399</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>458</v>
-      </c>
-      <c r="O4" s="64" t="str">
+        <v>452</v>
+      </c>
+      <c r="O4" s="63" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">(Not found) (1997-98) Studies on Genetic diversity in Dahlia.. Recent Horticulture (now Horticultural Plant Journal).4 (-): </v>
+        <v>Tewari, U.C.; Kumar, R.; Arya, S.; Dwivedi, A. (2005) Investigation on phenotypic correlation in gladiolus genotype. National Journal of Science.2 (Suppl): 507-511</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>4</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>24</v>
+      <c r="B5" s="62" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="11">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F5" s="44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G5" s="44">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="67" t="s">
-        <v>406</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>406</v>
+      <c r="L5" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>32</v>
       </c>
       <c r="N5" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O5" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O5" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2003) Population Dynamics of lemon butterfly in citrus crop. Farm Science Journal .12 (2): 507-511</v>
+        <v>Arya, S. (2013) A research study of phytohormone on vegetative growth and flowering behavior in gladiolus (gladiolus grandifloras). International Journal of Innovative Research in Science, Engineering and Technology.2 (11): 7060-7062</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>5</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>27</v>
+      <c r="B6" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>30</v>
       </c>
       <c r="D6" s="11">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="44">
         <v>2</v>
       </c>
-      <c r="G6" s="44" t="s">
-        <v>389</v>
+      <c r="G6" s="44">
+        <v>11</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>381</v>
+        <v>34</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="11">
-        <v>3</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="M6" s="63" t="s">
-        <v>405</v>
+        <v>2</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="44" t="s">
+        <v>35</v>
       </c>
       <c r="N6" s="46" t="s">
-        <v>460</v>
-      </c>
-      <c r="O6" s="64" t="str">
+        <v>453</v>
+      </c>
+      <c r="O6" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Tewari, U.C.; Kumar, R.; Arya, S.; Dwivedi, A. (2005) Investigation on phenotypic correlation in gladiolus genotype. National Journal of Science.2 ((Suppl)): 507-511</v>
+        <v>Arya, S.; Dubey, R. K. (2013) Bio efficacy of entomopathogenic fungi against oriental fruit fly (dacus dorsalis H.) infesting guava in riverbed area of ganga. International Journal of Innovative Research in Science, Engineering and Technology.2 (11): 7066-7068</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>6</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>435</v>
-      </c>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="11">
@@ -4587,10 +4576,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>16</v>
@@ -4601,236 +4590,236 @@
       <c r="K7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="67" t="s">
-        <v>32</v>
+      <c r="L7" s="66" t="s">
+        <v>38</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N7" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O7" s="64" t="str">
+        <v>453</v>
+      </c>
+      <c r="O7" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2013) A research study of phytohormone on vegetative growth and flowering behavior in gladiolus (gladiolus grandifloras). International Journal of Innovative Research in Science, Engineering and Technology.2 (11): 7060-7062</v>
+        <v>Arya, S.; Dubey, R. K. (2013) Studies on citrus crop insect –pest management with adhesive cage under integrated pest management programme. International Journal of Innovative Research in Science, Engineering and Technology.2 (12): 8088-8091</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>7</v>
       </c>
-      <c r="B8" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="63" t="s">
+      <c r="B8" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="11">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="44">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>34</v>
+        <v>479</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="11">
-        <v>2</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="67" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>40</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="O8" s="64" t="str">
+        <v>454</v>
+      </c>
+      <c r="O8" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2013) Bio efficacy of entomopathogenic fungi against oriental fruit fly (dacus dorsalis H.) infesting guava in riverbed area of ganga. International Journal of Innovative Research in Science, Engineering and Technology.2 (11): 7066-7068</v>
+        <v>Dubey, R. K.; Dixit, P.; Arya, S. (2014) Naturally occurring aurones and chromones –a potential organic therapeutic agents improvising nutritional security. International Journal of Innovative Research in Science, Engineering and Technology.3 (1): 8141-8144</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>8</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="63" t="s">
+      <c r="B9" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="11">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="44">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>37</v>
+        <v>481</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="11">
-        <v>2</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="L9" s="67" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N9" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="O9" s="64" t="str">
+        <v>455</v>
+      </c>
+      <c r="O9" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2013) Studies on citrus crop insect –pest management with adhesive cage under integrated pest management programme. International Journal of Innovative Research in Science, Engineering and Technology.2 (12): 8088-8091</v>
+        <v>Dubey, R.K.; Katiyar, P.; Dipankar, A.; Tuck, R.R.; Arya, S. (2014) A microbiological study on asthma and allergy management. International Journal of Innovative Research in Science, Engineering and Technology.3 (6): 13763-13766</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>9</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>488</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>30</v>
+      <c r="B10" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>401</v>
       </c>
       <c r="D10" s="11">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F10" s="44">
-        <v>3</v>
-      </c>
-      <c r="G10" s="44">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>386</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>487</v>
+        <v>379</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="44" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="L10" s="68" t="s">
+        <v>403</v>
+      </c>
+      <c r="M10" s="64" t="s">
+        <v>403</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>462</v>
-      </c>
-      <c r="O10" s="64" t="str">
+        <v>475</v>
+      </c>
+      <c r="O10" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Dubey, R. K.; Dixit, P.; Arya, S. (2014) Naturally occurring aurones and chromones –a potential organic therapeutic agents improvising nutritional security. International Journal of Innovative Research in Science, Engineering and Technology.3 (1): 8141-8144</v>
+        <v>Arya, S.; Jaswant, S. (2016) Infestation of insect-pest on guava (psidiumquajava) tree in riverbed area of ganga river in Kanpur. International Research and Reviews.5 (1 (III)): 60-65</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>10</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>30</v>
+      <c r="B11" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>47</v>
       </c>
       <c r="D11" s="11">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F11" s="44">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G11" s="44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="69" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="L11" s="66" t="s">
+        <v>49</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N11" s="46" t="s">
-        <v>463</v>
-      </c>
-      <c r="O11" s="64" t="str">
+        <v>456</v>
+      </c>
+      <c r="O11" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Dubey, R.K.; Katiyar, P.; Dipankar, A.; Tuck, R.R.; Arya, S. (2014) A microbiological study on asthma and allergy management. International Journal of Innovative Research in Science, Engineering and Technology.3 (6): 13763-13766</v>
+        <v>Madhulekha; Arya, S. (2016) Assessment of Water Pollution of River Ganga by Tannery Effluent Using Fish as an Indicator in Kanpur, India. Journal of Biochemical and Cellular Archives .16 (1): 120-123</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>11</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>391</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>408</v>
+      <c r="B12" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="11">
         <v>2016</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F12" s="44">
-        <v>5</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>392</v>
+        <v>20</v>
+      </c>
+      <c r="G12" s="44">
+        <v>2</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>382</v>
+        <v>483</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>16</v>
@@ -4841,214 +4830,214 @@
       <c r="K12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="70" t="s">
-        <v>410</v>
-      </c>
-      <c r="M12" s="65" t="s">
-        <v>410</v>
-      </c>
+      <c r="L12" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="44"/>
       <c r="N12" s="46" t="s">
-        <v>483</v>
-      </c>
-      <c r="O12" s="64" t="str">
+        <v>457</v>
+      </c>
+      <c r="O12" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Jaswant, S. (2016) Infestation of insect-pest on guava (psidiumquajava) tree in riverbed area of ganga river in Kanpur. International Research and Reviews.5 (1 (III)): 60-65</v>
+        <v>Madhulekha, S.; Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India),. International Journal of Innovative Trends in Engineering.20 (2): 97-100</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>12</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>47</v>
+      <c r="B13" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>54</v>
       </c>
       <c r="D13" s="11">
         <v>2016</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F13" s="44">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G13" s="44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>16</v>
+        <v>405</v>
+      </c>
+      <c r="I13" s="11">
+        <v>47715</v>
       </c>
       <c r="J13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="44" t="s">
-        <v>49</v>
-      </c>
+      <c r="L13" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="44"/>
       <c r="N13" s="46" t="s">
-        <v>464</v>
-      </c>
-      <c r="O13" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O13" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Madhulekha; Arya, S. (2016) Assessment of Water Pollution of River Ganga by Tannery Effluent Using Fish as an Indicator in Kanpur, India. Journal of Biochemical and Cellular Archives .16 (1): 120-123</v>
+        <v>Arya, S. (2016) Extent of damage and seasonal abundance of citrus psylla (d. citri) on citrus plant. Academic Social Research.2 (6): 131-136</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>13</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>51</v>
+      <c r="B14" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="11">
         <v>2016</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F14" s="44">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G14" s="44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>491</v>
+        <v>380</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="67" t="s">
-        <v>53</v>
+      <c r="L14" s="66" t="s">
+        <v>426</v>
       </c>
       <c r="M14" s="44"/>
       <c r="N14" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="O14" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O14" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Madhulekha, S.; Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India),. International Journal of Innovative Trends in Engineering.20 (2): 97-100</v>
+        <v>Arya, S. (2016) Response of Abiotic Factors on Population of Oriental Fruit Fly (B. Dorsalis) In Guava Varieties. Academic Social Research.2 (4): 73-76</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>14</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>349</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>54</v>
+      <c r="B15" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F15" s="44">
+        <v>6</v>
+      </c>
+      <c r="G15" s="44">
+        <v>3</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="11">
         <v>2</v>
-      </c>
-      <c r="G15" s="44">
-        <v>6</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="I15" s="11">
-        <v>47715</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="44"/>
+      <c r="L15" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="N15" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O15" s="64" t="str">
+        <v>458</v>
+      </c>
+      <c r="O15" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2016) Extent of damage and seasonal abundance of citrus psylla (d. citri) on citrus plant. Academic Social Research.2 (6): 131-136</v>
+        <v>Arya, S.; Dubey, R.K. (2017) Physico-Chemical and Scientific Analysis of Ganga River Water with Special Respect to Bacteriophage Activity and Its Comparative Studies with Sewage Water Treatment. International Journal of Innovative Research in Science, Engineering and Technology.6 (3): 5094-5104</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>15</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>54</v>
+      <c r="B16" s="62" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F16" s="44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G16" s="44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="67" t="s">
-        <v>433</v>
-      </c>
-      <c r="M16" s="44"/>
+      <c r="L16" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="44" t="s">
+        <v>61</v>
+      </c>
       <c r="N16" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O16" s="64" t="str">
+        <v>453</v>
+      </c>
+      <c r="O16" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2016) Response of Abiotic Factors on Population of Oriental Fruit Fly (B. Dorsalis) In Guava Varieties. Academic Social Research.2 (4): 73-76</v>
+        <v>Arya, S.; Dubey, R. K. (2017) Microbiological Research Studies on Anar Butterfly (Virachola Isocrates F.) Population with Different Factors in Guava Fruit. International Journal of Innovative Research in Science, Engineering and Technology.6 (3): 5089-5093</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>16</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>497</v>
-      </c>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="62" t="s">
+        <v>487</v>
+      </c>
+      <c r="C17" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="11">
@@ -5061,10 +5050,10 @@
         <v>6</v>
       </c>
       <c r="G17" s="44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>16</v>
@@ -5075,76 +5064,76 @@
       <c r="K17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="67" t="s">
-        <v>59</v>
+      <c r="L17" s="66" t="s">
+        <v>63</v>
       </c>
       <c r="M17" s="44" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="O17" s="64" t="str">
+        <v>453</v>
+      </c>
+      <c r="O17" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R.K. (2017) Physico-Chemical and Scientific Analysis of Ganga River Water with Special Respect to Bacteriophage Activity and Its Comparative Studies with Sewage Water Treatment. International Journal of Innovative Research in Science, Engineering and Technology.6 (3): 5094-5104</v>
+        <v>Arya, S.; Dubey, R. K. (2017) Studies on Application, Importance and Effect of Neem Tree (AzadiachtaIndica) Oil on Effect and Intensity of Guava Insect.. International Journal of Innovative Research in Science, Engineering and Technology.6 (4): 6280-6283</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>17</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>496</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>30</v>
+      <c r="B18" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="D18" s="11">
         <v>2017</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F18" s="44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>493</v>
+        <v>381</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="67" t="s">
-        <v>61</v>
+      <c r="L18" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>61</v>
+        <v>425</v>
       </c>
       <c r="N18" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="O18" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O18" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) Microbiological Research Studies on Anar Butterfly (Virachola Isocrates F.) Population with Different Factors in Guava Fruit. International Journal of Innovative Research in Science, Engineering and Technology.6 (3): 5089-5093</v>
+        <v>Arya, S. (2017) Economics and Bioefficacy of Parapheromones On Fruit Fly, Their Traps and Dispenser. Acadmic Science Research.3 (1): 134-136</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>18</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>495</v>
-      </c>
-      <c r="C19" s="63" t="s">
+      <c r="B19" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="62" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="11">
@@ -5160,7 +5149,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>16</v>
@@ -5171,77 +5160,77 @@
       <c r="K19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="67" t="s">
-        <v>63</v>
+      <c r="L19" s="66" t="s">
+        <v>67</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N19" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="O19" s="64" t="str">
+        <v>453</v>
+      </c>
+      <c r="O19" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) Studies on Application, Importance and Effect of Neem Tree (AzadiachtaIndica) Oil on Effect and Intensity of Guava Insect.. International Journal of Innovative Research in Science, Engineering and Technology.6 (4): 6280-6283</v>
+        <v>Arya, S.; Dubey, R. K. (2017) Scientific Studies on Effective Applications of Some Important Essential Elements Nitrogens(N), Phosphorus (P), Zinc (Zn) Nutrional Values on Spike and Floret Development in Gladiolus Crop.,. International Journal of Innovative Research in Science, Engineering and Technology.6 (4): 6275-6279</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>19</v>
       </c>
-      <c r="B20" s="63" t="s">
-        <v>394</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>65</v>
+      <c r="B20" s="62" t="s">
+        <v>497</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="11">
         <v>2017</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F20" s="44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" s="44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>384</v>
+        <v>491</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>432</v>
+      <c r="L20" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>432</v>
+        <v>69</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O20" s="64" t="str">
+        <v>453</v>
+      </c>
+      <c r="O20" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2017) Economics and Bioefficacy of Parapheromones On Fruit Fly, Their Traps and Dispenser. Acadmic Science Research.3 (1): 134-136</v>
+        <v>Arya, S.; Dubey, R. K. (2017) A Scientific Study and Analysis of Incidence and Intensity of Bark Eating Catapillar (Inderbela Spp.) In Guava (P. Guajava) Tree. International Journal of Innovative Research in Science, Engineering and Technology.6 (5): 10032-10034</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>20</v>
       </c>
-      <c r="B21" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>30</v>
+      <c r="B21" s="62" t="s">
+        <v>496</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="D21" s="11">
         <v>2017</v>
@@ -5253,10 +5242,10 @@
         <v>6</v>
       </c>
       <c r="G21" s="44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>16</v>
@@ -5267,77 +5256,75 @@
       <c r="K21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="67" t="s">
-        <v>67</v>
+      <c r="L21" s="66" t="s">
+        <v>72</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="O21" s="64" t="str">
+        <v>453</v>
+      </c>
+      <c r="O21" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) Scientific Studies on Effective Applications of Some Important Essential Elements Nitrogens(N), Phosphorus (P), Zinc (Zn) Nutrional Values on Spike and Floret Development in Gladiolus Crop.,. International Journal of Innovative Research in Science, Engineering and Technology.6 (4): 6275-6279</v>
+        <v>Arya, S.; Dubey, R. K. (2017) Scientific and Academic Studies on Changing Pattern and Factors on Environment Conditions and Socio-Economic Etics. International Journal of Innovative Research in Science, Engineering and Technology..6 (5): 10040-10043</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>21</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>505</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>30</v>
+      <c r="B22" s="62" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>54</v>
       </c>
       <c r="D22" s="11">
         <v>2017</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F22" s="44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22" s="44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>499</v>
+        <v>441</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="44" t="s">
-        <v>69</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M22" s="44"/>
       <c r="N22" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="O22" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O22" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) A Scientific Study and Analysis of Incidence and Intensity of Bark Eating Catapillar (Inderbela Spp.) In Guava (P. Guajava) Tree. International Journal of Innovative Research in Science, Engineering and Technology.6 (5): 10032-10034</v>
+        <v>Arya, S. (2017) Influence of Ecological factor on Mango Fruit Fly, Bactrocera dorsalis Hendel Bactrocera. Academic Social Research.3 (1): 116-118</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>22</v>
       </c>
-      <c r="B23" s="63" t="s">
-        <v>504</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>71</v>
+      <c r="B23" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="11">
         <v>2017</v>
@@ -5349,10 +5336,10 @@
         <v>6</v>
       </c>
       <c r="G23" s="44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>16</v>
@@ -5363,90 +5350,90 @@
       <c r="K23" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="67" t="s">
-        <v>72</v>
+      <c r="L23" s="66" t="s">
+        <v>76</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N23" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="O23" s="64" t="str">
+        <v>453</v>
+      </c>
+      <c r="O23" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) Scientific and Academic Studies on Changing Pattern and Factors on Environment Conditions and Socio-Economic Etics. International Journal of Innovative Research in Science, Engineering and Technology..6 (5): 10040-10043</v>
+        <v>Arya, S.; Dubey, R. K. (2017) A Comparative Study and Analysis of Susceptibility Conditions of Fruit Fly BacteroceraCorrectaBezzi To Entomopathogenic Micro-Organisms. International Journal of Innovative Research in Science, Engineering and Technology.6 (6): 14444-14447</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>23</v>
       </c>
-      <c r="B24" s="63" t="s">
-        <v>449</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>54</v>
+      <c r="B24" s="62" t="s">
+        <v>499</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="11">
         <v>2017</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F24" s="44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24" s="44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="69" t="s">
-        <v>74</v>
+      <c r="L24" s="66" t="s">
+        <v>78</v>
       </c>
       <c r="M24" s="44"/>
       <c r="N24" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="O24" s="64" t="str">
+      <c r="O24" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2017) Influence of Ecological factor on Mango Fruit Fly, Bactrocera dorsalis Hendel Bactrocera. Academic Social Research.3 (1): 116-118</v>
+        <v>Shukla, M.; Arya, S.; Agarwal, S. (2017) Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India. International Journal of Innovative Research in Science, Engineering and Technology..6 (8): 7164-7170</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>24</v>
       </c>
-      <c r="B25" s="63" t="s">
-        <v>506</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>30</v>
+      <c r="B25" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="D25" s="11">
         <v>2017</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F25" s="44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" s="44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>16</v>
@@ -5457,139 +5444,137 @@
       <c r="K25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="44" t="s">
-        <v>76</v>
-      </c>
+      <c r="L25" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" s="44"/>
       <c r="N25" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="O25" s="64" t="str">
+        <v>460</v>
+      </c>
+      <c r="O25" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) A Comparative Study and Analysis of Susceptibility Conditions of Fruit Fly BacteroceraCorrectaBezzi To Entomopathogenic Micro-Organisms. International Journal of Innovative Research in Science, Engineering and Technology.6 (6): 14444-14447</v>
+        <v>Shukla, M.; Arya, S. (2017) Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.). Green Chemistry and Technology Letters.3 (1): 21-25</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>25</v>
       </c>
-      <c r="B26" s="63" t="s">
-        <v>507</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>71</v>
+      <c r="B26" s="62" t="s">
+        <v>443</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>54</v>
       </c>
       <c r="D26" s="11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F26" s="44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G26" s="44">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>502</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>16</v>
+        <v>444</v>
+      </c>
+      <c r="I26" s="11">
+        <v>47715</v>
       </c>
       <c r="J26" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="67" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="M26" s="44"/>
       <c r="N26" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="O26" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O26" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Shukla, M.; Arya, S.; Agarwal, S. (2017) Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India. International Journal of Innovative Research in Science, Engineering and Technology..6 (8): 7164-7170</v>
+        <v>Arya, S. (2018) Vermicomposting: Profitable Organic Fertilizer. Academic Social Research.4 (1): 7-0</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>26</v>
       </c>
-      <c r="B27" s="63" t="s">
-        <v>508</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>80</v>
+      <c r="B27" s="62" t="s">
+        <v>389</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>86</v>
       </c>
       <c r="D27" s="11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F27" s="44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G27" s="44">
         <v>1</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>503</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>16</v>
+        <v>382</v>
+      </c>
+      <c r="I27" s="11">
+        <v>62958</v>
       </c>
       <c r="J27" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="67" t="s">
-        <v>82</v>
+      <c r="L27" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="M27" s="44"/>
       <c r="N27" s="46" t="s">
-        <v>468</v>
-      </c>
-      <c r="O27" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O27" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Shukla, M.; Arya, S. (2017) Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.). Green Chemistry and Technology Letters.3 (1): 21-25</v>
+        <v>Arya, S. (2018) Bio-efficacy of insect pests of Brinzal (Solanummelongena). International Journal on Agricultural Sciences.9 (1): 52-55</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>27</v>
       </c>
-      <c r="B28" s="63" t="s">
-        <v>450</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>54</v>
+      <c r="B28" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="D28" s="11">
         <v>2018</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F28" s="44">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G28" s="44">
         <v>1</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="I28" s="11">
-        <v>47715</v>
+        <v>7775</v>
       </c>
       <c r="J28" s="11">
         <v>1</v>
@@ -5597,45 +5582,45 @@
       <c r="K28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="69" t="s">
-        <v>84</v>
+      <c r="L28" s="66" t="s">
+        <v>91</v>
       </c>
       <c r="M28" s="44"/>
       <c r="N28" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O28" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O28" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Vermicomposting: Profitable Organic Fertilizer. Academic Social Research.4 (1): 7-0</v>
+        <v>Arya, S. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review articles. International Journal on Biological Sciences.9 (1): 69-73</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>28</v>
       </c>
-      <c r="B29" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>86</v>
+      <c r="B29" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>54</v>
       </c>
       <c r="D29" s="11">
         <v>2018</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F29" s="44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G29" s="44">
         <v>1</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="I29" s="11">
-        <v>62958</v>
+        <v>47715</v>
       </c>
       <c r="J29" s="11">
         <v>1</v>
@@ -5643,45 +5628,45 @@
       <c r="K29" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>16</v>
+      <c r="L29" s="67" t="s">
+        <v>93</v>
       </c>
       <c r="M29" s="44"/>
       <c r="N29" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O29" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O29" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Bio-efficacy of insect pests of Brinzal (Solanummelongena). International Journal on Agricultural Sciences.9 (1): 52-55</v>
+        <v>Arya, S. (2018) Insect Pest and Diseases of Roses: Symptoms and Control Measures. Academic Social Research.4 (1): 312-319</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44">
         <v>29</v>
       </c>
-      <c r="B30" s="63" t="s">
-        <v>439</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>89</v>
+      <c r="B30" s="62" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="D30" s="11">
         <v>2018</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F30" s="44">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G30" s="44">
         <v>1</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="I30" s="11">
-        <v>7775</v>
+        <v>4662</v>
       </c>
       <c r="J30" s="11">
         <v>1</v>
@@ -5690,44 +5675,46 @@
         <v>25</v>
       </c>
       <c r="L30" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="M30" s="44"/>
+        <v>97</v>
+      </c>
+      <c r="M30" s="44" t="s">
+        <v>97</v>
+      </c>
       <c r="N30" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O30" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O30" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review articles. International Journal on Biological Sciences.9 (1): 69-73</v>
+        <v>Arya, S. (2018) Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae. Life Science Bulletin.15 (1): 63-65</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="44">
         <v>30</v>
       </c>
-      <c r="B31" s="63" t="s">
-        <v>443</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>54</v>
+      <c r="B31" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>99</v>
       </c>
       <c r="D31" s="11">
         <v>2018</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F31" s="44">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G31" s="44">
         <v>1</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="I31" s="11">
-        <v>47715</v>
+        <v>7783</v>
       </c>
       <c r="J31" s="11">
         <v>1</v>
@@ -5735,45 +5722,45 @@
       <c r="K31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="69" t="s">
-        <v>93</v>
+      <c r="L31" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="M31" s="44"/>
       <c r="N31" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O31" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O31" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Insect Pest and Diseases of Roses: Symptoms and Control Measures. Academic Social Research.4 (1): 312-319</v>
+        <v>Arya, S. (2018) Use of Biopesticides against Papilio Demoleus infestation and yield in citrus (Citrus aurantifolia). International Journal on Environmental Science.9 (1): 61 – 66</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44">
         <v>31</v>
       </c>
-      <c r="B32" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>95</v>
+      <c r="B32" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="D32" s="11">
         <v>2018</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F32" s="44">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G32" s="44">
         <v>1</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="I32" s="11">
-        <v>4662</v>
+        <v>7775</v>
       </c>
       <c r="J32" s="11">
         <v>1</v>
@@ -5781,47 +5768,45 @@
       <c r="K32" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="M32" s="44" t="s">
-        <v>97</v>
-      </c>
+      <c r="L32" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="M32" s="44"/>
       <c r="N32" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O32" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O32" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae. Life Science Bulletin.15 (1): 63-65</v>
+        <v>Arya, S. (2018) Effect of Marigold oil (Tageteserecta L.) and its fractions against sitophillusoryzae. International Journal of Biological Sciences.9 (1): 85-89</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44">
         <v>32</v>
       </c>
-      <c r="B33" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>99</v>
+      <c r="B33" s="62" t="s">
+        <v>438</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="D33" s="11">
         <v>2018</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F33" s="44">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G33" s="44">
         <v>1</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="I33" s="11">
-        <v>7783</v>
+        <v>4662</v>
       </c>
       <c r="J33" s="11">
         <v>1</v>
@@ -5829,33 +5814,33 @@
       <c r="K33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>16</v>
+      <c r="L33" s="67" t="s">
+        <v>104</v>
       </c>
       <c r="M33" s="44"/>
       <c r="N33" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O33" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O33" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Use of Biopesticides against Papilio Demoleus infestation and yield in citrus (Citrus aurantifolia). International Journal on Environmental Science.9 (1): 61 – 66</v>
+        <v>Arya, S. (2018) Isolation of Phenol Degrading Bacteria from Industrial Waste. Life Science Bulletin.15 (1): 47-50</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="44">
         <v>33</v>
       </c>
-      <c r="B34" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>102</v>
+      <c r="B34" s="62" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>106</v>
       </c>
       <c r="D34" s="11">
         <v>2018</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F34" s="44">
         <v>9</v>
@@ -5864,10 +5849,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I34" s="11">
-        <v>7775</v>
+        <v>62958</v>
       </c>
       <c r="J34" s="11">
         <v>1</v>
@@ -5876,44 +5861,44 @@
         <v>25</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>425</v>
+        <v>16</v>
       </c>
       <c r="M34" s="44"/>
       <c r="N34" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O34" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O34" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Effect of Marigold oil (Tageteserecta L.) and its fractions against sitophillusoryzae. International Journal of Biological Sciences.9 (1): 85-89</v>
+        <v>Arya, S. (2018) A Scientific Study of Transplanting Date effect on Infestation of Insect Pests of Cabbage. International Journal of Agricultural Sciences.9 (1): 41-46</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="44">
         <v>34</v>
       </c>
-      <c r="B35" s="63" t="s">
-        <v>445</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>95</v>
+      <c r="B35" s="62" t="s">
+        <v>449</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>108</v>
       </c>
       <c r="D35" s="11">
         <v>2018</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F35" s="44">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G35" s="44">
         <v>1</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="I35" s="11">
-        <v>4662</v>
+        <v>7783</v>
       </c>
       <c r="J35" s="11">
         <v>1</v>
@@ -5921,26 +5906,26 @@
       <c r="K35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="69" t="s">
-        <v>104</v>
+      <c r="L35" s="67" t="s">
+        <v>109</v>
       </c>
       <c r="M35" s="44"/>
       <c r="N35" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O35" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O35" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Isolation of Phenol Degrading Bacteria from Industrial Waste. Life Science Bulletin.15 (1): 47-50</v>
+        <v>Arya, S. (2018) Spectrophotometric Determination of Chromium in River Ganga water samples using 1,5-diphenyl carbazide at Kanpur, India-2018. International Journal of Environmental Science.9 (1): 36-39</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="44">
         <v>35</v>
       </c>
-      <c r="B36" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="C36" s="63" t="s">
+      <c r="B36" s="62" t="s">
+        <v>440</v>
+      </c>
+      <c r="C36" s="62" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="11">
@@ -5953,10 +5938,10 @@
         <v>9</v>
       </c>
       <c r="G36" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="I36" s="11">
         <v>62958</v>
@@ -5967,26 +5952,26 @@
       <c r="K36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>16</v>
+      <c r="L36" s="66" t="s">
+        <v>550</v>
       </c>
       <c r="M36" s="44"/>
       <c r="N36" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O36" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O36" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) A Scientific Study of Transplanting Date effect on Infestation of Insect Pests of Cabbage. International Journal of Agricultural Sciences.9 (1): 41-46</v>
+        <v>Arya, S. (2018) Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria. International Journal of Agricultural Sciences.9 (2): 103-109</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="44">
         <v>36</v>
       </c>
-      <c r="B37" s="63" t="s">
-        <v>456</v>
-      </c>
-      <c r="C37" s="63" t="s">
+      <c r="B37" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="C37" s="62" t="s">
         <v>108</v>
       </c>
       <c r="D37" s="11">
@@ -5999,10 +5984,10 @@
         <v>9</v>
       </c>
       <c r="G37" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="I37" s="11">
         <v>7783</v>
@@ -6013,26 +5998,26 @@
       <c r="K37" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="69" t="s">
-        <v>109</v>
+      <c r="L37" s="67" t="s">
+        <v>112</v>
       </c>
       <c r="M37" s="44"/>
       <c r="N37" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O37" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O37" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Spectrophotometric Determination of Chromium in River Ganga water samples using 1,5-diphenyl carbazide at Kanpur, India-2018. International Journal of Environmental Science.9 (1): 36-39</v>
+        <v>Arya, S. (2018) Green Technology to combat environmental degradation and sustainable food production: A Review. International Journal of Environmental Science.9 (2): 118-123</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="44">
         <v>37</v>
       </c>
-      <c r="B38" s="63" t="s">
-        <v>447</v>
-      </c>
-      <c r="C38" s="63" t="s">
+      <c r="B38" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="C38" s="62" t="s">
         <v>106</v>
       </c>
       <c r="D38" s="11">
@@ -6048,7 +6033,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="I38" s="11">
         <v>62958</v>
@@ -6059,45 +6044,47 @@
       <c r="K38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="M38" s="44"/>
+      <c r="L38" s="66" t="s">
+        <v>549</v>
+      </c>
+      <c r="M38" s="44" t="s">
+        <v>548</v>
+      </c>
       <c r="N38" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O38" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O38" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria. International Journal of Agricultural Sciences.9 (2): 103-109</v>
+        <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences.9 (2): 110-114</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="44">
         <v>38</v>
       </c>
-      <c r="B39" s="63" t="s">
-        <v>446</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>108</v>
+      <c r="B39" s="62" t="s">
+        <v>417</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>102</v>
       </c>
       <c r="D39" s="11">
         <v>2018</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F39" s="44">
         <v>9</v>
       </c>
       <c r="G39" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="I39" s="11">
-        <v>7783</v>
+        <v>7775</v>
       </c>
       <c r="J39" s="11">
         <v>1</v>
@@ -6105,45 +6092,47 @@
       <c r="K39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="M39" s="44"/>
+      <c r="L39" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="M39" s="64" t="s">
+        <v>545</v>
+      </c>
       <c r="N39" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O39" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O39" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Green Technology to combat environmental degradation and sustainable food production: A Review. International Journal of Environmental Science.9 (2): 118-123</v>
+        <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences.9 (1): 162-165</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="44">
         <v>39</v>
       </c>
-      <c r="B40" s="63" t="s">
-        <v>402</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>106</v>
+      <c r="B40" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>117</v>
       </c>
       <c r="D40" s="11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="F40" s="44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G40" s="44">
         <v>2</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I40" s="11">
-        <v>62958</v>
+        <v>40827</v>
       </c>
       <c r="J40" s="11">
         <v>1</v>
@@ -6151,45 +6140,47 @@
       <c r="K40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="M40" s="44"/>
+      <c r="L40" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="M40" s="44" t="s">
+        <v>119</v>
+      </c>
       <c r="N40" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O40" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O40" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences.9 (2): 110-114</v>
+        <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation.4 (2): 111-117</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="44">
         <v>40</v>
       </c>
-      <c r="B41" s="63" t="s">
-        <v>424</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>102</v>
+      <c r="B41" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>121</v>
       </c>
       <c r="D41" s="11">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F41" s="44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G41" s="44">
-        <v>1</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>423</v>
+        <v>8</v>
+      </c>
+      <c r="H41" s="65" t="s">
+        <v>445</v>
       </c>
       <c r="I41" s="11">
-        <v>7775</v>
+        <v>40880</v>
       </c>
       <c r="J41" s="11">
         <v>1</v>
@@ -6197,93 +6188,95 @@
       <c r="K41" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="M41" s="44"/>
+      <c r="L41" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="N41" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O41" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O41" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences.9 (1): 162-165</v>
+        <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika.6 (8): 1-3</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="44">
         <v>41</v>
       </c>
-      <c r="B42" s="63" t="s">
-        <v>416</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>118</v>
+      <c r="B42" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>125</v>
       </c>
       <c r="D42" s="11">
         <v>2019</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F42" s="44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G42" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="I42" s="11">
-        <v>40827</v>
+        <v>407</v>
+      </c>
+      <c r="I42" s="48" t="s">
+        <v>16</v>
       </c>
       <c r="J42" s="11">
         <v>1</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="L42" s="67" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M42" s="44" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="N42" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O42" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O42" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation.4 (2): 111-117</v>
+        <v>Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies.6 (3): 51-54</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="44">
         <v>42</v>
       </c>
-      <c r="B43" s="63" t="s">
-        <v>454</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>122</v>
+      <c r="B43" s="62" t="s">
+        <v>501</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>130</v>
       </c>
       <c r="D43" s="11">
         <v>2019</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F43" s="44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G43" s="44">
-        <v>8</v>
-      </c>
-      <c r="H43" s="66" t="s">
-        <v>452</v>
-      </c>
-      <c r="I43" s="11">
-        <v>40880</v>
+        <v>2</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="J43" s="11">
         <v>1</v>
@@ -6292,139 +6285,139 @@
         <v>25</v>
       </c>
       <c r="L43" s="67" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M43" s="44" t="s">
-        <v>124</v>
+        <v>413</v>
       </c>
       <c r="N43" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O43" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O43" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika.6 (8): 1-3</v>
+        <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations .1 (2): 87-89</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44">
         <v>43</v>
       </c>
-      <c r="B44" s="63" t="s">
-        <v>453</v>
-      </c>
-      <c r="C44" s="63" t="s">
-        <v>126</v>
+      <c r="B44" s="62" t="s">
+        <v>503</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="D44" s="11">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="F44" s="44">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G44" s="44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="I44" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J44" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L44" s="69" t="s">
-        <v>129</v>
+        <v>25</v>
+      </c>
+      <c r="L44" s="66" t="s">
+        <v>134</v>
       </c>
       <c r="M44" s="44" t="s">
-        <v>129</v>
+        <v>412</v>
       </c>
       <c r="N44" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O44" s="64" t="str">
+        <v>461</v>
+      </c>
+      <c r="O44" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies.6 (3): 51-54</v>
+        <v>Rani, D.; Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences.12 (2): 57-60</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44">
         <v>44</v>
       </c>
-      <c r="B45" s="63" t="s">
-        <v>509</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>131</v>
+      <c r="B45" s="62" t="s">
+        <v>504</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>136</v>
       </c>
       <c r="D45" s="11">
-        <v>2019</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>132</v>
+        <v>2021</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="F45" s="44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" s="44">
         <v>2</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>415</v>
+        <v>505</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J45" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" s="69" t="s">
-        <v>133</v>
+        <v>17</v>
+      </c>
+      <c r="L45" s="66" t="s">
+        <v>137</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="N45" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O45" s="64" t="str">
+        <v>462</v>
+      </c>
+      <c r="O45" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations .1 (2): 87-89</v>
+        <v>Chaudhary, V. K.; Arya, S.; Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences.5 (2): 95-99</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="44">
         <v>45</v>
       </c>
-      <c r="B46" s="63" t="s">
-        <v>511</v>
-      </c>
-      <c r="C46" s="63" t="s">
-        <v>89</v>
+      <c r="B46" s="62" t="s">
+        <v>506</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>139</v>
       </c>
       <c r="D46" s="11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="F46" s="44">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G46" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>16</v>
@@ -6433,142 +6426,142 @@
         <v>2</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46" s="67" t="s">
-        <v>135</v>
+        <v>17</v>
+      </c>
+      <c r="L46" s="66" t="s">
+        <v>140</v>
       </c>
       <c r="M46" s="44" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="N46" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="O46" s="64" t="str">
+        <v>463</v>
+      </c>
+      <c r="O46" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Rani, D.; Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences.12 (2): 57-60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Yadav, V.; Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation.4 (1): 221-226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="44">
         <v>46</v>
       </c>
-      <c r="B47" s="63" t="s">
-        <v>512</v>
-      </c>
-      <c r="C47" s="63" t="s">
-        <v>137</v>
+      <c r="B47" s="62" t="s">
+        <v>508</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="D47" s="11">
-        <v>2021</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>100</v>
+        <v>2022</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="F47" s="44">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G47" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J47" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="67" t="s">
-        <v>138</v>
+      <c r="L47" s="66" t="s">
+        <v>142</v>
       </c>
       <c r="M47" s="44" t="s">
-        <v>418</v>
+        <v>142</v>
       </c>
       <c r="N47" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="O47" s="64" t="str">
+        <v>463</v>
+      </c>
+      <c r="O47" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Chaudhary, V. K.; Arya, S.; Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences.5 (2): 95-99</v>
+        <v>Yadav, V.; Arya, S. (2022) POPULATION DYNAMICS OF MAJOR INSECT PESTS OF PEA (PISUM SATIVUM L.) IN RELATION TO WEATHER PARAMETERS IN KANPUR, UTTAR PRADESH. International Journal on Biological Sciences.13 (1): 92-96</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="44">
         <v>47</v>
       </c>
-      <c r="B48" s="63" t="s">
-        <v>514</v>
-      </c>
-      <c r="C48" s="63" t="s">
-        <v>140</v>
+      <c r="B48" s="62" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>144</v>
       </c>
       <c r="D48" s="11">
         <v>2022</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F48" s="44">
         <v>4</v>
       </c>
       <c r="G48" s="44">
-        <v>1</v>
-      </c>
-      <c r="H48" s="44" t="s">
-        <v>515</v>
+        <v>10</v>
+      </c>
+      <c r="H48" s="70" t="s">
+        <v>517</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J48" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="M48" s="44" t="s">
-        <v>417</v>
+        <v>25</v>
+      </c>
+      <c r="L48" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>146</v>
       </c>
       <c r="N48" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="O48" s="64" t="str">
+        <v>464</v>
+      </c>
+      <c r="O48" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Yadav, V.; Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation.4 (1): 221-226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Arya, S.; Sudhakar, P.; Dwivedi, N. (2022) Pesticides and Its Impact on Biodiversity and Environment. ICONIC RESEARCH AND ENGINEERING JOURNALS.4 (10): 12-15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="44">
         <v>48</v>
       </c>
-      <c r="B49" s="63" t="s">
-        <v>516</v>
-      </c>
-      <c r="C49" s="63" t="s">
-        <v>89</v>
+      <c r="B49" s="62" t="s">
+        <v>513</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>148</v>
       </c>
       <c r="D49" s="11">
         <v>2022</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>90</v>
+      <c r="E49" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="F49" s="44">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G49" s="44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>16</v>
@@ -6579,474 +6572,476 @@
       <c r="K49" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L49" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="M49" s="44" t="s">
-        <v>143</v>
+      <c r="L49" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>149</v>
       </c>
       <c r="N49" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="O49" s="64" t="str">
+        <v>465</v>
+      </c>
+      <c r="O49" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Yadav, V.; Arya, S. (2022) POPULATION DYNAMICS OF MAJOR INSECT PESTS OF PEA (PISUM SATIVUM L.) IN RELATION TO WEATHER PARAMETERS IN KANPUR, UTTAR PRADESH. International Journal on Biological Sciences.13 (1): 92-96</v>
+        <v>Dubey, I.; Arya, S. (2022) Fish Diversity and Climate Change: A Review. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.5 (7): 88-91</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="44">
         <v>49</v>
       </c>
-      <c r="B50" s="63" t="s">
-        <v>518</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>145</v>
+      <c r="B50" s="71" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>148</v>
       </c>
       <c r="D50" s="11">
         <v>2022</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>146</v>
+      <c r="E50" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="F50" s="44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G50" s="44">
-        <v>10</v>
-      </c>
-      <c r="H50" s="72" t="s">
-        <v>525</v>
+        <v>3</v>
+      </c>
+      <c r="H50" s="65" t="s">
+        <v>516</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J50" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="67" t="s">
-        <v>147</v>
-      </c>
-      <c r="M50" s="19" t="s">
-        <v>147</v>
+        <v>17</v>
+      </c>
+      <c r="L50" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="M50" s="44" t="s">
+        <v>151</v>
       </c>
       <c r="N50" s="46" t="s">
-        <v>472</v>
-      </c>
-      <c r="O50" s="64" t="str">
+        <v>466</v>
+      </c>
+      <c r="O50" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Sudhakar, P.; Dwivedi, N. (2022) Pesticides and Its Impact on Biodiversity and Environment. ICONIC RESEARCH AND ENGINEERING JOURNALS.4 (10): 12-15</v>
+        <v>Singh, R.; Sunita, A. (2022) Seasonal Variation in Phytoplankton Diversity in River Sai at Unnao District of U.P. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.6 (3): 5-8</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="44">
         <v>50</v>
       </c>
-      <c r="B51" s="63" t="s">
-        <v>521</v>
-      </c>
-      <c r="C51" s="63" t="s">
-        <v>149</v>
+      <c r="B51" s="71" t="s">
+        <v>515</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>153</v>
       </c>
       <c r="D51" s="11">
-        <v>2022</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>146</v>
+        <v>2023</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="F51" s="44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G51" s="44">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="J51" s="11">
         <v>2</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L51" s="67" t="s">
-        <v>150</v>
-      </c>
-      <c r="M51" s="19" t="s">
-        <v>150</v>
+        <v>25</v>
+      </c>
+      <c r="L51" s="78" t="s">
+        <v>547</v>
+      </c>
+      <c r="M51" s="44" t="s">
+        <v>546</v>
       </c>
       <c r="N51" s="46" t="s">
-        <v>473</v>
-      </c>
-      <c r="O51" s="64" t="str">
+        <v>467</v>
+      </c>
+      <c r="O51" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Dubey, I.; Arya, S. (2022) Fish Diversity and Climate Change: A Review. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.5 (7): 88-91</v>
+        <v>Arya, S.; Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations.9 (1): 392 – 397</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="44">
         <v>51</v>
       </c>
-      <c r="B52" s="73" t="s">
-        <v>522</v>
-      </c>
-      <c r="C52" s="63" t="s">
-        <v>149</v>
+      <c r="B52" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="71" t="s">
+        <v>157</v>
       </c>
       <c r="D52" s="11">
-        <v>2022</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>146</v>
+        <v>2023</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="F52" s="44">
+        <v>8</v>
+      </c>
+      <c r="G52" s="44">
         <v>6</v>
       </c>
-      <c r="G52" s="44">
-        <v>3</v>
-      </c>
-      <c r="H52" s="66" t="s">
-        <v>524</v>
+      <c r="H52" s="44" t="s">
+        <v>526</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="J52" s="11">
         <v>2</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L52" s="67" t="s">
-        <v>152</v>
+        <v>25</v>
+      </c>
+      <c r="L52" s="66" t="s">
+        <v>525</v>
       </c>
       <c r="M52" s="44" t="s">
-        <v>152</v>
+        <v>525</v>
       </c>
       <c r="N52" s="46" t="s">
-        <v>474</v>
-      </c>
-      <c r="O52" s="64" t="str">
+        <v>467</v>
+      </c>
+      <c r="O52" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Singh, R.; Sunita, A. (2022) Seasonal Variation in Phytoplankton Diversity in River Sai at Unnao District of U.P. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.6 (3): 5-8</v>
+        <v>Arya, S.; Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research.8 (6): 50-52</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="44">
         <v>52</v>
       </c>
-      <c r="B53" s="73" t="s">
-        <v>523</v>
-      </c>
-      <c r="C53" s="63" t="s">
-        <v>154</v>
+      <c r="B53" s="71" t="s">
+        <v>524</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>125</v>
       </c>
       <c r="D53" s="11">
         <v>2023</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F53" s="44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="J53" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="67" t="s">
-        <v>157</v>
-      </c>
-      <c r="M53" s="44"/>
+        <v>17</v>
+      </c>
+      <c r="L53" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="M53" s="44" t="s">
+        <v>161</v>
+      </c>
       <c r="N53" s="46" t="s">
-        <v>475</v>
-      </c>
-      <c r="O53" s="64" t="str">
+        <v>468</v>
+      </c>
+      <c r="O53" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations.9 (1): 392 – 397</v>
+        <v>Goel, R.; Arya, S.; Rani, D.; Shukla, G. (2023) Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.. International Journal of Fauna and Biological Studies.10 (3): 16-18</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="44">
         <v>53</v>
       </c>
-      <c r="B54" s="73" t="s">
-        <v>158</v>
+      <c r="B54" s="72" t="s">
+        <v>520</v>
       </c>
       <c r="C54" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="11">
+        <v>89</v>
+      </c>
+      <c r="D54" s="16">
         <v>2023</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>160</v>
+      <c r="E54" s="45" t="s">
+        <v>90</v>
       </c>
       <c r="F54" s="44">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G54" s="44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H54" s="44" t="s">
-        <v>534</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="J54" s="11">
+        <v>521</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="16">
         <v>2</v>
       </c>
-      <c r="K54" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L54" s="67" t="s">
-        <v>533</v>
-      </c>
-      <c r="M54" s="44" t="s">
-        <v>533</v>
+      <c r="K54" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="69" t="s">
+        <v>518</v>
+      </c>
+      <c r="M54" s="64" t="s">
+        <v>518</v>
       </c>
       <c r="N54" s="46" t="s">
-        <v>475</v>
-      </c>
-      <c r="O54" s="64" t="str">
+        <v>519</v>
+      </c>
+      <c r="O54" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research.8 (6): 50-52</v>
+        <v>Rani, K.; Singh, S.; Prakash, S.; Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences.14 (2): 74-80</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="44">
         <v>54</v>
       </c>
-      <c r="B55" s="73" t="s">
-        <v>532</v>
-      </c>
-      <c r="C55" s="63" t="s">
-        <v>126</v>
+      <c r="B55" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>89</v>
       </c>
       <c r="D55" s="11">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="F55" s="44">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G55" s="44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J55" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="M55" s="44" t="s">
-        <v>163</v>
+      <c r="L55" s="66" t="s">
+        <v>528</v>
+      </c>
+      <c r="M55" s="66" t="s">
+        <v>414</v>
       </c>
       <c r="N55" s="46" t="s">
-        <v>476</v>
-      </c>
-      <c r="O55" s="64" t="str">
+        <v>469</v>
+      </c>
+      <c r="O55" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Goel, R.; Arya, S.; Rani, D.; Shukla, G. (2023) Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.. International Journal of Fauna and Biological Studies.10 (3): 16-18</v>
+        <v>Goel, R.; Arya, S.; Singh, R. (2022) IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH). International Journal on Biological Sciences.13 (2): 109-111</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="44">
         <v>55</v>
       </c>
-      <c r="B56" s="74" t="s">
-        <v>528</v>
-      </c>
-      <c r="C56" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="D56" s="16">
-        <v>2023</v>
-      </c>
-      <c r="E56" s="45" t="s">
-        <v>90</v>
+      <c r="B56" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="F56" s="44">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G56" s="44">
-        <v>2</v>
-      </c>
-      <c r="H56" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="48" t="s">
         <v>529</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="16">
-        <v>2</v>
-      </c>
-      <c r="K56" s="47" t="s">
+      <c r="J56" s="11">
+        <v>4</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L56" s="71" t="s">
-        <v>164</v>
-      </c>
-      <c r="M56" s="65" t="s">
-        <v>526</v>
+      <c r="L56" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="M56" s="64" t="s">
+        <v>518</v>
       </c>
       <c r="N56" s="46" t="s">
-        <v>527</v>
-      </c>
-      <c r="O56" s="64" t="str">
+        <v>470</v>
+      </c>
+      <c r="O56" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Rani, K.; Singh, S.; Prakash, S.; Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences.14 (2): 74-80</v>
+        <v>Rani K.; Singh S.; Prakash S.; Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry.6 (1): 01-03</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="44">
         <v>56</v>
       </c>
-      <c r="B57" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="11">
-        <v>2022</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>90</v>
+      <c r="B57" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="16">
+        <v>2024</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>160</v>
       </c>
       <c r="F57" s="44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G57" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>535</v>
-      </c>
-      <c r="I57" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="16">
         <v>3</v>
       </c>
-      <c r="K57" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="67" t="s">
-        <v>536</v>
-      </c>
-      <c r="M57" s="67" t="s">
-        <v>421</v>
+      <c r="K57" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="M57" s="44" t="s">
+        <v>424</v>
       </c>
       <c r="N57" s="46" t="s">
-        <v>477</v>
-      </c>
-      <c r="O57" s="64" t="str">
+        <v>471</v>
+      </c>
+      <c r="O57" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Goel, R.; Arya, S.; Singh, R. (2022) IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH). International Journal on Biological Sciences.13 (2): 109-111</v>
+        <v>Arya, S.; Rani, D.; Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies.11 (1): 29-31</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="44">
         <v>57</v>
       </c>
-      <c r="B58" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" s="11">
+      <c r="B58" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="16">
         <v>2024</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>168</v>
+      <c r="E58" s="47" t="s">
+        <v>171</v>
       </c>
       <c r="F58" s="44">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G58" s="44">
-        <v>1</v>
-      </c>
-      <c r="H58" s="48" t="s">
-        <v>537</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="11">
-        <v>4</v>
-      </c>
-      <c r="K58" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="I58" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="J58" s="16">
+        <v>2</v>
+      </c>
+      <c r="K58" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="L58" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="M58" s="65" t="s">
-        <v>526</v>
+      <c r="L58" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="M58" s="44" t="s">
+        <v>476</v>
       </c>
       <c r="N58" s="46" t="s">
-        <v>478</v>
-      </c>
-      <c r="O58" s="64" t="str">
+        <v>477</v>
+      </c>
+      <c r="O58" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Rani K.; Singh S.; Prakash S.; Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry.6 (1): 01-03</v>
+        <v>Sachan, R.; Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. 27(2):1605-1608. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA.27 (2): 1605-1608</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="44">
         <v>58</v>
       </c>
-      <c r="B59" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="75" t="s">
-        <v>126</v>
+      <c r="B59" s="74" t="s">
+        <v>419</v>
+      </c>
+      <c r="C59" s="73" t="s">
+        <v>175</v>
       </c>
       <c r="D59" s="16">
         <v>2024</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="F59" s="44">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G59" s="44">
         <v>1</v>
       </c>
       <c r="H59" s="44" t="s">
-        <v>538</v>
+        <v>420</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>16</v>
@@ -7055,325 +7050,230 @@
         <v>3</v>
       </c>
       <c r="K59" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="L59" s="67" t="s">
-        <v>171</v>
+        <v>17</v>
+      </c>
+      <c r="L59" s="66" t="s">
+        <v>176</v>
       </c>
       <c r="M59" s="44" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="N59" s="46" t="s">
-        <v>479</v>
-      </c>
-      <c r="O59" s="64" t="str">
+        <v>472</v>
+      </c>
+      <c r="O59" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Rani, D.; Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies.11 (1): 29-31</v>
+        <v>Rani K.; Arya S.; Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations.6 (1): 58-64</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="44">
         <v>59</v>
       </c>
-      <c r="B60" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="D60" s="16">
+      <c r="B60" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="44">
         <v>2024</v>
       </c>
-      <c r="E60" s="47" t="s">
-        <v>174</v>
+      <c r="E60" s="44" t="s">
+        <v>145</v>
       </c>
       <c r="F60" s="44">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G60" s="44">
+        <v>3</v>
+      </c>
+      <c r="H60" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="I60" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="44">
         <v>2</v>
       </c>
-      <c r="H60" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="I60" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="J60" s="16">
-        <v>2</v>
-      </c>
-      <c r="K60" s="47" t="s">
+      <c r="K60" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L60" s="67" t="s">
-        <v>176</v>
+      <c r="L60" s="69" t="s">
+        <v>544</v>
       </c>
       <c r="M60" s="44" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="N60" s="46" t="s">
-        <v>485</v>
-      </c>
-      <c r="O60" s="64" t="str">
+        <v>478</v>
+      </c>
+      <c r="O60" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Sachan, R.; Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. 27(2):1605-1608. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA.27 (2): 1605-1608</v>
+        <v>Hemprabha; Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.8 (3): 478-485</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="44">
         <v>60</v>
       </c>
-      <c r="B61" s="76" t="s">
-        <v>426</v>
-      </c>
-      <c r="C61" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" s="16">
-        <v>2024</v>
-      </c>
-      <c r="E61" s="47" t="s">
-        <v>132</v>
+      <c r="B61" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="44">
+        <v>2025</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>145</v>
       </c>
       <c r="F61" s="44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G61" s="44">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H61" s="44" t="s">
-        <v>427</v>
-      </c>
-      <c r="I61" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I61" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="16">
-        <v>3</v>
-      </c>
-      <c r="K61" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="L61" s="67" t="s">
-        <v>179</v>
+      <c r="J61" s="44">
+        <v>2</v>
+      </c>
+      <c r="K61" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="68" t="s">
+        <v>182</v>
       </c>
       <c r="M61" s="44" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N61" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="O61" s="64" t="str">
+        <v>473</v>
+      </c>
+      <c r="O61" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Rani K.; Arya S.; Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations.6 (1): 58-64</v>
+        <v>Arya, S.; Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals.8 (7): 243-440</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44">
         <v>61</v>
       </c>
-      <c r="B62" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="64" t="s">
-        <v>149</v>
+      <c r="B62" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" s="63" t="s">
+        <v>125</v>
       </c>
       <c r="D62" s="44">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F62" s="44">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G62" s="44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="I62" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="I62" s="44" t="s">
         <v>16</v>
       </c>
       <c r="J62" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="M62" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="L62" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="M62" s="44" t="s">
+        <v>423</v>
+      </c>
       <c r="N62" s="46" t="s">
-        <v>486</v>
-      </c>
-      <c r="O62" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v>Hemprabha; Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.8 (3): 478-485</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="44">
-        <v>62</v>
-      </c>
-      <c r="B63" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="44">
-        <v>2025</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="F63" s="44">
-        <v>8</v>
-      </c>
-      <c r="G63" s="44">
-        <v>7</v>
-      </c>
-      <c r="H63" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="I63" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J63" s="44">
-        <v>2</v>
-      </c>
-      <c r="K63" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="L63" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="M63" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="N63" s="46" t="s">
-        <v>481</v>
-      </c>
-      <c r="O63" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S.; Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals.8 (7): 243-440</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="44">
-        <v>63</v>
-      </c>
-      <c r="B64" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" s="44">
-        <v>2025</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="F64" s="44">
-        <v>11</v>
-      </c>
-      <c r="G64" s="44">
-        <v>6</v>
-      </c>
-      <c r="H64" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="I64" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" s="44">
-        <v>1</v>
-      </c>
-      <c r="K64" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="L64" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="M64" s="44" t="s">
-        <v>430</v>
-      </c>
-      <c r="N64" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O64" s="64" t="str">
+        <v>451</v>
+      </c>
+      <c r="O62" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2025) Wetland Ecosystem: A better place for rich biodiversity. International Journal of Fauna and Biological Studies.11 (6): 106-110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L64" xr:uid="{B86B0C5F-3C7A-4DFA-8262-18CDDB72D407}"/>
+  <autoFilter ref="B1:L62" xr:uid="{B86B0C5F-3C7A-4DFA-8262-18CDDB72D407}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L58" r:id="rId1" xr:uid="{7E19164F-EB49-4909-A787-B1FC69338129}"/>
-    <hyperlink ref="L15" r:id="rId2" xr:uid="{E2B88607-DB60-48E0-9F3F-FE825FC5917E}"/>
-    <hyperlink ref="L24" r:id="rId3" xr:uid="{D3EED5D0-F187-4FB1-842E-42E68C009F81}"/>
-    <hyperlink ref="L28" r:id="rId4" xr:uid="{4C274FD2-A7B0-4E12-AB3E-59CA826AD20D}"/>
-    <hyperlink ref="L30" r:id="rId5" xr:uid="{E11545BE-04BC-49CB-92EC-8D3AFCADCCD1}"/>
-    <hyperlink ref="L31" r:id="rId6" xr:uid="{5D7D7EDC-EA41-43DE-A331-1ED93E38B86B}"/>
-    <hyperlink ref="L32" r:id="rId7" xr:uid="{03E9C74E-324C-44DC-91AB-CFECE4362CCB}"/>
-    <hyperlink ref="L35" r:id="rId8" xr:uid="{70D65AD5-1949-4097-8366-FDD3244281C0}"/>
-    <hyperlink ref="L37" r:id="rId9" xr:uid="{A6AE41EE-0DB0-44B7-B6A1-09B4A5C4D590}"/>
-    <hyperlink ref="L38" r:id="rId10" xr:uid="{6EC3FC89-2874-4391-9418-B15DF9BD17BA}"/>
-    <hyperlink ref="L39" r:id="rId11" xr:uid="{4E227E20-5D78-4960-828B-4FB892F69935}"/>
-    <hyperlink ref="L41" r:id="rId12" xr:uid="{97910863-7AED-4171-BE75-E63523C6DBD0}"/>
-    <hyperlink ref="L44" r:id="rId13" xr:uid="{CF80D6E9-FC01-41DE-AE5B-C18A8FEE4B61}"/>
-    <hyperlink ref="L45" r:id="rId14" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
-    <hyperlink ref="L11" r:id="rId15" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
-    <hyperlink ref="L51" r:id="rId16" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
-    <hyperlink ref="L59" r:id="rId17" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
-    <hyperlink ref="L55" r:id="rId18" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
-    <hyperlink ref="L61" r:id="rId19" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
-    <hyperlink ref="L21" r:id="rId20" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
-    <hyperlink ref="L7" r:id="rId21" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
-    <hyperlink ref="L8" r:id="rId22" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
-    <hyperlink ref="L9" r:id="rId23" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
-    <hyperlink ref="L13" r:id="rId24" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
-    <hyperlink ref="L14" r:id="rId25" xr:uid="{80FDBA11-959B-40DD-91C8-9FB22EE53E71}"/>
-    <hyperlink ref="L17" r:id="rId26" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
-    <hyperlink ref="L18" r:id="rId27" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
-    <hyperlink ref="L19" r:id="rId28" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
-    <hyperlink ref="L22" r:id="rId29" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
-    <hyperlink ref="L23" r:id="rId30" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
-    <hyperlink ref="L25" r:id="rId31" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
-    <hyperlink ref="L26" r:id="rId32" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
-    <hyperlink ref="L27" r:id="rId33" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
-    <hyperlink ref="L46" r:id="rId34" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
-    <hyperlink ref="L48" r:id="rId35" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
-    <hyperlink ref="L49" r:id="rId36" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
-    <hyperlink ref="L52" r:id="rId37" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
-    <hyperlink ref="L53" r:id="rId38" xr:uid="{C4E65291-7866-441F-8E8F-94BC1BA06B4F}"/>
-    <hyperlink ref="L10" r:id="rId39" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
-    <hyperlink ref="L47" r:id="rId40" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
-    <hyperlink ref="L50" r:id="rId41" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
-    <hyperlink ref="L62" r:id="rId42" xr:uid="{0327DD0E-6DA5-49D6-9CC4-1B38C4A2980B}"/>
-    <hyperlink ref="L56" r:id="rId43" xr:uid="{E180E522-832A-43AA-8FEE-2AFE4A7B28CF}"/>
-    <hyperlink ref="L43" r:id="rId44" xr:uid="{872B02A0-8CDA-4197-A702-BFA228F08936}"/>
-    <hyperlink ref="L42" r:id="rId45" xr:uid="{56154005-22EE-46E1-BAEB-960FED59AF79}"/>
-    <hyperlink ref="L63" r:id="rId46" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
-    <hyperlink ref="L2" r:id="rId47" xr:uid="{76145C34-11E1-440E-9C78-F166E68792B9}"/>
-    <hyperlink ref="L5" r:id="rId48" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
-    <hyperlink ref="L12" r:id="rId49" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
-    <hyperlink ref="M2" r:id="rId50" xr:uid="{2DF395FC-80D9-4991-BC01-C024251C5232}"/>
-    <hyperlink ref="M5" r:id="rId51" xr:uid="{EC21521E-1384-42BA-B6B8-E79BC84D15D8}"/>
-    <hyperlink ref="M51" r:id="rId52" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
-    <hyperlink ref="M50" r:id="rId53" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
-    <hyperlink ref="L64" r:id="rId54" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
-    <hyperlink ref="L16" r:id="rId55" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
-    <hyperlink ref="M12" r:id="rId56" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{BF082B39-9F1C-404A-8685-41BF3D8903AE}"/>
-    <hyperlink ref="L60" r:id="rId57" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
-    <hyperlink ref="M56" r:id="rId58" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
+    <hyperlink ref="L56" r:id="rId1" xr:uid="{7E19164F-EB49-4909-A787-B1FC69338129}"/>
+    <hyperlink ref="L13" r:id="rId2" xr:uid="{E2B88607-DB60-48E0-9F3F-FE825FC5917E}"/>
+    <hyperlink ref="L22" r:id="rId3" xr:uid="{D3EED5D0-F187-4FB1-842E-42E68C009F81}"/>
+    <hyperlink ref="L26" r:id="rId4" xr:uid="{4C274FD2-A7B0-4E12-AB3E-59CA826AD20D}"/>
+    <hyperlink ref="L28" r:id="rId5" xr:uid="{E11545BE-04BC-49CB-92EC-8D3AFCADCCD1}"/>
+    <hyperlink ref="L29" r:id="rId6" xr:uid="{5D7D7EDC-EA41-43DE-A331-1ED93E38B86B}"/>
+    <hyperlink ref="L30" r:id="rId7" xr:uid="{03E9C74E-324C-44DC-91AB-CFECE4362CCB}"/>
+    <hyperlink ref="L33" r:id="rId8" xr:uid="{70D65AD5-1949-4097-8366-FDD3244281C0}"/>
+    <hyperlink ref="L35" r:id="rId9" xr:uid="{A6AE41EE-0DB0-44B7-B6A1-09B4A5C4D590}"/>
+    <hyperlink ref="L36" r:id="rId10" xr:uid="{6EC3FC89-2874-4391-9418-B15DF9BD17BA}"/>
+    <hyperlink ref="L37" r:id="rId11" xr:uid="{4E227E20-5D78-4960-828B-4FB892F69935}"/>
+    <hyperlink ref="L39" r:id="rId12" xr:uid="{97910863-7AED-4171-BE75-E63523C6DBD0}"/>
+    <hyperlink ref="L42" r:id="rId13" xr:uid="{CF80D6E9-FC01-41DE-AE5B-C18A8FEE4B61}"/>
+    <hyperlink ref="L43" r:id="rId14" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
+    <hyperlink ref="L9" r:id="rId15" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
+    <hyperlink ref="L49" r:id="rId16" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
+    <hyperlink ref="L57" r:id="rId17" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
+    <hyperlink ref="L53" r:id="rId18" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
+    <hyperlink ref="L59" r:id="rId19" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
+    <hyperlink ref="L19" r:id="rId20" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
+    <hyperlink ref="L5" r:id="rId21" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
+    <hyperlink ref="L6" r:id="rId22" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
+    <hyperlink ref="L7" r:id="rId23" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
+    <hyperlink ref="L11" r:id="rId24" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
+    <hyperlink ref="L12" r:id="rId25" xr:uid="{80FDBA11-959B-40DD-91C8-9FB22EE53E71}"/>
+    <hyperlink ref="L15" r:id="rId26" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
+    <hyperlink ref="L16" r:id="rId27" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
+    <hyperlink ref="L17" r:id="rId28" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
+    <hyperlink ref="L20" r:id="rId29" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
+    <hyperlink ref="L21" r:id="rId30" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
+    <hyperlink ref="L23" r:id="rId31" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
+    <hyperlink ref="L24" r:id="rId32" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
+    <hyperlink ref="L25" r:id="rId33" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
+    <hyperlink ref="L44" r:id="rId34" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
+    <hyperlink ref="L46" r:id="rId35" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
+    <hyperlink ref="L47" r:id="rId36" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
+    <hyperlink ref="L50" r:id="rId37" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
+    <hyperlink ref="L8" r:id="rId38" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
+    <hyperlink ref="L45" r:id="rId39" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
+    <hyperlink ref="L48" r:id="rId40" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
+    <hyperlink ref="L41" r:id="rId41" xr:uid="{872B02A0-8CDA-4197-A702-BFA228F08936}"/>
+    <hyperlink ref="L40" r:id="rId42" xr:uid="{56154005-22EE-46E1-BAEB-960FED59AF79}"/>
+    <hyperlink ref="L61" r:id="rId43" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
+    <hyperlink ref="L2" r:id="rId44" xr:uid="{76145C34-11E1-440E-9C78-F166E68792B9}"/>
+    <hyperlink ref="L3" r:id="rId45" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
+    <hyperlink ref="L10" r:id="rId46" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
+    <hyperlink ref="M2" r:id="rId47" xr:uid="{2DF395FC-80D9-4991-BC01-C024251C5232}"/>
+    <hyperlink ref="M3" r:id="rId48" xr:uid="{EC21521E-1384-42BA-B6B8-E79BC84D15D8}"/>
+    <hyperlink ref="M49" r:id="rId49" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
+    <hyperlink ref="M48" r:id="rId50" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
+    <hyperlink ref="L62" r:id="rId51" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
+    <hyperlink ref="L14" r:id="rId52" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
+    <hyperlink ref="M10" r:id="rId53" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{BF082B39-9F1C-404A-8685-41BF3D8903AE}"/>
+    <hyperlink ref="L58" r:id="rId54" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
+    <hyperlink ref="M54" r:id="rId55" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
+    <hyperlink ref="M39" r:id="rId56" display="https://d1wqtxts1xzle7.cloudfront.net/108239524/SCN_20231203_120408-libre.pdf?1701586266=&amp;response-content-disposition=attachment%3B+filename%3DBIOMETRICAL_STUDIES_OF_FLORIBUNDA_ROSES.pdf&amp;Expires=1749993558&amp;Signature=TxA5QiORXLoyvrxDAtIqcQTeLXKajxYBtxpBs6b8BR4LU4DNbHjhJz7jmmuzT1JSaE~9I~nE8YkzsUgrxLf25JBGosR0YMZL2ldDkI9S1~yBeKFMF3DkpF2GndzU3UCRhaz0atlC~Bbru-5rEbIy6nHpPypJ0TRByAaHqccY3si8e07o9qfnGgb2sUKdj1A8ZUBekIYQjRKOzJMH~JhLLDJHtCpaAj-WuKrpn39rMEtMtiTxxuAcxuuZ~CtFjCsq44jy14qY-dWbBkdH-W4WhFj8G5hWnlMfZGOa~7I3b6dkggl0tac~FAtErtUJdx83Pz9Btttk5NjyQdjU9MgniQ__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{CB91AAC4-A03A-4A03-B1A5-57611EB64069}"/>
+    <hyperlink ref="L51" r:id="rId57" xr:uid="{BFBD829C-70D8-4D10-A350-B9C048F965D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId59"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId58"/>
 </worksheet>
 </file>
 
@@ -7384,8 +7284,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="84" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7400,13 +7300,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -7415,277 +7315,277 @@
         <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D2" s="16">
         <v>2005</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G2" s="16">
         <v>3</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D3" s="16">
         <v>2017</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G3" s="16">
         <v>2</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D4" s="16">
         <v>2017</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G4" s="16">
         <v>2</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D5" s="16">
         <v>2017</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G5" s="16">
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D7" s="16">
         <v>2020</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G7" s="16">
         <v>2</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D8" s="16">
         <v>2021</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D9" s="16">
         <v>2022</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G9" s="16">
         <v>2</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D10" s="16">
         <v>2023</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
@@ -7693,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D11" s="16">
         <v>2024</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G11" s="16">
         <v>1</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -7722,60 +7622,60 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D12" s="16">
         <v>2024</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="77" t="s">
-        <v>540</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>541</v>
-      </c>
-      <c r="D13" s="77">
+      <c r="B13" s="75" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>533</v>
+      </c>
+      <c r="D13" s="75">
         <v>2024</v>
       </c>
-      <c r="E13" s="77" t="s">
-        <v>542</v>
-      </c>
-      <c r="F13" s="77" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="77">
-        <v>1</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>543</v>
+      <c r="E13" s="75" t="s">
+        <v>534</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="75">
+        <v>1</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>535</v>
       </c>
       <c r="I13" t="s">
-        <v>544</v>
-      </c>
-      <c r="J13" s="78" t="s">
-        <v>541</v>
+        <v>536</v>
+      </c>
+      <c r="J13" s="76" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -7786,10 +7686,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2AA03A-5971-4793-B637-FA18797D9660}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7801,54 +7701,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>551</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -7873,287 +7765,287 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -8170,8 +8062,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8183,86 +8075,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54" t="s">
-        <v>551</v>
+        <v>325</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="54" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="54" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -8289,27 +8181,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" t="s">
         <v>337</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>338</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>339</v>
-      </c>
-      <c r="D1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -8330,7 +8222,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B3">
         <v>9.6999999999999993</v>
@@ -8392,10 +8284,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -8538,7 +8430,7 @@
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>30</v>
@@ -8561,7 +8453,7 @@
     </row>
     <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>30</v>
@@ -8699,7 +8591,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>54</v>
@@ -9251,7 +9143,7 @@
     </row>
     <row r="39" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>108</v>
@@ -9274,7 +9166,7 @@
     </row>
     <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>106</v>
@@ -9297,7 +9189,7 @@
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>102</v>
@@ -9320,16 +9212,16 @@
     </row>
     <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="C42" s="11">
         <v>2019</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>25</v>
@@ -9343,16 +9235,16 @@
     </row>
     <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="C43" s="11">
         <v>2019</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>25</v>
@@ -9366,19 +9258,19 @@
     </row>
     <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="C44" s="11">
         <v>2019</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -9389,16 +9281,16 @@
     </row>
     <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="C45" s="11">
         <v>2019</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>25</v>
@@ -9412,7 +9304,7 @@
     </row>
     <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>89</v>
@@ -9435,10 +9327,10 @@
     </row>
     <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="C47" s="11">
         <v>2021</v>
@@ -9458,16 +9350,16 @@
     </row>
     <row r="48" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="C48" s="11">
         <v>2022</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>17</v>
@@ -9481,7 +9373,7 @@
     </row>
     <row r="49" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>89</v>
@@ -9504,16 +9396,16 @@
     </row>
     <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="C50" s="11">
         <v>2022</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>25</v>
@@ -9527,16 +9419,16 @@
     </row>
     <row r="51" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="C51" s="11">
         <v>2022</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>17</v>
@@ -9550,16 +9442,16 @@
     </row>
     <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="11">
         <v>2022</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>17</v>
@@ -9573,16 +9465,16 @@
     </row>
     <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="C53" s="11">
         <v>2023</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>25</v>
@@ -9596,16 +9488,16 @@
     </row>
     <row r="54" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C54" s="11">
         <v>2023</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>25</v>
@@ -9619,16 +9511,16 @@
     </row>
     <row r="55" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" s="11">
         <v>2023</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>17</v>
@@ -9642,7 +9534,7 @@
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="26" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>89</v>
@@ -9665,7 +9557,7 @@
     </row>
     <row r="57" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>89</v>
@@ -9688,16 +9580,16 @@
     </row>
     <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C58" s="11">
         <v>2024</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>17</v>
@@ -9711,16 +9603,16 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" s="23">
         <v>2024</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>25</v>
@@ -9734,16 +9626,16 @@
     </row>
     <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C60" s="23">
         <v>2024</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>17</v>
@@ -9757,16 +9649,16 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C61" s="4">
         <v>2024</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>17</v>
@@ -9780,16 +9672,16 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C62" s="6">
         <v>2024</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" s="36" t="s">
         <v>17</v>
@@ -9804,16 +9696,16 @@
     </row>
     <row r="63" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C63" s="16">
         <v>2005</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -9824,16 +9716,16 @@
     </row>
     <row r="64" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C64" s="16">
         <v>2017</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -9844,16 +9736,16 @@
     </row>
     <row r="65" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C65" s="16">
         <v>2017</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -9864,16 +9756,16 @@
     </row>
     <row r="66" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C66" s="16">
         <v>2017</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -9884,16 +9776,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>227</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -9904,16 +9796,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C68" s="16">
         <v>2020</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9924,16 +9816,16 @@
     </row>
     <row r="69" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C69" s="16">
         <v>2021</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9944,16 +9836,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C70" s="16">
         <v>2022</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9964,16 +9856,16 @@
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C71" s="16">
         <v>2023</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9984,16 +9876,16 @@
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="38" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C72" s="40">
         <v>2024</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E72"/>
       <c r="F72">
@@ -10005,16 +9897,16 @@
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C73" s="43">
         <v>2024</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E73"/>
       <c r="F73">
@@ -10042,19 +9934,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" t="s">
         <v>352</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>353</v>
-      </c>
-      <c r="C1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -10096,7 +9988,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -10104,7 +9996,7 @@
     </row>
     <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -10112,7 +10004,7 @@
     </row>
     <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -10120,7 +10012,7 @@
     </row>
     <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -10128,7 +10020,7 @@
     </row>
     <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -10136,7 +10028,7 @@
     </row>
     <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -10144,7 +10036,7 @@
     </row>
     <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -10152,7 +10044,7 @@
     </row>
     <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -10160,7 +10052,7 @@
     </row>
     <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -10168,7 +10060,7 @@
     </row>
     <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -10176,7 +10068,7 @@
     </row>
     <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -10184,7 +10076,7 @@
     </row>
     <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -10192,7 +10084,7 @@
     </row>
     <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -10200,7 +10092,7 @@
     </row>
     <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
@@ -10208,7 +10100,7 @@
     </row>
     <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
@@ -10216,7 +10108,7 @@
     </row>
     <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -10224,7 +10116,7 @@
     </row>
     <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
@@ -10232,7 +10124,7 @@
     </row>
     <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
@@ -10240,7 +10132,7 @@
     </row>
     <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
@@ -10248,7 +10140,7 @@
     </row>
     <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
@@ -10256,7 +10148,7 @@
     </row>
     <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
@@ -10264,7 +10156,7 @@
     </row>
     <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
@@ -10272,7 +10164,7 @@
     </row>
     <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/public/db/Research Publications.xlsx
+++ b/public/db/Research Publications.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ritwik Sharma\OneDrive\Sunita Arya\Biodata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/Biodata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD02736-9AB7-4BB3-B5BB-078320EDE1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="551" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E014BB-3B6C-48F7-BB10-07F9D98853EA}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="480" windowWidth="22272" windowHeight="11376" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="557">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -220,9 +220,6 @@
     <t>2395 -2946</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/publication/324475375_Evaluation_of_Water_Quality_in_River_Ganga_Due_To_Contaminant_of_Heavy_Metals_Kanpur_India</t>
-  </si>
-  <si>
     <t>Academic Social Research</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>Vermicomposting: Profitable Organic Fertilizer, 4(1): 7-10</t>
   </si>
   <si>
-    <t>https://asr.academicsocialresearch.co.in/index.php/ASR/article/view/681/620</t>
-  </si>
-  <si>
     <t>Bio-efficacy of insect pests of Brinzal (Solanummelongena), 9(1): 52-55</t>
   </si>
   <si>
@@ -334,9 +328,6 @@
     <t>0976-4518</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/publication/377844715_Chromium_Cr6_Toxicity_and_its_Adverse_Health_Effect_on_Fresh_Water_Fish_A_Review_Article</t>
-  </si>
-  <si>
     <t>Insect Pest and Diseases of Roses: Symptoms and Control Measures 4(1): 312-319</t>
   </si>
   <si>
@@ -394,6 +385,9 @@
     <t>Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria, 9(2): 103-109</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.researchgate.net/publication/376173511_Effect_of_herbal_formulations_on_lemon_grass_oil_and_Basil_oil_on_MDR_Bacteria </t>
+  </si>
+  <si>
     <t>Green Technology to combat environmental degradation and sustainable food production: A Review, 9(2):118-123</t>
   </si>
   <si>
@@ -406,9 +400,6 @@
     <t>Biometrical Studies of Floribunda Roses, 9(1): 162-165</t>
   </si>
   <si>
-    <t>https://www.academia.edu/110414531/BIOMETRICAL_STUDIES_OF_FLORIBUNDA_ROSES</t>
-  </si>
-  <si>
     <t>Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop, 4(2): 111-117</t>
   </si>
   <si>
@@ -545,6 +536,9 @@
   </si>
   <si>
     <t>https://www.faunajournal.com/archives/2023/vol10issue3/PartA/10-3-2-226.pdf</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/378460110_A_REVIEW_ON_BEHAVIOR_OF_MUSCOVY_DUCK_CAIRINA_MOSCHATA</t>
   </si>
   <si>
     <t>IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH)</t>
@@ -2844,15 +2838,15 @@
     <t>110-114</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/380743337_ASSOCIATION_STUDIES_IN_ROSES/links/684c0cece514057e393fde58/ASSOCIATION-STUDIES-IN-ROSES.pdf</t>
-  </si>
-  <si>
     <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392655251_Investigation_on_phenotypic_correlation_in_gladiolus_genotype/links/684c0e7d34470a1134eaaf91/Investigation-on-phenotypic-correlation-in-gladiolus-genotype.pdf</t>
   </si>
   <si>
     <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392655423_Population_Dynamics_of_lemon_butterfly_in_citrus_crop/links/684c1177131a7f2849f14e08/Population-Dynamics-of-lemon-butterfly-in-citrus-crop.pdf</t>
   </si>
   <si>
+    <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392654994_Insect_Pest_Management_of_Cabbage_with_the_help_of_ITK_Cow_Urine/links/684c1393131a7f2849f14e2d/Insect-Pest-Management-of-Cabbage-with-the-help-of-ITK-Cow-Urine.pdf</t>
+  </si>
+  <si>
     <t>International Research and Reviews</t>
   </si>
   <si>
@@ -2946,9 +2940,6 @@
     <t>118-123</t>
   </si>
   <si>
-    <t>Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review articles</t>
-  </si>
-  <si>
     <t>312-319</t>
   </si>
   <si>
@@ -3019,9 +3010,6 @@
   </si>
   <si>
     <t>Madhulekha; Arya, S.</t>
-  </si>
-  <si>
-    <t>Madhulekha, S.; Arya, S.</t>
   </si>
   <si>
     <t>Arya, S.; Dubey, R.K.</t>
@@ -3302,28 +3290,58 @@
     <t>https://naturelightpublications.com/wp-content/uploads/2024/09/Environment-and-Society-2023.pdf</t>
   </si>
   <si>
+    <t>https://www.irejournals.com/formatedpaper/1706341.pdf</t>
+  </si>
+  <si>
     <t>Suppl</t>
   </si>
   <si>
-    <t>https://www.irejournals.com/formatedpaper/1706341.pdf</t>
-  </si>
-  <si>
-    <t>https://d1wqtxts1xzle7.cloudfront.net/108239524/SCN_20231203_120408-libre.pdf?1701586266=&amp;response-content-disposition=attachment%3B+filename%3DBIOMETRICAL_STUDIES_OF_FLORIBUNDA_ROSES.pdf&amp;Expires=1749993558&amp;Signature=TxA5QiORXLoyvrxDAtIqcQTeLXKajxYBtxpBs6b8BR4LU4DNbHjhJz7jmmuzT1JSaE~9I~nE8YkzsUgrxLf25JBGosR0YMZL2ldDkI9S1~yBeKFMF3DkpF2GndzU3UCRhaz0atlC~Bbru-5rEbIy6nHpPypJ0TRByAaHqccY3si8e07o9qfnGgb2sUKdj1A8ZUBekIYQjRKOzJMH~JhLLDJHtCpaAj-WuKrpn39rMEtMtiTxxuAcxuuZ~CtFjCsq44jy14qY-dWbBkdH-W4WhFj8G5hWnlMfZGOa~7I3b6dkggl0tac~FAtErtUJdx83Pz9Btttk5NjyQdjU9MgniQ__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
-  </si>
-  <si>
-    <t>https://ijzi.net/Issue/0253335665IssueMS44.pdf</t>
+    <t>https://www.academia.edu/129962993/ASSOCIATION_STUDIES_IN_ROSES</t>
+  </si>
+  <si>
+    <t>https://d1wqtxts1xzle7.cloudfront.net/123292727/ASSOCIATION_STUDIES_IN_ROSES.pdf?1749991358=&amp;response-content-disposition=attachment%3B+filename%3DASSOCIATION_STUDIES_IN_ROSES.pdf&amp;Expires=1749995193&amp;Signature=aRx-d8ac9A8kzc1gx~rJ~6eoWaFzS4PqqDzlf0juPxP7xd3pB~ANbxX4QwE8YQlvtvw-L5VpptSzTr4eK~AFZqD7cF4lboDVRcePuZFbgMJDWM2WIB4Yc05k8iA8XSNgt017X641kNpeWpn14Gs-j08B9l7hKkl3Eq6NJ5-CfXfI1oMtEatYb9cpDgcBME~xlcfbWKwRgh0Jfwf2zj251jEb-Eb9NTffjINA~hbiE3IsFSJLdWeuLYkY4ZcVgxSeMuH0nA7bassIVwGqD-8g6CpOvnH9mtYbkoqxMQlZTX5k3s5jV6bDsA6KqXwwYl4zVGZ7CBPiEW6OtXDubxgVSg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
+  </si>
+  <si>
+    <t>Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392655251_Investigation_on_phenotypic_correlation_in_gladiolus_genotype</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15669102/files/VERMICOMPOSTING-%20PROFITABLE%20ORGANIC%20FERTILIZER.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15669102</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15669147</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15669147/files/Biometrical%20Studies%20of%20Floribunda%20Roses.pdf?download=1</t>
   </si>
   <si>
     <t>https://doi.org/10.33745/ijzi.2023.v09i01.044</t>
   </si>
   <si>
-    <t>https://d1wqtxts1xzle7.cloudfront.net/123292489/Insect_Pest_Management_of_Cabbage_with_the_help_of_ITK_Cow_Urine.pdf?1749990533=&amp;response-content-disposition=attachment%3B+filename%3DInsect_Pest_Management_of_Cabbage_with_t.pdf&amp;Expires=1749994323&amp;Signature=YnZAWN3CtX4osXCqlhwd-mFOMrrcG2HY9z9s4~AEL8ETz5ERk6afmuG3-1qW3hB3eu4qhvR3bLiNpBK4pB20GrDeL0M7-ZVIFRBI4YFhJfwqnTBJObcXSFad59BbAriWPX1b~Ywm7GVEdcwrSBHXbAXVv5-GKCNiE2tW4HK5vTBqwjvqEzkIGvdsFQsaYjSHz5zIyzYSYFgJ-4wYEHmsMgcsNmcf8FvH1zmoovjNNAW6kpMDZXyHQqJyyMGF55Eps6KldNNFzEfbhcUjRT7VrCB63BEt8m5g7wOGZfnymwSPlNpcWzuHGXm18~~bEVuliVc0OvTAL~Nz~gefc1S1ag__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
-  </si>
-  <si>
-    <t>https://www.academia.edu/129962772/Insect_Pest_Management_of_Cabbage_with_the_help_of_ITK_Cow_Urine</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/376173511_Effect_of_herbal_formulations_on_lemon_grass_oil_and_Basil_oil_on_MDR_Bacteria</t>
+    <t>Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India)</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.15669228</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15669228/files/Evaluation%20of%20Water%20Quality%20in%20River%20Ganga%20Due%20to%20Contaminant%20of%20Heavy%20Metals,%20Kanpur%20(India).pdf?download=1</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15670013/files/Studies%20on%20Pathogenicity%20of%20Nematode%20Infecting%20Roses.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15670053</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15670053/files/Chromium%20(Cr+6)%20Toxicity%20and%20its%20Adverse%20Health%20Effect%20on%20Fresh%20Water%20Fish-%20A%20Review%20Article.pdf</t>
+  </si>
+  <si>
+    <t>Arya, S.; Shukla, M.</t>
   </si>
 </sst>
 </file>
@@ -3333,7 +3351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3493,6 +3511,17 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3700,7 +3729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3924,6 +3953,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -4246,11 +4281,11 @@
   </sheetPr>
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="J23" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="75.33203125" style="6" customWidth="1"/>
@@ -4260,7 +4295,7 @@
     <col min="6" max="6" width="13.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="6" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" style="6" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" style="6" customWidth="1"/>
     <col min="12" max="12" width="51.88671875" customWidth="1"/>
@@ -4269,12 +4304,12 @@
     <col min="16" max="16384" width="30.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="43.2" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C1" s="60" t="s">
         <v>2</v>
@@ -4306,28 +4341,28 @@
       <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="43.2" customHeight="1">
       <c r="A2" s="44">
         <v>1</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>14</v>
+      <c r="D2" s="11">
+        <v>1994</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>15</v>
@@ -4339,7 +4374,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>16</v>
@@ -4351,25 +4386,25 @@
         <v>17</v>
       </c>
       <c r="L2" s="66" t="s">
-        <v>398</v>
+        <v>541</v>
       </c>
       <c r="M2" s="61" t="s">
-        <v>398</v>
+        <v>542</v>
       </c>
       <c r="N2" s="46" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O2" s="63" t="str">
         <f>_xlfn.CONCAT(N2," (",D2,") ",B2, ". ", C2, ".", F2, " (",G2,"): ",H2)</f>
-        <v>Tewari, U.C.; Kumar, R.; Arya, S. (1994-96) Association Studies in Roses. Farm Science Journal.6 (9): 189-191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Tewari, U.C.; Kumar, R.; Arya, S. (1994) Association Studies in Roses. Farm Science Journal.6 (9): 189-191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.2" customHeight="1">
       <c r="A3" s="44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" s="62" t="s">
         <v>24</v>
@@ -4387,7 +4422,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>16</v>
@@ -4399,25 +4434,25 @@
         <v>25</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M3" s="61" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N3" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O3" s="63" t="str">
         <f t="shared" ref="O3:O62" si="0">_xlfn.CONCAT(N3," (",D3,") ",B3, ". ", C3, ".", F3, " (",G3,"): ",H3)</f>
         <v>Arya, S. (2003) Population Dynamics of lemon butterfly in citrus crop. Farm Science Journal .12 (2): 507-511</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="43.2" customHeight="1">
       <c r="A4" s="44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>27</v>
@@ -4432,10 +4467,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>16</v>
@@ -4446,26 +4481,26 @@
       <c r="K4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="M4" s="62" t="s">
-        <v>399</v>
+      <c r="L4" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>396</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="O4" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Tewari, U.C.; Kumar, R.; Arya, S.; Dwivedi, A. (2005) Investigation on phenotypic correlation in gladiolus genotype. National Journal of Science.2 (Suppl): 507-511</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="43.2" customHeight="1">
       <c r="A5" s="44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C5" s="62" t="s">
         <v>30</v>
@@ -4483,7 +4518,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>16</v>
@@ -4501,16 +4536,16 @@
         <v>32</v>
       </c>
       <c r="N5" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O5" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2013) A research study of phytohormone on vegetative growth and flowering behavior in gladiolus (gladiolus grandifloras). International Journal of Innovative Research in Science, Engineering and Technology.2 (11): 7060-7062</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="43.2" customHeight="1">
       <c r="A6" s="44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="62" t="s">
         <v>33</v>
@@ -4549,16 +4584,16 @@
         <v>35</v>
       </c>
       <c r="N6" s="46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O6" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2013) Bio efficacy of entomopathogenic fungi against oriental fruit fly (dacus dorsalis H.) infesting guava in riverbed area of ganga. International Journal of Innovative Research in Science, Engineering and Technology.2 (11): 7066-7068</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="43.2" customHeight="1">
       <c r="A7" s="44">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>36</v>
@@ -4597,19 +4632,19 @@
         <v>38</v>
       </c>
       <c r="N7" s="46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O7" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2013) Studies on citrus crop insect –pest management with adhesive cage under integrated pest management programme. International Journal of Innovative Research in Science, Engineering and Technology.2 (12): 8088-8091</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="43.2" customHeight="1">
       <c r="A8" s="44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C8" s="62" t="s">
         <v>30</v>
@@ -4627,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>16</v>
@@ -4645,16 +4680,16 @@
         <v>40</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="O8" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Dubey, R. K.; Dixit, P.; Arya, S. (2014) Naturally occurring aurones and chromones –a potential organic therapeutic agents improvising nutritional security. International Journal of Innovative Research in Science, Engineering and Technology.3 (1): 8141-8144</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="43.2" customHeight="1">
       <c r="A9" s="44">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>41</v>
@@ -4675,7 +4710,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>16</v>
@@ -4693,22 +4728,22 @@
         <v>42</v>
       </c>
       <c r="N9" s="46" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="O9" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Dubey, R.K.; Katiyar, P.; Dipankar, A.; Tuck, R.R.; Arya, S. (2014) A microbiological study on asthma and allergy management. International Journal of Innovative Research in Science, Engineering and Technology.3 (6): 13763-13766</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="43.2" customHeight="1">
       <c r="A10" s="44">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D10" s="11">
         <v>2016</v>
@@ -4720,10 +4755,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>16</v>
@@ -4735,22 +4770,22 @@
         <v>25</v>
       </c>
       <c r="L10" s="68" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M10" s="64" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="O10" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Jaswant, S. (2016) Infestation of insect-pest on guava (psidiumquajava) tree in riverbed area of ganga river in Kanpur. International Research and Reviews.5 (1 (III)): 60-65</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="43.2" customHeight="1">
       <c r="A11" s="44">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="62" t="s">
         <v>46</v>
@@ -4771,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>16</v>
@@ -4789,19 +4824,19 @@
         <v>49</v>
       </c>
       <c r="N11" s="46" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="O11" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Madhulekha; Arya, S. (2016) Assessment of Water Pollution of River Ganga by Tannery Effluent Using Fish as an Indicator in Kanpur, India. Journal of Biochemical and Cellular Archives .16 (1): 120-123</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="43.2" customHeight="1">
       <c r="A12" s="44">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>51</v>
@@ -4819,7 +4854,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>16</v>
@@ -4830,33 +4865,35 @@
       <c r="K12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="44"/>
+      <c r="L12" s="79" t="s">
+        <v>551</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>552</v>
+      </c>
       <c r="N12" s="46" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="O12" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Madhulekha, S.; Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India),. International Journal of Innovative Trends in Engineering.20 (2): 97-100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Madhulekha; Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India). International Journal of Innovative Trends in Engineering.20 (2): 97-100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="43.2" customHeight="1">
       <c r="A13" s="44">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="11">
         <v>2016</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="44">
         <v>2</v>
@@ -4865,7 +4902,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I13" s="11">
         <v>47715</v>
@@ -4877,32 +4914,32 @@
         <v>25</v>
       </c>
       <c r="L13" s="66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M13" s="44"/>
       <c r="N13" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O13" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2016) Extent of damage and seasonal abundance of citrus psylla (d. citri) on citrus plant. Academic Social Research.2 (6): 131-136</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="43.2" customHeight="1">
       <c r="A14" s="44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="11">
         <v>2016</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="44">
         <v>2</v>
@@ -4911,7 +4948,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>16</v>
@@ -4923,23 +4960,23 @@
         <v>25</v>
       </c>
       <c r="L14" s="66" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M14" s="44"/>
       <c r="N14" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O14" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2016) Response of Abiotic Factors on Population of Oriental Fruit Fly (B. Dorsalis) In Guava Varieties. Academic Social Research.2 (4): 73-76</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="43.2" customHeight="1">
       <c r="A15" s="44">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>30</v>
@@ -4957,7 +4994,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>16</v>
@@ -4969,25 +5006,25 @@
         <v>25</v>
       </c>
       <c r="L15" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M15" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O15" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R.K. (2017) Physico-Chemical and Scientific Analysis of Ganga River Water with Special Respect to Bacteriophage Activity and Its Comparative Studies with Sewage Water Treatment. International Journal of Innovative Research in Science, Engineering and Technology.6 (3): 5094-5104</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="43.2" customHeight="1">
       <c r="A16" s="44">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>30</v>
@@ -5005,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>16</v>
@@ -5017,25 +5054,25 @@
         <v>25</v>
       </c>
       <c r="L16" s="66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M16" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N16" s="46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O16" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) Microbiological Research Studies on Anar Butterfly (Virachola Isocrates F.) Population with Different Factors in Guava Fruit. International Journal of Innovative Research in Science, Engineering and Technology.6 (3): 5089-5093</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="43.2" customHeight="1">
       <c r="A17" s="44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>30</v>
@@ -5053,7 +5090,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>16</v>
@@ -5065,34 +5102,34 @@
         <v>25</v>
       </c>
       <c r="L17" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M17" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O17" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) Studies on Application, Importance and Effect of Neem Tree (AzadiachtaIndica) Oil on Effect and Intensity of Guava Insect.. International Journal of Innovative Research in Science, Engineering and Technology.6 (4): 6280-6283</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="43.2" customHeight="1">
       <c r="A18" s="44">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="11">
         <v>2017</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="44">
         <v>3</v>
@@ -5101,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>16</v>
@@ -5113,25 +5150,25 @@
         <v>25</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="N18" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O18" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2017) Economics and Bioefficacy of Parapheromones On Fruit Fly, Their Traps and Dispenser. Acadmic Science Research.3 (1): 134-136</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="43.2" customHeight="1">
       <c r="A19" s="44">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>30</v>
@@ -5149,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>16</v>
@@ -5161,25 +5198,25 @@
         <v>25</v>
       </c>
       <c r="L19" s="66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N19" s="46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O19" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) Scientific Studies on Effective Applications of Some Important Essential Elements Nitrogens(N), Phosphorus (P), Zinc (Zn) Nutrional Values on Spike and Floret Development in Gladiolus Crop.,. International Journal of Innovative Research in Science, Engineering and Technology.6 (4): 6275-6279</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="43.2" customHeight="1">
       <c r="A20" s="44">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C20" s="62" t="s">
         <v>30</v>
@@ -5197,7 +5234,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>16</v>
@@ -5209,28 +5246,28 @@
         <v>25</v>
       </c>
       <c r="L20" s="66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O20" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) A Scientific Study and Analysis of Incidence and Intensity of Bark Eating Catapillar (Inderbela Spp.) In Guava (P. Guajava) Tree. International Journal of Innovative Research in Science, Engineering and Technology.6 (5): 10032-10034</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="43.2" customHeight="1">
       <c r="A21" s="44">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="11">
         <v>2017</v>
@@ -5245,7 +5282,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>16</v>
@@ -5257,34 +5294,34 @@
         <v>25</v>
       </c>
       <c r="L21" s="66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O21" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) Scientific and Academic Studies on Changing Pattern and Factors on Environment Conditions and Socio-Economic Etics. International Journal of Innovative Research in Science, Engineering and Technology..6 (5): 10040-10043</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="43.2" customHeight="1">
       <c r="A22" s="44">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="11">
         <v>2017</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="44">
         <v>3</v>
@@ -5293,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>16</v>
@@ -5305,23 +5342,23 @@
         <v>25</v>
       </c>
       <c r="L22" s="67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M22" s="44"/>
       <c r="N22" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O22" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2017) Influence of Ecological factor on Mango Fruit Fly, Bactrocera dorsalis Hendel Bactrocera. Academic Social Research.3 (1): 116-118</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="43.2" customHeight="1">
       <c r="A23" s="44">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>30</v>
@@ -5339,7 +5376,7 @@
         <v>6</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>16</v>
@@ -5351,28 +5388,28 @@
         <v>25</v>
       </c>
       <c r="L23" s="66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N23" s="46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="O23" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) A Comparative Study and Analysis of Susceptibility Conditions of Fruit Fly BacteroceraCorrectaBezzi To Entomopathogenic Micro-Organisms. International Journal of Innovative Research in Science, Engineering and Technology.6 (6): 14444-14447</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="43.2" customHeight="1">
       <c r="A24" s="44">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="11">
         <v>2017</v>
@@ -5387,7 +5424,7 @@
         <v>8</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>16</v>
@@ -5399,32 +5436,32 @@
         <v>25</v>
       </c>
       <c r="L24" s="66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M24" s="44"/>
       <c r="N24" s="46" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="O24" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Shukla, M.; Arya, S.; Agarwal, S. (2017) Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India. International Journal of Innovative Research in Science, Engineering and Technology..6 (8): 7164-7170</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="43.2" customHeight="1">
       <c r="A25" s="44">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="11">
         <v>2017</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="44">
         <v>3</v>
@@ -5433,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>16</v>
@@ -5445,32 +5482,32 @@
         <v>25</v>
       </c>
       <c r="L25" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M25" s="44"/>
       <c r="N25" s="46" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="O25" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Shukla, M.; Arya, S. (2017) Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.). Green Chemistry and Technology Letters.3 (1): 21-25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="43.2" customHeight="1">
       <c r="A26" s="44">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="11">
         <v>2018</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="44">
         <v>4</v>
@@ -5479,7 +5516,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I26" s="11">
         <v>47715</v>
@@ -5491,32 +5528,34 @@
         <v>25</v>
       </c>
       <c r="L26" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="M26" s="44"/>
+        <v>546</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>545</v>
+      </c>
       <c r="N26" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O26" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Vermicomposting: Profitable Organic Fertilizer. Academic Social Research.4 (1): 7-0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="43.2" customHeight="1">
       <c r="A27" s="44">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="11">
         <v>2018</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F27" s="44">
         <v>9</v>
@@ -5525,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I27" s="11">
         <v>62958</v>
@@ -5541,28 +5580,28 @@
       </c>
       <c r="M27" s="44"/>
       <c r="N27" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O27" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Bio-efficacy of insect pests of Brinzal (Solanummelongena). International Journal on Agricultural Sciences.9 (1): 52-55</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="43.2" customHeight="1">
       <c r="A28" s="44">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>432</v>
+        <v>543</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="11">
         <v>2018</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F28" s="44">
         <v>9</v>
@@ -5571,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I28" s="11">
         <v>7775</v>
@@ -5582,33 +5621,35 @@
       <c r="K28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="44"/>
+      <c r="L28" s="80" t="s">
+        <v>554</v>
+      </c>
+      <c r="M28" s="64" t="s">
+        <v>555</v>
+      </c>
       <c r="N28" s="46" t="s">
-        <v>451</v>
+        <v>556</v>
       </c>
       <c r="O28" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review articles. International Journal on Biological Sciences.9 (1): 69-73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Arya, S.; Shukla, M. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article. International Journal on Biological Sciences.9 (1): 69-73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="43.2" customHeight="1">
       <c r="A29" s="44">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="11">
         <v>2018</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="44">
         <v>4</v>
@@ -5617,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I29" s="11">
         <v>47715</v>
@@ -5629,32 +5670,32 @@
         <v>25</v>
       </c>
       <c r="L29" s="67" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M29" s="44"/>
       <c r="N29" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O29" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Insect Pest and Diseases of Roses: Symptoms and Control Measures. Academic Social Research.4 (1): 312-319</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="43.2" customHeight="1">
       <c r="A30" s="44">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="11">
         <v>2018</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F30" s="44">
         <v>15</v>
@@ -5663,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I30" s="11">
         <v>4662</v>
@@ -5675,34 +5716,34 @@
         <v>25</v>
       </c>
       <c r="L30" s="67" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M30" s="44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N30" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O30" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae. Life Science Bulletin.15 (1): 63-65</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="43.2" customHeight="1">
       <c r="A31" s="44">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="11">
         <v>2018</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F31" s="44">
         <v>9</v>
@@ -5711,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I31" s="11">
         <v>7783</v>
@@ -5727,28 +5768,28 @@
       </c>
       <c r="M31" s="44"/>
       <c r="N31" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O31" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Use of Biopesticides against Papilio Demoleus infestation and yield in citrus (Citrus aurantifolia). International Journal on Environmental Science.9 (1): 61 – 66</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="43.2" customHeight="1">
       <c r="A32" s="44">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="11">
         <v>2018</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F32" s="44">
         <v>9</v>
@@ -5757,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I32" s="11">
         <v>7775</v>
@@ -5769,32 +5810,32 @@
         <v>25</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M32" s="44"/>
       <c r="N32" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O32" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Effect of Marigold oil (Tageteserecta L.) and its fractions against sitophillusoryzae. International Journal of Biological Sciences.9 (1): 85-89</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="43.2" customHeight="1">
       <c r="A33" s="44">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D33" s="11">
         <v>2018</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F33" s="44">
         <v>15</v>
@@ -5803,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I33" s="11">
         <v>4662</v>
@@ -5815,32 +5856,32 @@
         <v>25</v>
       </c>
       <c r="L33" s="67" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M33" s="44"/>
       <c r="N33" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O33" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Isolation of Phenol Degrading Bacteria from Industrial Waste. Life Science Bulletin.15 (1): 47-50</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="43.2" customHeight="1">
       <c r="A34" s="44">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" s="11">
         <v>2018</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F34" s="44">
         <v>9</v>
@@ -5849,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I34" s="11">
         <v>62958</v>
@@ -5865,28 +5906,28 @@
       </c>
       <c r="M34" s="44"/>
       <c r="N34" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O34" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) A Scientific Study of Transplanting Date effect on Infestation of Insect Pests of Cabbage. International Journal of Agricultural Sciences.9 (1): 41-46</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="43.2" customHeight="1">
       <c r="A35" s="44">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C35" s="62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="11">
         <v>2018</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F35" s="44">
         <v>9</v>
@@ -5895,7 +5936,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I35" s="11">
         <v>7783</v>
@@ -5907,32 +5948,32 @@
         <v>25</v>
       </c>
       <c r="L35" s="67" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M35" s="44"/>
       <c r="N35" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O35" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Spectrophotometric Determination of Chromium in River Ganga water samples using 1,5-diphenyl carbazide at Kanpur, India-2018. International Journal of Environmental Science.9 (1): 36-39</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="43.2" customHeight="1">
       <c r="A36" s="44">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="11">
         <v>2018</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="44">
         <v>9</v>
@@ -5941,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I36" s="11">
         <v>62958</v>
@@ -5952,33 +5993,33 @@
       <c r="K36" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="66" t="s">
-        <v>550</v>
+      <c r="L36" s="67" t="s">
+        <v>108</v>
       </c>
       <c r="M36" s="44"/>
       <c r="N36" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O36" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria. International Journal of Agricultural Sciences.9 (2): 103-109</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="43.2" customHeight="1">
       <c r="A37" s="44">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" s="11">
         <v>2018</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F37" s="44">
         <v>9</v>
@@ -5987,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I37" s="11">
         <v>7783</v>
@@ -5999,32 +6040,32 @@
         <v>25</v>
       </c>
       <c r="L37" s="67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M37" s="44"/>
       <c r="N37" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O37" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Green Technology to combat environmental degradation and sustainable food production: A Review. International Journal of Environmental Science.9 (2): 118-123</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="43.2" customHeight="1">
       <c r="A38" s="44">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D38" s="11">
         <v>2018</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F38" s="44">
         <v>9</v>
@@ -6033,7 +6074,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I38" s="11">
         <v>62958</v>
@@ -6044,35 +6085,33 @@
       <c r="K38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="66" t="s">
-        <v>549</v>
-      </c>
-      <c r="M38" s="44" t="s">
-        <v>548</v>
-      </c>
+      <c r="L38" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="M38" s="44"/>
       <c r="N38" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O38" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences.9 (2): 110-114</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="43.2" customHeight="1">
       <c r="A39" s="44">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" s="11">
         <v>2018</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F39" s="44">
         <v>9</v>
@@ -6081,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I39" s="11">
         <v>7775</v>
@@ -6092,35 +6131,35 @@
       <c r="K39" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="67" t="s">
-        <v>115</v>
+      <c r="L39" s="78" t="s">
+        <v>547</v>
       </c>
       <c r="M39" s="64" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="N39" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O39" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences.9 (1): 162-165</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="43.2" customHeight="1">
       <c r="A40" s="44">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D40" s="11">
         <v>2019</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F40" s="44">
         <v>4</v>
@@ -6129,7 +6168,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I40" s="11">
         <v>40827</v>
@@ -6141,34 +6180,34 @@
         <v>25</v>
       </c>
       <c r="L40" s="66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M40" s="44" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N40" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O40" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation.4 (2): 111-117</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="43.2" customHeight="1">
       <c r="A41" s="44">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D41" s="11">
         <v>2019</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F41" s="44">
         <v>6</v>
@@ -6177,7 +6216,7 @@
         <v>8</v>
       </c>
       <c r="H41" s="65" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I41" s="11">
         <v>40880</v>
@@ -6189,34 +6228,34 @@
         <v>25</v>
       </c>
       <c r="L41" s="66" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M41" s="44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N41" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O41" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika.6 (8): 1-3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="43.2" customHeight="1">
       <c r="A42" s="44">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="11">
         <v>2019</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F42" s="44">
         <v>6</v>
@@ -6225,7 +6264,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I42" s="48" t="s">
         <v>16</v>
@@ -6234,37 +6273,37 @@
         <v>1</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L42" s="67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M42" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N42" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O42" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies.6 (3): 51-54</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="43.2" customHeight="1">
       <c r="A43" s="44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" s="11">
         <v>2019</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F43" s="44">
         <v>1</v>
@@ -6273,7 +6312,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>16</v>
@@ -6285,34 +6324,34 @@
         <v>25</v>
       </c>
       <c r="L43" s="67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M43" s="44" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="N43" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O43" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations .1 (2): 87-89</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="43.2" customHeight="1">
       <c r="A44" s="44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="11">
         <v>2021</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F44" s="44">
         <v>12</v>
@@ -6321,7 +6360,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>16</v>
@@ -6333,34 +6372,34 @@
         <v>25</v>
       </c>
       <c r="L44" s="66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M44" s="44" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="N44" s="46" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O44" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Rani, D.; Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences.12 (2): 57-60</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="43.2" customHeight="1">
       <c r="A45" s="44">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="11">
         <v>2021</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F45" s="44">
         <v>5</v>
@@ -6369,7 +6408,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>16</v>
@@ -6381,34 +6420,34 @@
         <v>17</v>
       </c>
       <c r="L45" s="66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N45" s="46" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O45" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Chaudhary, V. K.; Arya, S.; Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences.5 (2): 95-99</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="43.2" customHeight="1">
       <c r="A46" s="44">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="11">
         <v>2022</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F46" s="44">
         <v>4</v>
@@ -6417,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>16</v>
@@ -6429,34 +6468,34 @@
         <v>17</v>
       </c>
       <c r="L46" s="66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M46" s="44" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N46" s="46" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="O46" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Yadav, V.; Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation.4 (1): 221-226</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="44.4" customHeight="1">
       <c r="A47" s="44">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D47" s="11">
         <v>2022</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F47" s="44">
         <v>13</v>
@@ -6465,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>16</v>
@@ -6477,34 +6516,34 @@
         <v>17</v>
       </c>
       <c r="L47" s="66" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M47" s="44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N47" s="46" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="O47" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Yadav, V.; Arya, S. (2022) POPULATION DYNAMICS OF MAJOR INSECT PESTS OF PEA (PISUM SATIVUM L.) IN RELATION TO WEATHER PARAMETERS IN KANPUR, UTTAR PRADESH. International Journal on Biological Sciences.13 (1): 92-96</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="43.2" customHeight="1">
       <c r="A48" s="44">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="11">
         <v>2022</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F48" s="44">
         <v>4</v>
@@ -6513,7 +6552,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="70" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>16</v>
@@ -6525,34 +6564,34 @@
         <v>25</v>
       </c>
       <c r="L48" s="66" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N48" s="46" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="O48" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Sudhakar, P.; Dwivedi, N. (2022) Pesticides and Its Impact on Biodiversity and Environment. ICONIC RESEARCH AND ENGINEERING JOURNALS.4 (10): 12-15</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="43.2" customHeight="1">
       <c r="A49" s="44">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="11">
         <v>2022</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F49" s="44">
         <v>5</v>
@@ -6561,7 +6600,7 @@
         <v>7</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>16</v>
@@ -6573,34 +6612,34 @@
         <v>17</v>
       </c>
       <c r="L49" s="66" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N49" s="46" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="O49" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Dubey, I.; Arya, S. (2022) Fish Diversity and Climate Change: A Review. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.5 (7): 88-91</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="43.2" customHeight="1">
       <c r="A50" s="44">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="11">
         <v>2022</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F50" s="44">
         <v>6</v>
@@ -6609,7 +6648,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="65" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>16</v>
@@ -6621,34 +6660,34 @@
         <v>17</v>
       </c>
       <c r="L50" s="66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M50" s="44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N50" s="46" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O50" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Singh, R.; Sunita, A. (2022) Seasonal Variation in Phytoplankton Diversity in River Sai at Unnao District of U.P. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.6 (3): 5-8</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" ht="43.2" customHeight="1">
       <c r="A51" s="44">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="71" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="11">
         <v>2023</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F51" s="44">
         <v>9</v>
@@ -6657,10 +6696,10 @@
         <v>1</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J51" s="11">
         <v>2</v>
@@ -6668,35 +6707,35 @@
       <c r="K51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L51" s="78" t="s">
-        <v>547</v>
-      </c>
-      <c r="M51" s="44" t="s">
-        <v>546</v>
+      <c r="L51" s="66" t="s">
+        <v>549</v>
+      </c>
+      <c r="M51" s="64" t="s">
+        <v>553</v>
       </c>
       <c r="N51" s="46" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O51" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations.9 (1): 392 – 397</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" ht="43.2" customHeight="1">
       <c r="A52" s="44">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C52" s="71" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="11">
         <v>2023</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F52" s="44">
         <v>8</v>
@@ -6705,10 +6744,10 @@
         <v>6</v>
       </c>
       <c r="H52" s="44" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J52" s="11">
         <v>2</v>
@@ -6717,34 +6756,34 @@
         <v>25</v>
       </c>
       <c r="L52" s="66" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M52" s="44" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="N52" s="46" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O52" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research.8 (6): 50-52</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="43.2" customHeight="1">
       <c r="A53" s="44">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C53" s="62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D53" s="11">
         <v>2023</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F53" s="44">
         <v>10</v>
@@ -6753,7 +6792,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>16</v>
@@ -6765,34 +6804,34 @@
         <v>17</v>
       </c>
       <c r="L53" s="66" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M53" s="44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N53" s="46" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O53" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Goel, R.; Arya, S.; Rani, D.; Shukla, G. (2023) Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.. International Journal of Fauna and Biological Studies.10 (3): 16-18</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="43.2" customHeight="1">
       <c r="A54" s="44">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C54" s="73" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D54" s="16">
         <v>2023</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F54" s="44">
         <v>14</v>
@@ -6801,7 +6840,7 @@
         <v>2</v>
       </c>
       <c r="H54" s="44" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I54" s="16" t="s">
         <v>16</v>
@@ -6813,34 +6852,34 @@
         <v>17</v>
       </c>
       <c r="L54" s="69" t="s">
-        <v>518</v>
+        <v>159</v>
       </c>
       <c r="M54" s="64" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N54" s="46" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="O54" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Rani, K.; Singh, S.; Prakash, S.; Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences.14 (2): 74-80</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="43.2" customHeight="1">
       <c r="A55" s="44">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D55" s="11">
         <v>2022</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F55" s="44">
         <v>13</v>
@@ -6849,7 +6888,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>16</v>
@@ -6861,34 +6900,34 @@
         <v>17</v>
       </c>
       <c r="L55" s="66" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M55" s="66" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N55" s="46" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="O55" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Goel, R.; Arya, S.; Singh, R. (2022) IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH). International Journal on Biological Sciences.13 (2): 109-111</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="43.2" customHeight="1">
       <c r="A56" s="44">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D56" s="11">
         <v>2024</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F56" s="44">
         <v>6</v>
@@ -6897,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>16</v>
@@ -6909,34 +6948,34 @@
         <v>17</v>
       </c>
       <c r="L56" s="66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M56" s="64" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="N56" s="46" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="O56" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Rani K.; Singh S.; Prakash S.; Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry.6 (1): 01-03</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="43.2" customHeight="1">
       <c r="A57" s="44">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C57" s="73" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D57" s="16">
         <v>2024</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F57" s="44">
         <v>11</v>
@@ -6945,7 +6984,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>16</v>
@@ -6957,34 +6996,34 @@
         <v>25</v>
       </c>
       <c r="L57" s="66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M57" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N57" s="46" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O57" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Rani, D.; Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies.11 (1): 29-31</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="43.2" customHeight="1">
       <c r="A58" s="44">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C58" s="73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58" s="16">
         <v>2024</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F58" s="44">
         <v>27</v>
@@ -6993,10 +7032,10 @@
         <v>2</v>
       </c>
       <c r="H58" s="44" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I58" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J58" s="16">
         <v>2</v>
@@ -7005,34 +7044,34 @@
         <v>17</v>
       </c>
       <c r="L58" s="66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M58" s="44" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="N58" s="46" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O58" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Sachan, R.; Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. 27(2):1605-1608. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA.27 (2): 1605-1608</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="43.2" customHeight="1">
       <c r="A59" s="44">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="74" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C59" s="73" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="16">
         <v>2024</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F59" s="44">
         <v>6</v>
@@ -7041,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="44" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>16</v>
@@ -7053,34 +7092,34 @@
         <v>17</v>
       </c>
       <c r="L59" s="66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M59" s="44" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N59" s="46" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="O59" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Rani K.; Arya S.; Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations.6 (1): 58-64</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="43.2" customHeight="1">
       <c r="A60" s="44">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" s="63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D60" s="44">
         <v>2024</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F60" s="44">
         <v>8</v>
@@ -7089,7 +7128,7 @@
         <v>3</v>
       </c>
       <c r="H60" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I60" s="48" t="s">
         <v>16</v>
@@ -7101,34 +7140,34 @@
         <v>17</v>
       </c>
       <c r="L60" s="69" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M60" s="44" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="N60" s="46" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="O60" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Hemprabha; Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.8 (3): 478-485</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="43.2" customHeight="1">
       <c r="A61" s="44">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" s="63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="44">
         <v>2025</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F61" s="44">
         <v>8</v>
@@ -7137,7 +7176,7 @@
         <v>7</v>
       </c>
       <c r="H61" s="44" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I61" s="44" t="s">
         <v>16</v>
@@ -7149,34 +7188,34 @@
         <v>25</v>
       </c>
       <c r="L61" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M61" s="44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="N61" s="46" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O61" s="63" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals.8 (7): 243-440</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="43.2" customHeight="1">
       <c r="A62" s="44">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C62" s="63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D62" s="44">
         <v>2025</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F62" s="44">
         <v>11</v>
@@ -7185,7 +7224,7 @@
         <v>6</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I62" s="44" t="s">
         <v>16</v>
@@ -7197,13 +7236,13 @@
         <v>25</v>
       </c>
       <c r="L62" s="68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M62" s="44" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="N62" s="46" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O62" s="63" t="str">
         <f t="shared" si="0"/>
@@ -7217,60 +7256,60 @@
     <hyperlink ref="L56" r:id="rId1" xr:uid="{7E19164F-EB49-4909-A787-B1FC69338129}"/>
     <hyperlink ref="L13" r:id="rId2" xr:uid="{E2B88607-DB60-48E0-9F3F-FE825FC5917E}"/>
     <hyperlink ref="L22" r:id="rId3" xr:uid="{D3EED5D0-F187-4FB1-842E-42E68C009F81}"/>
-    <hyperlink ref="L26" r:id="rId4" xr:uid="{4C274FD2-A7B0-4E12-AB3E-59CA826AD20D}"/>
-    <hyperlink ref="L28" r:id="rId5" xr:uid="{E11545BE-04BC-49CB-92EC-8D3AFCADCCD1}"/>
-    <hyperlink ref="L29" r:id="rId6" xr:uid="{5D7D7EDC-EA41-43DE-A331-1ED93E38B86B}"/>
-    <hyperlink ref="L30" r:id="rId7" xr:uid="{03E9C74E-324C-44DC-91AB-CFECE4362CCB}"/>
-    <hyperlink ref="L33" r:id="rId8" xr:uid="{70D65AD5-1949-4097-8366-FDD3244281C0}"/>
-    <hyperlink ref="L35" r:id="rId9" xr:uid="{A6AE41EE-0DB0-44B7-B6A1-09B4A5C4D590}"/>
-    <hyperlink ref="L36" r:id="rId10" xr:uid="{6EC3FC89-2874-4391-9418-B15DF9BD17BA}"/>
-    <hyperlink ref="L37" r:id="rId11" xr:uid="{4E227E20-5D78-4960-828B-4FB892F69935}"/>
-    <hyperlink ref="L39" r:id="rId12" xr:uid="{97910863-7AED-4171-BE75-E63523C6DBD0}"/>
-    <hyperlink ref="L42" r:id="rId13" xr:uid="{CF80D6E9-FC01-41DE-AE5B-C18A8FEE4B61}"/>
-    <hyperlink ref="L43" r:id="rId14" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
-    <hyperlink ref="L9" r:id="rId15" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
-    <hyperlink ref="L49" r:id="rId16" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
-    <hyperlink ref="L57" r:id="rId17" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
-    <hyperlink ref="L53" r:id="rId18" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
-    <hyperlink ref="L59" r:id="rId19" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
-    <hyperlink ref="L19" r:id="rId20" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
-    <hyperlink ref="L5" r:id="rId21" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
-    <hyperlink ref="L6" r:id="rId22" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
-    <hyperlink ref="L7" r:id="rId23" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
-    <hyperlink ref="L11" r:id="rId24" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
-    <hyperlink ref="L12" r:id="rId25" xr:uid="{80FDBA11-959B-40DD-91C8-9FB22EE53E71}"/>
-    <hyperlink ref="L15" r:id="rId26" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
-    <hyperlink ref="L16" r:id="rId27" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
-    <hyperlink ref="L17" r:id="rId28" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
-    <hyperlink ref="L20" r:id="rId29" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
-    <hyperlink ref="L21" r:id="rId30" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
-    <hyperlink ref="L23" r:id="rId31" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
-    <hyperlink ref="L24" r:id="rId32" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
-    <hyperlink ref="L25" r:id="rId33" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
-    <hyperlink ref="L44" r:id="rId34" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
-    <hyperlink ref="L46" r:id="rId35" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
-    <hyperlink ref="L47" r:id="rId36" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
-    <hyperlink ref="L50" r:id="rId37" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
-    <hyperlink ref="L8" r:id="rId38" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
-    <hyperlink ref="L45" r:id="rId39" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
-    <hyperlink ref="L48" r:id="rId40" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
-    <hyperlink ref="L41" r:id="rId41" xr:uid="{872B02A0-8CDA-4197-A702-BFA228F08936}"/>
-    <hyperlink ref="L40" r:id="rId42" xr:uid="{56154005-22EE-46E1-BAEB-960FED59AF79}"/>
-    <hyperlink ref="L61" r:id="rId43" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
-    <hyperlink ref="L2" r:id="rId44" xr:uid="{76145C34-11E1-440E-9C78-F166E68792B9}"/>
-    <hyperlink ref="L3" r:id="rId45" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
-    <hyperlink ref="L10" r:id="rId46" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
-    <hyperlink ref="M2" r:id="rId47" xr:uid="{2DF395FC-80D9-4991-BC01-C024251C5232}"/>
-    <hyperlink ref="M3" r:id="rId48" xr:uid="{EC21521E-1384-42BA-B6B8-E79BC84D15D8}"/>
-    <hyperlink ref="M49" r:id="rId49" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
-    <hyperlink ref="M48" r:id="rId50" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
-    <hyperlink ref="L62" r:id="rId51" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
-    <hyperlink ref="L14" r:id="rId52" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
-    <hyperlink ref="M10" r:id="rId53" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{BF082B39-9F1C-404A-8685-41BF3D8903AE}"/>
-    <hyperlink ref="L58" r:id="rId54" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
-    <hyperlink ref="M54" r:id="rId55" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
-    <hyperlink ref="M39" r:id="rId56" display="https://d1wqtxts1xzle7.cloudfront.net/108239524/SCN_20231203_120408-libre.pdf?1701586266=&amp;response-content-disposition=attachment%3B+filename%3DBIOMETRICAL_STUDIES_OF_FLORIBUNDA_ROSES.pdf&amp;Expires=1749993558&amp;Signature=TxA5QiORXLoyvrxDAtIqcQTeLXKajxYBtxpBs6b8BR4LU4DNbHjhJz7jmmuzT1JSaE~9I~nE8YkzsUgrxLf25JBGosR0YMZL2ldDkI9S1~yBeKFMF3DkpF2GndzU3UCRhaz0atlC~Bbru-5rEbIy6nHpPypJ0TRByAaHqccY3si8e07o9qfnGgb2sUKdj1A8ZUBekIYQjRKOzJMH~JhLLDJHtCpaAj-WuKrpn39rMEtMtiTxxuAcxuuZ~CtFjCsq44jy14qY-dWbBkdH-W4WhFj8G5hWnlMfZGOa~7I3b6dkggl0tac~FAtErtUJdx83Pz9Btttk5NjyQdjU9MgniQ__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{CB91AAC4-A03A-4A03-B1A5-57611EB64069}"/>
-    <hyperlink ref="L51" r:id="rId57" xr:uid="{BFBD829C-70D8-4D10-A350-B9C048F965D9}"/>
+    <hyperlink ref="L29" r:id="rId4" xr:uid="{5D7D7EDC-EA41-43DE-A331-1ED93E38B86B}"/>
+    <hyperlink ref="L30" r:id="rId5" xr:uid="{03E9C74E-324C-44DC-91AB-CFECE4362CCB}"/>
+    <hyperlink ref="L33" r:id="rId6" xr:uid="{70D65AD5-1949-4097-8366-FDD3244281C0}"/>
+    <hyperlink ref="L35" r:id="rId7" xr:uid="{A6AE41EE-0DB0-44B7-B6A1-09B4A5C4D590}"/>
+    <hyperlink ref="L36" r:id="rId8" xr:uid="{6EC3FC89-2874-4391-9418-B15DF9BD17BA}"/>
+    <hyperlink ref="L37" r:id="rId9" xr:uid="{4E227E20-5D78-4960-828B-4FB892F69935}"/>
+    <hyperlink ref="L42" r:id="rId10" xr:uid="{CF80D6E9-FC01-41DE-AE5B-C18A8FEE4B61}"/>
+    <hyperlink ref="L43" r:id="rId11" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
+    <hyperlink ref="L9" r:id="rId12" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
+    <hyperlink ref="L49" r:id="rId13" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
+    <hyperlink ref="L57" r:id="rId14" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
+    <hyperlink ref="L53" r:id="rId15" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
+    <hyperlink ref="L59" r:id="rId16" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
+    <hyperlink ref="L19" r:id="rId17" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
+    <hyperlink ref="L5" r:id="rId18" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
+    <hyperlink ref="L6" r:id="rId19" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
+    <hyperlink ref="L7" r:id="rId20" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
+    <hyperlink ref="L11" r:id="rId21" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
+    <hyperlink ref="L15" r:id="rId22" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
+    <hyperlink ref="L16" r:id="rId23" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
+    <hyperlink ref="L17" r:id="rId24" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
+    <hyperlink ref="L20" r:id="rId25" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
+    <hyperlink ref="L21" r:id="rId26" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
+    <hyperlink ref="L23" r:id="rId27" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
+    <hyperlink ref="L24" r:id="rId28" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
+    <hyperlink ref="L25" r:id="rId29" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
+    <hyperlink ref="L44" r:id="rId30" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
+    <hyperlink ref="L46" r:id="rId31" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
+    <hyperlink ref="L47" r:id="rId32" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
+    <hyperlink ref="L50" r:id="rId33" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
+    <hyperlink ref="L8" r:id="rId34" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
+    <hyperlink ref="L45" r:id="rId35" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
+    <hyperlink ref="L48" r:id="rId36" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
+    <hyperlink ref="L54" r:id="rId37" xr:uid="{E180E522-832A-43AA-8FEE-2AFE4A7B28CF}"/>
+    <hyperlink ref="L41" r:id="rId38" xr:uid="{872B02A0-8CDA-4197-A702-BFA228F08936}"/>
+    <hyperlink ref="L40" r:id="rId39" xr:uid="{56154005-22EE-46E1-BAEB-960FED59AF79}"/>
+    <hyperlink ref="L61" r:id="rId40" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
+    <hyperlink ref="L3" r:id="rId41" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
+    <hyperlink ref="L10" r:id="rId42" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
+    <hyperlink ref="M3" r:id="rId43" xr:uid="{EC21521E-1384-42BA-B6B8-E79BC84D15D8}"/>
+    <hyperlink ref="M49" r:id="rId44" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
+    <hyperlink ref="M48" r:id="rId45" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
+    <hyperlink ref="L62" r:id="rId46" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
+    <hyperlink ref="L14" r:id="rId47" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
+    <hyperlink ref="M10" r:id="rId48" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{BF082B39-9F1C-404A-8685-41BF3D8903AE}"/>
+    <hyperlink ref="L58" r:id="rId49" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
+    <hyperlink ref="M54" r:id="rId50" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
+    <hyperlink ref="M4" r:id="rId51" xr:uid="{974063BA-B154-4E21-8DD6-F9B3E8A97592}"/>
+    <hyperlink ref="L4" r:id="rId52" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
+    <hyperlink ref="L2" r:id="rId53" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
+    <hyperlink ref="M2" r:id="rId54" display="https://d1wqtxts1xzle7.cloudfront.net/123292727/ASSOCIATION_STUDIES_IN_ROSES.pdf?1749991358=&amp;response-content-disposition=attachment%3B+filename%3DASSOCIATION_STUDIES_IN_ROSES.pdf&amp;Expires=1749995193&amp;Signature=aRx-d8ac9A8kzc1gx~rJ~6eoWaFzS4PqqDzlf0juPxP7xd3pB~ANbxX4QwE8YQlvtvw-L5VpptSzTr4eK~AFZqD7cF4lboDVRcePuZFbgMJDWM2WIB4Yc05k8iA8XSNgt017X641kNpeWpn14Gs-j08B9l7hKkl3Eq6NJ5-CfXfI1oMtEatYb9cpDgcBME~xlcfbWKwRgh0Jfwf2zj251jEb-Eb9NTffjINA~hbiE3IsFSJLdWeuLYkY4ZcVgxSeMuH0nA7bassIVwGqD-8g6CpOvnH9mtYbkoqxMQlZTX5k3s5jV6bDsA6KqXwwYl4zVGZ7CBPiEW6OtXDubxgVSg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{BA15B3BC-EAD1-4BF5-B76B-4D556A998AF5}"/>
+    <hyperlink ref="M12" r:id="rId55" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
+    <hyperlink ref="L28" r:id="rId56" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
+    <hyperlink ref="M28" r:id="rId57" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId58"/>
@@ -7284,11 +7323,11 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A3" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="49.5546875" customWidth="1"/>
@@ -7298,15 +7337,15 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="36" customHeight="1">
       <c r="A1" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>186</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>188</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -7315,367 +7354,367 @@
         <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>195</v>
       </c>
       <c r="D2" s="16">
         <v>2005</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G2" s="16">
         <v>3</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="B3" s="16" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="D3" s="16">
         <v>2017</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G3" s="16">
         <v>2</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="B4" s="16" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>208</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="16">
         <v>2017</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G4" s="16">
         <v>2</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="26.4">
       <c r="A5" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="D5" s="16">
         <v>2017</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="26.4">
+      <c r="A6" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="E6" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="39.6">
+      <c r="A7" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>224</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>226</v>
       </c>
       <c r="D7" s="16">
         <v>2020</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G7" s="16">
         <v>2</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I7" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="52.8">
+      <c r="A8" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>229</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="D8" s="16">
         <v>2021</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="16" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="39.6">
+      <c r="A9" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="I8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>235</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="D9" s="16">
         <v>2022</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G9" s="16">
         <v>2</v>
       </c>
       <c r="H9" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="52.8">
+      <c r="A10" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>242</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>244</v>
       </c>
       <c r="D10" s="16">
         <v>2023</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="52.8">
       <c r="A11" s="44">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D11" s="16">
         <v>2024</v>
       </c>
       <c r="E11" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" ht="27.6">
       <c r="A12" s="44">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" s="16">
         <v>2024</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="100.8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D13" s="75">
         <v>2024</v>
       </c>
       <c r="E13" s="75" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F13" s="75" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G13" s="75">
         <v>1</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I13" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -7692,55 +7731,55 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.44140625" customWidth="1"/>
     <col min="2" max="2" width="39.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" t="s">
         <v>537</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" t="s">
         <v>538</v>
       </c>
-      <c r="B2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B4" t="s">
-        <v>542</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7757,295 +7796,295 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="255.6640625" style="32" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="31" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="31" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="31" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="31" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="31" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="31" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="31" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="31" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="31" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="31" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="31" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="31" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="31" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="31" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="31" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="31" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="31" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="31" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="31" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="32" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="33" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="34" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="31" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+    <row r="35" spans="1:1" ht="31.2">
+      <c r="A35" s="34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="31" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="31" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+    <row r="38" spans="1:1" ht="31.2">
+      <c r="A38" s="35" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="33" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="33" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="33" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="33" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="33" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="33" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="33" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="33" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="34" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="33" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="33" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="33" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="32" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="35" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="32" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="35" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="32" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="32" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="32" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -8066,95 +8105,95 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="46.109375" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="19.8" thickBot="1">
       <c r="A1" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="52" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickBot="1">
+      <c r="A2" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="B2" s="7" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="C2" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickBot="1">
+      <c r="A3" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="B3" s="7" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+      <c r="C3" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" thickBot="1">
+      <c r="A4" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+      <c r="C4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" thickBot="1">
+      <c r="A5" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="30.6" thickBot="1">
+      <c r="A6" s="56" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" s="55" t="s">
+      <c r="C6" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -8172,36 +8211,36 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" t="s">
         <v>334</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>335</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>336</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>337</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>338</v>
-      </c>
-      <c r="F1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>340</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -8220,9 +8259,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B3">
         <v>9.6999999999999993</v>
@@ -8240,7 +8279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="B14" s="5"/>
     </row>
   </sheetData>
@@ -8257,7 +8296,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="75.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" style="6" customWidth="1"/>
@@ -8267,7 +8306,7 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -8284,13 +8323,13 @@
         <v>10</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -8313,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="31.2">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -8336,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="31.2">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -8359,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -8382,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -8405,7 +8444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.2">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -8428,9 +8467,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.2">
       <c r="A8" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>30</v>
@@ -8451,9 +8490,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="31.2">
       <c r="A9" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>30</v>
@@ -8474,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="31.2">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -8497,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="31.2">
       <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
@@ -8520,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="31.2">
       <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
@@ -8543,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="31.2">
       <c r="A13" s="10" t="s">
         <v>46</v>
       </c>
@@ -8566,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="31.2">
       <c r="A14" s="10" t="s">
         <v>50</v>
       </c>
@@ -8589,18 +8628,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="11">
         <v>2016</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>25</v>
@@ -8612,18 +8651,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="31.2">
       <c r="A16" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="11">
         <v>2016</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>25</v>
@@ -8635,9 +8674,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="46.8">
       <c r="A17" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>30</v>
@@ -8658,9 +8697,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="31.2">
       <c r="A18" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>30</v>
@@ -8681,9 +8720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="31.2">
       <c r="A19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>30</v>
@@ -8704,18 +8743,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31.2">
       <c r="A20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="C20" s="11">
         <v>2017</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>25</v>
@@ -8727,9 +8766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="46.8">
       <c r="A21" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>30</v>
@@ -8750,9 +8789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="31.2">
       <c r="A22" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>30</v>
@@ -8773,12 +8812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="31.2">
       <c r="A23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="C23" s="11">
         <v>2017</v>
@@ -8796,18 +8835,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="31.2">
       <c r="A24" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="11">
         <v>2017</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>25</v>
@@ -8819,9 +8858,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="46.8">
       <c r="A25" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>30</v>
@@ -8842,12 +8881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="11">
         <v>2017</v>
@@ -8865,18 +8904,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="31.2">
       <c r="A27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="C27" s="11">
         <v>2017</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>25</v>
@@ -8888,18 +8927,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="11">
         <v>2018</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>25</v>
@@ -8911,18 +8950,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="11">
         <v>2018</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>25</v>
@@ -8934,18 +8973,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="31.2">
       <c r="A30" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C30" s="11">
         <v>2018</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>25</v>
@@ -8957,18 +8996,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="31.2">
       <c r="A31" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="11">
         <v>2018</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>25</v>
@@ -8980,18 +9019,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="31.2">
       <c r="A32" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C32" s="11">
         <v>2018</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>25</v>
@@ -9003,18 +9042,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="31.2">
       <c r="A33" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="11">
         <v>2018</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>25</v>
@@ -9026,18 +9065,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="31.2">
       <c r="A34" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C34" s="11">
         <v>2018</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>25</v>
@@ -9049,18 +9088,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C35" s="11">
         <v>2018</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>25</v>
@@ -9072,18 +9111,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="31.2">
       <c r="A36" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C36" s="11">
         <v>2018</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>25</v>
@@ -9095,18 +9134,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="31.2">
       <c r="A37" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C37" s="11">
         <v>2018</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>25</v>
@@ -9118,18 +9157,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="31.2">
       <c r="A38" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C38" s="11">
         <v>2018</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>25</v>
@@ -9141,18 +9180,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="31.2">
       <c r="A39" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C39" s="11">
         <v>2018</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>25</v>
@@ -9164,18 +9203,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="31.2">
       <c r="A40" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C40" s="11">
         <v>2018</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>25</v>
@@ -9187,18 +9226,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.6">
       <c r="A41" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C41" s="11">
         <v>2018</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>25</v>
@@ -9210,18 +9249,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="31.2">
       <c r="A42" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C42" s="11">
         <v>2019</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>25</v>
@@ -9233,18 +9272,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="31.2">
       <c r="A43" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" s="11">
         <v>2019</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>25</v>
@@ -9256,21 +9295,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.6">
       <c r="A44" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C44" s="11">
         <v>2019</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -9279,18 +9318,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="31.2">
       <c r="A45" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" s="11">
         <v>2019</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>25</v>
@@ -9302,18 +9341,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.6">
       <c r="A46" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" s="11">
         <v>2021</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>25</v>
@@ -9325,18 +9364,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="31.2">
       <c r="A47" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C47" s="11">
         <v>2021</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>17</v>
@@ -9348,18 +9387,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="31.2">
       <c r="A48" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C48" s="11">
         <v>2022</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>17</v>
@@ -9371,18 +9410,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="46.8">
       <c r="A49" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="11">
         <v>2022</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>17</v>
@@ -9394,18 +9433,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="31.2">
       <c r="A50" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C50" s="11">
         <v>2022</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>25</v>
@@ -9417,18 +9456,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="31.2">
       <c r="A51" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C51" s="11">
         <v>2022</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>17</v>
@@ -9440,18 +9479,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="31.2">
       <c r="A52" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C52" s="11">
         <v>2022</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>17</v>
@@ -9463,18 +9502,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C53" s="11">
         <v>2023</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>25</v>
@@ -9486,18 +9525,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="31.2">
       <c r="A54" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C54" s="11">
         <v>2023</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>25</v>
@@ -9509,18 +9548,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="31.8" thickBot="1">
       <c r="A55" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C55" s="11">
         <v>2023</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>17</v>
@@ -9532,18 +9571,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="15" thickBot="1">
       <c r="A56" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C56" s="23">
         <v>2023</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>17</v>
@@ -9555,18 +9594,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="31.2">
       <c r="A57" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C57" s="11">
         <v>2023</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>17</v>
@@ -9578,18 +9617,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="16.2" thickBot="1">
       <c r="A58" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C58" s="11">
         <v>2024</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>17</v>
@@ -9601,18 +9640,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="15" thickBot="1">
       <c r="A59" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C59" s="23">
         <v>2024</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>25</v>
@@ -9624,18 +9663,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="29.4" thickBot="1">
       <c r="A60" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C60" s="23">
         <v>2024</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>17</v>
@@ -9647,18 +9686,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C61" s="4">
         <v>2024</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>17</v>
@@ -9670,18 +9709,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C62" s="6">
         <v>2024</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E62" s="36" t="s">
         <v>17</v>
@@ -9694,18 +9733,18 @@
       </c>
       <c r="H62" s="37"/>
     </row>
-    <row r="63" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="26.4">
       <c r="A63" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C63" s="16">
         <v>2005</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -9714,18 +9753,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="26.4">
       <c r="A64" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C64" s="16">
         <v>2017</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -9734,18 +9773,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="26.4">
       <c r="A65" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C65" s="16">
         <v>2017</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -9754,18 +9793,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="26.4">
       <c r="A66" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C66" s="16">
         <v>2017</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -9774,18 +9813,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B67" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>220</v>
-      </c>
       <c r="D67" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -9794,18 +9833,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C68" s="16">
         <v>2020</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9814,18 +9853,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="27.6">
       <c r="A69" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C69" s="16">
         <v>2021</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9834,18 +9873,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7">
       <c r="A70" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C70" s="16">
         <v>2022</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9854,18 +9893,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15" thickBot="1">
       <c r="A71" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C71" s="16">
         <v>2023</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9874,18 +9913,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15" thickBot="1">
       <c r="A72" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C72" s="40">
         <v>2024</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E72"/>
       <c r="F72">
@@ -9895,18 +9934,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15" thickBot="1">
       <c r="A73" s="41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C73" s="43">
         <v>2024</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E73"/>
       <c r="F73">
@@ -9930,26 +9969,26 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" t="s">
         <v>349</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>350</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>351</v>
       </c>
-      <c r="D1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <f>(20.28/100)*E2</f>
         <v>39.018720000000002</v>
@@ -9984,187 +10023,187 @@
       <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15">
       <c r="A2" s="29" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="30"/>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="30"/>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="29" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="30"/>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="29" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="30"/>
+    </row>
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="29" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="30"/>
+    </row>
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="29" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="30"/>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="29" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="30"/>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="29" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="30"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="29" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-    </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="30"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="29" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="30"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="29" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="30"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="29" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="30"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="29" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="30"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="29" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="30"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="29" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-    </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="30"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="29" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-    </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="30"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="29" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-    </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="30"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="29" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-    </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="30"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="29" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-    </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="30"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="29" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-    </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="30"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="29" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-    </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="30"/>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-    </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="30"/>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="29" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-    </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-    </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/public/db/Research Publications.xlsx
+++ b/public/db/Research Publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/Biodata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="551" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E014BB-3B6C-48F7-BB10-07F9D98853EA}"/>
+  <xr:revisionPtr revIDLastSave="554" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9163F48E-AD4D-4546-B487-D22DCC338B94}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="480" windowWidth="22272" windowHeight="11376" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
+    <workbookView xWindow="23508" yWindow="5832" windowWidth="22104" windowHeight="11208" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="558">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -362,9 +362,6 @@
   </si>
   <si>
     <t>Isolation of Phenol Degrading Bacteria from Industrial Waste, 15(1): 47-50</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/330993686_ISOLATION_OF_PHENOL_DEGRADING_BACTERIA_FROM_INDUSTRIAL_WASTE</t>
   </si>
   <si>
     <t>A Scientific Study of Transplanting Date effect on Infestation of Insect Pests of Cabbage., 9(1): 41-46</t>
@@ -3342,6 +3339,12 @@
   </si>
   <si>
     <t>Arya, S.; Shukla, M.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15676310</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15676310/files/ISOLATION%20OF%20PHENOL%20DEGRADING%20BACTERIA%20FROM%20INDUSTRIAL%20WASTE.pdf</t>
   </si>
 </sst>
 </file>
@@ -3979,6 +3982,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4281,8 +4288,8 @@
   </sheetPr>
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J23" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1"/>
@@ -4309,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1" s="60" t="s">
         <v>2</v>
@@ -4342,13 +4349,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="43.2" customHeight="1">
@@ -4356,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" s="62" t="s">
         <v>13</v>
@@ -4374,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>16</v>
@@ -4386,13 +4393,13 @@
         <v>17</v>
       </c>
       <c r="L2" s="66" t="s">
+        <v>540</v>
+      </c>
+      <c r="M2" s="61" t="s">
         <v>541</v>
       </c>
-      <c r="M2" s="61" t="s">
-        <v>542</v>
-      </c>
       <c r="N2" s="46" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O2" s="63" t="str">
         <f>_xlfn.CONCAT(N2," (",D2,") ",B2, ". ", C2, ".", F2, " (",G2,"): ",H2)</f>
@@ -4404,7 +4411,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="62" t="s">
         <v>24</v>
@@ -4422,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>16</v>
@@ -4434,13 +4441,13 @@
         <v>25</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M3" s="61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N3" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O3" s="63" t="str">
         <f t="shared" ref="O3:O62" si="0">_xlfn.CONCAT(N3," (",D3,") ",B3, ". ", C3, ".", F3, " (",G3,"): ",H3)</f>
@@ -4452,7 +4459,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>27</v>
@@ -4467,10 +4474,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>16</v>
@@ -4482,13 +4489,13 @@
         <v>17</v>
       </c>
       <c r="L4" s="66" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M4" s="61" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O4" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4500,7 +4507,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C5" s="62" t="s">
         <v>30</v>
@@ -4518,7 +4525,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>16</v>
@@ -4536,7 +4543,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O5" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4584,7 +4591,7 @@
         <v>35</v>
       </c>
       <c r="N6" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O6" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4632,7 +4639,7 @@
         <v>38</v>
       </c>
       <c r="N7" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O7" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4644,7 +4651,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C8" s="62" t="s">
         <v>30</v>
@@ -4662,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>16</v>
@@ -4680,7 +4687,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="46" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O8" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4710,7 +4717,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>16</v>
@@ -4728,7 +4735,7 @@
         <v>42</v>
       </c>
       <c r="N9" s="46" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O9" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4740,10 +4747,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D10" s="11">
         <v>2016</v>
@@ -4755,10 +4762,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>16</v>
@@ -4770,13 +4777,13 @@
         <v>25</v>
       </c>
       <c r="L10" s="68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M10" s="64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N10" s="46" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O10" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4806,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>16</v>
@@ -4824,7 +4831,7 @@
         <v>49</v>
       </c>
       <c r="N11" s="46" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O11" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4836,7 +4843,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>51</v>
@@ -4854,7 +4861,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>16</v>
@@ -4866,13 +4873,13 @@
         <v>25</v>
       </c>
       <c r="L12" s="79" t="s">
+        <v>550</v>
+      </c>
+      <c r="M12" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="M12" s="64" t="s">
-        <v>552</v>
-      </c>
       <c r="N12" s="46" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O12" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4884,7 +4891,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>53</v>
@@ -4902,7 +4909,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I13" s="11">
         <v>47715</v>
@@ -4918,7 +4925,7 @@
       </c>
       <c r="M13" s="44"/>
       <c r="N13" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O13" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4930,7 +4937,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>53</v>
@@ -4948,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>16</v>
@@ -4960,11 +4967,11 @@
         <v>25</v>
       </c>
       <c r="L14" s="66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M14" s="44"/>
       <c r="N14" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O14" s="63" t="str">
         <f t="shared" si="0"/>
@@ -4976,7 +4983,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>30</v>
@@ -4994,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>16</v>
@@ -5012,7 +5019,7 @@
         <v>58</v>
       </c>
       <c r="N15" s="46" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O15" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5024,7 +5031,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C16" s="62" t="s">
         <v>30</v>
@@ -5042,7 +5049,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>16</v>
@@ -5060,7 +5067,7 @@
         <v>60</v>
       </c>
       <c r="N16" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O16" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5072,7 +5079,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C17" s="62" t="s">
         <v>30</v>
@@ -5090,7 +5097,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>16</v>
@@ -5108,7 +5115,7 @@
         <v>62</v>
       </c>
       <c r="N17" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O17" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5120,7 +5127,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>64</v>
@@ -5138,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>16</v>
@@ -5150,13 +5157,13 @@
         <v>25</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M18" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N18" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O18" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5186,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>16</v>
@@ -5204,7 +5211,7 @@
         <v>66</v>
       </c>
       <c r="N19" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O19" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5216,7 +5223,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C20" s="62" t="s">
         <v>30</v>
@@ -5234,7 +5241,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>16</v>
@@ -5252,7 +5259,7 @@
         <v>68</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O20" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5264,7 +5271,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>70</v>
@@ -5282,7 +5289,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="44" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>16</v>
@@ -5300,7 +5307,7 @@
         <v>71</v>
       </c>
       <c r="N21" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O21" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5312,7 +5319,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>53</v>
@@ -5330,7 +5337,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="44" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>16</v>
@@ -5346,7 +5353,7 @@
       </c>
       <c r="M22" s="44"/>
       <c r="N22" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O22" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5358,7 +5365,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>30</v>
@@ -5376,7 +5383,7 @@
         <v>6</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>16</v>
@@ -5394,7 +5401,7 @@
         <v>75</v>
       </c>
       <c r="N23" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O23" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5406,7 +5413,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C24" s="62" t="s">
         <v>70</v>
@@ -5424,7 +5431,7 @@
         <v>8</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>16</v>
@@ -5440,7 +5447,7 @@
       </c>
       <c r="M24" s="44"/>
       <c r="N24" s="46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O24" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5452,7 +5459,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>79</v>
@@ -5470,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>16</v>
@@ -5486,7 +5493,7 @@
       </c>
       <c r="M25" s="44"/>
       <c r="N25" s="46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O25" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5498,7 +5505,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C26" s="62" t="s">
         <v>53</v>
@@ -5516,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I26" s="11">
         <v>47715</v>
@@ -5528,13 +5535,13 @@
         <v>25</v>
       </c>
       <c r="L26" s="67" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M26" s="44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N26" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O26" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5546,7 +5553,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>84</v>
@@ -5564,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I27" s="11">
         <v>62958</v>
@@ -5580,7 +5587,7 @@
       </c>
       <c r="M27" s="44"/>
       <c r="N27" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O27" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5592,7 +5599,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C28" s="62" t="s">
         <v>87</v>
@@ -5610,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I28" s="11">
         <v>7775</v>
@@ -5622,13 +5629,13 @@
         <v>25</v>
       </c>
       <c r="L28" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="M28" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="M28" s="64" t="s">
+      <c r="N28" s="46" t="s">
         <v>555</v>
-      </c>
-      <c r="N28" s="46" t="s">
-        <v>556</v>
       </c>
       <c r="O28" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5640,7 +5647,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>53</v>
@@ -5658,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I29" s="11">
         <v>47715</v>
@@ -5674,7 +5681,7 @@
       </c>
       <c r="M29" s="44"/>
       <c r="N29" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O29" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5686,7 +5693,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C30" s="62" t="s">
         <v>92</v>
@@ -5704,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I30" s="11">
         <v>4662</v>
@@ -5722,7 +5729,7 @@
         <v>94</v>
       </c>
       <c r="N30" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O30" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5734,7 +5741,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C31" s="62" t="s">
         <v>96</v>
@@ -5752,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="44" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I31" s="11">
         <v>7783</v>
@@ -5768,7 +5775,7 @@
       </c>
       <c r="M31" s="44"/>
       <c r="N31" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O31" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5780,7 +5787,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C32" s="62" t="s">
         <v>99</v>
@@ -5798,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I32" s="11">
         <v>7775</v>
@@ -5810,11 +5817,11 @@
         <v>25</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M32" s="44"/>
       <c r="N32" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O32" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5826,7 +5833,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C33" s="62" t="s">
         <v>92</v>
@@ -5844,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I33" s="11">
         <v>4662</v>
@@ -5855,12 +5862,14 @@
       <c r="K33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="M33" s="44"/>
+      <c r="L33" s="78" t="s">
+        <v>556</v>
+      </c>
+      <c r="M33" s="64" t="s">
+        <v>557</v>
+      </c>
       <c r="N33" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O33" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5872,10 +5881,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="11">
         <v>2018</v>
@@ -5890,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I34" s="11">
         <v>62958</v>
@@ -5906,7 +5915,7 @@
       </c>
       <c r="M34" s="44"/>
       <c r="N34" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O34" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5918,10 +5927,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C35" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="11">
         <v>2018</v>
@@ -5936,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I35" s="11">
         <v>7783</v>
@@ -5948,11 +5957,11 @@
         <v>25</v>
       </c>
       <c r="L35" s="67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M35" s="44"/>
       <c r="N35" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O35" s="63" t="str">
         <f t="shared" si="0"/>
@@ -5964,10 +5973,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="62" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="11">
         <v>2018</v>
@@ -5982,7 +5991,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I36" s="11">
         <v>62958</v>
@@ -5994,11 +6003,11 @@
         <v>25</v>
       </c>
       <c r="L36" s="67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M36" s="44"/>
       <c r="N36" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O36" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6010,10 +6019,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="11">
         <v>2018</v>
@@ -6028,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I37" s="11">
         <v>7783</v>
@@ -6040,11 +6049,11 @@
         <v>25</v>
       </c>
       <c r="L37" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M37" s="44"/>
       <c r="N37" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O37" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6056,10 +6065,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="11">
         <v>2018</v>
@@ -6074,7 +6083,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I38" s="11">
         <v>62958</v>
@@ -6086,11 +6095,11 @@
         <v>25</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M38" s="44"/>
       <c r="N38" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O38" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6102,7 +6111,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="62" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C39" s="62" t="s">
         <v>99</v>
@@ -6120,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I39" s="11">
         <v>7775</v>
@@ -6132,13 +6141,13 @@
         <v>25</v>
       </c>
       <c r="L39" s="78" t="s">
+        <v>546</v>
+      </c>
+      <c r="M39" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="M39" s="64" t="s">
-        <v>548</v>
-      </c>
       <c r="N39" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O39" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6150,16 +6159,16 @@
         <v>41</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="11">
         <v>2019</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" s="44">
         <v>4</v>
@@ -6168,7 +6177,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I40" s="11">
         <v>40827</v>
@@ -6180,13 +6189,13 @@
         <v>25</v>
       </c>
       <c r="L40" s="66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M40" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N40" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O40" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6198,16 +6207,16 @@
         <v>42</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D41" s="11">
         <v>2019</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="44">
         <v>6</v>
@@ -6216,7 +6225,7 @@
         <v>8</v>
       </c>
       <c r="H41" s="65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I41" s="11">
         <v>40880</v>
@@ -6228,13 +6237,13 @@
         <v>25</v>
       </c>
       <c r="L41" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M41" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N41" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O41" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6246,16 +6255,16 @@
         <v>43</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="11">
         <v>2019</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F42" s="44">
         <v>6</v>
@@ -6264,7 +6273,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I42" s="48" t="s">
         <v>16</v>
@@ -6273,16 +6282,16 @@
         <v>1</v>
       </c>
       <c r="K42" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L42" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="L42" s="67" t="s">
-        <v>125</v>
-      </c>
       <c r="M42" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N42" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O42" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6294,16 +6303,16 @@
         <v>44</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="11">
         <v>2019</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" s="44">
         <v>1</v>
@@ -6312,7 +6321,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>16</v>
@@ -6324,13 +6333,13 @@
         <v>25</v>
       </c>
       <c r="L43" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M43" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N43" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O43" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6342,7 +6351,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C44" s="62" t="s">
         <v>87</v>
@@ -6360,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>16</v>
@@ -6372,13 +6381,13 @@
         <v>25</v>
       </c>
       <c r="L44" s="66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M44" s="44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N44" s="46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O44" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6390,10 +6399,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="11">
         <v>2021</v>
@@ -6408,7 +6417,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>16</v>
@@ -6420,13 +6429,13 @@
         <v>17</v>
       </c>
       <c r="L45" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M45" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N45" s="46" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O45" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6438,16 +6447,16 @@
         <v>47</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="11">
         <v>2022</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" s="44">
         <v>4</v>
@@ -6456,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>16</v>
@@ -6468,13 +6477,13 @@
         <v>17</v>
       </c>
       <c r="L46" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M46" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N46" s="46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O46" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6486,7 +6495,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C47" s="62" t="s">
         <v>87</v>
@@ -6504,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>16</v>
@@ -6516,13 +6525,13 @@
         <v>17</v>
       </c>
       <c r="L47" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M47" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N47" s="46" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O47" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6534,16 +6543,16 @@
         <v>49</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="11">
         <v>2022</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F48" s="44">
         <v>4</v>
@@ -6552,7 +6561,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="70" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>16</v>
@@ -6564,13 +6573,13 @@
         <v>25</v>
       </c>
       <c r="L48" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N48" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O48" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6582,16 +6591,16 @@
         <v>50</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="11">
         <v>2022</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F49" s="44">
         <v>5</v>
@@ -6600,7 +6609,7 @@
         <v>7</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>16</v>
@@ -6612,13 +6621,13 @@
         <v>17</v>
       </c>
       <c r="L49" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N49" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O49" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6630,16 +6639,16 @@
         <v>51</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="11">
         <v>2022</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F50" s="44">
         <v>6</v>
@@ -6648,7 +6657,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="65" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>16</v>
@@ -6660,13 +6669,13 @@
         <v>17</v>
       </c>
       <c r="L50" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M50" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N50" s="46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O50" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6678,16 +6687,16 @@
         <v>52</v>
       </c>
       <c r="B51" s="71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="11">
         <v>2023</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F51" s="44">
         <v>9</v>
@@ -6696,10 +6705,10 @@
         <v>1</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J51" s="11">
         <v>2</v>
@@ -6708,13 +6717,13 @@
         <v>25</v>
       </c>
       <c r="L51" s="66" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M51" s="64" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N51" s="46" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O51" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6726,16 +6735,16 @@
         <v>53</v>
       </c>
       <c r="B52" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="71" t="s">
         <v>153</v>
-      </c>
-      <c r="C52" s="71" t="s">
-        <v>154</v>
       </c>
       <c r="D52" s="11">
         <v>2023</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="44">
         <v>8</v>
@@ -6744,10 +6753,10 @@
         <v>6</v>
       </c>
       <c r="H52" s="44" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J52" s="11">
         <v>2</v>
@@ -6756,13 +6765,13 @@
         <v>25</v>
       </c>
       <c r="L52" s="66" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M52" s="44" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N52" s="46" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O52" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6774,16 +6783,16 @@
         <v>54</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C53" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53" s="11">
         <v>2023</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F53" s="44">
         <v>10</v>
@@ -6792,7 +6801,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>16</v>
@@ -6804,13 +6813,13 @@
         <v>17</v>
       </c>
       <c r="L53" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M53" s="44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N53" s="46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O53" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6822,7 +6831,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C54" s="73" t="s">
         <v>87</v>
@@ -6840,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="H54" s="44" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I54" s="16" t="s">
         <v>16</v>
@@ -6852,13 +6861,13 @@
         <v>17</v>
       </c>
       <c r="L54" s="69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M54" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="N54" s="46" t="s">
         <v>514</v>
-      </c>
-      <c r="N54" s="46" t="s">
-        <v>515</v>
       </c>
       <c r="O54" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6870,7 +6879,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C55" s="62" t="s">
         <v>87</v>
@@ -6888,7 +6897,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>16</v>
@@ -6900,13 +6909,13 @@
         <v>17</v>
       </c>
       <c r="L55" s="66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M55" s="66" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N55" s="46" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O55" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6918,16 +6927,16 @@
         <v>57</v>
       </c>
       <c r="B56" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="62" t="s">
         <v>161</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>162</v>
       </c>
       <c r="D56" s="11">
         <v>2024</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F56" s="44">
         <v>6</v>
@@ -6936,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I56" s="11" t="s">
         <v>16</v>
@@ -6948,13 +6957,13 @@
         <v>17</v>
       </c>
       <c r="L56" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M56" s="64" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N56" s="46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O56" s="63" t="str">
         <f t="shared" si="0"/>
@@ -6966,16 +6975,16 @@
         <v>58</v>
       </c>
       <c r="B57" s="74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D57" s="16">
         <v>2024</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F57" s="44">
         <v>11</v>
@@ -6984,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="44" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>16</v>
@@ -6996,13 +7005,13 @@
         <v>25</v>
       </c>
       <c r="L57" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M57" s="44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N57" s="46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="O57" s="63" t="str">
         <f t="shared" si="0"/>
@@ -7014,16 +7023,16 @@
         <v>59</v>
       </c>
       <c r="B58" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="73" t="s">
         <v>167</v>
-      </c>
-      <c r="C58" s="73" t="s">
-        <v>168</v>
       </c>
       <c r="D58" s="16">
         <v>2024</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F58" s="44">
         <v>27</v>
@@ -7032,10 +7041,10 @@
         <v>2</v>
       </c>
       <c r="H58" s="44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I58" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J58" s="16">
         <v>2</v>
@@ -7044,13 +7053,13 @@
         <v>17</v>
       </c>
       <c r="L58" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M58" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="N58" s="46" t="s">
         <v>472</v>
-      </c>
-      <c r="N58" s="46" t="s">
-        <v>473</v>
       </c>
       <c r="O58" s="63" t="str">
         <f t="shared" si="0"/>
@@ -7062,16 +7071,16 @@
         <v>60</v>
       </c>
       <c r="B59" s="74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C59" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="16">
         <v>2024</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F59" s="44">
         <v>6</v>
@@ -7080,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>16</v>
@@ -7092,13 +7101,13 @@
         <v>17</v>
       </c>
       <c r="L59" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M59" s="44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N59" s="46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O59" s="63" t="str">
         <f t="shared" si="0"/>
@@ -7110,16 +7119,16 @@
         <v>61</v>
       </c>
       <c r="B60" s="63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60" s="44">
         <v>2024</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F60" s="44">
         <v>8</v>
@@ -7128,7 +7137,7 @@
         <v>3</v>
       </c>
       <c r="H60" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I60" s="48" t="s">
         <v>16</v>
@@ -7140,13 +7149,13 @@
         <v>17</v>
       </c>
       <c r="L60" s="69" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M60" s="44" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N60" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O60" s="63" t="str">
         <f t="shared" si="0"/>
@@ -7158,16 +7167,16 @@
         <v>62</v>
       </c>
       <c r="B61" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="63" t="s">
         <v>177</v>
-      </c>
-      <c r="C61" s="63" t="s">
-        <v>178</v>
       </c>
       <c r="D61" s="44">
         <v>2025</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F61" s="44">
         <v>8</v>
@@ -7176,7 +7185,7 @@
         <v>7</v>
       </c>
       <c r="H61" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I61" s="44" t="s">
         <v>16</v>
@@ -7188,13 +7197,13 @@
         <v>25</v>
       </c>
       <c r="L61" s="68" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M61" s="44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N61" s="46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O61" s="63" t="str">
         <f t="shared" si="0"/>
@@ -7206,16 +7215,16 @@
         <v>63</v>
       </c>
       <c r="B62" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C62" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D62" s="44">
         <v>2025</v>
       </c>
       <c r="E62" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F62" s="44">
         <v>11</v>
@@ -7224,7 +7233,7 @@
         <v>6</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I62" s="44" t="s">
         <v>16</v>
@@ -7236,13 +7245,13 @@
         <v>25</v>
       </c>
       <c r="L62" s="68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M62" s="44" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N62" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O62" s="63" t="str">
         <f t="shared" si="0"/>
@@ -7258,58 +7267,58 @@
     <hyperlink ref="L22" r:id="rId3" xr:uid="{D3EED5D0-F187-4FB1-842E-42E68C009F81}"/>
     <hyperlink ref="L29" r:id="rId4" xr:uid="{5D7D7EDC-EA41-43DE-A331-1ED93E38B86B}"/>
     <hyperlink ref="L30" r:id="rId5" xr:uid="{03E9C74E-324C-44DC-91AB-CFECE4362CCB}"/>
-    <hyperlink ref="L33" r:id="rId6" xr:uid="{70D65AD5-1949-4097-8366-FDD3244281C0}"/>
-    <hyperlink ref="L35" r:id="rId7" xr:uid="{A6AE41EE-0DB0-44B7-B6A1-09B4A5C4D590}"/>
-    <hyperlink ref="L36" r:id="rId8" xr:uid="{6EC3FC89-2874-4391-9418-B15DF9BD17BA}"/>
-    <hyperlink ref="L37" r:id="rId9" xr:uid="{4E227E20-5D78-4960-828B-4FB892F69935}"/>
-    <hyperlink ref="L42" r:id="rId10" xr:uid="{CF80D6E9-FC01-41DE-AE5B-C18A8FEE4B61}"/>
-    <hyperlink ref="L43" r:id="rId11" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
-    <hyperlink ref="L9" r:id="rId12" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
-    <hyperlink ref="L49" r:id="rId13" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
-    <hyperlink ref="L57" r:id="rId14" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
-    <hyperlink ref="L53" r:id="rId15" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
-    <hyperlink ref="L59" r:id="rId16" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
-    <hyperlink ref="L19" r:id="rId17" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
-    <hyperlink ref="L5" r:id="rId18" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
-    <hyperlink ref="L6" r:id="rId19" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
-    <hyperlink ref="L7" r:id="rId20" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
-    <hyperlink ref="L11" r:id="rId21" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
-    <hyperlink ref="L15" r:id="rId22" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
-    <hyperlink ref="L16" r:id="rId23" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
-    <hyperlink ref="L17" r:id="rId24" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
-    <hyperlink ref="L20" r:id="rId25" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
-    <hyperlink ref="L21" r:id="rId26" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
-    <hyperlink ref="L23" r:id="rId27" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
-    <hyperlink ref="L24" r:id="rId28" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
-    <hyperlink ref="L25" r:id="rId29" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
-    <hyperlink ref="L44" r:id="rId30" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
-    <hyperlink ref="L46" r:id="rId31" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
-    <hyperlink ref="L47" r:id="rId32" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
-    <hyperlink ref="L50" r:id="rId33" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
-    <hyperlink ref="L8" r:id="rId34" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
-    <hyperlink ref="L45" r:id="rId35" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
-    <hyperlink ref="L48" r:id="rId36" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
-    <hyperlink ref="L54" r:id="rId37" xr:uid="{E180E522-832A-43AA-8FEE-2AFE4A7B28CF}"/>
-    <hyperlink ref="L41" r:id="rId38" xr:uid="{872B02A0-8CDA-4197-A702-BFA228F08936}"/>
-    <hyperlink ref="L40" r:id="rId39" xr:uid="{56154005-22EE-46E1-BAEB-960FED59AF79}"/>
-    <hyperlink ref="L61" r:id="rId40" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
-    <hyperlink ref="L3" r:id="rId41" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
-    <hyperlink ref="L10" r:id="rId42" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
-    <hyperlink ref="M3" r:id="rId43" xr:uid="{EC21521E-1384-42BA-B6B8-E79BC84D15D8}"/>
-    <hyperlink ref="M49" r:id="rId44" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
-    <hyperlink ref="M48" r:id="rId45" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
-    <hyperlink ref="L62" r:id="rId46" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
-    <hyperlink ref="L14" r:id="rId47" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
-    <hyperlink ref="M10" r:id="rId48" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{BF082B39-9F1C-404A-8685-41BF3D8903AE}"/>
-    <hyperlink ref="L58" r:id="rId49" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
-    <hyperlink ref="M54" r:id="rId50" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
-    <hyperlink ref="M4" r:id="rId51" xr:uid="{974063BA-B154-4E21-8DD6-F9B3E8A97592}"/>
-    <hyperlink ref="L4" r:id="rId52" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
-    <hyperlink ref="L2" r:id="rId53" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
-    <hyperlink ref="M2" r:id="rId54" display="https://d1wqtxts1xzle7.cloudfront.net/123292727/ASSOCIATION_STUDIES_IN_ROSES.pdf?1749991358=&amp;response-content-disposition=attachment%3B+filename%3DASSOCIATION_STUDIES_IN_ROSES.pdf&amp;Expires=1749995193&amp;Signature=aRx-d8ac9A8kzc1gx~rJ~6eoWaFzS4PqqDzlf0juPxP7xd3pB~ANbxX4QwE8YQlvtvw-L5VpptSzTr4eK~AFZqD7cF4lboDVRcePuZFbgMJDWM2WIB4Yc05k8iA8XSNgt017X641kNpeWpn14Gs-j08B9l7hKkl3Eq6NJ5-CfXfI1oMtEatYb9cpDgcBME~xlcfbWKwRgh0Jfwf2zj251jEb-Eb9NTffjINA~hbiE3IsFSJLdWeuLYkY4ZcVgxSeMuH0nA7bassIVwGqD-8g6CpOvnH9mtYbkoqxMQlZTX5k3s5jV6bDsA6KqXwwYl4zVGZ7CBPiEW6OtXDubxgVSg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{BA15B3BC-EAD1-4BF5-B76B-4D556A998AF5}"/>
-    <hyperlink ref="M12" r:id="rId55" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
-    <hyperlink ref="L28" r:id="rId56" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
-    <hyperlink ref="M28" r:id="rId57" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
+    <hyperlink ref="L35" r:id="rId6" xr:uid="{A6AE41EE-0DB0-44B7-B6A1-09B4A5C4D590}"/>
+    <hyperlink ref="L36" r:id="rId7" xr:uid="{6EC3FC89-2874-4391-9418-B15DF9BD17BA}"/>
+    <hyperlink ref="L37" r:id="rId8" xr:uid="{4E227E20-5D78-4960-828B-4FB892F69935}"/>
+    <hyperlink ref="L42" r:id="rId9" xr:uid="{CF80D6E9-FC01-41DE-AE5B-C18A8FEE4B61}"/>
+    <hyperlink ref="L43" r:id="rId10" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
+    <hyperlink ref="L9" r:id="rId11" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
+    <hyperlink ref="L49" r:id="rId12" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
+    <hyperlink ref="L57" r:id="rId13" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
+    <hyperlink ref="L53" r:id="rId14" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
+    <hyperlink ref="L59" r:id="rId15" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
+    <hyperlink ref="L19" r:id="rId16" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
+    <hyperlink ref="L5" r:id="rId17" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
+    <hyperlink ref="L6" r:id="rId18" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
+    <hyperlink ref="L7" r:id="rId19" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
+    <hyperlink ref="L11" r:id="rId20" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
+    <hyperlink ref="L15" r:id="rId21" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
+    <hyperlink ref="L16" r:id="rId22" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
+    <hyperlink ref="L17" r:id="rId23" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
+    <hyperlink ref="L20" r:id="rId24" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
+    <hyperlink ref="L21" r:id="rId25" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
+    <hyperlink ref="L23" r:id="rId26" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
+    <hyperlink ref="L24" r:id="rId27" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
+    <hyperlink ref="L25" r:id="rId28" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
+    <hyperlink ref="L44" r:id="rId29" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
+    <hyperlink ref="L46" r:id="rId30" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
+    <hyperlink ref="L47" r:id="rId31" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
+    <hyperlink ref="L50" r:id="rId32" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
+    <hyperlink ref="L8" r:id="rId33" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
+    <hyperlink ref="L45" r:id="rId34" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
+    <hyperlink ref="L48" r:id="rId35" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
+    <hyperlink ref="L54" r:id="rId36" xr:uid="{E180E522-832A-43AA-8FEE-2AFE4A7B28CF}"/>
+    <hyperlink ref="L41" r:id="rId37" xr:uid="{872B02A0-8CDA-4197-A702-BFA228F08936}"/>
+    <hyperlink ref="L40" r:id="rId38" xr:uid="{56154005-22EE-46E1-BAEB-960FED59AF79}"/>
+    <hyperlink ref="L61" r:id="rId39" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
+    <hyperlink ref="L3" r:id="rId40" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
+    <hyperlink ref="L10" r:id="rId41" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
+    <hyperlink ref="M3" r:id="rId42" xr:uid="{EC21521E-1384-42BA-B6B8-E79BC84D15D8}"/>
+    <hyperlink ref="M49" r:id="rId43" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
+    <hyperlink ref="M48" r:id="rId44" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
+    <hyperlink ref="L62" r:id="rId45" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
+    <hyperlink ref="L14" r:id="rId46" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
+    <hyperlink ref="M10" r:id="rId47" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{BF082B39-9F1C-404A-8685-41BF3D8903AE}"/>
+    <hyperlink ref="L58" r:id="rId48" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
+    <hyperlink ref="M54" r:id="rId49" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
+    <hyperlink ref="M4" r:id="rId50" xr:uid="{974063BA-B154-4E21-8DD6-F9B3E8A97592}"/>
+    <hyperlink ref="L4" r:id="rId51" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
+    <hyperlink ref="L2" r:id="rId52" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
+    <hyperlink ref="M2" r:id="rId53" display="https://d1wqtxts1xzle7.cloudfront.net/123292727/ASSOCIATION_STUDIES_IN_ROSES.pdf?1749991358=&amp;response-content-disposition=attachment%3B+filename%3DASSOCIATION_STUDIES_IN_ROSES.pdf&amp;Expires=1749995193&amp;Signature=aRx-d8ac9A8kzc1gx~rJ~6eoWaFzS4PqqDzlf0juPxP7xd3pB~ANbxX4QwE8YQlvtvw-L5VpptSzTr4eK~AFZqD7cF4lboDVRcePuZFbgMJDWM2WIB4Yc05k8iA8XSNgt017X641kNpeWpn14Gs-j08B9l7hKkl3Eq6NJ5-CfXfI1oMtEatYb9cpDgcBME~xlcfbWKwRgh0Jfwf2zj251jEb-Eb9NTffjINA~hbiE3IsFSJLdWeuLYkY4ZcVgxSeMuH0nA7bassIVwGqD-8g6CpOvnH9mtYbkoqxMQlZTX5k3s5jV6bDsA6KqXwwYl4zVGZ7CBPiEW6OtXDubxgVSg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{BA15B3BC-EAD1-4BF5-B76B-4D556A998AF5}"/>
+    <hyperlink ref="M12" r:id="rId54" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
+    <hyperlink ref="L28" r:id="rId55" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
+    <hyperlink ref="M28" r:id="rId56" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
+    <hyperlink ref="M33" r:id="rId57" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId58"/>
@@ -7339,13 +7348,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1">
       <c r="A1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="59" t="s">
         <v>185</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>186</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -7354,277 +7363,277 @@
         <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1">
       <c r="A2" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="D2" s="16">
         <v>2005</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>195</v>
       </c>
       <c r="G2" s="16">
         <v>3</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>196</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1">
       <c r="A3" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="D3" s="16">
         <v>2017</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>202</v>
       </c>
       <c r="G3" s="16">
         <v>2</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1">
       <c r="A4" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>206</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D4" s="16">
         <v>2017</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" s="16">
         <v>2</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.4">
       <c r="A5" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="D5" s="16">
         <v>2017</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.4">
       <c r="A6" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>220</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="39.6">
       <c r="A7" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="D7" s="16">
         <v>2020</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G7" s="16">
         <v>2</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="52.8">
       <c r="A8" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>228</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="D8" s="16">
         <v>2021</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>231</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.6">
       <c r="A9" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>235</v>
       </c>
       <c r="D9" s="16">
         <v>2022</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="G9" s="16">
         <v>2</v>
       </c>
       <c r="H9" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>238</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="52.8">
       <c r="A10" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>241</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>242</v>
       </c>
       <c r="D10" s="16">
         <v>2023</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>243</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>244</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
       </c>
       <c r="H10" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="52.8">
@@ -7632,28 +7641,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>247</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>248</v>
       </c>
       <c r="D11" s="16">
         <v>2024</v>
       </c>
       <c r="E11" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>251</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6">
@@ -7661,28 +7670,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>254</v>
       </c>
       <c r="D12" s="16">
         <v>2024</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
       </c>
       <c r="H12" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="100.8">
@@ -7690,31 +7699,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="75" t="s">
+        <v>527</v>
+      </c>
+      <c r="C13" s="76" t="s">
         <v>528</v>
-      </c>
-      <c r="C13" s="76" t="s">
-        <v>529</v>
       </c>
       <c r="D13" s="75">
         <v>2024</v>
       </c>
       <c r="E13" s="75" t="s">
+        <v>529</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="75">
+        <v>1</v>
+      </c>
+      <c r="H13" s="77" t="s">
         <v>530</v>
       </c>
-      <c r="F13" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="75">
-        <v>1</v>
-      </c>
-      <c r="H13" s="77" t="s">
+      <c r="I13" t="s">
         <v>531</v>
       </c>
-      <c r="I13" t="s">
-        <v>532</v>
-      </c>
       <c r="J13" s="76" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -7740,46 +7749,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B2" t="s">
         <v>534</v>
       </c>
-      <c r="B2" t="s">
-        <v>535</v>
-      </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" t="s">
         <v>536</v>
-      </c>
-      <c r="C3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -7804,287 +7813,287 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="31.2">
       <c r="A35" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="31.2">
       <c r="A38" s="35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -8114,86 +8123,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.8" thickBot="1">
       <c r="A1" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="53" t="s">
         <v>317</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" thickBot="1">
       <c r="A2" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="55" t="s">
         <v>321</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" thickBot="1">
       <c r="A3" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>325</v>
-      </c>
       <c r="D3" s="55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" thickBot="1">
       <c r="A4" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" thickBot="1">
       <c r="A5" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>328</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D5" s="55" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.6" thickBot="1">
       <c r="A6" s="56" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>330</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -8220,27 +8229,27 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" t="s">
         <v>332</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>333</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>334</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>335</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>336</v>
-      </c>
-      <c r="F1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -8261,7 +8270,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B3">
         <v>9.6999999999999993</v>
@@ -8323,10 +8332,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
@@ -8469,7 +8478,7 @@
     </row>
     <row r="8" spans="1:7" ht="31.2">
       <c r="A8" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>30</v>
@@ -8492,7 +8501,7 @@
     </row>
     <row r="9" spans="1:7" ht="31.2">
       <c r="A9" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>30</v>
@@ -8630,7 +8639,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>53</v>
@@ -9113,10 +9122,10 @@
     </row>
     <row r="36" spans="1:7" ht="31.2">
       <c r="A36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="C36" s="11">
         <v>2018</v>
@@ -9136,10 +9145,10 @@
     </row>
     <row r="37" spans="1:7" ht="31.2">
       <c r="A37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>104</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="C37" s="11">
         <v>2018</v>
@@ -9159,10 +9168,10 @@
     </row>
     <row r="38" spans="1:7" ht="31.2">
       <c r="A38" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="11">
         <v>2018</v>
@@ -9182,10 +9191,10 @@
     </row>
     <row r="39" spans="1:7" ht="31.2">
       <c r="A39" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="11">
         <v>2018</v>
@@ -9205,10 +9214,10 @@
     </row>
     <row r="40" spans="1:7" ht="31.2">
       <c r="A40" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C40" s="11">
         <v>2018</v>
@@ -9228,7 +9237,7 @@
     </row>
     <row r="41" spans="1:7" ht="15.6">
       <c r="A41" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>99</v>
@@ -9251,16 +9260,16 @@
     </row>
     <row r="42" spans="1:7" ht="31.2">
       <c r="A42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="C42" s="11">
         <v>2019</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>25</v>
@@ -9274,16 +9283,16 @@
     </row>
     <row r="43" spans="1:7" ht="31.2">
       <c r="A43" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="C43" s="11">
         <v>2019</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>25</v>
@@ -9297,19 +9306,19 @@
     </row>
     <row r="44" spans="1:7" ht="15.6">
       <c r="A44" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="C44" s="11">
         <v>2019</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -9320,16 +9329,16 @@
     </row>
     <row r="45" spans="1:7" ht="31.2">
       <c r="A45" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="C45" s="11">
         <v>2019</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>25</v>
@@ -9343,7 +9352,7 @@
     </row>
     <row r="46" spans="1:7" ht="15.6">
       <c r="A46" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>87</v>
@@ -9366,10 +9375,10 @@
     </row>
     <row r="47" spans="1:7" ht="31.2">
       <c r="A47" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="C47" s="11">
         <v>2021</v>
@@ -9389,16 +9398,16 @@
     </row>
     <row r="48" spans="1:7" ht="31.2">
       <c r="A48" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="C48" s="11">
         <v>2022</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>17</v>
@@ -9412,7 +9421,7 @@
     </row>
     <row r="49" spans="1:8" ht="46.8">
       <c r="A49" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>87</v>
@@ -9435,16 +9444,16 @@
     </row>
     <row r="50" spans="1:8" ht="31.2">
       <c r="A50" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="C50" s="11">
         <v>2022</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>25</v>
@@ -9458,16 +9467,16 @@
     </row>
     <row r="51" spans="1:8" ht="31.2">
       <c r="A51" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="C51" s="11">
         <v>2022</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>17</v>
@@ -9481,16 +9490,16 @@
     </row>
     <row r="52" spans="1:8" ht="31.2">
       <c r="A52" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52" s="11">
         <v>2022</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>17</v>
@@ -9504,16 +9513,16 @@
     </row>
     <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="C53" s="11">
         <v>2023</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>25</v>
@@ -9527,16 +9536,16 @@
     </row>
     <row r="54" spans="1:8" ht="31.2">
       <c r="A54" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="C54" s="11">
         <v>2023</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>25</v>
@@ -9550,16 +9559,16 @@
     </row>
     <row r="55" spans="1:8" ht="31.8" thickBot="1">
       <c r="A55" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="11">
         <v>2023</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>17</v>
@@ -9573,7 +9582,7 @@
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1">
       <c r="A56" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>87</v>
@@ -9596,7 +9605,7 @@
     </row>
     <row r="57" spans="1:8" ht="31.2">
       <c r="A57" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>87</v>
@@ -9619,16 +9628,16 @@
     </row>
     <row r="58" spans="1:8" ht="16.2" thickBot="1">
       <c r="A58" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="C58" s="11">
         <v>2024</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>17</v>
@@ -9642,16 +9651,16 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1">
       <c r="A59" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="23">
         <v>2024</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>25</v>
@@ -9665,16 +9674,16 @@
     </row>
     <row r="60" spans="1:8" ht="29.4" thickBot="1">
       <c r="A60" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="C60" s="23">
         <v>2024</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>17</v>
@@ -9688,16 +9697,16 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="C61" s="4">
         <v>2024</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>17</v>
@@ -9711,16 +9720,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" s="6">
         <v>2024</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E62" s="36" t="s">
         <v>17</v>
@@ -9735,16 +9744,16 @@
     </row>
     <row r="63" spans="1:8" ht="26.4">
       <c r="A63" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>192</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="C63" s="16">
         <v>2005</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -9755,16 +9764,16 @@
     </row>
     <row r="64" spans="1:8" ht="26.4">
       <c r="A64" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>200</v>
       </c>
       <c r="C64" s="16">
         <v>2017</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -9775,16 +9784,16 @@
     </row>
     <row r="65" spans="1:7" ht="26.4">
       <c r="A65" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C65" s="16">
         <v>2017</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -9795,16 +9804,16 @@
     </row>
     <row r="66" spans="1:7" ht="26.4">
       <c r="A66" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>209</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>210</v>
       </c>
       <c r="C66" s="16">
         <v>2017</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -9815,16 +9824,16 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>218</v>
-      </c>
       <c r="D67" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -9835,16 +9844,16 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="C68" s="16">
         <v>2020</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9855,16 +9864,16 @@
     </row>
     <row r="69" spans="1:7" ht="27.6">
       <c r="A69" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" s="18" t="s">
         <v>228</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="C69" s="16">
         <v>2021</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9875,16 +9884,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>235</v>
       </c>
       <c r="C70" s="16">
         <v>2022</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9895,16 +9904,16 @@
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1">
       <c r="A71" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>241</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>242</v>
       </c>
       <c r="C71" s="16">
         <v>2023</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9915,16 +9924,16 @@
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1">
       <c r="A72" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="39" t="s">
         <v>247</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>248</v>
       </c>
       <c r="C72" s="40">
         <v>2024</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E72"/>
       <c r="F72">
@@ -9936,16 +9945,16 @@
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1">
       <c r="A73" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C73" s="43">
         <v>2024</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E73"/>
       <c r="F73">
@@ -9973,19 +9982,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" t="s">
         <v>347</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>348</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>349</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>350</v>
-      </c>
-      <c r="E1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10027,7 +10036,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -10035,7 +10044,7 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -10043,7 +10052,7 @@
     </row>
     <row r="6" spans="1:1" ht="15">
       <c r="A6" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -10051,7 +10060,7 @@
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -10059,7 +10068,7 @@
     </row>
     <row r="10" spans="1:1" ht="15">
       <c r="A10" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10067,7 +10076,7 @@
     </row>
     <row r="12" spans="1:1" ht="15">
       <c r="A12" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -10075,7 +10084,7 @@
     </row>
     <row r="14" spans="1:1" ht="15">
       <c r="A14" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -10083,7 +10092,7 @@
     </row>
     <row r="16" spans="1:1" ht="15">
       <c r="A16" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -10091,7 +10100,7 @@
     </row>
     <row r="18" spans="1:1" ht="15">
       <c r="A18" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -10099,7 +10108,7 @@
     </row>
     <row r="20" spans="1:1" ht="15">
       <c r="A20" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -10107,7 +10116,7 @@
     </row>
     <row r="22" spans="1:1" ht="15">
       <c r="A22" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -10115,7 +10124,7 @@
     </row>
     <row r="24" spans="1:1" ht="15">
       <c r="A24" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -10123,7 +10132,7 @@
     </row>
     <row r="26" spans="1:1" ht="15">
       <c r="A26" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -10131,7 +10140,7 @@
     </row>
     <row r="28" spans="1:1" ht="15">
       <c r="A28" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -10139,7 +10148,7 @@
     </row>
     <row r="30" spans="1:1" ht="15">
       <c r="A30" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -10147,7 +10156,7 @@
     </row>
     <row r="32" spans="1:1" ht="15">
       <c r="A32" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -10155,7 +10164,7 @@
     </row>
     <row r="34" spans="1:1" ht="15">
       <c r="A34" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -10163,7 +10172,7 @@
     </row>
     <row r="36" spans="1:1" ht="15">
       <c r="A36" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -10171,7 +10180,7 @@
     </row>
     <row r="38" spans="1:1" ht="15">
       <c r="A38" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -10179,7 +10188,7 @@
     </row>
     <row r="40" spans="1:1" ht="15">
       <c r="A40" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -10187,7 +10196,7 @@
     </row>
     <row r="42" spans="1:1" ht="15">
       <c r="A42" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -10195,7 +10204,7 @@
     </row>
     <row r="44" spans="1:1" ht="15">
       <c r="A44" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -10203,7 +10212,7 @@
     </row>
     <row r="46" spans="1:1" ht="15">
       <c r="A46" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/public/db/Research Publications.xlsx
+++ b/public/db/Research Publications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/Biodata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ritwik Sharma\OneDrive\Sunita Arya\SunitaArya\public\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="554" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9163F48E-AD4D-4546-B487-D22DCC338B94}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DA7CAA-0FA7-41A9-B664-ACAB36E0185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23508" yWindow="5832" windowWidth="22104" windowHeight="11208" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" activeTab="1" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="560">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -533,9 +533,6 @@
   </si>
   <si>
     <t>https://www.faunajournal.com/archives/2023/vol10issue3/PartA/10-3-2-226.pdf</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/378460110_A_REVIEW_ON_BEHAVIOR_OF_MUSCOVY_DUCK_CAIRINA_MOSCHATA</t>
   </si>
   <si>
     <t>IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH)</t>
@@ -2835,9 +2832,6 @@
     <t>110-114</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392655251_Investigation_on_phenotypic_correlation_in_gladiolus_genotype/links/684c0e7d34470a1134eaaf91/Investigation-on-phenotypic-correlation-in-gladiolus-genotype.pdf</t>
-  </si>
-  <si>
     <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392655423_Population_Dynamics_of_lemon_butterfly_in_citrus_crop/links/684c1177131a7f2849f14e08/Population-Dynamics-of-lemon-butterfly-in-citrus-crop.pdf</t>
   </si>
   <si>
@@ -3195,156 +3189,164 @@
     <t>Rani, K.; Singh, S.; Prakash, S.; Arya, S.</t>
   </si>
   <si>
+    <t>74-80</t>
+  </si>
+  <si>
+    <t>16-18</t>
+  </si>
+  <si>
+    <t>1605-1608</t>
+  </si>
+  <si>
+    <t>Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.</t>
+  </si>
+  <si>
+    <t>https://www.entomologyjournals.com/assets/archives/2023/vol8issue6/8099-1688128176247.pdf</t>
+  </si>
+  <si>
+    <t>50-52</t>
+  </si>
+  <si>
+    <t>109-111</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.53390/ijbs.v13i2.2</t>
+  </si>
+  <si>
+    <t>01-03</t>
+  </si>
+  <si>
+    <t>29-31</t>
+  </si>
+  <si>
+    <t>Association Studies in Roses</t>
+  </si>
+  <si>
+    <t>Silicen Horizons: Pioneering Advances in Extensive Sericultrue</t>
+  </si>
+  <si>
+    <t>Emergin Trend in Sciences and Allied Science</t>
+  </si>
+  <si>
+    <t>203-210</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Vilas V. Patil, Dr. Digvijay S. Kumbhar, Dr. Pratishtha N. Nagane, Mr. Agastirishi B. Toradmal, Dr. Sunita Arya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">978-81-959483-9-0 </t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Emerging Trends in Science and Allied Sciences</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/11097612/files/Emerging%20Trend%20in%20Sciences%20and%20Allied%20Sciences.pdf</t>
+  </si>
+  <si>
+    <t>https://naturelightpublications.com/wp-content/uploads/2024/09/Environment-and-Society-2022.pdf</t>
+  </si>
+  <si>
+    <t>978-81-985002-7-0</t>
+  </si>
+  <si>
+    <t>https://naturelightpublications.com/wp-content/uploads/2024/09/Environment-and-Society-2023.pdf</t>
+  </si>
+  <si>
+    <t>https://www.irejournals.com/formatedpaper/1706341.pdf</t>
+  </si>
+  <si>
+    <t>Suppl</t>
+  </si>
+  <si>
+    <t>https://www.academia.edu/129962993/ASSOCIATION_STUDIES_IN_ROSES</t>
+  </si>
+  <si>
+    <t>https://d1wqtxts1xzle7.cloudfront.net/123292727/ASSOCIATION_STUDIES_IN_ROSES.pdf?1749991358=&amp;response-content-disposition=attachment%3B+filename%3DASSOCIATION_STUDIES_IN_ROSES.pdf&amp;Expires=1749995193&amp;Signature=aRx-d8ac9A8kzc1gx~rJ~6eoWaFzS4PqqDzlf0juPxP7xd3pB~ANbxX4QwE8YQlvtvw-L5VpptSzTr4eK~AFZqD7cF4lboDVRcePuZFbgMJDWM2WIB4Yc05k8iA8XSNgt017X641kNpeWpn14Gs-j08B9l7hKkl3Eq6NJ5-CfXfI1oMtEatYb9cpDgcBME~xlcfbWKwRgh0Jfwf2zj251jEb-Eb9NTffjINA~hbiE3IsFSJLdWeuLYkY4ZcVgxSeMuH0nA7bassIVwGqD-8g6CpOvnH9mtYbkoqxMQlZTX5k3s5jV6bDsA6KqXwwYl4zVGZ7CBPiEW6OtXDubxgVSg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
+  </si>
+  <si>
+    <t>Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392655251_Investigation_on_phenotypic_correlation_in_gladiolus_genotype</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15669102/files/VERMICOMPOSTING-%20PROFITABLE%20ORGANIC%20FERTILIZER.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15669102</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15669147</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15669147/files/Biometrical%20Studies%20of%20Floribunda%20Roses.pdf?download=1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.33745/ijzi.2023.v09i01.044</t>
+  </si>
+  <si>
+    <t>Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India)</t>
+  </si>
+  <si>
+    <t>10.5281/zenodo.15669228</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15669228/files/Evaluation%20of%20Water%20Quality%20in%20River%20Ganga%20Due%20to%20Contaminant%20of%20Heavy%20Metals,%20Kanpur%20(India).pdf?download=1</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15670013/files/Studies%20on%20Pathogenicity%20of%20Nematode%20Infecting%20Roses.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15670053</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15670053/files/Chromium%20(Cr+6)%20Toxicity%20and%20its%20Adverse%20Health%20Effect%20on%20Fresh%20Water%20Fish-%20A%20Review%20Article.pdf</t>
+  </si>
+  <si>
+    <t>Arya, S.; Shukla, M.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15676310</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15676310/files/ISOLATION%20OF%20PHENOL%20DEGRADING%20BACTERIA%20FROM%20INDUSTRIAL%20WASTE.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.33745/ijzi.2025.v11i01.079</t>
+  </si>
+  <si>
+    <t>752-759</t>
+  </si>
+  <si>
+    <t>Impact of Seasonal Variation on Physiochemical Parameters in Ganga River and Bhimsen Pond Water, Kanpur, India</t>
+  </si>
+  <si>
     <r>
       <t>A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Helvetica"/>
       </rPr>
       <t>CAIRINA MOSCHATA</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Helvetica"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>74-80</t>
-  </si>
-  <si>
-    <t>16-18</t>
-  </si>
-  <si>
-    <t>1605-1608</t>
-  </si>
-  <si>
-    <t>Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.</t>
-  </si>
-  <si>
-    <t>https://www.entomologyjournals.com/assets/archives/2023/vol8issue6/8099-1688128176247.pdf</t>
-  </si>
-  <si>
-    <t>50-52</t>
-  </si>
-  <si>
-    <t>109-111</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.53390/ijbs.v13i2.2</t>
-  </si>
-  <si>
-    <t>01-03</t>
-  </si>
-  <si>
-    <t>29-31</t>
-  </si>
-  <si>
-    <t>Association Studies in Roses</t>
-  </si>
-  <si>
-    <t>Silicen Horizons: Pioneering Advances in Extensive Sericultrue</t>
-  </si>
-  <si>
-    <t>Emergin Trend in Sciences and Allied Science</t>
-  </si>
-  <si>
-    <t>203-210</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Vilas V. Patil, Dr. Digvijay S. Kumbhar, Dr. Pratishtha N. Nagane, Mr. Agastirishi B. Toradmal, Dr. Sunita Arya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">978-81-959483-9-0 </t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Emerging Trends in Science and Allied Sciences</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/11097612/files/Emerging%20Trend%20in%20Sciences%20and%20Allied%20Sciences.pdf</t>
-  </si>
-  <si>
-    <t>https://naturelightpublications.com/wp-content/uploads/2024/09/Environment-and-Society-2022.pdf</t>
-  </si>
-  <si>
-    <t>978-81-985002-7-0</t>
-  </si>
-  <si>
-    <t>https://naturelightpublications.com/wp-content/uploads/2024/09/Environment-and-Society-2023.pdf</t>
-  </si>
-  <si>
-    <t>https://www.irejournals.com/formatedpaper/1706341.pdf</t>
-  </si>
-  <si>
-    <t>Suppl</t>
-  </si>
-  <si>
-    <t>https://www.academia.edu/129962993/ASSOCIATION_STUDIES_IN_ROSES</t>
-  </si>
-  <si>
-    <t>https://d1wqtxts1xzle7.cloudfront.net/123292727/ASSOCIATION_STUDIES_IN_ROSES.pdf?1749991358=&amp;response-content-disposition=attachment%3B+filename%3DASSOCIATION_STUDIES_IN_ROSES.pdf&amp;Expires=1749995193&amp;Signature=aRx-d8ac9A8kzc1gx~rJ~6eoWaFzS4PqqDzlf0juPxP7xd3pB~ANbxX4QwE8YQlvtvw-L5VpptSzTr4eK~AFZqD7cF4lboDVRcePuZFbgMJDWM2WIB4Yc05k8iA8XSNgt017X641kNpeWpn14Gs-j08B9l7hKkl3Eq6NJ5-CfXfI1oMtEatYb9cpDgcBME~xlcfbWKwRgh0Jfwf2zj251jEb-Eb9NTffjINA~hbiE3IsFSJLdWeuLYkY4ZcVgxSeMuH0nA7bassIVwGqD-8g6CpOvnH9mtYbkoqxMQlZTX5k3s5jV6bDsA6KqXwwYl4zVGZ7CBPiEW6OtXDubxgVSg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
-  </si>
-  <si>
-    <t>Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392655251_Investigation_on_phenotypic_correlation_in_gladiolus_genotype</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/15669102/files/VERMICOMPOSTING-%20PROFITABLE%20ORGANIC%20FERTILIZER.pdf</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.15669102</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.15669147</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/15669147/files/Biometrical%20Studies%20of%20Floribunda%20Roses.pdf?download=1</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.33745/ijzi.2023.v09i01.044</t>
-  </si>
-  <si>
-    <t>Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India)</t>
-  </si>
-  <si>
-    <t>10.5281/zenodo.15669228</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/15669228/files/Evaluation%20of%20Water%20Quality%20in%20River%20Ganga%20Due%20to%20Contaminant%20of%20Heavy%20Metals,%20Kanpur%20(India).pdf?download=1</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/15670013/files/Studies%20on%20Pathogenicity%20of%20Nematode%20Infecting%20Roses.pdf</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.15670053</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/15670053/files/Chromium%20(Cr+6)%20Toxicity%20and%20its%20Adverse%20Health%20Effect%20on%20Fresh%20Water%20Fish-%20A%20Review%20Article.pdf</t>
-  </si>
-  <si>
-    <t>Arya, S.; Shukla, M.</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.15676310</t>
-  </si>
-  <si>
-    <t>https://zenodo.org/records/15676310/files/ISOLATION%20OF%20PHENOL%20DEGRADING%20BACTERIA%20FROM%20INDUSTRIAL%20WASTE.pdf</t>
+    <t>https://zenodo.org/records/15695661/files/Impact%20of%20Seasonal%20Variation%20on%20Physiochemical%20Parameters%20in%20Ganga%20River%20and%20Bhumsen%20Pond%20Water,%20Kanpur,%20India.pdf</t>
   </si>
 </sst>
 </file>
@@ -3354,7 +3356,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3442,14 +3444,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -3516,15 +3510,38 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3732,7 +3749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3771,7 +3788,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3784,9 +3801,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3810,24 +3824,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3860,31 +3874,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3902,51 +3904,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3957,13 +3916,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="16" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4286,13 +4289,13 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="O1" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="75.33203125" style="6" customWidth="1"/>
@@ -4311,2951 +4314,2991 @@
     <col min="16" max="16384" width="30.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="N1" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>523</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="59">
+        <v>1994</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="61">
+        <v>6</v>
+      </c>
+      <c r="G2" s="61">
+        <v>9</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>373</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="59">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A2" s="44">
-        <v>1</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>526</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1994</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="44">
-        <v>6</v>
-      </c>
-      <c r="G2" s="44">
-        <v>9</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="11">
-        <v>3</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="66" t="s">
-        <v>540</v>
-      </c>
-      <c r="M2" s="61" t="s">
-        <v>541</v>
-      </c>
-      <c r="N2" s="46" t="s">
-        <v>446</v>
-      </c>
-      <c r="O2" s="63" t="str">
+      <c r="L2" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>538</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" s="61" t="str">
         <f>_xlfn.CONCAT(N2," (",D2,") ",B2, ". ", C2, ".", F2, " (",G2,"): ",H2)</f>
         <v>Tewari, U.C.; Kumar, R.; Arya, S. (1994) Association Studies in Roses. Farm Science Journal.6 (9): 189-191</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A3" s="44">
+    <row r="3" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="59">
+        <v>2003</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="61">
+        <v>12</v>
+      </c>
+      <c r="G3" s="61">
+        <v>2</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>374</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="59">
+        <v>1</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="M3" s="60"/>
+      <c r="N3" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O3" s="61" t="str">
+        <f t="shared" ref="O3:O63" si="0">_xlfn.CONCAT(N3," (",D3,") ",B3, ". ", C3, ".", F3, " (",G3,"): ",H3)</f>
+        <v>Arya, S. (2003) Population Dynamics of lemon butterfly in citrus crop. Farm Science Journal .12 (2): 507-511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61">
+        <v>5</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2003</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="44">
-        <v>12</v>
-      </c>
-      <c r="G3" s="44">
+      <c r="C4" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="59">
+        <v>2005</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="61">
         <v>2</v>
       </c>
-      <c r="H3" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="G4" s="61" t="s">
+        <v>536</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>374</v>
+      </c>
+      <c r="I4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O3" s="63" t="str">
-        <f t="shared" ref="O3:O62" si="0">_xlfn.CONCAT(N3," (",D3,") ",B3, ". ", C3, ".", F3, " (",G3,"): ",H3)</f>
-        <v>Arya, S. (2003) Population Dynamics of lemon butterfly in citrus crop. Farm Science Journal .12 (2): 507-511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A4" s="44">
-        <v>5</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2005</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="44">
-        <v>2</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>539</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="J4" s="59">
         <v>3</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="66" t="s">
-        <v>543</v>
-      </c>
-      <c r="M4" s="61" t="s">
-        <v>395</v>
-      </c>
-      <c r="N4" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="O4" s="63" t="str">
+      <c r="L4" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="M4" s="60"/>
+      <c r="N4" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="O4" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Tewari, U.C.; Kumar, R.; Arya, S.; Dwivedi, A. (2005) Investigation on phenotypic correlation in gladiolus genotype. National Journal of Science.2 (Suppl): 507-511</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A5" s="44">
+    <row r="5" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61">
         <v>6</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" s="62" t="s">
+      <c r="B5" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="59">
         <v>2013</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="61">
         <v>2</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="61">
         <v>11</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>424</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="I5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="59">
         <v>2</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O5" s="63" t="str">
+      <c r="N5" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O5" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2013) A research study of phytohormone on vegetative growth and flowering behavior in gladiolus (gladiolus grandifloras). International Journal of Innovative Research in Science, Engineering and Technology.2 (11): 7060-7062</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A6" s="44">
+    <row r="6" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61">
         <v>7</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="59">
         <v>2013</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="61">
         <v>2</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="61">
         <v>11</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="59">
         <v>2</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="O6" s="63" t="str">
+      <c r="N6" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O6" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2013) Bio efficacy of entomopathogenic fungi against oriental fruit fly (dacus dorsalis H.) infesting guava in riverbed area of ganga. International Journal of Innovative Research in Science, Engineering and Technology.2 (11): 7066-7068</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A7" s="44">
+    <row r="7" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61">
         <v>8</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="59">
         <v>2013</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="61">
         <v>2</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="61">
         <v>12</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="59">
         <v>2</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="O7" s="63" t="str">
+      <c r="N7" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O7" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2013) Studies on citrus crop insect –pest management with adhesive cage under integrated pest management programme. International Journal of Innovative Research in Science, Engineering and Technology.2 (12): 8088-8091</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A8" s="44">
+    <row r="8" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="61">
         <v>9</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>475</v>
-      </c>
-      <c r="C8" s="62" t="s">
+      <c r="B8" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="59">
         <v>2014</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="61">
         <v>3</v>
       </c>
-      <c r="G8" s="44">
-        <v>1</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="G8" s="61">
+        <v>1</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>472</v>
+      </c>
+      <c r="I8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="59">
         <v>3</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="O8" s="63" t="str">
+      <c r="N8" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="O8" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Dubey, R. K.; Dixit, P.; Arya, S. (2014) Naturally occurring aurones and chromones –a potential organic therapeutic agents improvising nutritional security. International Journal of Innovative Research in Science, Engineering and Technology.3 (1): 8141-8144</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A9" s="44">
+    <row r="9" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61">
         <v>10</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="59">
         <v>2014</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="61">
         <v>3</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="61">
         <v>6</v>
       </c>
-      <c r="H9" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="I9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="59">
         <v>5</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="46" t="s">
-        <v>451</v>
-      </c>
-      <c r="O9" s="63" t="str">
+      <c r="N9" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="O9" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Dubey, R.K.; Katiyar, P.; Dipankar, A.; Tuck, R.R.; Arya, S. (2014) A microbiological study on asthma and allergy management. International Journal of Innovative Research in Science, Engineering and Technology.3 (6): 13763-13766</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A10" s="44">
+    <row r="10" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61">
         <v>11</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="59">
+        <v>2016</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="61">
+        <v>5</v>
+      </c>
+      <c r="G10" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="H10" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="59">
+        <v>2</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="D10" s="11">
-        <v>2016</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="44">
-        <v>5</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>383</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="11">
-        <v>2</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="68" t="s">
-        <v>400</v>
-      </c>
-      <c r="M10" s="64" t="s">
-        <v>400</v>
-      </c>
-      <c r="N10" s="46" t="s">
-        <v>470</v>
-      </c>
-      <c r="O10" s="63" t="str">
+      <c r="M10" s="62"/>
+      <c r="N10" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="O10" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Jaswant, S. (2016) Infestation of insect-pest on guava (psidiumquajava) tree in riverbed area of ganga river in Kanpur. International Research and Reviews.5 (1 (III)): 60-65</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A11" s="44">
+    <row r="11" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="61">
         <v>12</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="59">
         <v>2016</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="61">
         <v>16</v>
       </c>
-      <c r="G11" s="44">
-        <v>1</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="G11" s="61">
+        <v>1</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="I11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="59">
         <v>2</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="L11" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="M11" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="O11" s="63" t="str">
+      <c r="N11" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="O11" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Madhulekha; Arya, S. (2016) Assessment of Water Pollution of River Ganga by Tannery Effluent Using Fish as an Indicator in Kanpur, India. Journal of Biochemical and Cellular Archives .16 (1): 120-123</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A12" s="44">
+    <row r="12" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="61">
         <v>13</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>549</v>
-      </c>
-      <c r="C12" s="62" t="s">
+      <c r="B12" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="59">
         <v>2016</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="61">
         <v>20</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="61">
         <v>2</v>
       </c>
-      <c r="H12" s="44" t="s">
-        <v>478</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="I12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="59">
         <v>2</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="79" t="s">
-        <v>550</v>
-      </c>
-      <c r="M12" s="64" t="s">
-        <v>551</v>
-      </c>
-      <c r="N12" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="O12" s="63" t="str">
+      <c r="L12" s="63" t="s">
+        <v>547</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="O12" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Madhulekha; Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India). International Journal of Innovative Trends in Engineering.20 (2): 97-100</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A13" s="44">
+    <row r="13" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61">
         <v>14</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>343</v>
-      </c>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="59">
         <v>2016</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="61">
         <v>2</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="61">
         <v>6</v>
       </c>
-      <c r="H13" s="44" t="s">
-        <v>402</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="H13" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="I13" s="59">
         <v>47715</v>
       </c>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
-      <c r="K13" s="12" t="s">
+      <c r="J13" s="59">
+        <v>1</v>
+      </c>
+      <c r="K13" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="66" t="s">
+      <c r="L13" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O13" s="63" t="str">
+      <c r="M13" s="61"/>
+      <c r="N13" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O13" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2016) Extent of damage and seasonal abundance of citrus psylla (d. citri) on citrus plant. Academic Social Research.2 (6): 131-136</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A14" s="44">
+    <row r="14" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61">
         <v>15</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>384</v>
-      </c>
-      <c r="C14" s="62" t="s">
+      <c r="B14" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="59">
         <v>2016</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="61">
         <v>2</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="61">
         <v>4</v>
       </c>
-      <c r="H14" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="H14" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="I14" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="J14" s="59">
+        <v>1</v>
+      </c>
+      <c r="K14" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="66" t="s">
-        <v>423</v>
-      </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O14" s="63" t="str">
+      <c r="L14" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="M14" s="61"/>
+      <c r="N14" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O14" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2016) Response of Abiotic Factors on Population of Oriental Fruit Fly (B. Dorsalis) In Guava Varieties. Academic Social Research.2 (4): 73-76</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A15" s="44">
+    <row r="15" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="61">
         <v>16</v>
       </c>
-      <c r="B15" s="62" t="s">
-        <v>484</v>
-      </c>
-      <c r="C15" s="62" t="s">
+      <c r="B15" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="59">
         <v>2017</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="61">
         <v>6</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="61">
         <v>3</v>
       </c>
-      <c r="H15" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="H15" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="I15" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="59">
         <v>2</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="O15" s="63" t="str">
+      <c r="N15" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="O15" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R.K. (2017) Physico-Chemical and Scientific Analysis of Ganga River Water with Special Respect to Bacteriophage Activity and Its Comparative Studies with Sewage Water Treatment. International Journal of Innovative Research in Science, Engineering and Technology.6 (3): 5094-5104</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A16" s="44">
+    <row r="16" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61">
         <v>17</v>
       </c>
-      <c r="B16" s="62" t="s">
-        <v>483</v>
-      </c>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="59">
         <v>2017</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="61">
         <v>6</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="61">
         <v>3</v>
       </c>
-      <c r="H16" s="44" t="s">
-        <v>480</v>
-      </c>
-      <c r="I16" s="11" t="s">
+      <c r="H16" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="I16" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="59">
         <v>2</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="66" t="s">
+      <c r="L16" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="O16" s="63" t="str">
+      <c r="N16" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O16" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) Microbiological Research Studies on Anar Butterfly (Virachola Isocrates F.) Population with Different Factors in Guava Fruit. International Journal of Innovative Research in Science, Engineering and Technology.6 (3): 5089-5093</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A17" s="44">
+    <row r="17" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61">
         <v>18</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>482</v>
-      </c>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="59" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="59">
         <v>2017</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="61">
         <v>6</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="61">
         <v>4</v>
       </c>
-      <c r="H17" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="I17" s="11" t="s">
+      <c r="H17" s="61" t="s">
+        <v>479</v>
+      </c>
+      <c r="I17" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="59">
         <v>2</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="44" t="s">
+      <c r="M17" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="O17" s="63" t="str">
+      <c r="N17" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O17" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) Studies on Application, Importance and Effect of Neem Tree (AzadiachtaIndica) Oil on Effect and Intensity of Guava Insect.. International Journal of Innovative Research in Science, Engineering and Technology.6 (4): 6280-6283</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A18" s="44">
+    <row r="18" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61">
         <v>19</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>385</v>
-      </c>
-      <c r="C18" s="62" t="s">
+      <c r="B18" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="59">
         <v>2017</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="61">
         <v>3</v>
       </c>
-      <c r="G18" s="44">
-        <v>1</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="G18" s="61">
+        <v>1</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="I18" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="11">
-        <v>1</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="J18" s="59">
+        <v>1</v>
+      </c>
+      <c r="K18" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="M18" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="N18" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O18" s="63" t="str">
+      <c r="L18" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="M18" s="61"/>
+      <c r="N18" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O18" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2017) Economics and Bioefficacy of Parapheromones On Fruit Fly, Their Traps and Dispenser. Acadmic Science Research.3 (1): 134-136</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A19" s="44">
+    <row r="19" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61">
         <v>20</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="59">
         <v>2017</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="61">
         <v>6</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="61">
         <v>4</v>
       </c>
-      <c r="H19" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="I19" s="11" t="s">
+      <c r="H19" s="61" t="s">
+        <v>483</v>
+      </c>
+      <c r="I19" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="59">
         <v>2</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="O19" s="63" t="str">
+      <c r="N19" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O19" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) Scientific Studies on Effective Applications of Some Important Essential Elements Nitrogens(N), Phosphorus (P), Zinc (Zn) Nutrional Values on Spike and Floret Development in Gladiolus Crop.,. International Journal of Innovative Research in Science, Engineering and Technology.6 (4): 6275-6279</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A20" s="44">
+    <row r="20" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61">
         <v>21</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>492</v>
-      </c>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="C20" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="59">
         <v>2017</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="61">
         <v>6</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="61">
         <v>5</v>
       </c>
-      <c r="H20" s="44" t="s">
-        <v>486</v>
-      </c>
-      <c r="I20" s="11" t="s">
+      <c r="H20" s="61" t="s">
+        <v>484</v>
+      </c>
+      <c r="I20" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="59">
         <v>2</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="66" t="s">
+      <c r="L20" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="N20" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="O20" s="63" t="str">
+      <c r="N20" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O20" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) A Scientific Study and Analysis of Incidence and Intensity of Bark Eating Catapillar (Inderbela Spp.) In Guava (P. Guajava) Tree. International Journal of Innovative Research in Science, Engineering and Technology.6 (5): 10032-10034</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A21" s="44">
+    <row r="21" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61">
         <v>22</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>491</v>
-      </c>
-      <c r="C21" s="62" t="s">
+      <c r="B21" s="59" t="s">
+        <v>489</v>
+      </c>
+      <c r="C21" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="59">
         <v>2017</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="61">
         <v>6</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="61">
         <v>5</v>
       </c>
-      <c r="H21" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="I21" s="11" t="s">
+      <c r="H21" s="61" t="s">
+        <v>485</v>
+      </c>
+      <c r="I21" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="59">
         <v>2</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="66" t="s">
+      <c r="L21" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="N21" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="O21" s="63" t="str">
+      <c r="N21" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O21" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) Scientific and Academic Studies on Changing Pattern and Factors on Environment Conditions and Socio-Economic Etics. International Journal of Innovative Research in Science, Engineering and Technology..6 (5): 10040-10043</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A22" s="44">
+    <row r="22" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61">
         <v>23</v>
       </c>
-      <c r="B22" s="62" t="s">
-        <v>438</v>
-      </c>
-      <c r="C22" s="62" t="s">
+      <c r="B22" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="C22" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="59">
         <v>2017</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="61">
         <v>3</v>
       </c>
-      <c r="G22" s="44">
-        <v>1</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="I22" s="11" t="s">
+      <c r="G22" s="61">
+        <v>1</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="I22" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="11">
-        <v>1</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="59">
+        <v>1</v>
+      </c>
+      <c r="K22" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="67" t="s">
+      <c r="L22" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O22" s="63" t="str">
+      <c r="M22" s="61"/>
+      <c r="N22" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O22" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2017) Influence of Ecological factor on Mango Fruit Fly, Bactrocera dorsalis Hendel Bactrocera. Academic Social Research.3 (1): 116-118</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A23" s="44">
+    <row r="23" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61">
         <v>24</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>493</v>
-      </c>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="59" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="59">
         <v>2017</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="61">
         <v>6</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="61">
         <v>6</v>
       </c>
-      <c r="H23" s="44" t="s">
-        <v>488</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="H23" s="61" t="s">
+        <v>486</v>
+      </c>
+      <c r="I23" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="59">
         <v>2</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="66" t="s">
+      <c r="L23" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="44" t="s">
+      <c r="M23" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="46" t="s">
-        <v>449</v>
-      </c>
-      <c r="O23" s="63" t="str">
+      <c r="N23" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O23" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Dubey, R. K. (2017) A Comparative Study and Analysis of Susceptibility Conditions of Fruit Fly BacteroceraCorrectaBezzi To Entomopathogenic Micro-Organisms. International Journal of Innovative Research in Science, Engineering and Technology.6 (6): 14444-14447</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A24" s="44">
+    <row r="24" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="61">
         <v>25</v>
       </c>
-      <c r="B24" s="62" t="s">
-        <v>494</v>
-      </c>
-      <c r="C24" s="62" t="s">
+      <c r="B24" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="C24" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="59">
         <v>2017</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="61">
         <v>6</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="61">
         <v>8</v>
       </c>
-      <c r="H24" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="H24" s="61" t="s">
+        <v>487</v>
+      </c>
+      <c r="I24" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="59">
         <v>2</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="66" t="s">
+      <c r="L24" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="46" t="s">
-        <v>454</v>
-      </c>
-      <c r="O24" s="63" t="str">
+      <c r="M24" s="61"/>
+      <c r="N24" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="O24" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Shukla, M.; Arya, S.; Agarwal, S. (2017) Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India. International Journal of Innovative Research in Science, Engineering and Technology..6 (8): 7164-7170</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A25" s="44">
+    <row r="25" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="61">
         <v>26</v>
       </c>
-      <c r="B25" s="62" t="s">
-        <v>495</v>
-      </c>
-      <c r="C25" s="62" t="s">
+      <c r="B25" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="C25" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="59">
         <v>2017</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="61">
         <v>3</v>
       </c>
-      <c r="G25" s="44">
-        <v>1</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="I25" s="11" t="s">
+      <c r="G25" s="61">
+        <v>1</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>488</v>
+      </c>
+      <c r="I25" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="59">
         <v>2</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="M25" s="44"/>
-      <c r="N25" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="O25" s="63" t="str">
+      <c r="M25" s="61"/>
+      <c r="N25" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="O25" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Shukla, M.; Arya, S. (2017) Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.). Green Chemistry and Technology Letters.3 (1): 21-25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A26" s="44">
+    <row r="26" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="61">
         <v>27</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="C26" s="62" t="s">
+      <c r="B26" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="59">
         <v>2018</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="61">
         <v>4</v>
       </c>
-      <c r="G26" s="44">
-        <v>1</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="I26" s="11">
+      <c r="G26" s="61">
+        <v>1</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>438</v>
+      </c>
+      <c r="I26" s="59">
         <v>47715</v>
       </c>
-      <c r="J26" s="11">
-        <v>1</v>
-      </c>
-      <c r="K26" s="12" t="s">
+      <c r="J26" s="59">
+        <v>1</v>
+      </c>
+      <c r="K26" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="67" t="s">
-        <v>545</v>
-      </c>
-      <c r="M26" s="44" t="s">
-        <v>544</v>
-      </c>
-      <c r="N26" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O26" s="63" t="str">
+      <c r="L26" s="60" t="s">
+        <v>542</v>
+      </c>
+      <c r="M26" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="N26" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O26" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Vermicomposting: Profitable Organic Fertilizer. Academic Social Research.4 (1): 7-0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A27" s="44">
+    <row r="27" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="61">
         <v>28</v>
       </c>
-      <c r="B27" s="62" t="s">
-        <v>386</v>
-      </c>
-      <c r="C27" s="62" t="s">
+      <c r="B27" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="C27" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="59">
         <v>2018</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="61">
         <v>9</v>
       </c>
-      <c r="G27" s="44">
-        <v>1</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="G27" s="61">
+        <v>1</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="I27" s="59">
         <v>62958</v>
       </c>
-      <c r="J27" s="11">
-        <v>1</v>
-      </c>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="59">
+        <v>1</v>
+      </c>
+      <c r="K27" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O27" s="63" t="str">
+      <c r="M27" s="61"/>
+      <c r="N27" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O27" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Bio-efficacy of insect pests of Brinzal (Solanummelongena). International Journal on Agricultural Sciences.9 (1): 52-55</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A28" s="44">
+    <row r="28" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="61">
         <v>29</v>
       </c>
-      <c r="B28" s="62" t="s">
-        <v>542</v>
-      </c>
-      <c r="C28" s="62" t="s">
+      <c r="B28" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="C28" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="59">
         <v>2018</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="61">
         <v>9</v>
       </c>
-      <c r="G28" s="44">
-        <v>1</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>427</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="G28" s="61">
+        <v>1</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="I28" s="59">
         <v>7775</v>
       </c>
-      <c r="J28" s="11">
-        <v>1</v>
-      </c>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="59">
+        <v>1</v>
+      </c>
+      <c r="K28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="80" t="s">
-        <v>553</v>
-      </c>
-      <c r="M28" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="N28" s="46" t="s">
-        <v>555</v>
-      </c>
-      <c r="O28" s="63" t="str">
+      <c r="L28" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="M28" s="62" t="s">
+        <v>551</v>
+      </c>
+      <c r="N28" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="O28" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Shukla, M. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article. International Journal on Biological Sciences.9 (1): 69-73</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A29" s="44">
+    <row r="29" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="61">
         <v>30</v>
       </c>
-      <c r="B29" s="62" t="s">
-        <v>432</v>
-      </c>
-      <c r="C29" s="62" t="s">
+      <c r="B29" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="59">
         <v>2018</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="61">
         <v>4</v>
       </c>
-      <c r="G29" s="44">
-        <v>1</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>429</v>
-      </c>
-      <c r="I29" s="11">
+      <c r="G29" s="61">
+        <v>1</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="I29" s="59">
         <v>47715</v>
       </c>
-      <c r="J29" s="11">
-        <v>1</v>
-      </c>
-      <c r="K29" s="12" t="s">
+      <c r="J29" s="59">
+        <v>1</v>
+      </c>
+      <c r="K29" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="67" t="s">
+      <c r="L29" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="M29" s="44"/>
-      <c r="N29" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O29" s="63" t="str">
+      <c r="M29" s="61"/>
+      <c r="N29" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O29" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Insect Pest and Diseases of Roses: Symptoms and Control Measures. Academic Social Research.4 (1): 312-319</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A30" s="44">
+    <row r="30" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="61">
         <v>31</v>
       </c>
-      <c r="B30" s="62" t="s">
-        <v>433</v>
-      </c>
-      <c r="C30" s="62" t="s">
+      <c r="B30" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="59">
         <v>2018</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="61">
         <v>15</v>
       </c>
-      <c r="G30" s="44">
-        <v>1</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>444</v>
-      </c>
-      <c r="I30" s="11">
+      <c r="G30" s="61">
+        <v>1</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>442</v>
+      </c>
+      <c r="I30" s="59">
         <v>4662</v>
       </c>
-      <c r="J30" s="11">
-        <v>1</v>
-      </c>
-      <c r="K30" s="12" t="s">
+      <c r="J30" s="59">
+        <v>1</v>
+      </c>
+      <c r="K30" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="67" t="s">
+      <c r="L30" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="44" t="s">
+      <c r="M30" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="N30" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O30" s="63" t="str">
+      <c r="N30" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O30" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae. Life Science Bulletin.15 (1): 63-65</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A31" s="44">
+    <row r="31" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="61">
         <v>32</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="59" t="s">
+        <v>386</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="59">
+        <v>2018</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="61">
+        <v>9</v>
+      </c>
+      <c r="G31" s="61">
+        <v>1</v>
+      </c>
+      <c r="H31" s="61" t="s">
         <v>387</v>
       </c>
-      <c r="C31" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="11">
-        <v>2018</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="44">
-        <v>9</v>
-      </c>
-      <c r="G31" s="44">
-        <v>1</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="I31" s="11">
+      <c r="I31" s="59">
         <v>7783</v>
       </c>
-      <c r="J31" s="11">
-        <v>1</v>
-      </c>
-      <c r="K31" s="12" t="s">
+      <c r="J31" s="59">
+        <v>1</v>
+      </c>
+      <c r="K31" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="44"/>
-      <c r="N31" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O31" s="63" t="str">
+      <c r="M31" s="61"/>
+      <c r="N31" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O31" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Use of Biopesticides against Papilio Demoleus infestation and yield in citrus (Citrus aurantifolia). International Journal on Environmental Science.9 (1): 61 – 66</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A32" s="44">
+    <row r="32" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="61">
         <v>33</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="59">
+        <v>2018</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="61">
+        <v>9</v>
+      </c>
+      <c r="G32" s="61">
+        <v>1</v>
+      </c>
+      <c r="H32" s="61" t="s">
         <v>389</v>
       </c>
-      <c r="C32" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="11">
-        <v>2018</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="44">
-        <v>9</v>
-      </c>
-      <c r="G32" s="44">
-        <v>1</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="I32" s="11">
+      <c r="I32" s="59">
         <v>7775</v>
       </c>
-      <c r="J32" s="11">
-        <v>1</v>
-      </c>
-      <c r="K32" s="12" t="s">
+      <c r="J32" s="59">
+        <v>1</v>
+      </c>
+      <c r="K32" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="M32" s="44"/>
-      <c r="N32" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O32" s="63" t="str">
+      <c r="L32" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="M32" s="61"/>
+      <c r="N32" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O32" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Effect of Marigold oil (Tageteserecta L.) and its fractions against sitophillusoryzae. International Journal of Biological Sciences.9 (1): 85-89</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A33" s="44">
+    <row r="33" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61">
         <v>34</v>
       </c>
-      <c r="B33" s="62" t="s">
-        <v>434</v>
-      </c>
-      <c r="C33" s="62" t="s">
+      <c r="B33" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="C33" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="59">
         <v>2018</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="61">
         <v>15</v>
       </c>
-      <c r="G33" s="44">
-        <v>1</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>430</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="G33" s="61">
+        <v>1</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="I33" s="59">
         <v>4662</v>
       </c>
-      <c r="J33" s="11">
-        <v>1</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="J33" s="59">
+        <v>1</v>
+      </c>
+      <c r="K33" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="78" t="s">
-        <v>556</v>
-      </c>
-      <c r="M33" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="N33" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O33" s="63" t="str">
+      <c r="L33" s="65" t="s">
+        <v>553</v>
+      </c>
+      <c r="M33" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="N33" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O33" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Isolation of Phenol Degrading Bacteria from Industrial Waste. Life Science Bulletin.15 (1): 47-50</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A34" s="44">
+    <row r="34" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="61">
         <v>35</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="59">
+        <v>2018</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="61">
+        <v>9</v>
+      </c>
+      <c r="G34" s="61">
+        <v>1</v>
+      </c>
+      <c r="H34" s="61" t="s">
         <v>391</v>
       </c>
-      <c r="C34" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="11">
-        <v>2018</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="44">
-        <v>9</v>
-      </c>
-      <c r="G34" s="44">
-        <v>1</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="I34" s="59">
         <v>62958</v>
       </c>
-      <c r="J34" s="11">
-        <v>1</v>
-      </c>
-      <c r="K34" s="12" t="s">
+      <c r="J34" s="59">
+        <v>1</v>
+      </c>
+      <c r="K34" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="M34" s="44"/>
-      <c r="N34" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O34" s="63" t="str">
+      <c r="M34" s="61"/>
+      <c r="N34" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O34" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) A Scientific Study of Transplanting Date effect on Infestation of Insect Pests of Cabbage. International Journal of Agricultural Sciences.9 (1): 41-46</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A35" s="44">
+    <row r="35" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="61">
         <v>36</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="59">
+        <v>2018</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="61">
+        <v>9</v>
+      </c>
+      <c r="G35" s="61">
+        <v>1</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="I35" s="59">
+        <v>7783</v>
+      </c>
+      <c r="J35" s="59">
+        <v>1</v>
+      </c>
+      <c r="K35" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="M35" s="61"/>
+      <c r="N35" s="59" t="s">
         <v>445</v>
       </c>
-      <c r="C35" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="11">
-        <v>2018</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="44">
-        <v>9</v>
-      </c>
-      <c r="G35" s="44">
-        <v>1</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="I35" s="11">
-        <v>7783</v>
-      </c>
-      <c r="J35" s="11">
-        <v>1</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="M35" s="44"/>
-      <c r="N35" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O35" s="63" t="str">
+      <c r="O35" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Spectrophotometric Determination of Chromium in River Ganga water samples using 1,5-diphenyl carbazide at Kanpur, India-2018. International Journal of Environmental Science.9 (1): 36-39</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A36" s="44">
+    <row r="36" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="61">
         <v>37</v>
       </c>
-      <c r="B36" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="C36" s="62" t="s">
+      <c r="B36" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="C36" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="59">
         <v>2018</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="44">
+      <c r="F36" s="61">
         <v>9</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="61">
         <v>2</v>
       </c>
-      <c r="H36" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="I36" s="11">
+      <c r="H36" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="I36" s="59">
         <v>62958</v>
       </c>
-      <c r="J36" s="11">
-        <v>1</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="J36" s="59">
+        <v>1</v>
+      </c>
+      <c r="K36" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="67" t="s">
+      <c r="L36" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="M36" s="44"/>
-      <c r="N36" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O36" s="63" t="str">
+      <c r="M36" s="61"/>
+      <c r="N36" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O36" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria. International Journal of Agricultural Sciences.9 (2): 103-109</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A37" s="44">
+    <row r="37" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="61">
         <v>38</v>
       </c>
-      <c r="B37" s="62" t="s">
-        <v>435</v>
-      </c>
-      <c r="C37" s="62" t="s">
+      <c r="B37" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="C37" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="59">
         <v>2018</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="F37" s="44">
+      <c r="F37" s="61">
         <v>9</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="61">
         <v>2</v>
       </c>
-      <c r="H37" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="I37" s="11">
+      <c r="H37" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="I37" s="59">
         <v>7783</v>
       </c>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
-      <c r="K37" s="12" t="s">
+      <c r="J37" s="59">
+        <v>1</v>
+      </c>
+      <c r="K37" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="67" t="s">
+      <c r="L37" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="M37" s="44"/>
-      <c r="N37" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O37" s="63" t="str">
+      <c r="M37" s="61"/>
+      <c r="N37" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O37" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Green Technology to combat environmental degradation and sustainable food production: A Review. International Journal of Environmental Science.9 (2): 118-123</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A38" s="44">
+    <row r="38" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="61">
         <v>39</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="59">
+        <v>2018</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="61">
+        <v>9</v>
+      </c>
+      <c r="G38" s="61">
+        <v>2</v>
+      </c>
+      <c r="H38" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="C38" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="11">
-        <v>2018</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="44">
-        <v>9</v>
-      </c>
-      <c r="G38" s="44">
-        <v>2</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>394</v>
-      </c>
-      <c r="I38" s="11">
+      <c r="I38" s="59">
         <v>62958</v>
       </c>
-      <c r="J38" s="11">
-        <v>1</v>
-      </c>
-      <c r="K38" s="12" t="s">
+      <c r="J38" s="59">
+        <v>1</v>
+      </c>
+      <c r="K38" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="M38" s="44"/>
-      <c r="N38" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O38" s="63" t="str">
+      <c r="L38" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="M38" s="61"/>
+      <c r="N38" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O38" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences.9 (2): 110-114</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A39" s="44">
+    <row r="39" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="61">
         <v>40</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>414</v>
-      </c>
-      <c r="C39" s="62" t="s">
+      <c r="B39" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C39" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="59">
         <v>2018</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="61">
         <v>9</v>
       </c>
-      <c r="G39" s="44">
-        <v>1</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="I39" s="11">
+      <c r="G39" s="61">
+        <v>1</v>
+      </c>
+      <c r="H39" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="I39" s="59">
         <v>7775</v>
       </c>
-      <c r="J39" s="11">
-        <v>1</v>
-      </c>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="59">
+        <v>1</v>
+      </c>
+      <c r="K39" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="78" t="s">
-        <v>546</v>
-      </c>
-      <c r="M39" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="N39" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O39" s="63" t="str">
+      <c r="L39" s="65" t="s">
+        <v>543</v>
+      </c>
+      <c r="M39" s="62" t="s">
+        <v>544</v>
+      </c>
+      <c r="N39" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O39" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences.9 (1): 162-165</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A40" s="44">
+    <row r="40" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="61">
         <v>41</v>
       </c>
-      <c r="B40" s="62" t="s">
-        <v>406</v>
-      </c>
-      <c r="C40" s="62" t="s">
+      <c r="B40" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="C40" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="59">
         <v>2019</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="61">
         <v>4</v>
       </c>
-      <c r="G40" s="44">
+      <c r="G40" s="61">
         <v>2</v>
       </c>
-      <c r="H40" s="44" t="s">
-        <v>403</v>
-      </c>
-      <c r="I40" s="11">
+      <c r="H40" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="I40" s="59">
         <v>40827</v>
       </c>
-      <c r="J40" s="11">
-        <v>1</v>
-      </c>
-      <c r="K40" s="12" t="s">
+      <c r="J40" s="59">
+        <v>1</v>
+      </c>
+      <c r="K40" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="66" t="s">
+      <c r="L40" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="M40" s="44" t="s">
+      <c r="M40" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="N40" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O40" s="63" t="str">
+      <c r="N40" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O40" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation.4 (2): 111-117</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A41" s="44">
+    <row r="41" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="61">
         <v>42</v>
       </c>
-      <c r="B41" s="62" t="s">
-        <v>443</v>
-      </c>
-      <c r="C41" s="62" t="s">
+      <c r="B41" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C41" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="59">
         <v>2019</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="44">
+      <c r="F41" s="61">
         <v>6</v>
       </c>
-      <c r="G41" s="44">
+      <c r="G41" s="61">
         <v>8</v>
       </c>
-      <c r="H41" s="65" t="s">
-        <v>441</v>
-      </c>
-      <c r="I41" s="11">
+      <c r="H41" s="66" t="s">
+        <v>439</v>
+      </c>
+      <c r="I41" s="59">
         <v>40880</v>
       </c>
-      <c r="J41" s="11">
-        <v>1</v>
-      </c>
-      <c r="K41" s="12" t="s">
+      <c r="J41" s="59">
+        <v>1</v>
+      </c>
+      <c r="K41" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="66" t="s">
+      <c r="L41" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="M41" s="44" t="s">
+      <c r="M41" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="N41" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O41" s="63" t="str">
+      <c r="N41" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O41" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika.6 (8): 1-3</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A42" s="44">
+    <row r="42" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="61">
         <v>43</v>
       </c>
-      <c r="B42" s="62" t="s">
-        <v>442</v>
-      </c>
-      <c r="C42" s="62" t="s">
+      <c r="B42" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="C42" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="59">
         <v>2019</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="61">
         <v>6</v>
       </c>
-      <c r="G42" s="44">
+      <c r="G42" s="61">
         <v>3</v>
       </c>
-      <c r="H42" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="I42" s="48" t="s">
+      <c r="H42" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="I42" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="11">
-        <v>1</v>
-      </c>
-      <c r="K42" s="12" t="s">
+      <c r="J42" s="59">
+        <v>1</v>
+      </c>
+      <c r="K42" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="L42" s="67" t="s">
+      <c r="L42" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="M42" s="44" t="s">
+      <c r="M42" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="N42" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O42" s="63" t="str">
+      <c r="N42" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O42" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies.6 (3): 51-54</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A43" s="44">
+    <row r="43" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="61">
         <v>44</v>
       </c>
-      <c r="B43" s="62" t="s">
-        <v>496</v>
-      </c>
-      <c r="C43" s="62" t="s">
+      <c r="B43" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="C43" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="59">
         <v>2019</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="44">
-        <v>1</v>
-      </c>
-      <c r="G43" s="44">
+      <c r="F43" s="61">
+        <v>1</v>
+      </c>
+      <c r="G43" s="61">
         <v>2</v>
       </c>
-      <c r="H43" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="I43" s="11" t="s">
+      <c r="H43" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="I43" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="11">
-        <v>1</v>
-      </c>
-      <c r="K43" s="12" t="s">
+      <c r="J43" s="59">
+        <v>1</v>
+      </c>
+      <c r="K43" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="67" t="s">
+      <c r="L43" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="M43" s="44" t="s">
-        <v>410</v>
-      </c>
-      <c r="N43" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O43" s="63" t="str">
+      <c r="M43" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="N43" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O43" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations .1 (2): 87-89</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A44" s="44">
+    <row r="44" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="61">
         <v>45</v>
       </c>
-      <c r="B44" s="62" t="s">
-        <v>498</v>
-      </c>
-      <c r="C44" s="62" t="s">
+      <c r="B44" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="C44" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="59">
         <v>2021</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="61">
         <v>12</v>
       </c>
-      <c r="G44" s="44">
+      <c r="G44" s="61">
         <v>2</v>
       </c>
-      <c r="H44" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="I44" s="11" t="s">
+      <c r="H44" s="61" t="s">
+        <v>495</v>
+      </c>
+      <c r="I44" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="59">
         <v>2</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="66" t="s">
+      <c r="L44" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="M44" s="44" t="s">
-        <v>409</v>
-      </c>
-      <c r="N44" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="O44" s="63" t="str">
+      <c r="M44" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="N44" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="O44" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Rani, D.; Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences.12 (2): 57-60</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A45" s="44">
+    <row r="45" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="61">
         <v>46</v>
       </c>
-      <c r="B45" s="62" t="s">
-        <v>499</v>
-      </c>
-      <c r="C45" s="62" t="s">
+      <c r="B45" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="C45" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="59">
         <v>2021</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="44">
+      <c r="F45" s="61">
         <v>5</v>
       </c>
-      <c r="G45" s="44">
+      <c r="G45" s="61">
         <v>2</v>
       </c>
-      <c r="H45" s="44" t="s">
-        <v>500</v>
-      </c>
-      <c r="I45" s="11" t="s">
+      <c r="H45" s="61" t="s">
+        <v>498</v>
+      </c>
+      <c r="I45" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="59">
         <v>3</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L45" s="66" t="s">
+      <c r="L45" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="M45" s="44" t="s">
-        <v>408</v>
-      </c>
-      <c r="N45" s="46" t="s">
-        <v>457</v>
-      </c>
-      <c r="O45" s="63" t="str">
+      <c r="M45" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="N45" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="O45" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Chaudhary, V. K.; Arya, S.; Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences.5 (2): 95-99</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A46" s="44">
+    <row r="46" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="61">
         <v>47</v>
       </c>
-      <c r="B46" s="62" t="s">
-        <v>501</v>
-      </c>
-      <c r="C46" s="62" t="s">
+      <c r="B46" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="C46" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="59">
         <v>2022</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F46" s="61">
         <v>4</v>
       </c>
-      <c r="G46" s="44">
-        <v>1</v>
-      </c>
-      <c r="H46" s="44" t="s">
-        <v>502</v>
-      </c>
-      <c r="I46" s="11" t="s">
+      <c r="G46" s="61">
+        <v>1</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>500</v>
+      </c>
+      <c r="I46" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="59">
         <v>2</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="K46" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L46" s="66" t="s">
+      <c r="L46" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="M46" s="44" t="s">
-        <v>407</v>
-      </c>
-      <c r="N46" s="46" t="s">
-        <v>458</v>
-      </c>
-      <c r="O46" s="63" t="str">
+      <c r="M46" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="N46" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="O46" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Yadav, V.; Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation.4 (1): 221-226</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="44.4" customHeight="1">
-      <c r="A47" s="44">
+    <row r="47" spans="1:15" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="61">
         <v>48</v>
       </c>
-      <c r="B47" s="62" t="s">
-        <v>503</v>
-      </c>
-      <c r="C47" s="62" t="s">
+      <c r="B47" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="C47" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="59">
         <v>2022</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="44">
+      <c r="F47" s="61">
         <v>13</v>
       </c>
-      <c r="G47" s="44">
-        <v>1</v>
-      </c>
-      <c r="H47" s="44" t="s">
-        <v>504</v>
-      </c>
-      <c r="I47" s="11" t="s">
+      <c r="G47" s="61">
+        <v>1</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>502</v>
+      </c>
+      <c r="I47" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="59">
         <v>2</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="66" t="s">
+      <c r="L47" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="M47" s="44" t="s">
+      <c r="M47" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="N47" s="46" t="s">
-        <v>458</v>
-      </c>
-      <c r="O47" s="63" t="str">
+      <c r="N47" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="O47" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Yadav, V.; Arya, S. (2022) POPULATION DYNAMICS OF MAJOR INSECT PESTS OF PEA (PISUM SATIVUM L.) IN RELATION TO WEATHER PARAMETERS IN KANPUR, UTTAR PRADESH. International Journal on Biological Sciences.13 (1): 92-96</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A48" s="44">
+    <row r="48" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="61">
         <v>49</v>
       </c>
-      <c r="B48" s="62" t="s">
-        <v>505</v>
-      </c>
-      <c r="C48" s="62" t="s">
+      <c r="B48" s="59" t="s">
+        <v>503</v>
+      </c>
+      <c r="C48" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="59">
         <v>2022</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="F48" s="44">
+      <c r="F48" s="61">
         <v>4</v>
       </c>
-      <c r="G48" s="44">
+      <c r="G48" s="61">
         <v>10</v>
       </c>
-      <c r="H48" s="70" t="s">
-        <v>512</v>
-      </c>
-      <c r="I48" s="11" t="s">
+      <c r="H48" s="68" t="s">
+        <v>510</v>
+      </c>
+      <c r="I48" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="59">
         <v>3</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="K48" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L48" s="66" t="s">
+      <c r="L48" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="M48" s="19" t="s">
+      <c r="M48" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="N48" s="46" t="s">
-        <v>459</v>
-      </c>
-      <c r="O48" s="63" t="str">
+      <c r="N48" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="O48" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Sudhakar, P.; Dwivedi, N. (2022) Pesticides and Its Impact on Biodiversity and Environment. ICONIC RESEARCH AND ENGINEERING JOURNALS.4 (10): 12-15</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A49" s="44">
+    <row r="49" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="61">
         <v>50</v>
       </c>
-      <c r="B49" s="62" t="s">
-        <v>508</v>
-      </c>
-      <c r="C49" s="62" t="s">
+      <c r="B49" s="59" t="s">
+        <v>506</v>
+      </c>
+      <c r="C49" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="59">
         <v>2022</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="F49" s="44">
+      <c r="F49" s="61">
         <v>5</v>
       </c>
-      <c r="G49" s="44">
+      <c r="G49" s="61">
         <v>7</v>
       </c>
-      <c r="H49" s="44" t="s">
-        <v>506</v>
-      </c>
-      <c r="I49" s="11" t="s">
+      <c r="H49" s="61" t="s">
+        <v>504</v>
+      </c>
+      <c r="I49" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="59">
         <v>2</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="K49" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L49" s="66" t="s">
+      <c r="L49" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="M49" s="19" t="s">
+      <c r="M49" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="N49" s="46" t="s">
-        <v>460</v>
-      </c>
-      <c r="O49" s="63" t="str">
+      <c r="N49" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="O49" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Dubey, I.; Arya, S. (2022) Fish Diversity and Climate Change: A Review. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.5 (7): 88-91</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A50" s="44">
+    <row r="50" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="61">
         <v>51</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="C50" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="59">
+        <v>2022</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="61">
+        <v>6</v>
+      </c>
+      <c r="G50" s="61">
+        <v>3</v>
+      </c>
+      <c r="H50" s="66" t="s">
         <v>509</v>
       </c>
-      <c r="C50" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="11">
-        <v>2022</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50" s="44">
-        <v>6</v>
-      </c>
-      <c r="G50" s="44">
-        <v>3</v>
-      </c>
-      <c r="H50" s="65" t="s">
-        <v>511</v>
-      </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="59">
         <v>2</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="66" t="s">
+      <c r="L50" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="M50" s="44" t="s">
+      <c r="M50" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="N50" s="46" t="s">
-        <v>461</v>
-      </c>
-      <c r="O50" s="63" t="str">
+      <c r="N50" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="O50" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Singh, R.; Sunita, A. (2022) Seasonal Variation in Phytoplankton Diversity in River Sai at Unnao District of U.P. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.6 (3): 5-8</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A51" s="44">
+    <row r="51" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="61">
         <v>52</v>
       </c>
-      <c r="B51" s="71" t="s">
-        <v>510</v>
-      </c>
-      <c r="C51" s="62" t="s">
+      <c r="B51" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="C51" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="59">
         <v>2023</v>
       </c>
-      <c r="E51" s="14" t="s">
+      <c r="E51" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="F51" s="44">
+      <c r="F51" s="61">
         <v>9</v>
       </c>
-      <c r="G51" s="44">
-        <v>1</v>
-      </c>
-      <c r="H51" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="I51" s="11" t="s">
+      <c r="G51" s="61">
+        <v>1</v>
+      </c>
+      <c r="H51" s="61" t="s">
+        <v>505</v>
+      </c>
+      <c r="I51" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="59">
         <v>2</v>
       </c>
-      <c r="K51" s="12" t="s">
+      <c r="K51" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L51" s="66" t="s">
-        <v>548</v>
-      </c>
-      <c r="M51" s="64" t="s">
-        <v>552</v>
-      </c>
-      <c r="N51" s="46" t="s">
-        <v>462</v>
-      </c>
-      <c r="O51" s="63" t="str">
+      <c r="L51" s="60" t="s">
+        <v>545</v>
+      </c>
+      <c r="M51" s="62" t="s">
+        <v>549</v>
+      </c>
+      <c r="N51" s="59" t="s">
+        <v>460</v>
+      </c>
+      <c r="O51" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations.9 (1): 392 – 397</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A52" s="44">
+    <row r="52" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="61">
         <v>53</v>
       </c>
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="59">
         <v>2023</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="44">
+      <c r="F52" s="61">
         <v>8</v>
       </c>
-      <c r="G52" s="44">
+      <c r="G52" s="61">
         <v>6</v>
       </c>
-      <c r="H52" s="44" t="s">
-        <v>521</v>
-      </c>
-      <c r="I52" s="11" t="s">
+      <c r="H52" s="61" t="s">
+        <v>518</v>
+      </c>
+      <c r="I52" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="59">
         <v>2</v>
       </c>
-      <c r="K52" s="12" t="s">
+      <c r="K52" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="66" t="s">
-        <v>520</v>
-      </c>
-      <c r="M52" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="N52" s="46" t="s">
-        <v>462</v>
-      </c>
-      <c r="O52" s="63" t="str">
+      <c r="L52" s="60" t="s">
+        <v>517</v>
+      </c>
+      <c r="M52" s="61" t="s">
+        <v>517</v>
+      </c>
+      <c r="N52" s="59" t="s">
+        <v>460</v>
+      </c>
+      <c r="O52" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research.8 (6): 50-52</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A53" s="44">
+    <row r="53" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="61">
         <v>54</v>
       </c>
-      <c r="B53" s="71" t="s">
-        <v>519</v>
-      </c>
-      <c r="C53" s="62" t="s">
+      <c r="B53" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="C53" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="59">
         <v>2023</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="44">
+      <c r="F53" s="61">
         <v>10</v>
       </c>
-      <c r="G53" s="44">
+      <c r="G53" s="61">
         <v>3</v>
       </c>
-      <c r="H53" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="I53" s="11" t="s">
+      <c r="H53" s="61" t="s">
+        <v>514</v>
+      </c>
+      <c r="I53" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="59">
         <v>4</v>
       </c>
-      <c r="K53" s="12" t="s">
+      <c r="K53" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="66" t="s">
+      <c r="L53" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="M53" s="44" t="s">
+      <c r="M53" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="N53" s="46" t="s">
-        <v>463</v>
-      </c>
-      <c r="O53" s="63" t="str">
+      <c r="N53" s="59" t="s">
+        <v>461</v>
+      </c>
+      <c r="O53" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Goel, R.; Arya, S.; Rani, D.; Shukla, G. (2023) Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.. International Journal of Fauna and Biological Studies.10 (3): 16-18</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A54" s="44">
+    <row r="54" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="61">
         <v>55</v>
       </c>
-      <c r="B54" s="72" t="s">
-        <v>515</v>
-      </c>
-      <c r="C54" s="73" t="s">
+      <c r="B54" s="61" t="s">
+        <v>558</v>
+      </c>
+      <c r="C54" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="59">
         <v>2023</v>
       </c>
-      <c r="E54" s="45" t="s">
+      <c r="E54" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="44">
+      <c r="F54" s="61">
         <v>14</v>
       </c>
-      <c r="G54" s="44">
+      <c r="G54" s="61">
         <v>2</v>
       </c>
-      <c r="H54" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="I54" s="16" t="s">
+      <c r="H54" s="61" t="s">
+        <v>513</v>
+      </c>
+      <c r="I54" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="59">
         <v>2</v>
       </c>
-      <c r="K54" s="47" t="s">
+      <c r="K54" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L54" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="M54" s="64" t="s">
-        <v>513</v>
-      </c>
-      <c r="N54" s="46" t="s">
-        <v>514</v>
-      </c>
-      <c r="O54" s="63" t="str">
+      <c r="L54" s="70" t="s">
+        <v>511</v>
+      </c>
+      <c r="M54" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="N54" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="O54" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Rani, K.; Singh, S.; Prakash, S.; Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences.14 (2): 74-80</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A55" s="44">
+    <row r="55" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="61">
         <v>56</v>
       </c>
-      <c r="B55" s="71" t="s">
-        <v>159</v>
-      </c>
-      <c r="C55" s="62" t="s">
+      <c r="B55" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="59">
         <v>2022</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="44">
+      <c r="F55" s="61">
         <v>13</v>
       </c>
-      <c r="G55" s="44">
+      <c r="G55" s="61">
         <v>2</v>
       </c>
-      <c r="H55" s="44" t="s">
-        <v>522</v>
-      </c>
-      <c r="I55" s="11" t="s">
+      <c r="H55" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="I55" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="59">
         <v>3</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="66" t="s">
-        <v>523</v>
-      </c>
-      <c r="M55" s="66" t="s">
-        <v>411</v>
-      </c>
-      <c r="N55" s="46" t="s">
-        <v>464</v>
-      </c>
-      <c r="O55" s="63" t="str">
+      <c r="L55" s="60" t="s">
+        <v>520</v>
+      </c>
+      <c r="M55" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="N55" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="O55" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Goel, R.; Arya, S.; Singh, R. (2022) IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH). International Journal on Biological Sciences.13 (2): 109-111</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A56" s="44">
+    <row r="56" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="61">
         <v>57</v>
       </c>
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="D56" s="59">
+        <v>2024</v>
+      </c>
+      <c r="E56" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="11">
-        <v>2024</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="F56" s="61">
+        <v>6</v>
+      </c>
+      <c r="G56" s="61">
+        <v>1</v>
+      </c>
+      <c r="H56" s="67" t="s">
+        <v>521</v>
+      </c>
+      <c r="I56" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="59">
+        <v>4</v>
+      </c>
+      <c r="K56" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="F56" s="44">
-        <v>6</v>
-      </c>
-      <c r="G56" s="44">
-        <v>1</v>
-      </c>
-      <c r="H56" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="11">
-        <v>4</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L56" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="M56" s="64" t="s">
-        <v>513</v>
-      </c>
-      <c r="N56" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="O56" s="63" t="str">
+      <c r="M56" s="62" t="s">
+        <v>511</v>
+      </c>
+      <c r="N56" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="O56" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Rani K.; Singh S.; Prakash S.; Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry.6 (1): 01-03</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A57" s="44">
+    <row r="57" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="61">
         <v>58</v>
       </c>
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="59">
+        <v>2024</v>
+      </c>
+      <c r="E57" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="61">
+        <v>11</v>
+      </c>
+      <c r="G57" s="61">
+        <v>1</v>
+      </c>
+      <c r="H57" s="61" t="s">
+        <v>522</v>
+      </c>
+      <c r="I57" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="59">
+        <v>3</v>
+      </c>
+      <c r="K57" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="16">
-        <v>2024</v>
-      </c>
-      <c r="E57" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="F57" s="44">
-        <v>11</v>
-      </c>
-      <c r="G57" s="44">
-        <v>1</v>
-      </c>
-      <c r="H57" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J57" s="16">
-        <v>3</v>
-      </c>
-      <c r="K57" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="L57" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="M57" s="44" t="s">
-        <v>421</v>
-      </c>
-      <c r="N57" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="O57" s="63" t="str">
+      <c r="M57" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="N57" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="O57" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Rani, D.; Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies.11 (1): 29-31</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A58" s="44">
+    <row r="58" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="61">
         <v>59</v>
       </c>
-      <c r="B58" s="74" t="s">
+      <c r="B58" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="73" t="s">
+      <c r="D58" s="59">
+        <v>2024</v>
+      </c>
+      <c r="E58" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="16">
-        <v>2024</v>
-      </c>
-      <c r="E58" s="47" t="s">
+      <c r="F58" s="61">
+        <v>27</v>
+      </c>
+      <c r="G58" s="61">
+        <v>2</v>
+      </c>
+      <c r="H58" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="I58" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="F58" s="44">
-        <v>27</v>
-      </c>
-      <c r="G58" s="44">
+      <c r="J58" s="59">
         <v>2</v>
       </c>
-      <c r="H58" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="I58" s="49" t="s">
+      <c r="K58" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="16">
-        <v>2</v>
-      </c>
-      <c r="K58" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="M58" s="44" t="s">
-        <v>471</v>
-      </c>
-      <c r="N58" s="46" t="s">
-        <v>472</v>
-      </c>
-      <c r="O58" s="63" t="str">
+      <c r="M58" s="61" t="s">
+        <v>469</v>
+      </c>
+      <c r="N58" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="O58" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Sachan, R.; Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. 27(2):1605-1608. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA.27 (2): 1605-1608</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A59" s="44">
+    <row r="59" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="61">
         <v>60</v>
       </c>
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="59" t="s">
+        <v>414</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="59">
+        <v>2024</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" s="61">
+        <v>6</v>
+      </c>
+      <c r="G59" s="61">
+        <v>1</v>
+      </c>
+      <c r="H59" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="I59" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="59">
+        <v>3</v>
+      </c>
+      <c r="K59" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="M59" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="C59" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="D59" s="16">
-        <v>2024</v>
-      </c>
-      <c r="E59" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="44">
-        <v>6</v>
-      </c>
-      <c r="G59" s="44">
-        <v>1</v>
-      </c>
-      <c r="H59" s="44" t="s">
-        <v>417</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="16">
-        <v>3</v>
-      </c>
-      <c r="K59" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="L59" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="M59" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="N59" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="O59" s="63" t="str">
+      <c r="N59" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="O59" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Rani K.; Arya S.; Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations.6 (1): 58-64</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A60" s="44">
+    <row r="60" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="61">
         <v>61</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="61">
+        <v>2024</v>
+      </c>
+      <c r="E60" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="61">
+        <v>8</v>
+      </c>
+      <c r="G60" s="61">
+        <v>3</v>
+      </c>
+      <c r="H60" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="44">
-        <v>2024</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="F60" s="44">
-        <v>8</v>
-      </c>
-      <c r="G60" s="44">
-        <v>3</v>
-      </c>
-      <c r="H60" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="I60" s="48" t="s">
+      <c r="I60" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="44">
+      <c r="J60" s="61">
         <v>2</v>
       </c>
-      <c r="K60" s="44" t="s">
+      <c r="K60" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L60" s="69" t="s">
-        <v>538</v>
-      </c>
-      <c r="M60" s="44" t="s">
-        <v>538</v>
-      </c>
-      <c r="N60" s="46" t="s">
-        <v>473</v>
-      </c>
-      <c r="O60" s="63" t="str">
+      <c r="L60" s="70" t="s">
+        <v>535</v>
+      </c>
+      <c r="M60" s="61" t="s">
+        <v>535</v>
+      </c>
+      <c r="N60" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="O60" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Hemprabha; Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.8 (3): 478-485</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A61" s="44">
+    <row r="61" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="61">
         <v>62</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="63" t="s">
+      <c r="D61" s="61">
+        <v>2025</v>
+      </c>
+      <c r="E61" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="61">
+        <v>8</v>
+      </c>
+      <c r="G61" s="61">
+        <v>7</v>
+      </c>
+      <c r="H61" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="44">
-        <v>2025</v>
-      </c>
-      <c r="E61" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="44">
-        <v>8</v>
-      </c>
-      <c r="G61" s="44">
-        <v>7</v>
-      </c>
-      <c r="H61" s="44" t="s">
+      <c r="I61" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="61">
+        <v>2</v>
+      </c>
+      <c r="K61" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="I61" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" s="44">
-        <v>2</v>
-      </c>
-      <c r="K61" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="L61" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="M61" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="N61" s="46" t="s">
-        <v>468</v>
-      </c>
-      <c r="O61" s="63" t="str">
+      <c r="M61" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="N61" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="O61" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S.; Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals.8 (7): 243-440</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="43.2" customHeight="1">
-      <c r="A62" s="44">
+    <row r="62" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="61">
         <v>63</v>
       </c>
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="61">
+        <v>2025</v>
+      </c>
+      <c r="E62" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="61">
+        <v>11</v>
+      </c>
+      <c r="G62" s="61">
+        <v>6</v>
+      </c>
+      <c r="H62" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="44">
-        <v>2025</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="44">
-        <v>11</v>
-      </c>
-      <c r="G62" s="44">
-        <v>6</v>
-      </c>
-      <c r="H62" s="44" t="s">
+      <c r="I62" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="61">
+        <v>1</v>
+      </c>
+      <c r="K62" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="I62" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="44">
-        <v>1</v>
-      </c>
-      <c r="K62" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="L62" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="M62" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="N62" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="O62" s="63" t="str">
+      <c r="M62" s="62" t="s">
+        <v>418</v>
+      </c>
+      <c r="N62" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="O62" s="61" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2025) Wetland Ecosystem: A better place for rich biodiversity. International Journal of Fauna and Biological Studies.11 (6): 106-110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="72">
+        <v>64</v>
+      </c>
+      <c r="B63" s="72" t="s">
+        <v>557</v>
+      </c>
+      <c r="C63" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="72">
+        <v>2025</v>
+      </c>
+      <c r="E63" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="72">
+        <v>11</v>
+      </c>
+      <c r="G63" s="72">
+        <v>1</v>
+      </c>
+      <c r="H63" s="72" t="s">
+        <v>556</v>
+      </c>
+      <c r="I63" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="J63" s="72">
+        <v>2</v>
+      </c>
+      <c r="K63" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="72" t="s">
+        <v>555</v>
+      </c>
+      <c r="M63" s="73" t="s">
+        <v>559</v>
+      </c>
+      <c r="N63" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="O63" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>Hemprabha; Arya, S. (2025) Impact of Seasonal Variation on Physiochemical Parameters in Ganga River and Bhimsen Pond Water, Kanpur, India. International Journal of Zoological Investigations.11 (1): 752-759</v>
       </c>
     </row>
   </sheetData>
@@ -7297,31 +7340,29 @@
     <hyperlink ref="L8" r:id="rId33" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
     <hyperlink ref="L45" r:id="rId34" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
     <hyperlink ref="L48" r:id="rId35" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
-    <hyperlink ref="L54" r:id="rId36" xr:uid="{E180E522-832A-43AA-8FEE-2AFE4A7B28CF}"/>
-    <hyperlink ref="L41" r:id="rId37" xr:uid="{872B02A0-8CDA-4197-A702-BFA228F08936}"/>
-    <hyperlink ref="L40" r:id="rId38" xr:uid="{56154005-22EE-46E1-BAEB-960FED59AF79}"/>
-    <hyperlink ref="L61" r:id="rId39" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
-    <hyperlink ref="L3" r:id="rId40" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
-    <hyperlink ref="L10" r:id="rId41" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
-    <hyperlink ref="M3" r:id="rId42" xr:uid="{EC21521E-1384-42BA-B6B8-E79BC84D15D8}"/>
-    <hyperlink ref="M49" r:id="rId43" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
-    <hyperlink ref="M48" r:id="rId44" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
-    <hyperlink ref="L62" r:id="rId45" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
-    <hyperlink ref="L14" r:id="rId46" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
-    <hyperlink ref="M10" r:id="rId47" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{BF082B39-9F1C-404A-8685-41BF3D8903AE}"/>
-    <hyperlink ref="L58" r:id="rId48" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
-    <hyperlink ref="M54" r:id="rId49" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
-    <hyperlink ref="M4" r:id="rId50" xr:uid="{974063BA-B154-4E21-8DD6-F9B3E8A97592}"/>
-    <hyperlink ref="L4" r:id="rId51" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
-    <hyperlink ref="L2" r:id="rId52" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
-    <hyperlink ref="M2" r:id="rId53" display="https://d1wqtxts1xzle7.cloudfront.net/123292727/ASSOCIATION_STUDIES_IN_ROSES.pdf?1749991358=&amp;response-content-disposition=attachment%3B+filename%3DASSOCIATION_STUDIES_IN_ROSES.pdf&amp;Expires=1749995193&amp;Signature=aRx-d8ac9A8kzc1gx~rJ~6eoWaFzS4PqqDzlf0juPxP7xd3pB~ANbxX4QwE8YQlvtvw-L5VpptSzTr4eK~AFZqD7cF4lboDVRcePuZFbgMJDWM2WIB4Yc05k8iA8XSNgt017X641kNpeWpn14Gs-j08B9l7hKkl3Eq6NJ5-CfXfI1oMtEatYb9cpDgcBME~xlcfbWKwRgh0Jfwf2zj251jEb-Eb9NTffjINA~hbiE3IsFSJLdWeuLYkY4ZcVgxSeMuH0nA7bassIVwGqD-8g6CpOvnH9mtYbkoqxMQlZTX5k3s5jV6bDsA6KqXwwYl4zVGZ7CBPiEW6OtXDubxgVSg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{BA15B3BC-EAD1-4BF5-B76B-4D556A998AF5}"/>
-    <hyperlink ref="M12" r:id="rId54" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
-    <hyperlink ref="L28" r:id="rId55" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
-    <hyperlink ref="M28" r:id="rId56" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
-    <hyperlink ref="M33" r:id="rId57" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
+    <hyperlink ref="L41" r:id="rId36" xr:uid="{872B02A0-8CDA-4197-A702-BFA228F08936}"/>
+    <hyperlink ref="L40" r:id="rId37" xr:uid="{56154005-22EE-46E1-BAEB-960FED59AF79}"/>
+    <hyperlink ref="L61" r:id="rId38" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
+    <hyperlink ref="L3" r:id="rId39" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
+    <hyperlink ref="L10" r:id="rId40" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
+    <hyperlink ref="M49" r:id="rId41" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
+    <hyperlink ref="M48" r:id="rId42" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
+    <hyperlink ref="L62" r:id="rId43" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
+    <hyperlink ref="L14" r:id="rId44" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
+    <hyperlink ref="L58" r:id="rId45" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
+    <hyperlink ref="M54" r:id="rId46" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
+    <hyperlink ref="L4" r:id="rId47" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
+    <hyperlink ref="L2" r:id="rId48" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
+    <hyperlink ref="M2" r:id="rId49" display="https://d1wqtxts1xzle7.cloudfront.net/123292727/ASSOCIATION_STUDIES_IN_ROSES.pdf?1749991358=&amp;response-content-disposition=attachment%3B+filename%3DASSOCIATION_STUDIES_IN_ROSES.pdf&amp;Expires=1749995193&amp;Signature=aRx-d8ac9A8kzc1gx~rJ~6eoWaFzS4PqqDzlf0juPxP7xd3pB~ANbxX4QwE8YQlvtvw-L5VpptSzTr4eK~AFZqD7cF4lboDVRcePuZFbgMJDWM2WIB4Yc05k8iA8XSNgt017X641kNpeWpn14Gs-j08B9l7hKkl3Eq6NJ5-CfXfI1oMtEatYb9cpDgcBME~xlcfbWKwRgh0Jfwf2zj251jEb-Eb9NTffjINA~hbiE3IsFSJLdWeuLYkY4ZcVgxSeMuH0nA7bassIVwGqD-8g6CpOvnH9mtYbkoqxMQlZTX5k3s5jV6bDsA6KqXwwYl4zVGZ7CBPiEW6OtXDubxgVSg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{BA15B3BC-EAD1-4BF5-B76B-4D556A998AF5}"/>
+    <hyperlink ref="M12" r:id="rId50" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
+    <hyperlink ref="L28" r:id="rId51" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
+    <hyperlink ref="M28" r:id="rId52" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
+    <hyperlink ref="M33" r:id="rId53" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
+    <hyperlink ref="M62" r:id="rId54" xr:uid="{773D55EA-F5B6-438C-8698-129A28EA2B02}"/>
+    <hyperlink ref="M63" r:id="rId55" xr:uid="{C4D17878-C89B-41A9-A36C-7279D8B56676}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId58"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -7332,11 +7373,11 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="84" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="49.5546875" customWidth="1"/>
@@ -7346,15 +7387,15 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1">
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="54" t="s">
         <v>184</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>185</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -7363,368 +7404,369 @@
         <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="74" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>192</v>
       </c>
       <c r="D2" s="16">
         <v>2005</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="G2" s="16">
         <v>3</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="16" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="B3" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="D3" s="16">
         <v>2017</v>
       </c>
       <c r="E3" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>200</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>201</v>
       </c>
       <c r="G3" s="16">
         <v>2</v>
       </c>
       <c r="H3" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="B4" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>205</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="16">
         <v>2017</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G4" s="16">
         <v>2</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="26.4">
+    </row>
+    <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>209</v>
       </c>
       <c r="D5" s="16">
         <v>2017</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="I5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="26.4">
-      <c r="A6" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="I6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="39.6">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>222</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>223</v>
       </c>
       <c r="D7" s="16">
         <v>2020</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="16">
         <v>2</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I7" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="52.8">
-      <c r="A8" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="D8" s="16">
         <v>2021</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="16" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="39.6">
-      <c r="A9" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>233</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>234</v>
       </c>
       <c r="D9" s="16">
         <v>2022</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>235</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>236</v>
       </c>
       <c r="G9" s="16">
         <v>2</v>
       </c>
       <c r="H9" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="I9" s="16" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="52.8">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>241</v>
       </c>
       <c r="D10" s="16">
         <v>2023</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>242</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>243</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
       </c>
       <c r="H10" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="I10" s="16" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="43">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="52.8">
-      <c r="A11" s="44">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="D11" s="16">
         <v>2024</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="I11" s="16" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="43">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="27.6">
-      <c r="A12" s="44">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>252</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>253</v>
       </c>
       <c r="D12" s="16">
         <v>2024</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>254</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>255</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
       </c>
       <c r="H12" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="100.8">
+    </row>
+    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="55" t="s">
+        <v>524</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="D13" s="55">
+        <v>2024</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>526</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="55">
+        <v>1</v>
+      </c>
+      <c r="H13" s="57" t="s">
         <v>527</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="I13" t="s">
         <v>528</v>
       </c>
-      <c r="D13" s="75">
-        <v>2024</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>529</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" s="75">
-        <v>1</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>530</v>
-      </c>
-      <c r="I13" t="s">
-        <v>531</v>
-      </c>
-      <c r="J13" s="76" t="s">
-        <v>528</v>
-      </c>
+      <c r="J13" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7740,55 +7782,55 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.44140625" customWidth="1"/>
     <col min="2" max="2" width="39.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
         <v>532</v>
       </c>
-      <c r="C1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
         <v>533</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
         <v>534</v>
       </c>
-      <c r="C2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" t="s">
-        <v>537</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -7805,295 +7847,295 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" style="32" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="1" width="255.6640625" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="31" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="31" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="31" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="31" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="31" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="31" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="31" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="31" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="31" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="31" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="31" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="31" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="31" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="31" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="31" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="31" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="31" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="31" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="31" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="31" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="31" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="31" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="31" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="31" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="31" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="31" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="32" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="33" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="34" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="34" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="31" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="31" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="33" t="s">
+    <row r="35" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="31.2">
-      <c r="A35" s="34" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="31" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="31" t="s">
+    <row r="38" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="34" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="31.2">
-      <c r="A38" s="35" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="33" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="33" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="33" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="33" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="33" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="33" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="33" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="33" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="34" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="33" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="32" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="33" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="32" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="33" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="32" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="32" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="34" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="35" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="32" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="31" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="32" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="32" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="32" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -8114,95 +8156,95 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="46.109375" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" thickBot="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="53" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A2" s="54" t="s">
+      <c r="B2" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="55" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A3" s="54" t="s">
+      <c r="B3" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A4" s="54" t="s">
+      <c r="B4" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A5" s="54" t="s">
+      <c r="B5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D5" s="55" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.6" thickBot="1">
-      <c r="A6" s="56" t="s">
+      <c r="B6" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>329</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -8220,36 +8262,36 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
         <v>331</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>332</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>333</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>334</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>335</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>337</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -8268,9 +8310,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3">
         <v>9.6999999999999993</v>
@@ -8288,7 +8330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
     </row>
   </sheetData>
@@ -8305,7 +8347,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="75.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="49.33203125" style="6" customWidth="1"/>
@@ -8315,7 +8357,7 @@
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -8331,14 +8373,14 @@
       <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6">
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -8361,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2">
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -8384,7 +8426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.2">
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -8407,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -8430,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -8453,7 +8495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.2">
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -8476,9 +8518,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.2">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>30</v>
@@ -8499,9 +8541,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.2">
+    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>30</v>
@@ -8522,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.2">
+    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -8545,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.2">
+    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
@@ -8568,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.2">
+    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
@@ -8591,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.2">
+    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>46</v>
       </c>
@@ -8614,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.2">
+    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>50</v>
       </c>
@@ -8637,9 +8679,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>53</v>
@@ -8660,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.2">
+    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>56</v>
       </c>
@@ -8683,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="46.8">
+    <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>57</v>
       </c>
@@ -8706,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.2">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>59</v>
       </c>
@@ -8729,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.2">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>61</v>
       </c>
@@ -8752,7 +8794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.2">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>63</v>
       </c>
@@ -8775,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="46.8">
+    <row r="21" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>65</v>
       </c>
@@ -8798,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.2">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>67</v>
       </c>
@@ -8821,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.2">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>69</v>
       </c>
@@ -8844,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31.2">
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>72</v>
       </c>
@@ -8867,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="46.8">
+    <row r="25" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>74</v>
       </c>
@@ -8890,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.2">
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>76</v>
       </c>
@@ -8913,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="31.2">
+    <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
@@ -8936,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.6">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>82</v>
       </c>
@@ -8959,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.6">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>83</v>
       </c>
@@ -8982,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31.2">
+    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>86</v>
       </c>
@@ -9005,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.2">
+    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>89</v>
       </c>
@@ -9028,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.2">
+    <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>91</v>
       </c>
@@ -9051,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.2">
+    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>95</v>
       </c>
@@ -9074,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="31.2">
+    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>98</v>
       </c>
@@ -9097,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>100</v>
       </c>
@@ -9120,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.2">
+    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>101</v>
       </c>
@@ -9143,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="31.2">
+    <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>103</v>
       </c>
@@ -9166,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.2">
+    <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>106</v>
       </c>
@@ -9189,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="31.2">
+    <row r="39" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>108</v>
       </c>
@@ -9212,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="31.2">
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>110</v>
       </c>
@@ -9235,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.6">
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>111</v>
       </c>
@@ -9258,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="31.2">
+    <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>112</v>
       </c>
@@ -9281,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="31.2">
+    <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>116</v>
       </c>
@@ -9304,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.6">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>120</v>
       </c>
@@ -9327,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="31.2">
+    <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>125</v>
       </c>
@@ -9350,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>129</v>
       </c>
@@ -9373,7 +9415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="31.2">
+    <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>131</v>
       </c>
@@ -9396,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="31.2">
+    <row r="48" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>134</v>
       </c>
@@ -9419,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="46.8">
+    <row r="49" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>137</v>
       </c>
@@ -9442,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="31.2">
+    <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>139</v>
       </c>
@@ -9465,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="31.2">
+    <row r="51" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>143</v>
       </c>
@@ -9488,7 +9530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.2">
+    <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>146</v>
       </c>
@@ -9511,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>148</v>
       </c>
@@ -9534,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="31.2">
+    <row r="54" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>152</v>
       </c>
@@ -9557,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="31.8" thickBot="1">
+    <row r="55" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>155</v>
       </c>
@@ -9580,20 +9622,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1">
-      <c r="A56" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="B56" s="21" t="s">
+    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="22">
         <v>2023</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="E56" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F56">
@@ -9603,9 +9645,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="31.2">
+    <row r="57" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>87</v>
@@ -9626,18 +9668,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.2" thickBot="1">
+    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="C58" s="11">
         <v>2024</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>17</v>
@@ -9649,20 +9691,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1">
-      <c r="A59" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="21" t="s">
+    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="22">
         <v>2024</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="19" t="s">
         <v>25</v>
       </c>
       <c r="F59">
@@ -9672,20 +9714,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="29.4" thickBot="1">
-      <c r="A60" s="25" t="s">
+    <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="C60" s="22">
+        <v>2024</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="23">
-        <v>2024</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" s="20" t="s">
+      <c r="E60" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F60">
@@ -9695,12 +9737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
-      <c r="A61" s="24" t="s">
+    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C61" s="4">
         <v>2024</v>
@@ -9718,9 +9760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>144</v>
@@ -9731,7 +9773,7 @@
       <c r="D62" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="35" t="s">
         <v>17</v>
       </c>
       <c r="F62">
@@ -9740,20 +9782,20 @@
       <c r="G62" s="6">
         <v>0</v>
       </c>
-      <c r="H62" s="37"/>
-    </row>
-    <row r="63" spans="1:8" ht="26.4">
+      <c r="H62" s="36"/>
+    </row>
+    <row r="63" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>192</v>
       </c>
       <c r="C63" s="16">
         <v>2005</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -9762,18 +9804,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="26.4">
+    <row r="64" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="C64" s="16">
         <v>2017</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -9782,18 +9824,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="26.4">
+    <row r="65" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C65" s="16">
         <v>2017</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -9802,18 +9844,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="26.4">
+    <row r="66" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>209</v>
       </c>
       <c r="C66" s="16">
         <v>2017</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -9822,18 +9864,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B67" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="C67" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>217</v>
-      </c>
       <c r="D67" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -9842,18 +9884,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>222</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>223</v>
       </c>
       <c r="C68" s="16">
         <v>2020</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9862,18 +9904,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27.6">
+    <row r="69" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="C69" s="16">
         <v>2021</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9882,18 +9924,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>233</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>234</v>
       </c>
       <c r="C70" s="16">
         <v>2022</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9902,18 +9944,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1">
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>241</v>
       </c>
       <c r="C71" s="16">
         <v>2023</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9922,18 +9964,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1">
-      <c r="A72" s="38" t="s">
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="B72" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="C72" s="40">
+      <c r="C72" s="39">
         <v>2024</v>
       </c>
-      <c r="D72" s="21" t="s">
-        <v>251</v>
+      <c r="D72" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="E72"/>
       <c r="F72">
@@ -9943,18 +9985,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1">
-      <c r="A73" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="C73" s="43">
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="C73" s="42">
         <v>2024</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E73"/>
       <c r="F73">
@@ -9978,26 +10020,26 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" t="s">
         <v>346</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>347</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>348</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>349</v>
       </c>
-      <c r="E1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>(20.28/100)*E2</f>
         <v>39.018720000000002</v>
@@ -10032,187 +10074,187 @@
       <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="30"/>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="29" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="30"/>
-    </row>
-    <row r="6" spans="1:1" ht="15">
-      <c r="A6" s="29" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="30"/>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="29" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="30"/>
-    </row>
-    <row r="10" spans="1:1" ht="15">
-      <c r="A10" s="29" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="30"/>
-    </row>
-    <row r="12" spans="1:1" ht="15">
-      <c r="A12" s="29" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="30"/>
-    </row>
-    <row r="14" spans="1:1" ht="15">
-      <c r="A14" s="29" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="30"/>
-    </row>
-    <row r="16" spans="1:1" ht="15">
-      <c r="A16" s="29" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="30"/>
-    </row>
-    <row r="18" spans="1:1" ht="15">
-      <c r="A18" s="29" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="30"/>
-    </row>
-    <row r="20" spans="1:1" ht="15">
-      <c r="A20" s="29" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="30"/>
-    </row>
-    <row r="22" spans="1:1" ht="15">
-      <c r="A22" s="29" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="30"/>
-    </row>
-    <row r="24" spans="1:1" ht="15">
-      <c r="A24" s="29" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="30"/>
-    </row>
-    <row r="26" spans="1:1" ht="15">
-      <c r="A26" s="29" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="30"/>
-    </row>
-    <row r="28" spans="1:1" ht="15">
-      <c r="A28" s="29" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="30"/>
-    </row>
-    <row r="30" spans="1:1" ht="15">
-      <c r="A30" s="29" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="30"/>
-    </row>
-    <row r="32" spans="1:1" ht="15">
-      <c r="A32" s="29" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="30"/>
-    </row>
-    <row r="34" spans="1:1" ht="15">
-      <c r="A34" s="29" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="30"/>
-    </row>
-    <row r="36" spans="1:1" ht="15">
-      <c r="A36" s="29" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="30"/>
-    </row>
-    <row r="38" spans="1:1" ht="15">
-      <c r="A38" s="29" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="30"/>
-    </row>
-    <row r="40" spans="1:1" ht="15">
-      <c r="A40" s="29" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="30"/>
-    </row>
-    <row r="42" spans="1:1" ht="15">
-      <c r="A42" s="29" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="30"/>
-    </row>
-    <row r="44" spans="1:1" ht="15">
-      <c r="A44" s="29" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="29"/>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="30"/>
-    </row>
-    <row r="46" spans="1:1" ht="15">
-      <c r="A46" s="29" t="s">
-        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/public/db/Research Publications.xlsx
+++ b/public/db/Research Publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ritwik Sharma\OneDrive\Sunita Arya\SunitaArya\public\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/Biodata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DA7CAA-0FA7-41A9-B664-ACAB36E0185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="847" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C982349F-CD98-4AF5-A443-28B518C6E102}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" activeTab="1" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="579">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -331,9 +331,6 @@
     <t>Insect Pest and Diseases of Roses: Symptoms and Control Measures 4(1): 312-319</t>
   </si>
   <si>
-    <t>https://asr.academicsocialresearch.co.in/index.php/ASR/article/view/684/622</t>
-  </si>
-  <si>
     <t>Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae, 15(1)</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
     <t>International Journal of Environmental Science</t>
   </si>
   <si>
-    <t>https://www.academia.edu/110427698/Spectrophotometric_Determination_of_Chromium_in_River_Ganga_Water_Samples_using_1_5_Diphenyl_Carbazide_at_Kanpur_India?source=swp_share</t>
-  </si>
-  <si>
     <t>Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria, 9(2): 103-109</t>
   </si>
   <si>
@@ -388,9 +382,6 @@
     <t>Green Technology to combat environmental degradation and sustainable food production: A Review, 9(2):118-123</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.researchgate.net/publication/376174257_GREENS_TECHNOLOGY_TO_COMBAT_ENVIRONMENTAL_DEGRADATION_AND_SUSTAINABLE_FOOD_PRODUCTION_A_REVIEW </t>
-  </si>
-  <si>
     <t>Insect Pest Management of Cabbage with the help of ITK Cow Urine, 9(2): 110-114</t>
   </si>
   <si>
@@ -406,9 +397,6 @@
     <t>P2394-0344 E2455-9817</t>
   </si>
   <si>
-    <t>https://www.socialresearchfoundation.com/upoadreserchpapers/5/271/1909280629031st%20sunita%20arya.pdf</t>
-  </si>
-  <si>
     <t>Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India, 6(8): 1-3</t>
   </si>
   <si>
@@ -418,9 +406,6 @@
     <t>P2321-290X E2349-980X</t>
   </si>
   <si>
-    <t>https://www.socialresearchfoundation.com/upoadreserchpapers/3/273/1909250513031st%20sunita%20arya.pdf</t>
-  </si>
-  <si>
     <t>Scientific validation of ITK oil to protect pulses from storage pests, 6(3): 51-54</t>
   </si>
   <si>
@@ -547,9 +532,6 @@
     <t>2664-6536</t>
   </si>
   <si>
-    <t>https://dx.doi.org/10.33545/26646536.2024.v6.i1a.47</t>
-  </si>
-  <si>
     <t>Sarus crane, biodiversity and pesticides: A review</t>
   </si>
   <si>
@@ -566,9 +548,6 @@
   </si>
   <si>
     <t>ConnectJournals</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.51470/JEZ.2024.27.2.1605</t>
   </si>
   <si>
     <t>EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. 6 (1): 58-64</t>
@@ -1852,45 +1831,6 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve"> 9(1): 392-397. doi: 10.33745/ijzi.2023.v09i01.044</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Arya, S., &amp; Sachan, R. (2023). Bionomics and morphometric studies of tobacco caterpillar (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Spodoptera litura</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>) on rose plants. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>International Journal of Entomology Research, 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(6): 50-52.</t>
     </r>
   </si>
   <si>
@@ -2835,9 +2775,6 @@
     <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392655423_Population_Dynamics_of_lemon_butterfly_in_citrus_crop/links/684c1177131a7f2849f14e08/Population-Dynamics-of-lemon-butterfly-in-citrus-crop.pdf</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392654994_Insect_Pest_Management_of_Cabbage_with_the_help_of_ITK_Cow_Urine/links/684c1393131a7f2849f14e2d/Insect-Pest-Management-of-Cabbage-with-the-help-of-ITK-Cow-Urine.pdf</t>
-  </si>
-  <si>
     <t>International Research and Reviews</t>
   </si>
   <si>
@@ -2889,9 +2826,6 @@
     <t>Biometrical Studies of Floribunda Roses</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/profile/Sunita-Arya-2/publication/392690886_Effect_of_Marigold_oil_Tageteserecta_L_and_its_fractions_against_sitophillusoryzae/links/684d3d96474abd185bd8ba1a/Effect-of-Marigold-oil-Tageteserecta-L-and-its-fractions-against-sitophillusoryzae.pdf</t>
-  </si>
-  <si>
     <t>EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW</t>
   </si>
   <si>
@@ -3255,18 +3189,12 @@
     <t>https://naturelightpublications.com/wp-content/uploads/2024/09/Environment-and-Society-2023.pdf</t>
   </si>
   <si>
-    <t>https://www.irejournals.com/formatedpaper/1706341.pdf</t>
-  </si>
-  <si>
     <t>Suppl</t>
   </si>
   <si>
     <t>https://www.academia.edu/129962993/ASSOCIATION_STUDIES_IN_ROSES</t>
   </si>
   <si>
-    <t>https://d1wqtxts1xzle7.cloudfront.net/123292727/ASSOCIATION_STUDIES_IN_ROSES.pdf?1749991358=&amp;response-content-disposition=attachment%3B+filename%3DASSOCIATION_STUDIES_IN_ROSES.pdf&amp;Expires=1749995193&amp;Signature=aRx-d8ac9A8kzc1gx~rJ~6eoWaFzS4PqqDzlf0juPxP7xd3pB~ANbxX4QwE8YQlvtvw-L5VpptSzTr4eK~AFZqD7cF4lboDVRcePuZFbgMJDWM2WIB4Yc05k8iA8XSNgt017X641kNpeWpn14Gs-j08B9l7hKkl3Eq6NJ5-CfXfI1oMtEatYb9cpDgcBME~xlcfbWKwRgh0Jfwf2zj251jEb-Eb9NTffjINA~hbiE3IsFSJLdWeuLYkY4ZcVgxSeMuH0nA7bassIVwGqD-8g6CpOvnH9mtYbkoqxMQlZTX5k3s5jV6bDsA6KqXwwYl4zVGZ7CBPiEW6OtXDubxgVSg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA</t>
-  </si>
-  <si>
     <t>Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article</t>
   </si>
   <si>
@@ -3289,9 +3217,6 @@
   </si>
   <si>
     <t>Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India)</t>
-  </si>
-  <si>
-    <t>10.5281/zenodo.15669228</t>
   </si>
   <si>
     <t>https://zenodo.org/records/15669228/files/Evaluation%20of%20Water%20Quality%20in%20River%20Ganga%20Due%20to%20Contaminant%20of%20Heavy%20Metals,%20Kanpur%20(India).pdf?download=1</t>
@@ -3347,6 +3272,157 @@
   </si>
   <si>
     <t>https://zenodo.org/records/15695661/files/Impact%20of%20Seasonal%20Variation%20on%20Physiochemical%20Parameters%20in%20Ganga%20River%20and%20Bhumsen%20Pond%20Water,%20Kanpur,%20India.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15697804</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15697804/files/Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15697875</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15697875/files/Studies%20of%20Leaf%20Miner%20(Phyllocnistis%20citrella%20Stainton)%20in%20Relation%20to%20Temperature%20and%20Relative%20Humidity%20in%20Kanpur,%20India.pdf</t>
+  </si>
+  <si>
+    <t>https://www.academia.edu/110427698/Spectrophotometric_Determination_of_Chromium_in_River_Ganga_Water_Samples_using_1_5_Diphenyl_Carbazide_at_Kanpur_India</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15697980</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15785018/files/Sustainable%20Fisheries-%20Reducing%20Poverty%20through%20Byproduct%20Utilization.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15785018</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15669228</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.51470/JEZ.2024.27.2.1605</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.33545/26646536.2024.v6.i1a.47</t>
+  </si>
+  <si>
+    <t>review of muscovi duck</t>
+  </si>
+  <si>
+    <t>70-80</t>
+  </si>
+  <si>
+    <t>Pesticides, Herbicides and Their Effects on Population</t>
+  </si>
+  <si>
+    <t>110-119</t>
+  </si>
+  <si>
+    <t>Sharma, R.; Singh, R.; Arya, S.</t>
+  </si>
+  <si>
+    <t>Sharma, R.; Arya, S.; Singh, R.</t>
+  </si>
+  <si>
+    <r>
+      <t>Arya, S., &amp; Sachan, R. (2023). Bionomics and morphometric studies of tobacco caterpillar (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Spodoptera litura</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) on rose plants. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>International Journal of Entomology Research, 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(6): roses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Study of Morphological Characters, Growth and Yield Yield Performance of Eri Silkworm (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Samiya ricini </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Donovan) Ecoraces</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/376174257</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15697980/files/Insect%20Pest%20and%20Diseases%20of%20Roses.%20Symptoms%20and%20Control%20Measures.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15823186</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15823186/files/Effect%20of%20Marigold%20oil%20(Tageteserecta%20L.)%20and%20its%20fractions%20against%20sitophillusoryzae.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.15823316</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15823316/files/Insect%20Pest%20Management%20of%20Cabbage%20with%20the%20help%20of%20ITK%20Cow%20Urine.pdf?download=1</t>
+  </si>
+  <si>
+    <t>POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA</t>
+  </si>
+  <si>
+    <t>Life Table Parameters of the Tobacco Caterpillar [Spodoptera litura (Fab.)] on Ornamental Roses</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh Journal of Zoology</t>
+  </si>
+  <si>
+    <t>https://mbimph.com/index.php/UPJOZ/article/download/5105/6761/8022</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.56557/upjoz/2025/v46i135105</t>
+  </si>
+  <si>
+    <t>0256-971X</t>
+  </si>
+  <si>
+    <t>267-278</t>
   </si>
 </sst>
 </file>
@@ -3356,7 +3432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3532,16 +3608,21 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
+      <color rgb="FF56CCFF"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3749,7 +3830,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3931,15 +4012,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3958,14 +4030,37 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3983,10 +4078,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4289,37 +4380,39 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="43.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="51.88671875" customWidth="1"/>
-    <col min="13" max="14" width="30.109375" style="6"/>
-    <col min="15" max="15" width="169.5546875" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="30.109375" style="6"/>
+    <col min="1" max="1" width="8.5703125" style="75" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" style="75" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" style="75" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="75" customWidth="1"/>
+    <col min="5" max="5" width="18" style="75" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="75" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="75" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="75" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="75" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="75" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="75" customWidth="1"/>
+    <col min="12" max="12" width="51.85546875" style="76" customWidth="1"/>
+    <col min="13" max="14" width="30.140625" style="75"/>
+    <col min="15" max="15" width="255.28515625" style="75" customWidth="1"/>
+    <col min="16" max="16384" width="30.140625" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C1" s="58" t="s">
         <v>2</v>
@@ -4352,21 +4445,21 @@
         <v>11</v>
       </c>
       <c r="M1" s="58" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="N1" s="58" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="O1" s="58" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61">
         <v>1</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C2" s="59" t="s">
         <v>13</v>
@@ -4384,7 +4477,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I2" s="59" t="s">
         <v>16</v>
@@ -4396,25 +4489,23 @@
         <v>17</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>537</v>
-      </c>
-      <c r="M2" s="60" t="s">
-        <v>538</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="M2" s="60"/>
       <c r="N2" s="59" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="O2" s="61" t="str">
-        <f>_xlfn.CONCAT(N2," (",D2,") ",B2, ". ", C2, ".", F2, " (",G2,"): ",H2)</f>
-        <v>Tewari, U.C.; Kumar, R.; Arya, S. (1994) Association Studies in Roses. Farm Science Journal.6 (9): 189-191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O2:O36" si="0">_xlfn.CONCAT(SUBSTITUTE(N2, ";", ",")," (",D2,") ",B2,". ",C2,". ",F2," (",G2,"): ",H2, ". ", IF(LEFT(L2,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L2),""))</f>
+        <v xml:space="preserve">Tewari, U.C., Kumar, R., Arya, S. (1994) Association Studies in Roses. Farm Science Journal. 6 (9): 189-191. </v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="61">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C3" s="59" t="s">
         <v>24</v>
@@ -4428,11 +4519,11 @@
       <c r="F3" s="61">
         <v>12</v>
       </c>
-      <c r="G3" s="61">
-        <v>2</v>
+      <c r="G3" s="61" t="s">
+        <v>558</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I3" s="59" t="s">
         <v>16</v>
@@ -4444,23 +4535,23 @@
         <v>25</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M3" s="60"/>
       <c r="N3" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O3" s="61" t="str">
-        <f t="shared" ref="O3:O63" si="0">_xlfn.CONCAT(N3," (",D3,") ",B3, ". ", C3, ".", F3, " (",G3,"): ",H3)</f>
-        <v>Arya, S. (2003) Population Dynamics of lemon butterfly in citrus crop. Farm Science Journal .12 (2): 507-511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Arya, S. (2003) Population Dynamics of lemon butterfly in citrus crop. Farm Science Journal . 12 (review of muscovi duck): 507-511. </v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C4" s="59" t="s">
         <v>27</v>
@@ -4475,10 +4566,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I4" s="59" t="s">
         <v>16</v>
@@ -4490,23 +4581,23 @@
         <v>17</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="M4" s="60"/>
       <c r="N4" s="59" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="O4" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Tewari, U.C.; Kumar, R.; Arya, S.; Dwivedi, A. (2005) Investigation on phenotypic correlation in gladiolus genotype. National Journal of Science.2 (Suppl): 507-511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Tewari, U.C., Kumar, R., Arya, S., Dwivedi, A. (2005) Investigation on phenotypic correlation in gladiolus genotype. National Journal of Science. 2 (Suppl): 507-511. </v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C5" s="59" t="s">
         <v>30</v>
@@ -4524,7 +4615,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I5" s="59" t="s">
         <v>16</v>
@@ -4542,16 +4633,16 @@
         <v>32</v>
       </c>
       <c r="N5" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O5" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2013) A research study of phytohormone on vegetative growth and flowering behavior in gladiolus (gladiolus grandifloras). International Journal of Innovative Research in Science, Engineering and Technology.2 (11): 7060-7062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2013) A research study of phytohormone on vegetative growth and flowering behavior in gladiolus (gladiolus grandifloras). International Journal of Innovative Research in Science, Engineering and Technology. 2 (11): 7060-7062. </v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>33</v>
@@ -4590,16 +4681,16 @@
         <v>35</v>
       </c>
       <c r="N6" s="59" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="O6" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2013) Bio efficacy of entomopathogenic fungi against oriental fruit fly (dacus dorsalis H.) infesting guava in riverbed area of ganga. International Journal of Innovative Research in Science, Engineering and Technology.2 (11): 7066-7068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S., Dubey, R. K. (2013) Bio efficacy of entomopathogenic fungi against oriental fruit fly (dacus dorsalis H.) infesting guava in riverbed area of ganga. International Journal of Innovative Research in Science, Engineering and Technology. 2 (11): 7066-7068. </v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="59" t="s">
         <v>36</v>
@@ -4638,19 +4729,19 @@
         <v>38</v>
       </c>
       <c r="N7" s="59" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="O7" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2013) Studies on citrus crop insect –pest management with adhesive cage under integrated pest management programme. International Journal of Innovative Research in Science, Engineering and Technology.2 (12): 8088-8091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S., Dubey, R. K. (2013) Studies on citrus crop insect –pest management with adhesive cage under integrated pest management programme. International Journal of Innovative Research in Science, Engineering and Technology. 2 (12): 8088-8091. </v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C8" s="59" t="s">
         <v>30</v>
@@ -4668,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="61" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="I8" s="59" t="s">
         <v>16</v>
@@ -4686,16 +4777,16 @@
         <v>40</v>
       </c>
       <c r="N8" s="59" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="O8" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Dubey, R. K.; Dixit, P.; Arya, S. (2014) Naturally occurring aurones and chromones –a potential organic therapeutic agents improvising nutritional security. International Journal of Innovative Research in Science, Engineering and Technology.3 (1): 8141-8144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dubey, R. K., Dixit, P., Arya, S. (2014) Naturally occurring aurones and chromones –a potential organic therapeutic agents improvising nutritional security. International Journal of Innovative Research in Science, Engineering and Technology. 3 (1): 8141-8144. </v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="59" t="s">
         <v>41</v>
@@ -4716,7 +4807,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="I9" s="59" t="s">
         <v>16</v>
@@ -4734,22 +4825,22 @@
         <v>42</v>
       </c>
       <c r="N9" s="59" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="O9" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Dubey, R.K.; Katiyar, P.; Dipankar, A.; Tuck, R.R.; Arya, S. (2014) A microbiological study on asthma and allergy management. International Journal of Innovative Research in Science, Engineering and Technology.3 (6): 13763-13766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Dubey, R.K., Katiyar, P., Dipankar, A., Tuck, R.R., Arya, S. (2014) A microbiological study on asthma and allergy management. International Journal of Innovative Research in Science, Engineering and Technology. 3 (6): 13763-13766. </v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="61">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D10" s="59">
         <v>2016</v>
@@ -4761,10 +4852,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H10" s="61" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="I10" s="59" t="s">
         <v>16</v>
@@ -4776,20 +4867,20 @@
         <v>25</v>
       </c>
       <c r="L10" s="62" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="M10" s="62"/>
       <c r="N10" s="59" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="O10" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Jaswant, S. (2016) Infestation of insect-pest on guava (psidiumquajava) tree in riverbed area of ganga river in Kanpur. International Research and Reviews.5 (1 (III)): 60-65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S., Jaswant, S. (2016) Infestation of insect-pest on guava (psidiumquajava) tree in riverbed area of ganga river in Kanpur. International Research and Reviews. 5 (1 (III)): 60-65. </v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="61">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="59" t="s">
         <v>46</v>
@@ -4810,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="I11" s="59" t="s">
         <v>16</v>
@@ -4828,19 +4919,19 @@
         <v>49</v>
       </c>
       <c r="N11" s="59" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="O11" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Madhulekha; Arya, S. (2016) Assessment of Water Pollution of River Ganga by Tannery Effluent Using Fish as an Indicator in Kanpur, India. Journal of Biochemical and Cellular Archives .16 (1): 120-123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Madhulekha, Arya, S. (2016) Assessment of Water Pollution of River Ganga by Tannery Effluent Using Fish as an Indicator in Kanpur, India. Journal of Biochemical and Cellular Archives . 16 (1): 120-123. </v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="61">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>51</v>
@@ -4858,7 +4949,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="61" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="I12" s="59" t="s">
         <v>16</v>
@@ -4869,26 +4960,26 @@
       <c r="K12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="63" t="s">
-        <v>547</v>
+      <c r="L12" s="70" t="s">
+        <v>555</v>
       </c>
       <c r="M12" s="62" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="N12" s="59" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="O12" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Madhulekha; Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India). International Journal of Innovative Trends in Engineering.20 (2): 97-100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Madhulekha, Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India). International Journal of Innovative Trends in Engineering. 20 (2): 97-100. DOI: https://doi.org/10.5281/zenodo.15669228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="61">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C13" s="59" t="s">
         <v>53</v>
@@ -4906,7 +4997,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="61" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="I13" s="59">
         <v>47715</v>
@@ -4922,19 +5013,19 @@
       </c>
       <c r="M13" s="61"/>
       <c r="N13" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O13" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2016) Extent of damage and seasonal abundance of citrus psylla (d. citri) on citrus plant. Academic Social Research.2 (6): 131-136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2016) Extent of damage and seasonal abundance of citrus psylla (d. citri) on citrus plant. Academic Social Research. 2 (6): 131-136. </v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="61">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C14" s="59" t="s">
         <v>53</v>
@@ -4952,7 +5043,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="I14" s="59" t="s">
         <v>16</v>
@@ -4964,23 +5055,23 @@
         <v>25</v>
       </c>
       <c r="L14" s="60" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M14" s="61"/>
       <c r="N14" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O14" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2016) Response of Abiotic Factors on Population of Oriental Fruit Fly (B. Dorsalis) In Guava Varieties. Academic Social Research.2 (4): 73-76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2016) Response of Abiotic Factors on Population of Oriental Fruit Fly (B. Dorsalis) In Guava Varieties. Academic Social Research. 2 (4): 73-76. </v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="61">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C15" s="59" t="s">
         <v>30</v>
@@ -4998,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="61" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="I15" s="59" t="s">
         <v>16</v>
@@ -5016,19 +5107,19 @@
         <v>58</v>
       </c>
       <c r="N15" s="59" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="O15" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R.K. (2017) Physico-Chemical and Scientific Analysis of Ganga River Water with Special Respect to Bacteriophage Activity and Its Comparative Studies with Sewage Water Treatment. International Journal of Innovative Research in Science, Engineering and Technology.6 (3): 5094-5104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S., Dubey, R.K. (2017) Physico-Chemical and Scientific Analysis of Ganga River Water with Special Respect to Bacteriophage Activity and Its Comparative Studies with Sewage Water Treatment. International Journal of Innovative Research in Science, Engineering and Technology. 6 (3): 5094-5104. </v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="61">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C16" s="59" t="s">
         <v>30</v>
@@ -5046,7 +5137,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="61" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="I16" s="59" t="s">
         <v>16</v>
@@ -5064,19 +5155,19 @@
         <v>60</v>
       </c>
       <c r="N16" s="59" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="O16" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) Microbiological Research Studies on Anar Butterfly (Virachola Isocrates F.) Population with Different Factors in Guava Fruit. International Journal of Innovative Research in Science, Engineering and Technology.6 (3): 5089-5093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Microbiological Research Studies on Anar Butterfly (Virachola Isocrates F.) Population with Different Factors in Guava Fruit. International Journal of Innovative Research in Science, Engineering and Technology. 6 (3): 5089-5093. </v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="61">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C17" s="59" t="s">
         <v>30</v>
@@ -5094,7 +5185,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="I17" s="59" t="s">
         <v>16</v>
@@ -5112,19 +5203,19 @@
         <v>62</v>
       </c>
       <c r="N17" s="59" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="O17" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) Studies on Application, Importance and Effect of Neem Tree (AzadiachtaIndica) Oil on Effect and Intensity of Guava Insect.. International Journal of Innovative Research in Science, Engineering and Technology.6 (4): 6280-6283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Studies on Application, Importance and Effect of Neem Tree (AzadiachtaIndica) Oil on Effect and Intensity of Guava Insect.. International Journal of Innovative Research in Science, Engineering and Technology. 6 (4): 6280-6283. </v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="61">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C18" s="59" t="s">
         <v>64</v>
@@ -5142,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="61" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="I18" s="59" t="s">
         <v>16</v>
@@ -5154,20 +5245,20 @@
         <v>25</v>
       </c>
       <c r="L18" s="59" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="M18" s="61"/>
       <c r="N18" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O18" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2017) Economics and Bioefficacy of Parapheromones On Fruit Fly, Their Traps and Dispenser. Acadmic Science Research.3 (1): 134-136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2017) Economics and Bioefficacy of Parapheromones On Fruit Fly, Their Traps and Dispenser. Acadmic Science Research. 3 (1): 134-136. </v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="59" t="s">
         <v>65</v>
@@ -5188,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="61" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="I19" s="59" t="s">
         <v>16</v>
@@ -5206,19 +5297,19 @@
         <v>66</v>
       </c>
       <c r="N19" s="59" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="O19" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) Scientific Studies on Effective Applications of Some Important Essential Elements Nitrogens(N), Phosphorus (P), Zinc (Zn) Nutrional Values on Spike and Floret Development in Gladiolus Crop.,. International Journal of Innovative Research in Science, Engineering and Technology.6 (4): 6275-6279</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Scientific Studies on Effective Applications of Some Important Essential Elements Nitrogens(N), Phosphorus (P), Zinc (Zn) Nutrional Values on Spike and Floret Development in Gladiolus Crop.,. International Journal of Innovative Research in Science, Engineering and Technology. 6 (4): 6275-6279. </v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="61">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C20" s="59" t="s">
         <v>30</v>
@@ -5236,7 +5327,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="I20" s="59" t="s">
         <v>16</v>
@@ -5254,19 +5345,19 @@
         <v>68</v>
       </c>
       <c r="N20" s="59" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="O20" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) A Scientific Study and Analysis of Incidence and Intensity of Bark Eating Catapillar (Inderbela Spp.) In Guava (P. Guajava) Tree. International Journal of Innovative Research in Science, Engineering and Technology.6 (5): 10032-10034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) A Scientific Study and Analysis of Incidence and Intensity of Bark Eating Catapillar (Inderbela Spp.) In Guava (P. Guajava) Tree. International Journal of Innovative Research in Science, Engineering and Technology. 6 (5): 10032-10034. </v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="61">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C21" s="59" t="s">
         <v>70</v>
@@ -5284,7 +5375,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="61" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="I21" s="59" t="s">
         <v>16</v>
@@ -5302,19 +5393,19 @@
         <v>71</v>
       </c>
       <c r="N21" s="59" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="O21" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) Scientific and Academic Studies on Changing Pattern and Factors on Environment Conditions and Socio-Economic Etics. International Journal of Innovative Research in Science, Engineering and Technology..6 (5): 10040-10043</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Scientific and Academic Studies on Changing Pattern and Factors on Environment Conditions and Socio-Economic Etics. International Journal of Innovative Research in Science, Engineering and Technology.. 6 (5): 10040-10043. </v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="61">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C22" s="59" t="s">
         <v>53</v>
@@ -5332,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="61" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="I22" s="59" t="s">
         <v>16</v>
@@ -5348,19 +5439,19 @@
       </c>
       <c r="M22" s="61"/>
       <c r="N22" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O22" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2017) Influence of Ecological factor on Mango Fruit Fly, Bactrocera dorsalis Hendel Bactrocera. Academic Social Research.3 (1): 116-118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2017) Influence of Ecological factor on Mango Fruit Fly, Bactrocera dorsalis Hendel Bactrocera. Academic Social Research. 3 (1): 116-118. </v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="61">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C23" s="59" t="s">
         <v>30</v>
@@ -5378,7 +5469,7 @@
         <v>6</v>
       </c>
       <c r="H23" s="61" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="I23" s="59" t="s">
         <v>16</v>
@@ -5396,19 +5487,19 @@
         <v>75</v>
       </c>
       <c r="N23" s="59" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="O23" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Dubey, R. K. (2017) A Comparative Study and Analysis of Susceptibility Conditions of Fruit Fly BacteroceraCorrectaBezzi To Entomopathogenic Micro-Organisms. International Journal of Innovative Research in Science, Engineering and Technology.6 (6): 14444-14447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) A Comparative Study and Analysis of Susceptibility Conditions of Fruit Fly BacteroceraCorrectaBezzi To Entomopathogenic Micro-Organisms. International Journal of Innovative Research in Science, Engineering and Technology. 6 (6): 14444-14447. </v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="61">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C24" s="59" t="s">
         <v>70</v>
@@ -5426,7 +5517,7 @@
         <v>8</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="I24" s="59" t="s">
         <v>16</v>
@@ -5442,19 +5533,19 @@
       </c>
       <c r="M24" s="61"/>
       <c r="N24" s="59" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="O24" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Shukla, M.; Arya, S.; Agarwal, S. (2017) Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India. International Journal of Innovative Research in Science, Engineering and Technology..6 (8): 7164-7170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Shukla, M., Arya, S., Agarwal, S. (2017) Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India. International Journal of Innovative Research in Science, Engineering and Technology.. 6 (8): 7164-7170. </v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="61">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C25" s="59" t="s">
         <v>79</v>
@@ -5472,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="61" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="I25" s="59" t="s">
         <v>16</v>
@@ -5488,19 +5579,19 @@
       </c>
       <c r="M25" s="61"/>
       <c r="N25" s="59" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="O25" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Shukla, M.; Arya, S. (2017) Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.). Green Chemistry and Technology Letters.3 (1): 21-25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Shukla, M., Arya, S. (2017) Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.). Green Chemistry and Technology Letters. 3 (1): 21-25. </v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C26" s="59" t="s">
         <v>53</v>
@@ -5518,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="61" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="I26" s="59">
         <v>47715</v>
@@ -5530,25 +5621,25 @@
         <v>25</v>
       </c>
       <c r="L26" s="60" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="M26" s="61" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="N26" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O26" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Vermicomposting: Profitable Organic Fertilizer. Academic Social Research.4 (1): 7-0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Arya, S. (2018) Vermicomposting: Profitable Organic Fertilizer. Academic Social Research. 4 (1): 7-0. DOI: https://doi.org/10.5281/zenodo.15669102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="61">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C27" s="59" t="s">
         <v>84</v>
@@ -5566,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="61" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="I27" s="59">
         <v>62958</v>
@@ -5582,19 +5673,19 @@
       </c>
       <c r="M27" s="61"/>
       <c r="N27" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O27" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Bio-efficacy of insect pests of Brinzal (Solanummelongena). International Journal on Agricultural Sciences.9 (1): 52-55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2018) Bio-efficacy of insect pests of Brinzal (Solanummelongena). International Journal on Agricultural Sciences. 9 (1): 52-55. </v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C28" s="59" t="s">
         <v>87</v>
@@ -5612,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="I28" s="59">
         <v>7775</v>
@@ -5623,26 +5714,26 @@
       <c r="K28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="64" t="s">
-        <v>550</v>
+      <c r="L28" s="62" t="s">
+        <v>537</v>
       </c>
       <c r="M28" s="62" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="N28" s="59" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="O28" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S.; Shukla, M. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article. International Journal on Biological Sciences.9 (1): 69-73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Arya, S., Shukla, M. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article. International Journal on Biological Sciences. 9 (1): 69-73. DOI: https://doi.org/10.5281/zenodo.15670053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C29" s="59" t="s">
         <v>53</v>
@@ -5660,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I29" s="59">
         <v>47715</v>
@@ -5671,33 +5762,35 @@
       <c r="K29" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="M29" s="61"/>
+      <c r="L29" s="71" t="s">
+        <v>552</v>
+      </c>
+      <c r="M29" s="78" t="s">
+        <v>567</v>
+      </c>
       <c r="N29" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O29" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Insect Pest and Diseases of Roses: Symptoms and Control Measures. Academic Social Research.4 (1): 312-319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Arya, S. (2018) Insect Pest and Diseases of Roses: Symptoms and Control Measures. Academic Social Research. 4 (1): 312-319. DOI: https://doi.org/10.5281/zenodo.15697980</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="59">
         <v>2018</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="61">
         <v>15</v>
@@ -5706,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="61" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="I30" s="59">
         <v>4662</v>
@@ -5718,34 +5811,34 @@
         <v>25</v>
       </c>
       <c r="L30" s="60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M30" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N30" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O30" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae. Life Science Bulletin.15 (1): 63-65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2018) Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae. Life Science Bulletin. 15 (1): 63-65. </v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="61">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="59">
         <v>2018</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F31" s="61">
         <v>9</v>
@@ -5754,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="61" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I31" s="59">
         <v>7783</v>
@@ -5770,22 +5863,22 @@
       </c>
       <c r="M31" s="61"/>
       <c r="N31" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O31" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Use of Biopesticides against Papilio Demoleus infestation and yield in citrus (Citrus aurantifolia). International Journal on Environmental Science.9 (1): 61 – 66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2018) Use of Biopesticides against Papilio Demoleus infestation and yield in citrus (Citrus aurantifolia). International Journal on Environmental Science. 9 (1): 61 – 66. </v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="59">
         <v>2018</v>
@@ -5800,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="61" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="I32" s="59">
         <v>7775</v>
@@ -5811,33 +5904,35 @@
       <c r="K32" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="59" t="s">
-        <v>413</v>
-      </c>
-      <c r="M32" s="61"/>
+      <c r="L32" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="M32" s="78" t="s">
+        <v>569</v>
+      </c>
       <c r="N32" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O32" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Effect of Marigold oil (Tageteserecta L.) and its fractions against sitophillusoryzae. International Journal of Biological Sciences.9 (1): 85-89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Arya, S. (2018) Effect of Marigold oil (Tageteserecta L.) and its fractions against sitophillusoryzae. International Journal of Biological Sciences. 9 (1): 85-89. DOI: https://doi.org/10.5281/zenodo.15823186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="59">
         <v>2018</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F33" s="61">
         <v>15</v>
@@ -5846,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="61" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="I33" s="59">
         <v>4662</v>
@@ -5857,29 +5952,29 @@
       <c r="K33" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="65" t="s">
-        <v>553</v>
+      <c r="L33" s="72" t="s">
+        <v>540</v>
       </c>
       <c r="M33" s="62" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="N33" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O33" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Isolation of Phenol Degrading Bacteria from Industrial Waste. Life Science Bulletin.15 (1): 47-50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>Arya, S. (2018) Isolation of Phenol Degrading Bacteria from Industrial Waste. Life Science Bulletin. 15 (1): 47-50. DOI: https://doi.org/10.5281/zenodo.15676310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="59">
         <v>2018</v>
@@ -5894,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="61" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="I34" s="59">
         <v>62958</v>
@@ -5910,28 +6005,28 @@
       </c>
       <c r="M34" s="61"/>
       <c r="N34" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O34" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) A Scientific Study of Transplanting Date effect on Infestation of Insect Pests of Cabbage. International Journal of Agricultural Sciences.9 (1): 41-46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2018) A Scientific Study of Transplanting Date effect on Infestation of Insect Pests of Cabbage. International Journal of Agricultural Sciences. 9 (1): 41-46. </v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="61">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="59" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="59">
         <v>2018</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" s="61">
         <v>9</v>
@@ -5940,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="I35" s="59">
         <v>7783</v>
@@ -5952,26 +6047,26 @@
         <v>25</v>
       </c>
       <c r="L35" s="60" t="s">
-        <v>105</v>
+        <v>551</v>
       </c>
       <c r="M35" s="61"/>
       <c r="N35" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O35" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Spectrophotometric Determination of Chromium in River Ganga water samples using 1,5-diphenyl carbazide at Kanpur, India-2018. International Journal of Environmental Science.9 (1): 36-39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2018) Spectrophotometric Determination of Chromium in River Ganga water samples using 1,5-diphenyl carbazide at Kanpur, India-2018. International Journal of Environmental Science. 9 (1): 36-39. </v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="61">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D36" s="59">
         <v>2018</v>
@@ -5986,7 +6081,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="I36" s="59">
         <v>62958</v>
@@ -5998,32 +6093,32 @@
         <v>25</v>
       </c>
       <c r="L36" s="60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M36" s="61"/>
       <c r="N36" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O36" s="61" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria. International Journal of Agricultural Sciences.9 (2): 103-109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v xml:space="preserve">Arya, S. (2018) Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria. International Journal of Agricultural Sciences. 9 (2): 103-109. </v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="61">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="59">
         <v>2018</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" s="61">
         <v>9</v>
@@ -6032,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="61" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="I37" s="59">
         <v>7783</v>
@@ -6043,27 +6138,27 @@
       <c r="K37" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="60" t="s">
-        <v>109</v>
+      <c r="L37" s="69" t="s">
+        <v>566</v>
       </c>
       <c r="M37" s="61"/>
       <c r="N37" s="59" t="s">
-        <v>445</v>
-      </c>
-      <c r="O37" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Green Technology to combat environmental degradation and sustainable food production: A Review. International Journal of Environmental Science.9 (2): 118-123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="O37" s="80" t="str">
+        <f t="shared" ref="O37:O43" si="1">IF(COUNT(A37:N37)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N37, ";", ",")," (",D37,") ",B37,". ",C37,". ",F35," (",G37,"): ",H37, ". ", IF(LEFT(L37,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L37),"")), "")</f>
+        <v xml:space="preserve">Arya, S. (2018) Green Technology to combat environmental degradation and sustainable food production: A Review. International Journal of Environmental Science. 9 (2): 118-123. </v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D38" s="59">
         <v>2018</v>
@@ -6078,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="61" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="I38" s="59">
         <v>62958</v>
@@ -6089,27 +6184,29 @@
       <c r="K38" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="59" t="s">
-        <v>395</v>
-      </c>
-      <c r="M38" s="61"/>
+      <c r="L38" s="60" t="s">
+        <v>570</v>
+      </c>
+      <c r="M38" s="61" t="s">
+        <v>571</v>
+      </c>
       <c r="N38" s="59" t="s">
-        <v>445</v>
-      </c>
-      <c r="O38" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences.9 (2): 110-114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="O38" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences. 9 (2): 110-114. DOI: https://doi.org/10.5281/zenodo.15823316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="61">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="59">
         <v>2018</v>
@@ -6124,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="61" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="I39" s="59">
         <v>7775</v>
@@ -6135,35 +6232,35 @@
       <c r="K39" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="65" t="s">
-        <v>543</v>
+      <c r="L39" s="70" t="s">
+        <v>531</v>
       </c>
       <c r="M39" s="62" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="N39" s="59" t="s">
-        <v>445</v>
-      </c>
-      <c r="O39" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences.9 (1): 162-165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="O39" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences. 9 (1): 162-165. DOI: https://doi.org/10.5281/zenodo.15669147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D40" s="59">
         <v>2019</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F40" s="61">
         <v>4</v>
@@ -6172,7 +6269,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="61" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="I40" s="59">
         <v>40827</v>
@@ -6183,35 +6280,35 @@
       <c r="K40" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="60" t="s">
-        <v>115</v>
+      <c r="L40" s="73" t="s">
+        <v>547</v>
       </c>
       <c r="M40" s="61" t="s">
-        <v>115</v>
+        <v>548</v>
       </c>
       <c r="N40" s="59" t="s">
-        <v>445</v>
-      </c>
-      <c r="O40" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation.4 (2): 111-117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="O40" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation. 9 (2): 111-117. DOI: https://doi.org/10.5281/zenodo.15697804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="61">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="59" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D41" s="59">
         <v>2019</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F41" s="61">
         <v>6</v>
@@ -6219,8 +6316,8 @@
       <c r="G41" s="61">
         <v>8</v>
       </c>
-      <c r="H41" s="66" t="s">
-        <v>439</v>
+      <c r="H41" s="63" t="s">
+        <v>429</v>
       </c>
       <c r="I41" s="59">
         <v>40880</v>
@@ -6232,34 +6329,34 @@
         <v>25</v>
       </c>
       <c r="L41" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="M41" s="61" t="s">
-        <v>119</v>
+        <v>549</v>
+      </c>
+      <c r="M41" s="62" t="s">
+        <v>550</v>
       </c>
       <c r="N41" s="59" t="s">
-        <v>445</v>
-      </c>
-      <c r="O41" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika.6 (8): 1-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="O41" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika. 9 (8): 1-3. DOI: https://doi.org/10.5281/zenodo.15697875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="61">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="59" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D42" s="59">
         <v>2019</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F42" s="61">
         <v>6</v>
@@ -6268,46 +6365,46 @@
         <v>3</v>
       </c>
       <c r="H42" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="I42" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="I42" s="64" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="59">
         <v>1</v>
       </c>
       <c r="K42" s="59" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L42" s="60" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M42" s="61" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N42" s="59" t="s">
-        <v>445</v>
-      </c>
-      <c r="O42" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies.6 (3): 51-54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="O42" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies. 4 (3): 51-54. </v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="59" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D43" s="59">
         <v>2019</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F43" s="61">
         <v>1</v>
@@ -6316,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="61" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I43" s="59" t="s">
         <v>16</v>
@@ -6328,25 +6425,25 @@
         <v>25</v>
       </c>
       <c r="L43" s="60" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M43" s="61" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="N43" s="59" t="s">
-        <v>445</v>
-      </c>
-      <c r="O43" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations .1 (2): 87-89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="O43" s="80" t="str">
+        <f t="shared" si="1"/>
+        <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations . 6 (2): 87-89. DOI: https://doi.org/10.46505/IJBI.2019.1210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="59" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C44" s="59" t="s">
         <v>87</v>
@@ -6364,7 +6461,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="61" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="I44" s="59" t="s">
         <v>16</v>
@@ -6376,34 +6473,34 @@
         <v>25</v>
       </c>
       <c r="L44" s="60" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M44" s="61" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="N44" s="59" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="O44" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Rani, D.; Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences.12 (2): 57-60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="O44:O62" si="2">_xlfn.CONCAT(SUBSTITUTE(N44, ";", ",")," (",D44,") ",B44,". ",C44,". ",F44," (",G44,"): ",H44, ". ", IF(LEFT(L44,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L44),""))</f>
+        <v>Rani, D., Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences. 12 (2): 57-60. DOI: https://doi.org/10.53390/ijbs.v12i2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D45" s="59">
         <v>2021</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="61">
         <v>5</v>
@@ -6412,7 +6509,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="I45" s="59" t="s">
         <v>16</v>
@@ -6424,34 +6521,34 @@
         <v>17</v>
       </c>
       <c r="L45" s="60" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M45" s="61" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="N45" s="59" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="O45" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Chaudhary, V. K.; Arya, S.; Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences.5 (2): 95-99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>Chaudhary, V. K., Arya, S., Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences. 5 (2): 95-99. DOI: https://doi.org/10.53390/ijes.v12i2.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="59" t="s">
-        <v>499</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>135</v>
+        <v>489</v>
+      </c>
+      <c r="C46" s="74" t="s">
+        <v>130</v>
       </c>
       <c r="D46" s="59">
         <v>2022</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F46" s="61">
         <v>4</v>
@@ -6460,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="61" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="I46" s="59" t="s">
         <v>16</v>
@@ -6472,25 +6569,26 @@
         <v>17</v>
       </c>
       <c r="L46" s="60" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M46" s="61" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="N46" s="59" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="O46" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Yadav, V.; Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation.4 (1): 221-226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>Yadav, V., Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation. 4 (1): 221-226. DOI: https://doi.org/10.46505/IJBI.2022.4124</v>
+      </c>
+      <c r="Q46" s="77"/>
+    </row>
+    <row r="47" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="61">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="59" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C47" s="59" t="s">
         <v>87</v>
@@ -6508,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="61" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="I47" s="59" t="s">
         <v>16</v>
@@ -6520,34 +6618,34 @@
         <v>17</v>
       </c>
       <c r="L47" s="60" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M47" s="61" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N47" s="59" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="O47" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Yadav, V.; Arya, S. (2022) POPULATION DYNAMICS OF MAJOR INSECT PESTS OF PEA (PISUM SATIVUM L.) IN RELATION TO WEATHER PARAMETERS IN KANPUR, UTTAR PRADESH. International Journal on Biological Sciences.13 (1): 92-96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Yadav, V., Arya, S. (2022) POPULATION DYNAMICS OF MAJOR INSECT PESTS OF PEA (PISUM SATIVUM L.) IN RELATION TO WEATHER PARAMETERS IN KANPUR, UTTAR PRADESH. International Journal on Biological Sciences. 13 (1): 92-96. </v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="61">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="59" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D48" s="59">
         <v>2022</v>
       </c>
       <c r="E48" s="59" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F48" s="61">
         <v>4</v>
@@ -6555,8 +6653,8 @@
       <c r="G48" s="61">
         <v>10</v>
       </c>
-      <c r="H48" s="68" t="s">
-        <v>510</v>
+      <c r="H48" s="65" t="s">
+        <v>500</v>
       </c>
       <c r="I48" s="59" t="s">
         <v>16</v>
@@ -6568,34 +6666,34 @@
         <v>25</v>
       </c>
       <c r="L48" s="60" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M48" s="60" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N48" s="59" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="O48" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S.; Sudhakar, P.; Dwivedi, N. (2022) Pesticides and Its Impact on Biodiversity and Environment. ICONIC RESEARCH AND ENGINEERING JOURNALS.4 (10): 12-15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Arya, S., Sudhakar, P., Dwivedi, N. (2022) Pesticides and Its Impact on Biodiversity and Environment. ICONIC RESEARCH AND ENGINEERING JOURNALS. 4 (10): 12-15. </v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="61">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" s="59" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D49" s="59">
         <v>2022</v>
       </c>
       <c r="E49" s="59" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F49" s="61">
         <v>5</v>
@@ -6604,7 +6702,7 @@
         <v>7</v>
       </c>
       <c r="H49" s="61" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="I49" s="59" t="s">
         <v>16</v>
@@ -6616,34 +6714,34 @@
         <v>17</v>
       </c>
       <c r="L49" s="60" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M49" s="60" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N49" s="59" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="O49" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Dubey, I.; Arya, S. (2022) Fish Diversity and Climate Change: A Review. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.5 (7): 88-91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Dubey, I., Arya, S. (2022) Fish Diversity and Climate Change: A Review. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 5 (7): 88-91. </v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="61">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B50" s="59" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D50" s="59">
         <v>2022</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F50" s="61">
         <v>6</v>
@@ -6651,8 +6749,8 @@
       <c r="G50" s="61">
         <v>3</v>
       </c>
-      <c r="H50" s="66" t="s">
-        <v>509</v>
+      <c r="H50" s="63" t="s">
+        <v>499</v>
       </c>
       <c r="I50" s="59" t="s">
         <v>16</v>
@@ -6664,34 +6762,34 @@
         <v>17</v>
       </c>
       <c r="L50" s="60" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M50" s="61" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="N50" s="59" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="O50" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Singh, R.; Sunita, A. (2022) Seasonal Variation in Phytoplankton Diversity in River Sai at Unnao District of U.P. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.6 (3): 5-8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Singh, R., Sunita, A. (2022) Seasonal Variation in Phytoplankton Diversity in River Sai at Unnao District of U.P. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 6 (3): 5-8. </v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="61">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="59" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D51" s="59">
         <v>2023</v>
       </c>
-      <c r="E51" s="69" t="s">
-        <v>150</v>
+      <c r="E51" s="66" t="s">
+        <v>145</v>
       </c>
       <c r="F51" s="61">
         <v>9</v>
@@ -6700,10 +6798,10 @@
         <v>1</v>
       </c>
       <c r="H51" s="61" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="I51" s="59" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J51" s="59">
         <v>2</v>
@@ -6712,34 +6810,34 @@
         <v>25</v>
       </c>
       <c r="L51" s="60" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="M51" s="62" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="N51" s="59" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="O51" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S.; Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations.9 (1): 392 – 397</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>Arya, S., Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations. 9 (1): 392 – 397. DOI: https://doi.org/10.33745/ijzi.2023.v09i01.044</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="61">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B52" s="59" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D52" s="59">
         <v>2023</v>
       </c>
-      <c r="E52" s="69" t="s">
-        <v>154</v>
+      <c r="E52" s="66" t="s">
+        <v>149</v>
       </c>
       <c r="F52" s="61">
         <v>8</v>
@@ -6748,10 +6846,10 @@
         <v>6</v>
       </c>
       <c r="H52" s="61" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="I52" s="59" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J52" s="59">
         <v>2</v>
@@ -6760,34 +6858,34 @@
         <v>25</v>
       </c>
       <c r="L52" s="60" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="M52" s="61" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="N52" s="59" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="O52" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S.; Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research.8 (6): 50-52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Arya, S., Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research. 8 (6): 50-52. </v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="61">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D53" s="59">
         <v>2023</v>
       </c>
-      <c r="E53" s="69" t="s">
-        <v>156</v>
+      <c r="E53" s="66" t="s">
+        <v>151</v>
       </c>
       <c r="F53" s="61">
         <v>10</v>
@@ -6796,7 +6894,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="61" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="I53" s="59" t="s">
         <v>16</v>
@@ -6808,25 +6906,25 @@
         <v>17</v>
       </c>
       <c r="L53" s="60" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M53" s="61" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N53" s="59" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="O53" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Goel, R.; Arya, S.; Rani, D.; Shukla, G. (2023) Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.. International Journal of Fauna and Biological Studies.10 (3): 16-18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Goel, R., Arya, S., Rani, D., Shukla, G. (2023) Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.. International Journal of Fauna and Biological Studies. 10 (3): 16-18. </v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="61">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C54" s="59" t="s">
         <v>87</v>
@@ -6834,7 +6932,7 @@
       <c r="D54" s="59">
         <v>2023</v>
       </c>
-      <c r="E54" s="69" t="s">
+      <c r="E54" s="66" t="s">
         <v>88</v>
       </c>
       <c r="F54" s="61">
@@ -6844,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="H54" s="61" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="I54" s="59" t="s">
         <v>16</v>
@@ -6855,26 +6953,26 @@
       <c r="K54" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L54" s="70" t="s">
-        <v>511</v>
+      <c r="L54" s="67" t="s">
+        <v>501</v>
       </c>
       <c r="M54" s="62" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="N54" s="59" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="O54" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Rani, K.; Singh, S.; Prakash, S.; Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences.14 (2): 74-80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Rani, K., Singh, S., Prakash, S., Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences. 14 (2): 74-80. </v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="61">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C55" s="59" t="s">
         <v>87</v>
@@ -6882,7 +6980,7 @@
       <c r="D55" s="59">
         <v>2022</v>
       </c>
-      <c r="E55" s="69" t="s">
+      <c r="E55" s="66" t="s">
         <v>88</v>
       </c>
       <c r="F55" s="61">
@@ -6892,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="61" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="I55" s="59" t="s">
         <v>16</v>
@@ -6904,34 +7002,34 @@
         <v>17</v>
       </c>
       <c r="L55" s="60" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="M55" s="60" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="N55" s="59" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="O55" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Goel, R.; Arya, S.; Singh, R. (2022) IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH). International Journal on Biological Sciences.13 (2): 109-111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>Goel, R., Arya, S., Singh, R. (2022) IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH). International Journal on Biological Sciences. 13 (2): 109-111. DOI: https://doi.org/10.53390/ijbs.v13i2.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="61">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D56" s="59">
         <v>2024</v>
       </c>
       <c r="E56" s="59" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F56" s="61">
         <v>6</v>
@@ -6939,8 +7037,8 @@
       <c r="G56" s="61">
         <v>1</v>
       </c>
-      <c r="H56" s="67" t="s">
-        <v>521</v>
+      <c r="H56" s="64" t="s">
+        <v>511</v>
       </c>
       <c r="I56" s="59" t="s">
         <v>16</v>
@@ -6952,34 +7050,34 @@
         <v>17</v>
       </c>
       <c r="L56" s="60" t="s">
-        <v>162</v>
+        <v>557</v>
       </c>
       <c r="M56" s="62" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="N56" s="59" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="O56" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Rani K.; Singh S.; Prakash S.; Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry.6 (1): 01-03</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>Rani K., Singh S., Prakash S., Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry. 6 (1): 01-03. DOI: https://doi.org/10.33545/26646536.2024.v6.i1a.47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="61">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D57" s="59">
         <v>2024</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F57" s="61">
         <v>11</v>
@@ -6988,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="61" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="I57" s="59" t="s">
         <v>16</v>
@@ -7000,34 +7098,34 @@
         <v>25</v>
       </c>
       <c r="L57" s="60" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M57" s="61" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="N57" s="59" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="O57" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S.; Rani, D.; Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies.11 (1): 29-31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>Arya, S., Rani, D., Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies. 11 (1): 29-31. DOI: https://doi.org/10.22271/23940522.2024.v11.i1a.1005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="61">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>165</v>
+        <v>572</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D58" s="59">
         <v>2024</v>
       </c>
       <c r="E58" s="59" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F58" s="61">
         <v>27</v>
@@ -7036,10 +7134,10 @@
         <v>2</v>
       </c>
       <c r="H58" s="61" t="s">
-        <v>515</v>
-      </c>
-      <c r="I58" s="71" t="s">
-        <v>168</v>
+        <v>505</v>
+      </c>
+      <c r="I58" s="68" t="s">
+        <v>162</v>
       </c>
       <c r="J58" s="59">
         <v>2</v>
@@ -7047,35 +7145,35 @@
       <c r="K58" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L58" s="60" t="s">
-        <v>169</v>
+      <c r="L58" s="69" t="s">
+        <v>556</v>
       </c>
       <c r="M58" s="61" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="N58" s="59" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="O58" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Sachan, R.; Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. 27(2):1605-1608. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA.27 (2): 1605-1608</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Sachan, R., Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA. 27 (2): 1605-1608. </v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="61">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="59" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D59" s="59">
         <v>2024</v>
       </c>
       <c r="E59" s="59" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F59" s="61">
         <v>6</v>
@@ -7084,7 +7182,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="61" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="I59" s="59" t="s">
         <v>16</v>
@@ -7096,34 +7194,34 @@
         <v>17</v>
       </c>
       <c r="L59" s="60" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M59" s="61" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="N59" s="59" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="O59" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Rani K.; Arya S.; Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations.6 (1): 58-64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>Rani K., Arya S., Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations. 6 (1): 58-64. DOI: https://doi.org/10.46505/IJBI.2024.6108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="61">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C60" s="61" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D60" s="61">
         <v>2024</v>
       </c>
       <c r="E60" s="61" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F60" s="61">
         <v>8</v>
@@ -7132,9 +7230,9 @@
         <v>3</v>
       </c>
       <c r="H60" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="I60" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="I60" s="64" t="s">
         <v>16</v>
       </c>
       <c r="J60" s="61">
@@ -7143,35 +7241,35 @@
       <c r="K60" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L60" s="70" t="s">
-        <v>535</v>
-      </c>
-      <c r="M60" s="61" t="s">
-        <v>535</v>
+      <c r="L60" s="60" t="s">
+        <v>554</v>
+      </c>
+      <c r="M60" s="62" t="s">
+        <v>553</v>
       </c>
       <c r="N60" s="59" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="O60" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Hemprabha; Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS.8 (3): 478-485</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>Hemprabha, Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 8 (3): 478-485. DOI: https://doi.org/10.5281/zenodo.15785018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="61">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C61" s="61" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D61" s="61">
         <v>2025</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F61" s="61">
         <v>8</v>
@@ -7180,7 +7278,7 @@
         <v>7</v>
       </c>
       <c r="H61" s="61" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I61" s="61" t="s">
         <v>16</v>
@@ -7192,34 +7290,34 @@
         <v>25</v>
       </c>
       <c r="L61" s="62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M61" s="61" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="N61" s="59" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="O61" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S.; Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals.8 (7): 243-440</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Arya, S., Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals. 8 (7): 243-440. </v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="61">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C62" s="61" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D62" s="61">
         <v>2025</v>
       </c>
       <c r="E62" s="61" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F62" s="61">
         <v>11</v>
@@ -7228,7 +7326,7 @@
         <v>6</v>
       </c>
       <c r="H62" s="61" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I62" s="61" t="s">
         <v>16</v>
@@ -7240,129 +7338,331 @@
         <v>25</v>
       </c>
       <c r="L62" s="62" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M62" s="62" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="N62" s="59" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="O62" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Arya, S. (2025) Wetland Ecosystem: A better place for rich biodiversity. International Journal of Fauna and Biological Studies.11 (6): 106-110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="72">
+        <f t="shared" si="2"/>
+        <v>Arya, S. (2025) Wetland Ecosystem: A better place for rich biodiversity. International Journal of Fauna and Biological Studies. 11 (6): 106-110. DOI: https://doi.org/10.22271/23940522.2024.v11.i6b.1066</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="61">
+        <v>62</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>544</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="61">
+        <v>2025</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="61">
+        <v>11</v>
+      </c>
+      <c r="G63" s="61">
+        <v>1</v>
+      </c>
+      <c r="H63" s="61" t="s">
+        <v>543</v>
+      </c>
+      <c r="I63" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="J63" s="61">
+        <v>2</v>
+      </c>
+      <c r="K63" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="61" t="s">
+        <v>542</v>
+      </c>
+      <c r="M63" s="62" t="s">
+        <v>546</v>
+      </c>
+      <c r="N63" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="O63" s="80" t="str">
+        <f>IF(COUNT(A63:N63)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N63, ";", ",")," (",D63,") ",B63,". ",C63,". ",F61," (",G63,"): ",H63, ". ", IF(LEFT(L63,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L63),"")), "")</f>
+        <v>Hemprabha, Arya, S. (2025) Impact of Seasonal Variation on Physiochemical Parameters in Ganga River and Bhimsen Pond Water, Kanpur, India. International Journal of Zoological Investigations. 8 (1): 752-759. DOI: https://doi.org/10.33745/ijzi.2025.v11i01.079</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="61">
+        <v>63</v>
+      </c>
+      <c r="B64" s="61" t="s">
+        <v>565</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="61">
+        <v>2025</v>
+      </c>
+      <c r="E64" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" s="61">
+        <v>16</v>
+      </c>
+      <c r="G64" s="61">
+        <v>1</v>
+      </c>
+      <c r="H64" s="61" t="s">
+        <v>559</v>
+      </c>
+      <c r="I64" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" s="61">
+        <v>3</v>
+      </c>
+      <c r="K64" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61" t="s">
+        <v>562</v>
+      </c>
+      <c r="O64" s="61" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N64, ";", ",")," (",D64,") ",B64,". ",C64,". ",F64," (",G64,"): ",H64, ". ", IF(LEFT(L64,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L64),""))</f>
+        <v xml:space="preserve">Sharma, R., Singh, R., Arya, S. (2025) Study of Morphological Characters, Growth and Yield Yield Performance of Eri Silkworm (Samiya ricini Donovan) Ecoraces. International Journal on Biological Sciences. 16 (1): 70-80. </v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="61">
         <v>64</v>
       </c>
-      <c r="B63" s="72" t="s">
-        <v>557</v>
-      </c>
-      <c r="C63" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="72">
+      <c r="B65" s="61" t="s">
+        <v>560</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="61">
         <v>2025</v>
       </c>
-      <c r="E63" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" s="72">
-        <v>11</v>
-      </c>
-      <c r="G63" s="72">
-        <v>1</v>
-      </c>
-      <c r="H63" s="72" t="s">
-        <v>556</v>
-      </c>
-      <c r="I63" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="J63" s="72">
+      <c r="E65" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="61">
+        <v>16</v>
+      </c>
+      <c r="G65" s="61">
         <v>2</v>
       </c>
-      <c r="K63" s="72" t="s">
+      <c r="H65" s="61" t="s">
+        <v>561</v>
+      </c>
+      <c r="I65" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="61">
+        <v>3</v>
+      </c>
+      <c r="K65" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="L63" s="72" t="s">
-        <v>555</v>
-      </c>
-      <c r="M63" s="73" t="s">
-        <v>559</v>
-      </c>
-      <c r="N63" s="72" t="s">
-        <v>471</v>
-      </c>
-      <c r="O63" s="61" t="str">
-        <f t="shared" si="0"/>
-        <v>Hemprabha; Arya, S. (2025) Impact of Seasonal Variation on Physiochemical Parameters in Ganga River and Bhimsen Pond Water, Kanpur, India. International Journal of Zoological Investigations.11 (1): 752-759</v>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61" t="s">
+        <v>563</v>
+      </c>
+      <c r="O65" s="61" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N65, ";", ",")," (",D65,") ",B65,". ",C65,". ",F65," (",G65,"): ",H65, ". ", IF(LEFT(L65,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L65),""))</f>
+        <v xml:space="preserve">Sharma, R., Arya, S., Singh, R. (2025) Pesticides, Herbicides and Their Effects on Population. International Journal of Environmental Science. 16 (2): 110-119. </v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="75">
+        <v>65</v>
+      </c>
+      <c r="B66" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="C66" s="75" t="s">
+        <v>574</v>
+      </c>
+      <c r="D66" s="75">
+        <v>2025</v>
+      </c>
+      <c r="E66" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="F66" s="75">
+        <v>46</v>
+      </c>
+      <c r="G66" s="75">
+        <v>13</v>
+      </c>
+      <c r="H66" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="J66" s="75">
+        <v>2</v>
+      </c>
+      <c r="K66" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" s="76" t="s">
+        <v>576</v>
+      </c>
+      <c r="M66" t="s">
+        <v>575</v>
+      </c>
+      <c r="O66" s="80" t="str">
+        <f t="shared" ref="O66:O77" si="3">IF(COUNT(A66:N66)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N66, ";", ",")," (",D66,") ",B66,". ",C66,". ",F64," (",G66,"): ",H66, ". ", IF(LEFT(L66,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L66),"")), "")</f>
+        <v xml:space="preserve"> (2025) Life Table Parameters of the Tobacco Caterpillar [Spodoptera litura (Fab.)] on Ornamental Roses. Uttar Pradesh Journal of Zoology. 16 (13): 267-278. DOI: https://doi.org/10.56557/upjoz/2025/v46i135105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O67" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O68" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O69" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O70" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O71" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O72" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O73" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O74" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O75" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O76" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O77" s="80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:L62" xr:uid="{B86B0C5F-3C7A-4DFA-8262-18CDDB72D407}"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L56" r:id="rId1" xr:uid="{7E19164F-EB49-4909-A787-B1FC69338129}"/>
+    <hyperlink ref="L56" r:id="rId1" display="https://dx.doi.org/10.33545/26646536.2024.v6.i1a.47" xr:uid="{7E19164F-EB49-4909-A787-B1FC69338129}"/>
     <hyperlink ref="L13" r:id="rId2" xr:uid="{E2B88607-DB60-48E0-9F3F-FE825FC5917E}"/>
     <hyperlink ref="L22" r:id="rId3" xr:uid="{D3EED5D0-F187-4FB1-842E-42E68C009F81}"/>
-    <hyperlink ref="L29" r:id="rId4" xr:uid="{5D7D7EDC-EA41-43DE-A331-1ED93E38B86B}"/>
-    <hyperlink ref="L30" r:id="rId5" xr:uid="{03E9C74E-324C-44DC-91AB-CFECE4362CCB}"/>
-    <hyperlink ref="L35" r:id="rId6" xr:uid="{A6AE41EE-0DB0-44B7-B6A1-09B4A5C4D590}"/>
-    <hyperlink ref="L36" r:id="rId7" xr:uid="{6EC3FC89-2874-4391-9418-B15DF9BD17BA}"/>
-    <hyperlink ref="L37" r:id="rId8" xr:uid="{4E227E20-5D78-4960-828B-4FB892F69935}"/>
-    <hyperlink ref="L42" r:id="rId9" xr:uid="{CF80D6E9-FC01-41DE-AE5B-C18A8FEE4B61}"/>
-    <hyperlink ref="L43" r:id="rId10" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
-    <hyperlink ref="L9" r:id="rId11" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
-    <hyperlink ref="L49" r:id="rId12" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
-    <hyperlink ref="L57" r:id="rId13" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
-    <hyperlink ref="L53" r:id="rId14" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
-    <hyperlink ref="L59" r:id="rId15" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
-    <hyperlink ref="L19" r:id="rId16" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
-    <hyperlink ref="L5" r:id="rId17" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
-    <hyperlink ref="L6" r:id="rId18" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
-    <hyperlink ref="L7" r:id="rId19" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
-    <hyperlink ref="L11" r:id="rId20" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
-    <hyperlink ref="L15" r:id="rId21" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
-    <hyperlink ref="L16" r:id="rId22" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
-    <hyperlink ref="L17" r:id="rId23" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
-    <hyperlink ref="L20" r:id="rId24" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
-    <hyperlink ref="L21" r:id="rId25" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
-    <hyperlink ref="L23" r:id="rId26" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
-    <hyperlink ref="L24" r:id="rId27" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
-    <hyperlink ref="L25" r:id="rId28" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
-    <hyperlink ref="L44" r:id="rId29" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
-    <hyperlink ref="L46" r:id="rId30" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
-    <hyperlink ref="L47" r:id="rId31" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
-    <hyperlink ref="L50" r:id="rId32" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
-    <hyperlink ref="L8" r:id="rId33" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
-    <hyperlink ref="L45" r:id="rId34" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
-    <hyperlink ref="L48" r:id="rId35" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
-    <hyperlink ref="L41" r:id="rId36" xr:uid="{872B02A0-8CDA-4197-A702-BFA228F08936}"/>
-    <hyperlink ref="L40" r:id="rId37" xr:uid="{56154005-22EE-46E1-BAEB-960FED59AF79}"/>
-    <hyperlink ref="L61" r:id="rId38" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
-    <hyperlink ref="L3" r:id="rId39" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
-    <hyperlink ref="L10" r:id="rId40" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
-    <hyperlink ref="M49" r:id="rId41" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
-    <hyperlink ref="M48" r:id="rId42" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
-    <hyperlink ref="L62" r:id="rId43" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
-    <hyperlink ref="L14" r:id="rId44" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
-    <hyperlink ref="L58" r:id="rId45" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
-    <hyperlink ref="M54" r:id="rId46" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
-    <hyperlink ref="L4" r:id="rId47" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
-    <hyperlink ref="L2" r:id="rId48" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
-    <hyperlink ref="M2" r:id="rId49" display="https://d1wqtxts1xzle7.cloudfront.net/123292727/ASSOCIATION_STUDIES_IN_ROSES.pdf?1749991358=&amp;response-content-disposition=attachment%3B+filename%3DASSOCIATION_STUDIES_IN_ROSES.pdf&amp;Expires=1749995193&amp;Signature=aRx-d8ac9A8kzc1gx~rJ~6eoWaFzS4PqqDzlf0juPxP7xd3pB~ANbxX4QwE8YQlvtvw-L5VpptSzTr4eK~AFZqD7cF4lboDVRcePuZFbgMJDWM2WIB4Yc05k8iA8XSNgt017X641kNpeWpn14Gs-j08B9l7hKkl3Eq6NJ5-CfXfI1oMtEatYb9cpDgcBME~xlcfbWKwRgh0Jfwf2zj251jEb-Eb9NTffjINA~hbiE3IsFSJLdWeuLYkY4ZcVgxSeMuH0nA7bassIVwGqD-8g6CpOvnH9mtYbkoqxMQlZTX5k3s5jV6bDsA6KqXwwYl4zVGZ7CBPiEW6OtXDubxgVSg__&amp;Key-Pair-Id=APKAJLOHF5GGSLRBV4ZA" xr:uid="{BA15B3BC-EAD1-4BF5-B76B-4D556A998AF5}"/>
-    <hyperlink ref="M12" r:id="rId50" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
-    <hyperlink ref="L28" r:id="rId51" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
-    <hyperlink ref="M28" r:id="rId52" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
-    <hyperlink ref="M33" r:id="rId53" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
-    <hyperlink ref="M62" r:id="rId54" xr:uid="{773D55EA-F5B6-438C-8698-129A28EA2B02}"/>
-    <hyperlink ref="M63" r:id="rId55" xr:uid="{C4D17878-C89B-41A9-A36C-7279D8B56676}"/>
+    <hyperlink ref="L30" r:id="rId4" xr:uid="{03E9C74E-324C-44DC-91AB-CFECE4362CCB}"/>
+    <hyperlink ref="L35" r:id="rId5" xr:uid="{A6AE41EE-0DB0-44B7-B6A1-09B4A5C4D590}"/>
+    <hyperlink ref="L36" r:id="rId6" xr:uid="{6EC3FC89-2874-4391-9418-B15DF9BD17BA}"/>
+    <hyperlink ref="L37" r:id="rId7" xr:uid="{4E227E20-5D78-4960-828B-4FB892F69935}"/>
+    <hyperlink ref="L42" r:id="rId8" xr:uid="{CF80D6E9-FC01-41DE-AE5B-C18A8FEE4B61}"/>
+    <hyperlink ref="L43" r:id="rId9" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
+    <hyperlink ref="L9" r:id="rId10" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
+    <hyperlink ref="L49" r:id="rId11" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
+    <hyperlink ref="L57" r:id="rId12" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
+    <hyperlink ref="L53" r:id="rId13" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
+    <hyperlink ref="L59" r:id="rId14" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
+    <hyperlink ref="L19" r:id="rId15" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
+    <hyperlink ref="L5" r:id="rId16" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
+    <hyperlink ref="L6" r:id="rId17" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
+    <hyperlink ref="L7" r:id="rId18" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
+    <hyperlink ref="L11" r:id="rId19" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
+    <hyperlink ref="L15" r:id="rId20" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
+    <hyperlink ref="L16" r:id="rId21" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
+    <hyperlink ref="L17" r:id="rId22" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
+    <hyperlink ref="L20" r:id="rId23" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
+    <hyperlink ref="L21" r:id="rId24" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
+    <hyperlink ref="L23" r:id="rId25" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
+    <hyperlink ref="L24" r:id="rId26" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
+    <hyperlink ref="L25" r:id="rId27" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
+    <hyperlink ref="L44" r:id="rId28" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
+    <hyperlink ref="L46" r:id="rId29" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
+    <hyperlink ref="L47" r:id="rId30" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
+    <hyperlink ref="L50" r:id="rId31" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
+    <hyperlink ref="L8" r:id="rId32" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
+    <hyperlink ref="L45" r:id="rId33" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
+    <hyperlink ref="L48" r:id="rId34" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
+    <hyperlink ref="L61" r:id="rId35" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
+    <hyperlink ref="L3" r:id="rId36" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
+    <hyperlink ref="L10" r:id="rId37" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
+    <hyperlink ref="M49" r:id="rId38" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
+    <hyperlink ref="M48" r:id="rId39" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
+    <hyperlink ref="L62" r:id="rId40" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
+    <hyperlink ref="L14" r:id="rId41" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
+    <hyperlink ref="L58" r:id="rId42" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
+    <hyperlink ref="M54" r:id="rId43" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
+    <hyperlink ref="L4" r:id="rId44" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
+    <hyperlink ref="L2" r:id="rId45" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
+    <hyperlink ref="M12" r:id="rId46" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
+    <hyperlink ref="L28" r:id="rId47" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
+    <hyperlink ref="M28" r:id="rId48" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
+    <hyperlink ref="M33" r:id="rId49" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
+    <hyperlink ref="M62" r:id="rId50" xr:uid="{773D55EA-F5B6-438C-8698-129A28EA2B02}"/>
+    <hyperlink ref="M63" r:id="rId51" xr:uid="{C4D17878-C89B-41A9-A36C-7279D8B56676}"/>
+    <hyperlink ref="L40" r:id="rId52" xr:uid="{36BBD4AF-A2FB-4091-AF15-559CE5130E26}"/>
+    <hyperlink ref="M41" r:id="rId53" xr:uid="{28978EE3-D3BF-4AF1-A31F-CBA76847CC14}"/>
+    <hyperlink ref="L39" r:id="rId54" xr:uid="{0A008BA3-28F5-44CA-9EC0-F7833C018F84}"/>
+    <hyperlink ref="L29" r:id="rId55" xr:uid="{7EB92BDC-A398-4034-9CEF-FF1A15F2326E}"/>
+    <hyperlink ref="M60" r:id="rId56" xr:uid="{ACC30793-B279-41B2-A431-D9E7EE951BF2}"/>
+    <hyperlink ref="L60" r:id="rId57" xr:uid="{B57BD76C-B68E-40C4-A39B-E56B27A51AFB}"/>
+    <hyperlink ref="L12" r:id="rId58" xr:uid="{06247FD8-B6C9-4FB9-A20F-AE4E7D16426F}"/>
+    <hyperlink ref="L51" r:id="rId59" xr:uid="{ABBC67FA-774E-4CDE-A90E-BA506074F782}"/>
+    <hyperlink ref="M29" r:id="rId60" xr:uid="{FB361421-DC68-4294-92CD-DF6CC3E13E50}"/>
+    <hyperlink ref="M32" r:id="rId61" xr:uid="{7CE9A6A3-113B-483C-B671-35292B160411}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId56"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId62"/>
 </worksheet>
 </file>
 
@@ -7373,29 +7673,29 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="84" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A10" zoomScale="84" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -7404,367 +7704,364 @@
         <v>7</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D2" s="16">
         <v>2005</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G2" s="16">
         <v>3</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D3" s="16">
         <v>2017</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G3" s="16">
         <v>2</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D4" s="16">
         <v>2017</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G4" s="16">
         <v>2</v>
       </c>
       <c r="H4" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>201</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>208</v>
       </c>
       <c r="D5" s="16">
         <v>2017</v>
       </c>
       <c r="E5" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E6" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>215</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>222</v>
       </c>
       <c r="D7" s="16">
         <v>2020</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G7" s="16">
         <v>2</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D8" s="16">
         <v>2021</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G8" s="16">
         <v>1</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D9" s="16">
         <v>2022</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G9" s="16">
         <v>2</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D10" s="16">
         <v>2023</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="43">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D11" s="16">
         <v>2024</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G11" s="16">
         <v>1</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="43">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D12" s="16">
         <v>2024</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D13" s="55">
         <v>2024</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G13" s="55">
         <v>1</v>
       </c>
       <c r="H13" s="57" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="I13" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="J13" s="56"/>
     </row>
@@ -7782,55 +8079,55 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -7843,299 +8140,299 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" style="31" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="255.7109375" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+    <row r="35" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+    <row r="38" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="34" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="32" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="32" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
-        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -8156,95 +8453,95 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="47" t="s">
+      <c r="C3" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D3" s="50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="B4" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="50" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="B6" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>321</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -8262,36 +8559,36 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -8310,9 +8607,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B3">
         <v>9.6999999999999993</v>
@@ -8330,7 +8627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
   </sheetData>
@@ -8343,21 +8640,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="61" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A227" zoomScale="61" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="75.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" style="6"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="6"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -8374,13 +8671,13 @@
         <v>10</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -8403,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -8426,7 +8723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -8449,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -8472,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -8495,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -8518,9 +8815,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>30</v>
@@ -8541,9 +8838,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>30</v>
@@ -8564,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -8587,7 +8884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
@@ -8610,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
@@ -8633,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>46</v>
       </c>
@@ -8656,7 +8953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>50</v>
       </c>
@@ -8679,9 +8976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>53</v>
@@ -8702,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>56</v>
       </c>
@@ -8725,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>57</v>
       </c>
@@ -8748,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>59</v>
       </c>
@@ -8771,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>61</v>
       </c>
@@ -8794,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>63</v>
       </c>
@@ -8817,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>65</v>
       </c>
@@ -8840,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>67</v>
       </c>
@@ -8863,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>69</v>
       </c>
@@ -8886,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>72</v>
       </c>
@@ -8909,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>74</v>
       </c>
@@ -8932,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>76</v>
       </c>
@@ -8955,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
@@ -8978,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>82</v>
       </c>
@@ -9001,7 +9298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>83</v>
       </c>
@@ -9024,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>86</v>
       </c>
@@ -9047,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>89</v>
       </c>
@@ -9070,18 +9367,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="C32" s="11">
         <v>2018</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>25</v>
@@ -9093,18 +9390,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="C33" s="11">
         <v>2018</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>25</v>
@@ -9116,12 +9413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="C34" s="11">
         <v>2018</v>
@@ -9139,18 +9436,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="11">
         <v>2018</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>25</v>
@@ -9162,12 +9459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="C36" s="11">
         <v>2018</v>
@@ -9185,18 +9482,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="C37" s="11">
         <v>2018</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>25</v>
@@ -9208,12 +9505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="11">
         <v>2018</v>
@@ -9231,18 +9528,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="11">
         <v>2018</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>25</v>
@@ -9254,12 +9551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="11">
         <v>2018</v>
@@ -9277,12 +9574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="11">
         <v>2018</v>
@@ -9300,18 +9597,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C42" s="11">
         <v>2019</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>25</v>
@@ -9323,18 +9620,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C43" s="11">
         <v>2019</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>25</v>
@@ -9346,21 +9643,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11">
         <v>2019</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -9369,18 +9666,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C45" s="11">
         <v>2019</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>25</v>
@@ -9392,9 +9689,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>87</v>
@@ -9415,18 +9712,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C47" s="11">
         <v>2021</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>17</v>
@@ -9438,18 +9735,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C48" s="11">
         <v>2022</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>17</v>
@@ -9461,9 +9758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>87</v>
@@ -9484,18 +9781,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C50" s="11">
         <v>2022</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>25</v>
@@ -9507,18 +9804,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C51" s="11">
         <v>2022</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>17</v>
@@ -9530,18 +9827,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C52" s="11">
         <v>2022</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>17</v>
@@ -9553,18 +9850,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C53" s="11">
         <v>2023</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>25</v>
@@ -9576,18 +9873,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C54" s="11">
         <v>2023</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>25</v>
@@ -9599,18 +9896,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C55" s="11">
         <v>2023</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>17</v>
@@ -9622,9 +9919,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>87</v>
@@ -9645,9 +9942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>87</v>
@@ -9668,18 +9965,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C58" s="11">
         <v>2024</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>17</v>
@@ -9691,18 +9988,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C59" s="22">
         <v>2024</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>25</v>
@@ -9714,18 +10011,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C60" s="22">
         <v>2024</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>17</v>
@@ -9737,18 +10034,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C61" s="4">
         <v>2024</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>17</v>
@@ -9760,18 +10057,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C62" s="6">
         <v>2024</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E62" s="35" t="s">
         <v>17</v>
@@ -9784,18 +10081,18 @@
       </c>
       <c r="H62" s="36"/>
     </row>
-    <row r="63" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C63" s="16">
         <v>2005</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -9804,18 +10101,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C64" s="16">
         <v>2017</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -9824,18 +10121,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C65" s="16">
         <v>2017</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -9844,18 +10141,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C66" s="16">
         <v>2017</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -9864,18 +10161,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -9884,18 +10181,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C68" s="16">
         <v>2020</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9904,18 +10201,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C69" s="16">
         <v>2021</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9924,18 +10221,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C70" s="16">
         <v>2022</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9944,18 +10241,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C71" s="16">
         <v>2023</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9964,18 +10261,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="37" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C72" s="39">
         <v>2024</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E72"/>
       <c r="F72">
@@ -9985,18 +10282,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="40" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C73" s="42">
         <v>2024</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E73"/>
       <c r="F73">
@@ -10020,26 +10317,26 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>(20.28/100)*E2</f>
         <v>39.018720000000002</v>
@@ -10074,187 +10371,187 @@
       <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-    </row>
-    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-    </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-    </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-    </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-    </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-    </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-    </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-    </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-    </row>
-    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A42" s="28" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-    </row>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-    </row>
-    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/public/db/Research Publications.xlsx
+++ b/public/db/Research Publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/Biodata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="847" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C982349F-CD98-4AF5-A443-28B518C6E102}"/>
+  <xr:revisionPtr revIDLastSave="946" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE9165B-C40A-4B91-A396-F12D6587C242}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
+    <workbookView xWindow="468" yWindow="564" windowWidth="22104" windowHeight="11208" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="593">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -574,9 +574,6 @@
     <t>243-440</t>
   </si>
   <si>
-    <t>https://www.irejournals.com/paper-details/1706965</t>
-  </si>
-  <si>
     <t>Wetland Ecosystem: A better place for rich biodiversity</t>
   </si>
   <si>
@@ -607,29 +604,6 @@
     <t>ISBN</t>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Correlation Studies on growth and fruit quality parameters in guava germ plasm</t>
   </si>
   <si>
@@ -648,29 +622,6 @@
     <t>978-20-60508-28-2</t>
   </si>
   <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Insect pests of pea and their management</t>
   </si>
   <si>
@@ -689,67 +640,18 @@
     <t>978-81-931262-2-6</t>
   </si>
   <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Chromium (Cr+6) toxicity on fish in river ganga water pollution at Kanpur</t>
   </si>
   <si>
     <t>235 – 238</t>
   </si>
   <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Organic Farming and Green Growth for Sustainable Environment</t>
   </si>
   <si>
     <t>Climate and Environmental Changes: Impact, Challenges and Solutions</t>
   </si>
   <si>
-    <t>227 – 229</t>
-  </si>
-  <si>
     <t>Invincible Publisher</t>
   </si>
   <si>
@@ -759,29 +661,6 @@
     <t>978-93-86148-89-6</t>
   </si>
   <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Rashtra ke pragati ka Adhar Parivar, Shiksha evam Rajneeti me Anushashan</t>
   </si>
   <si>
@@ -800,29 +679,6 @@
     <t>978-81-934474-2-0</t>
   </si>
   <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Environment and Human Behaviour</t>
   </si>
   <si>
@@ -835,29 +691,6 @@
     <t>978-81-931262-3-3</t>
   </si>
   <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Discovery of Vaccines for covid and it’s exertion in body</t>
   </si>
   <si>
@@ -873,29 +706,6 @@
     <t>978-93-559305-5-2</t>
   </si>
   <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Agricultural Biodiversity is essential for improvement of social sustainability.</t>
   </si>
   <si>
@@ -912,29 +722,6 @@
   </si>
   <si>
     <t>978-93-94741-83-6</t>
-  </si>
-  <si>
-    <r>
-      <t>9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">               </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
   </si>
   <si>
     <t>Biodiversity of Insects on Roses</t>
@@ -3156,9 +2943,6 @@
     <t>Association Studies in Roses</t>
   </si>
   <si>
-    <t>Silicen Horizons: Pioneering Advances in Extensive Sericultrue</t>
-  </si>
-  <si>
     <t>Emergin Trend in Sciences and Allied Science</t>
   </si>
   <si>
@@ -3301,9 +3085,6 @@
     <t>https://doi.org/10.5281/zenodo.15669228</t>
   </si>
   <si>
-    <t>http://doi.org/10.51470/JEZ.2024.27.2.1605</t>
-  </si>
-  <si>
     <t>https://doi.org/10.33545/26646536.2024.v6.i1a.47</t>
   </si>
   <si>
@@ -3423,6 +3204,87 @@
   </si>
   <si>
     <t>267-278</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.16732575</t>
+  </si>
+  <si>
+    <t>TRADITION TO INNOVATION: SUSTAINABLE DEVELOPEMENT IN SILK CULTURE</t>
+  </si>
+  <si>
+    <t>Proceedings of National Seminar on Sustainable Development Goals : Strategies and Challenges</t>
+  </si>
+  <si>
+    <t>165-174</t>
+  </si>
+  <si>
+    <t>Academic Publishers and Distribushers</t>
+  </si>
+  <si>
+    <t>Esha Yadav</t>
+  </si>
+  <si>
+    <t>978-81-985978-4-7</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Correlation Studies on growth and fruit quality parameters in guava germ plasma</t>
+  </si>
+  <si>
+    <t>Arya, S.;  Yadav, V.</t>
+  </si>
+  <si>
+    <t>227 – 239</t>
+  </si>
+  <si>
+    <t>Arya, S.; Singh, V.</t>
+  </si>
+  <si>
+    <t>1.                </t>
+  </si>
+  <si>
+    <t>2.                </t>
+  </si>
+  <si>
+    <t>3.                </t>
+  </si>
+  <si>
+    <t>4.                </t>
+  </si>
+  <si>
+    <t>5.                </t>
+  </si>
+  <si>
+    <t>6.                </t>
+  </si>
+  <si>
+    <t>7.                </t>
+  </si>
+  <si>
+    <t>8.                </t>
+  </si>
+  <si>
+    <t>9.                </t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10813117</t>
+  </si>
+  <si>
+    <t>Siliken Horizons: Pioneering Advances in Extensive Sericultrue</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.16890701</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.51470/JEZ.2024.27.2.1605</t>
   </si>
 </sst>
 </file>
@@ -3432,7 +3294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3441,20 +3303,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -3473,13 +3322,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3580,13 +3422,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
@@ -3624,6 +3459,28 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3639,7 +3496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3825,75 +3682,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3902,165 +3762,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4078,6 +3957,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4382,3222 +4265,3229 @@
   </sheetPr>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="43.15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="75" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="75" customWidth="1"/>
-    <col min="5" max="5" width="18" style="75" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="75" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="75" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="75" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="75" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="75" customWidth="1"/>
-    <col min="12" max="12" width="51.85546875" style="76" customWidth="1"/>
-    <col min="13" max="14" width="30.140625" style="75"/>
-    <col min="15" max="15" width="255.28515625" style="75" customWidth="1"/>
-    <col min="16" max="16384" width="30.140625" style="75"/>
+    <col min="1" max="1" width="8.5546875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="18" style="67" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="67" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="67" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="67" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="67" customWidth="1"/>
+    <col min="12" max="12" width="51.88671875" style="68" customWidth="1"/>
+    <col min="13" max="14" width="30.109375" style="67"/>
+    <col min="15" max="15" width="255.6640625" style="67" customWidth="1"/>
+    <col min="16" max="16384" width="30.109375" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>388</v>
-      </c>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="58" t="s">
-        <v>390</v>
-      </c>
-      <c r="N1" s="58" t="s">
-        <v>457</v>
-      </c>
-      <c r="O1" s="58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61">
-        <v>1</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="C2" s="59" t="s">
+      <c r="M1" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="N1" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="O1" s="50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A2" s="53">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="59">
+      <c r="D2" s="51">
         <v>1994</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="53">
         <v>6</v>
       </c>
-      <c r="G2" s="61">
+      <c r="G2" s="53">
         <v>9</v>
       </c>
-      <c r="H2" s="61" t="s">
-        <v>365</v>
-      </c>
-      <c r="I2" s="59" t="s">
+      <c r="H2" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="51">
         <v>3</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="60" t="s">
-        <v>526</v>
-      </c>
-      <c r="M2" s="60"/>
-      <c r="N2" s="59" t="s">
-        <v>434</v>
-      </c>
-      <c r="O2" s="61" t="str">
+      <c r="L2" s="52" t="s">
+        <v>514</v>
+      </c>
+      <c r="M2" s="52"/>
+      <c r="N2" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="O2" s="53" t="str">
         <f t="shared" ref="O2:O36" si="0">_xlfn.CONCAT(SUBSTITUTE(N2, ";", ",")," (",D2,") ",B2,". ",C2,". ",F2," (",G2,"): ",H2, ". ", IF(LEFT(L2,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L2),""))</f>
         <v xml:space="preserve">Tewari, U.C., Kumar, R., Arya, S. (1994) Association Studies in Roses. Farm Science Journal. 6 (9): 189-191. </v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61">
+    <row r="3" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A3" s="53">
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="51">
         <v>2003</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="53">
         <v>12</v>
       </c>
-      <c r="G3" s="61" t="s">
-        <v>558</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="I3" s="59" t="s">
+      <c r="G3" s="53" t="s">
+        <v>545</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="59">
-        <v>1</v>
-      </c>
-      <c r="K3" s="59" t="s">
+      <c r="J3" s="51">
+        <v>1</v>
+      </c>
+      <c r="K3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O3" s="61" t="str">
+      <c r="L3" s="52" t="s">
+        <v>375</v>
+      </c>
+      <c r="M3" s="52"/>
+      <c r="N3" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O3" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2003) Population Dynamics of lemon butterfly in citrus crop. Farm Science Journal . 12 (review of muscovi duck): 507-511. </v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61">
+    <row r="4" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A4" s="53">
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="51">
         <v>2005</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="53">
         <v>2</v>
       </c>
-      <c r="G4" s="61" t="s">
-        <v>525</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>366</v>
-      </c>
-      <c r="I4" s="59" t="s">
+      <c r="G4" s="53" t="s">
+        <v>513</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="51">
         <v>3</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="60" t="s">
-        <v>528</v>
-      </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="59" t="s">
-        <v>436</v>
-      </c>
-      <c r="O4" s="61" t="str">
+      <c r="L4" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="M4" s="52"/>
+      <c r="N4" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="O4" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Tewari, U.C., Kumar, R., Arya, S., Dwivedi, A. (2005) Investigation on phenotypic correlation in gladiolus genotype. National Journal of Science. 2 (Suppl): 507-511. </v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61">
+    <row r="5" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A5" s="53">
         <v>4</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="51">
         <v>2013</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="53">
         <v>2</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="53">
         <v>11</v>
       </c>
-      <c r="H5" s="61" t="s">
-        <v>412</v>
-      </c>
-      <c r="I5" s="59" t="s">
+      <c r="H5" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="I5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="51">
         <v>2</v>
       </c>
-      <c r="K5" s="59" t="s">
+      <c r="K5" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O5" s="61" t="str">
+      <c r="N5" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O5" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2013) A research study of phytohormone on vegetative growth and flowering behavior in gladiolus (gladiolus grandifloras). International Journal of Innovative Research in Science, Engineering and Technology. 2 (11): 7060-7062. </v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61">
+    <row r="6" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A6" s="53">
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="51">
         <v>2013</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="53">
         <v>2</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="53">
         <v>11</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="51">
         <v>2</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="L6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="O6" s="61" t="str">
+      <c r="N6" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O6" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2013) Bio efficacy of entomopathogenic fungi against oriental fruit fly (dacus dorsalis H.) infesting guava in riverbed area of ganga. International Journal of Innovative Research in Science, Engineering and Technology. 2 (11): 7066-7068. </v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61">
+    <row r="7" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A7" s="53">
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="51">
         <v>2013</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="53">
         <v>2</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="53">
         <v>12</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="51">
         <v>2</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="60" t="s">
+      <c r="L7" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="O7" s="61" t="str">
+      <c r="N7" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O7" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2013) Studies on citrus crop insect –pest management with adhesive cage under integrated pest management programme. International Journal of Innovative Research in Science, Engineering and Technology. 2 (12): 8088-8091. </v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61">
+    <row r="8" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A8" s="53">
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>463</v>
-      </c>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="51">
         <v>2014</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="53">
         <v>3</v>
       </c>
-      <c r="G8" s="61">
-        <v>1</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>462</v>
-      </c>
-      <c r="I8" s="59" t="s">
+      <c r="G8" s="53">
+        <v>1</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="I8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="51">
         <v>3</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="61" t="s">
+      <c r="M8" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="59" t="s">
-        <v>438</v>
-      </c>
-      <c r="O8" s="61" t="str">
+      <c r="N8" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="O8" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Dubey, R. K., Dixit, P., Arya, S. (2014) Naturally occurring aurones and chromones –a potential organic therapeutic agents improvising nutritional security. International Journal of Innovative Research in Science, Engineering and Technology. 3 (1): 8141-8144. </v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61">
+    <row r="9" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A9" s="53">
         <v>8</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="51">
         <v>2014</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="53">
         <v>3</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="53">
         <v>6</v>
       </c>
-      <c r="H9" s="61" t="s">
-        <v>464</v>
-      </c>
-      <c r="I9" s="59" t="s">
+      <c r="H9" s="53" t="s">
+        <v>453</v>
+      </c>
+      <c r="I9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="51">
         <v>5</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="61" t="s">
+      <c r="M9" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="59" t="s">
-        <v>439</v>
-      </c>
-      <c r="O9" s="61" t="str">
+      <c r="N9" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="O9" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Dubey, R.K., Katiyar, P., Dipankar, A., Tuck, R.R., Arya, S. (2014) A microbiological study on asthma and allergy management. International Journal of Innovative Research in Science, Engineering and Technology. 3 (6): 13763-13766. </v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61">
+    <row r="10" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A10" s="53">
         <v>9</v>
       </c>
-      <c r="B10" s="59" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>387</v>
-      </c>
-      <c r="D10" s="59">
+      <c r="B10" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="51">
         <v>2016</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="53">
         <v>5</v>
       </c>
-      <c r="G10" s="61" t="s">
-        <v>374</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="I10" s="59" t="s">
+      <c r="G10" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="I10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="51">
         <v>2</v>
       </c>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="59" t="s">
-        <v>458</v>
-      </c>
-      <c r="O10" s="61" t="str">
+      <c r="L10" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="M10" s="54"/>
+      <c r="N10" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="O10" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Jaswant, S. (2016) Infestation of insect-pest on guava (psidiumquajava) tree in riverbed area of ganga river in Kanpur. International Research and Reviews. 5 (1 (III)): 60-65. </v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61">
+    <row r="11" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A11" s="53">
         <v>10</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="51">
         <v>2016</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="53">
         <v>16</v>
       </c>
-      <c r="G11" s="61">
-        <v>1</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>465</v>
-      </c>
-      <c r="I11" s="59" t="s">
+      <c r="G11" s="53">
+        <v>1</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>454</v>
+      </c>
+      <c r="I11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="51">
         <v>2</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="60" t="s">
+      <c r="L11" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="61" t="s">
+      <c r="M11" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="N11" s="59" t="s">
-        <v>440</v>
-      </c>
-      <c r="O11" s="61" t="str">
+      <c r="N11" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="O11" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Madhulekha, Arya, S. (2016) Assessment of Water Pollution of River Ganga by Tannery Effluent Using Fish as an Indicator in Kanpur, India. Journal of Biochemical and Cellular Archives . 16 (1): 120-123. </v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61">
+    <row r="12" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A12" s="53">
         <v>11</v>
       </c>
-      <c r="B12" s="59" t="s">
-        <v>534</v>
-      </c>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="51" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="51">
         <v>2016</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="53">
         <v>20</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="53">
         <v>2</v>
       </c>
-      <c r="H12" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="I12" s="59" t="s">
+      <c r="H12" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="I12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="51">
         <v>2</v>
       </c>
-      <c r="K12" s="59" t="s">
+      <c r="K12" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="70" t="s">
-        <v>555</v>
-      </c>
-      <c r="M12" s="62" t="s">
-        <v>535</v>
-      </c>
-      <c r="N12" s="59" t="s">
-        <v>440</v>
-      </c>
-      <c r="O12" s="61" t="str">
+      <c r="L12" s="62" t="s">
+        <v>543</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="N12" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="O12" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Madhulekha, Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India). International Journal of Innovative Trends in Engineering. 20 (2): 97-100. DOI: https://doi.org/10.5281/zenodo.15669228</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61">
+    <row r="13" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A13" s="53">
         <v>12</v>
       </c>
-      <c r="B13" s="59" t="s">
-        <v>334</v>
-      </c>
-      <c r="C13" s="59" t="s">
+      <c r="B13" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="51">
         <v>2016</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="53">
         <v>2</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="53">
         <v>6</v>
       </c>
-      <c r="H13" s="61" t="s">
-        <v>391</v>
-      </c>
-      <c r="I13" s="59">
+      <c r="H13" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="I13" s="51">
         <v>47715</v>
       </c>
-      <c r="J13" s="59">
-        <v>1</v>
-      </c>
-      <c r="K13" s="59" t="s">
+      <c r="J13" s="51">
+        <v>1</v>
+      </c>
+      <c r="K13" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="61"/>
-      <c r="N13" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O13" s="61" t="str">
+      <c r="M13" s="53"/>
+      <c r="N13" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O13" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2016) Extent of damage and seasonal abundance of citrus psylla (d. citri) on citrus plant. Academic Social Research. 2 (6): 131-136. </v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61">
+    <row r="14" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A14" s="53">
         <v>13</v>
       </c>
-      <c r="B14" s="59" t="s">
-        <v>375</v>
-      </c>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="51">
         <v>2016</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="53">
         <v>2</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="53">
         <v>4</v>
       </c>
-      <c r="H14" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="I14" s="59" t="s">
+      <c r="H14" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="I14" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="59">
-        <v>1</v>
-      </c>
-      <c r="K14" s="59" t="s">
+      <c r="J14" s="51">
+        <v>1</v>
+      </c>
+      <c r="K14" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="60" t="s">
-        <v>411</v>
-      </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O14" s="61" t="str">
+      <c r="L14" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="M14" s="53"/>
+      <c r="N14" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O14" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2016) Response of Abiotic Factors on Population of Oriental Fruit Fly (B. Dorsalis) In Guava Varieties. Academic Social Research. 2 (4): 73-76. </v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61">
+    <row r="15" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A15" s="53">
         <v>14</v>
       </c>
-      <c r="B15" s="59" t="s">
-        <v>472</v>
-      </c>
-      <c r="C15" s="59" t="s">
+      <c r="B15" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="C15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="51">
         <v>2017</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="61">
+      <c r="F15" s="53">
         <v>6</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15" s="53">
         <v>3</v>
       </c>
-      <c r="H15" s="61" t="s">
-        <v>467</v>
-      </c>
-      <c r="I15" s="59" t="s">
+      <c r="H15" s="53" t="s">
+        <v>456</v>
+      </c>
+      <c r="I15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="51">
         <v>2</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="61" t="s">
+      <c r="M15" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="59" t="s">
-        <v>441</v>
-      </c>
-      <c r="O15" s="61" t="str">
+      <c r="N15" s="51" t="s">
+        <v>430</v>
+      </c>
+      <c r="O15" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R.K. (2017) Physico-Chemical and Scientific Analysis of Ganga River Water with Special Respect to Bacteriophage Activity and Its Comparative Studies with Sewage Water Treatment. International Journal of Innovative Research in Science, Engineering and Technology. 6 (3): 5094-5104. </v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61">
+    <row r="16" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A16" s="53">
         <v>15</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>471</v>
-      </c>
-      <c r="C16" s="59" t="s">
+      <c r="B16" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="51">
         <v>2017</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="53">
         <v>6</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="53">
         <v>3</v>
       </c>
-      <c r="H16" s="61" t="s">
-        <v>468</v>
-      </c>
-      <c r="I16" s="59" t="s">
+      <c r="H16" s="53" t="s">
+        <v>457</v>
+      </c>
+      <c r="I16" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="51">
         <v>2</v>
       </c>
-      <c r="K16" s="59" t="s">
+      <c r="K16" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="61" t="s">
+      <c r="M16" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="O16" s="61" t="str">
+      <c r="N16" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O16" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Microbiological Research Studies on Anar Butterfly (Virachola Isocrates F.) Population with Different Factors in Guava Fruit. International Journal of Innovative Research in Science, Engineering and Technology. 6 (3): 5089-5093. </v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61">
+    <row r="17" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A17" s="53">
         <v>16</v>
       </c>
-      <c r="B17" s="59" t="s">
-        <v>470</v>
-      </c>
-      <c r="C17" s="59" t="s">
+      <c r="B17" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="C17" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="59">
+      <c r="D17" s="51">
         <v>2017</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="61">
+      <c r="F17" s="53">
         <v>6</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="53">
         <v>4</v>
       </c>
-      <c r="H17" s="61" t="s">
-        <v>469</v>
-      </c>
-      <c r="I17" s="59" t="s">
+      <c r="H17" s="53" t="s">
+        <v>458</v>
+      </c>
+      <c r="I17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="51">
         <v>2</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="61" t="s">
+      <c r="M17" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="O17" s="61" t="str">
+      <c r="N17" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O17" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Studies on Application, Importance and Effect of Neem Tree (AzadiachtaIndica) Oil on Effect and Intensity of Guava Insect.. International Journal of Innovative Research in Science, Engineering and Technology. 6 (4): 6280-6283. </v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61">
+    <row r="18" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A18" s="53">
         <v>17</v>
       </c>
-      <c r="B18" s="59" t="s">
-        <v>376</v>
-      </c>
-      <c r="C18" s="59" t="s">
+      <c r="B18" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="51">
         <v>2017</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="61">
+      <c r="F18" s="53">
         <v>3</v>
       </c>
-      <c r="G18" s="61">
-        <v>1</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>369</v>
-      </c>
-      <c r="I18" s="59" t="s">
+      <c r="G18" s="53">
+        <v>1</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="I18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="59">
-        <v>1</v>
-      </c>
-      <c r="K18" s="59" t="s">
+      <c r="J18" s="51">
+        <v>1</v>
+      </c>
+      <c r="K18" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="59" t="s">
-        <v>410</v>
-      </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O18" s="61" t="str">
+      <c r="L18" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="M18" s="53"/>
+      <c r="N18" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O18" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2017) Economics and Bioefficacy of Parapheromones On Fruit Fly, Their Traps and Dispenser. Acadmic Science Research. 3 (1): 134-136. </v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61">
+    <row r="19" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A19" s="53">
         <v>18</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="51">
         <v>2017</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="53">
         <v>6</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="53">
         <v>4</v>
       </c>
-      <c r="H19" s="61" t="s">
-        <v>473</v>
-      </c>
-      <c r="I19" s="59" t="s">
+      <c r="H19" s="53" t="s">
+        <v>462</v>
+      </c>
+      <c r="I19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="51">
         <v>2</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="60" t="s">
+      <c r="L19" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="61" t="s">
+      <c r="M19" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="O19" s="61" t="str">
+      <c r="N19" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O19" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Scientific Studies on Effective Applications of Some Important Essential Elements Nitrogens(N), Phosphorus (P), Zinc (Zn) Nutrional Values on Spike and Floret Development in Gladiolus Crop.,. International Journal of Innovative Research in Science, Engineering and Technology. 6 (4): 6275-6279. </v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61">
+    <row r="20" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A20" s="53">
         <v>19</v>
       </c>
-      <c r="B20" s="59" t="s">
-        <v>480</v>
-      </c>
-      <c r="C20" s="59" t="s">
+      <c r="B20" s="51" t="s">
+        <v>469</v>
+      </c>
+      <c r="C20" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="51">
         <v>2017</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="53">
         <v>6</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="53">
         <v>5</v>
       </c>
-      <c r="H20" s="61" t="s">
-        <v>474</v>
-      </c>
-      <c r="I20" s="59" t="s">
+      <c r="H20" s="53" t="s">
+        <v>463</v>
+      </c>
+      <c r="I20" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="51">
         <v>2</v>
       </c>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="60" t="s">
+      <c r="L20" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="61" t="s">
+      <c r="M20" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="N20" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="O20" s="61" t="str">
+      <c r="N20" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O20" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) A Scientific Study and Analysis of Incidence and Intensity of Bark Eating Catapillar (Inderbela Spp.) In Guava (P. Guajava) Tree. International Journal of Innovative Research in Science, Engineering and Technology. 6 (5): 10032-10034. </v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61">
+    <row r="21" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A21" s="53">
         <v>20</v>
       </c>
-      <c r="B21" s="59" t="s">
-        <v>479</v>
-      </c>
-      <c r="C21" s="59" t="s">
+      <c r="B21" s="51" t="s">
+        <v>468</v>
+      </c>
+      <c r="C21" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="51">
         <v>2017</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="53">
         <v>6</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="53">
         <v>5</v>
       </c>
-      <c r="H21" s="61" t="s">
-        <v>475</v>
-      </c>
-      <c r="I21" s="59" t="s">
+      <c r="H21" s="53" t="s">
+        <v>464</v>
+      </c>
+      <c r="I21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="59">
+      <c r="J21" s="51">
         <v>2</v>
       </c>
-      <c r="K21" s="59" t="s">
+      <c r="K21" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="60" t="s">
+      <c r="L21" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="61" t="s">
+      <c r="M21" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="N21" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="O21" s="61" t="str">
+      <c r="N21" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O21" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Scientific and Academic Studies on Changing Pattern and Factors on Environment Conditions and Socio-Economic Etics. International Journal of Innovative Research in Science, Engineering and Technology.. 6 (5): 10040-10043. </v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61">
+    <row r="22" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A22" s="53">
         <v>21</v>
       </c>
-      <c r="B22" s="59" t="s">
-        <v>426</v>
-      </c>
-      <c r="C22" s="59" t="s">
+      <c r="B22" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="C22" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="51">
         <v>2017</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="53">
         <v>3</v>
       </c>
-      <c r="G22" s="61">
-        <v>1</v>
-      </c>
-      <c r="H22" s="61" t="s">
-        <v>425</v>
-      </c>
-      <c r="I22" s="59" t="s">
+      <c r="G22" s="53">
+        <v>1</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="I22" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="59">
-        <v>1</v>
-      </c>
-      <c r="K22" s="59" t="s">
+      <c r="J22" s="51">
+        <v>1</v>
+      </c>
+      <c r="K22" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="60" t="s">
+      <c r="L22" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="M22" s="61"/>
-      <c r="N22" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O22" s="61" t="str">
+      <c r="M22" s="53"/>
+      <c r="N22" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O22" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2017) Influence of Ecological factor on Mango Fruit Fly, Bactrocera dorsalis Hendel Bactrocera. Academic Social Research. 3 (1): 116-118. </v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="61">
+    <row r="23" spans="1:15" ht="30">
+      <c r="A23" s="53">
         <v>22</v>
       </c>
-      <c r="B23" s="59" t="s">
-        <v>481</v>
-      </c>
-      <c r="C23" s="59" t="s">
+      <c r="B23" s="51" t="s">
+        <v>470</v>
+      </c>
+      <c r="C23" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="51">
         <v>2017</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="53">
         <v>6</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23" s="53">
         <v>6</v>
       </c>
-      <c r="H23" s="61" t="s">
-        <v>476</v>
-      </c>
-      <c r="I23" s="59" t="s">
+      <c r="H23" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="I23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="51">
         <v>2</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="K23" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="60" t="s">
+      <c r="L23" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="61" t="s">
+      <c r="M23" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="N23" s="59" t="s">
-        <v>437</v>
-      </c>
-      <c r="O23" s="61" t="str">
+      <c r="N23" s="51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O23" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) A Comparative Study and Analysis of Susceptibility Conditions of Fruit Fly BacteroceraCorrectaBezzi To Entomopathogenic Micro-Organisms. International Journal of Innovative Research in Science, Engineering and Technology. 6 (6): 14444-14447. </v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61">
+    <row r="24" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A24" s="53">
         <v>23</v>
       </c>
-      <c r="B24" s="59" t="s">
-        <v>482</v>
-      </c>
-      <c r="C24" s="59" t="s">
+      <c r="B24" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="C24" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="51">
         <v>2017</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="53">
         <v>6</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24" s="53">
         <v>8</v>
       </c>
-      <c r="H24" s="61" t="s">
-        <v>477</v>
-      </c>
-      <c r="I24" s="59" t="s">
+      <c r="H24" s="53" t="s">
+        <v>466</v>
+      </c>
+      <c r="I24" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="51">
         <v>2</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="60" t="s">
+      <c r="L24" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="M24" s="61"/>
-      <c r="N24" s="59" t="s">
-        <v>442</v>
-      </c>
-      <c r="O24" s="61" t="str">
+      <c r="M24" s="53"/>
+      <c r="N24" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="O24" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Shukla, M., Arya, S., Agarwal, S. (2017) Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India. International Journal of Innovative Research in Science, Engineering and Technology.. 6 (8): 7164-7170. </v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61">
+    <row r="25" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A25" s="53">
         <v>24</v>
       </c>
-      <c r="B25" s="59" t="s">
-        <v>483</v>
-      </c>
-      <c r="C25" s="59" t="s">
+      <c r="B25" s="51" t="s">
+        <v>472</v>
+      </c>
+      <c r="C25" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="51">
         <v>2017</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="53">
         <v>3</v>
       </c>
-      <c r="G25" s="61">
-        <v>1</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="I25" s="59" t="s">
+      <c r="G25" s="53">
+        <v>1</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="I25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="51">
         <v>2</v>
       </c>
-      <c r="K25" s="59" t="s">
+      <c r="K25" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="60" t="s">
+      <c r="L25" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="M25" s="61"/>
-      <c r="N25" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="O25" s="61" t="str">
+      <c r="M25" s="53"/>
+      <c r="N25" s="51" t="s">
+        <v>432</v>
+      </c>
+      <c r="O25" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Shukla, M., Arya, S. (2017) Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.). Green Chemistry and Technology Letters. 3 (1): 21-25. </v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61">
+    <row r="26" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A26" s="53">
         <v>25</v>
       </c>
-      <c r="B26" s="59" t="s">
-        <v>427</v>
-      </c>
-      <c r="C26" s="59" t="s">
+      <c r="B26" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="C26" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="51">
         <v>2018</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="61">
+      <c r="F26" s="53">
         <v>4</v>
       </c>
-      <c r="G26" s="61">
-        <v>1</v>
-      </c>
-      <c r="H26" s="61" t="s">
-        <v>428</v>
-      </c>
-      <c r="I26" s="59">
+      <c r="G26" s="53">
+        <v>1</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="I26" s="51">
         <v>47715</v>
       </c>
-      <c r="J26" s="59">
-        <v>1</v>
-      </c>
-      <c r="K26" s="59" t="s">
+      <c r="J26" s="51">
+        <v>1</v>
+      </c>
+      <c r="K26" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="60" t="s">
-        <v>530</v>
-      </c>
-      <c r="M26" s="61" t="s">
-        <v>529</v>
-      </c>
-      <c r="N26" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O26" s="61" t="str">
+      <c r="L26" s="52" t="s">
+        <v>518</v>
+      </c>
+      <c r="M26" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="N26" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O26" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Vermicomposting: Profitable Organic Fertilizer. Academic Social Research. 4 (1): 7-0. DOI: https://doi.org/10.5281/zenodo.15669102</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61">
+    <row r="27" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A27" s="53">
         <v>26</v>
       </c>
-      <c r="B27" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="C27" s="59" t="s">
+      <c r="B27" s="51" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="51">
         <v>2018</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="53">
         <v>9</v>
       </c>
-      <c r="G27" s="61">
-        <v>1</v>
-      </c>
-      <c r="H27" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="I27" s="59">
+      <c r="G27" s="53">
+        <v>1</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>359</v>
+      </c>
+      <c r="I27" s="51">
         <v>62958</v>
       </c>
-      <c r="J27" s="59">
-        <v>1</v>
-      </c>
-      <c r="K27" s="59" t="s">
+      <c r="J27" s="51">
+        <v>1</v>
+      </c>
+      <c r="K27" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="61"/>
-      <c r="N27" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O27" s="61" t="str">
+      <c r="M27" s="53"/>
+      <c r="N27" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O27" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Bio-efficacy of insect pests of Brinzal (Solanummelongena). International Journal on Agricultural Sciences. 9 (1): 52-55. </v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61">
+    <row r="28" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A28" s="53">
         <v>27</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="51">
+        <v>2018</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="53">
+        <v>9</v>
+      </c>
+      <c r="G28" s="53">
+        <v>1</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="I28" s="51">
+        <v>7775</v>
+      </c>
+      <c r="J28" s="51">
+        <v>1</v>
+      </c>
+      <c r="K28" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="54" t="s">
+        <v>525</v>
+      </c>
+      <c r="M28" s="54" t="s">
+        <v>526</v>
+      </c>
+      <c r="N28" s="51" t="s">
         <v>527</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="59">
-        <v>2018</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="61">
-        <v>9</v>
-      </c>
-      <c r="G28" s="61">
-        <v>1</v>
-      </c>
-      <c r="H28" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="I28" s="59">
-        <v>7775</v>
-      </c>
-      <c r="J28" s="59">
-        <v>1</v>
-      </c>
-      <c r="K28" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="62" t="s">
-        <v>537</v>
-      </c>
-      <c r="M28" s="62" t="s">
-        <v>538</v>
-      </c>
-      <c r="N28" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="O28" s="61" t="str">
+      <c r="O28" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S., Shukla, M. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article. International Journal on Biological Sciences. 9 (1): 69-73. DOI: https://doi.org/10.5281/zenodo.15670053</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61">
+    <row r="29" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A29" s="53">
         <v>28</v>
       </c>
-      <c r="B29" s="59" t="s">
-        <v>420</v>
-      </c>
-      <c r="C29" s="59" t="s">
+      <c r="B29" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="C29" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="51">
         <v>2018</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="53">
         <v>4</v>
       </c>
-      <c r="G29" s="61">
-        <v>1</v>
-      </c>
-      <c r="H29" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="I29" s="59">
+      <c r="G29" s="53">
+        <v>1</v>
+      </c>
+      <c r="H29" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="I29" s="51">
         <v>47715</v>
       </c>
-      <c r="J29" s="59">
-        <v>1</v>
-      </c>
-      <c r="K29" s="59" t="s">
+      <c r="J29" s="51">
+        <v>1</v>
+      </c>
+      <c r="K29" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="71" t="s">
-        <v>552</v>
-      </c>
-      <c r="M29" s="78" t="s">
-        <v>567</v>
-      </c>
-      <c r="N29" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O29" s="61" t="str">
+      <c r="L29" s="63" t="s">
+        <v>540</v>
+      </c>
+      <c r="M29" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="N29" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O29" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Insect Pest and Diseases of Roses: Symptoms and Control Measures. Academic Social Research. 4 (1): 312-319. DOI: https://doi.org/10.5281/zenodo.15697980</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61">
+    <row r="30" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A30" s="53">
         <v>29</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="51">
+        <v>2018</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="53">
+        <v>15</v>
+      </c>
+      <c r="G30" s="53">
+        <v>1</v>
+      </c>
+      <c r="H30" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="C30" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="59">
-        <v>2018</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="61">
-        <v>15</v>
-      </c>
-      <c r="G30" s="61">
-        <v>1</v>
-      </c>
-      <c r="H30" s="61" t="s">
-        <v>432</v>
-      </c>
-      <c r="I30" s="59">
+      <c r="I30" s="51">
         <v>4662</v>
       </c>
-      <c r="J30" s="59">
-        <v>1</v>
-      </c>
-      <c r="K30" s="59" t="s">
+      <c r="J30" s="51">
+        <v>1</v>
+      </c>
+      <c r="K30" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="60" t="s">
+      <c r="L30" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="M30" s="61" t="s">
+      <c r="M30" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="N30" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O30" s="61" t="str">
+      <c r="N30" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O30" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae. Life Science Bulletin. 15 (1): 63-65. </v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61">
+    <row r="31" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A31" s="53">
         <v>30</v>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="C31" s="59" t="s">
+      <c r="B31" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D31" s="51">
         <v>2018</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="61">
+      <c r="F31" s="53">
         <v>9</v>
       </c>
-      <c r="G31" s="61">
-        <v>1</v>
-      </c>
-      <c r="H31" s="61" t="s">
-        <v>379</v>
-      </c>
-      <c r="I31" s="59">
+      <c r="G31" s="53">
+        <v>1</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="I31" s="51">
         <v>7783</v>
       </c>
-      <c r="J31" s="59">
-        <v>1</v>
-      </c>
-      <c r="K31" s="59" t="s">
+      <c r="J31" s="51">
+        <v>1</v>
+      </c>
+      <c r="K31" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="59" t="s">
+      <c r="L31" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="M31" s="61"/>
-      <c r="N31" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O31" s="61" t="str">
+      <c r="M31" s="53"/>
+      <c r="N31" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O31" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Use of Biopesticides against Papilio Demoleus infestation and yield in citrus (Citrus aurantifolia). International Journal on Environmental Science. 9 (1): 61 – 66. </v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61">
+    <row r="32" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A32" s="53">
         <v>31</v>
       </c>
-      <c r="B32" s="59" t="s">
-        <v>380</v>
-      </c>
-      <c r="C32" s="59" t="s">
+      <c r="B32" s="51" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="51">
         <v>2018</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="53">
         <v>9</v>
       </c>
-      <c r="G32" s="61">
-        <v>1</v>
-      </c>
-      <c r="H32" s="61" t="s">
-        <v>381</v>
-      </c>
-      <c r="I32" s="59">
+      <c r="G32" s="53">
+        <v>1</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="I32" s="51">
         <v>7775</v>
       </c>
-      <c r="J32" s="59">
-        <v>1</v>
-      </c>
-      <c r="K32" s="59" t="s">
+      <c r="J32" s="51">
+        <v>1</v>
+      </c>
+      <c r="K32" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="79" t="s">
-        <v>568</v>
-      </c>
-      <c r="M32" s="78" t="s">
-        <v>569</v>
-      </c>
-      <c r="N32" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O32" s="61" t="str">
+      <c r="L32" s="71" t="s">
+        <v>555</v>
+      </c>
+      <c r="M32" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="N32" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O32" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Effect of Marigold oil (Tageteserecta L.) and its fractions against sitophillusoryzae. International Journal of Biological Sciences. 9 (1): 85-89. DOI: https://doi.org/10.5281/zenodo.15823186</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61">
+    <row r="33" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A33" s="53">
         <v>32</v>
       </c>
-      <c r="B33" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="C33" s="59" t="s">
+      <c r="B33" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="C33" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="51">
         <v>2018</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="61">
+      <c r="F33" s="53">
         <v>15</v>
       </c>
-      <c r="G33" s="61">
-        <v>1</v>
-      </c>
-      <c r="H33" s="61" t="s">
-        <v>418</v>
-      </c>
-      <c r="I33" s="59">
+      <c r="G33" s="53">
+        <v>1</v>
+      </c>
+      <c r="H33" s="53" t="s">
+        <v>407</v>
+      </c>
+      <c r="I33" s="51">
         <v>4662</v>
       </c>
-      <c r="J33" s="59">
-        <v>1</v>
-      </c>
-      <c r="K33" s="59" t="s">
+      <c r="J33" s="51">
+        <v>1</v>
+      </c>
+      <c r="K33" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="72" t="s">
-        <v>540</v>
-      </c>
-      <c r="M33" s="62" t="s">
-        <v>541</v>
-      </c>
-      <c r="N33" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O33" s="61" t="str">
+      <c r="L33" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="M33" s="54" t="s">
+        <v>529</v>
+      </c>
+      <c r="N33" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O33" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Isolation of Phenol Degrading Bacteria from Industrial Waste. Life Science Bulletin. 15 (1): 47-50. DOI: https://doi.org/10.5281/zenodo.15676310</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61">
+    <row r="34" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A34" s="53">
         <v>33</v>
       </c>
-      <c r="B34" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="C34" s="59" t="s">
+      <c r="B34" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="51">
         <v>2018</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="61">
+      <c r="F34" s="53">
         <v>9</v>
       </c>
-      <c r="G34" s="61">
-        <v>1</v>
-      </c>
-      <c r="H34" s="61" t="s">
-        <v>383</v>
-      </c>
-      <c r="I34" s="59">
+      <c r="G34" s="53">
+        <v>1</v>
+      </c>
+      <c r="H34" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="I34" s="51">
         <v>62958</v>
       </c>
-      <c r="J34" s="59">
-        <v>1</v>
-      </c>
-      <c r="K34" s="59" t="s">
+      <c r="J34" s="51">
+        <v>1</v>
+      </c>
+      <c r="K34" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="59" t="s">
+      <c r="L34" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="M34" s="61"/>
-      <c r="N34" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O34" s="61" t="str">
+      <c r="M34" s="53"/>
+      <c r="N34" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O34" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) A Scientific Study of Transplanting Date effect on Infestation of Insect Pests of Cabbage. International Journal of Agricultural Sciences. 9 (1): 41-46. </v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61">
+    <row r="35" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A35" s="53">
         <v>34</v>
       </c>
-      <c r="B35" s="59" t="s">
-        <v>433</v>
-      </c>
-      <c r="C35" s="59" t="s">
+      <c r="B35" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="C35" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="51">
         <v>2018</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="61">
+      <c r="F35" s="53">
         <v>9</v>
       </c>
-      <c r="G35" s="61">
-        <v>1</v>
-      </c>
-      <c r="H35" s="61" t="s">
-        <v>419</v>
-      </c>
-      <c r="I35" s="59">
+      <c r="G35" s="53">
+        <v>1</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="I35" s="51">
         <v>7783</v>
       </c>
-      <c r="J35" s="59">
-        <v>1</v>
-      </c>
-      <c r="K35" s="59" t="s">
+      <c r="J35" s="51">
+        <v>1</v>
+      </c>
+      <c r="K35" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="60" t="s">
-        <v>551</v>
-      </c>
-      <c r="M35" s="61"/>
-      <c r="N35" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O35" s="61" t="str">
+      <c r="L35" s="52" t="s">
+        <v>539</v>
+      </c>
+      <c r="M35" s="53"/>
+      <c r="N35" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O35" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Spectrophotometric Determination of Chromium in River Ganga water samples using 1,5-diphenyl carbazide at Kanpur, India-2018. International Journal of Environmental Science. 9 (1): 36-39. </v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61">
+    <row r="36" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A36" s="53">
         <v>35</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="51">
+        <v>2018</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="53">
+        <v>9</v>
+      </c>
+      <c r="G36" s="53">
+        <v>2</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="I36" s="51">
+        <v>62958</v>
+      </c>
+      <c r="J36" s="51">
+        <v>1</v>
+      </c>
+      <c r="K36" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="M36" s="53"/>
+      <c r="N36" s="51" t="s">
         <v>424</v>
       </c>
-      <c r="C36" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="59">
-        <v>2018</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="61">
-        <v>9</v>
-      </c>
-      <c r="G36" s="61">
-        <v>2</v>
-      </c>
-      <c r="H36" s="61" t="s">
-        <v>401</v>
-      </c>
-      <c r="I36" s="59">
-        <v>62958</v>
-      </c>
-      <c r="J36" s="59">
-        <v>1</v>
-      </c>
-      <c r="K36" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="M36" s="61"/>
-      <c r="N36" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O36" s="61" t="str">
+      <c r="O36" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria. International Journal of Agricultural Sciences. 9 (2): 103-109. </v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61">
+    <row r="37" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A37" s="53">
         <v>36</v>
       </c>
-      <c r="B37" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="C37" s="59" t="s">
+      <c r="B37" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="C37" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="51">
         <v>2018</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="61">
+      <c r="F37" s="53">
         <v>9</v>
       </c>
-      <c r="G37" s="61">
+      <c r="G37" s="53">
         <v>2</v>
       </c>
-      <c r="H37" s="61" t="s">
-        <v>416</v>
-      </c>
-      <c r="I37" s="59">
+      <c r="H37" s="53" t="s">
+        <v>405</v>
+      </c>
+      <c r="I37" s="51">
         <v>7783</v>
       </c>
-      <c r="J37" s="59">
-        <v>1</v>
-      </c>
-      <c r="K37" s="59" t="s">
+      <c r="J37" s="51">
+        <v>1</v>
+      </c>
+      <c r="K37" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="69" t="s">
-        <v>566</v>
-      </c>
-      <c r="M37" s="61"/>
-      <c r="N37" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O37" s="80" t="str">
+      <c r="L37" s="61" t="s">
+        <v>553</v>
+      </c>
+      <c r="M37" s="53"/>
+      <c r="N37" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O37" s="72" t="str">
         <f t="shared" ref="O37:O43" si="1">IF(COUNT(A37:N37)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N37, ";", ",")," (",D37,") ",B37,". ",C37,". ",F35," (",G37,"): ",H37, ". ", IF(LEFT(L37,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L37),"")), "")</f>
         <v xml:space="preserve">Arya, S. (2018) Green Technology to combat environmental degradation and sustainable food production: A Review. International Journal of Environmental Science. 9 (2): 118-123. </v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61">
+    <row r="38" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A38" s="53">
         <v>37</v>
       </c>
-      <c r="B38" s="59" t="s">
-        <v>384</v>
-      </c>
-      <c r="C38" s="59" t="s">
+      <c r="B38" s="51" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="51">
         <v>2018</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="61">
+      <c r="F38" s="53">
         <v>9</v>
       </c>
-      <c r="G38" s="61">
+      <c r="G38" s="53">
         <v>2</v>
       </c>
-      <c r="H38" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="I38" s="59">
+      <c r="H38" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="I38" s="51">
         <v>62958</v>
       </c>
-      <c r="J38" s="59">
-        <v>1</v>
-      </c>
-      <c r="K38" s="59" t="s">
+      <c r="J38" s="51">
+        <v>1</v>
+      </c>
+      <c r="K38" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="60" t="s">
-        <v>570</v>
-      </c>
-      <c r="M38" s="61" t="s">
-        <v>571</v>
-      </c>
-      <c r="N38" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O38" s="80" t="str">
+      <c r="L38" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="M38" s="53" t="s">
+        <v>558</v>
+      </c>
+      <c r="N38" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O38" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences. 9 (2): 110-114. DOI: https://doi.org/10.5281/zenodo.15823316</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61">
+    <row r="39" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A39" s="53">
         <v>38</v>
       </c>
-      <c r="B39" s="59" t="s">
-        <v>403</v>
-      </c>
-      <c r="C39" s="59" t="s">
+      <c r="B39" s="51" t="s">
+        <v>392</v>
+      </c>
+      <c r="C39" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="51">
         <v>2018</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F39" s="53">
         <v>9</v>
       </c>
-      <c r="G39" s="61">
-        <v>1</v>
-      </c>
-      <c r="H39" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="I39" s="59">
+      <c r="G39" s="53">
+        <v>1</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="I39" s="51">
         <v>7775</v>
       </c>
-      <c r="J39" s="59">
-        <v>1</v>
-      </c>
-      <c r="K39" s="59" t="s">
+      <c r="J39" s="51">
+        <v>1</v>
+      </c>
+      <c r="K39" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="M39" s="62" t="s">
-        <v>532</v>
-      </c>
-      <c r="N39" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O39" s="80" t="str">
+      <c r="L39" s="62" t="s">
+        <v>519</v>
+      </c>
+      <c r="M39" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="N39" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O39" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences. 9 (1): 162-165. DOI: https://doi.org/10.5281/zenodo.15669147</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61">
+    <row r="40" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A40" s="53">
         <v>39</v>
       </c>
-      <c r="B40" s="59" t="s">
-        <v>395</v>
-      </c>
-      <c r="C40" s="59" t="s">
+      <c r="B40" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="C40" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="59">
+      <c r="D40" s="51">
         <v>2019</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="61">
+      <c r="F40" s="53">
         <v>4</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40" s="53">
         <v>2</v>
       </c>
-      <c r="H40" s="61" t="s">
-        <v>392</v>
-      </c>
-      <c r="I40" s="59">
+      <c r="H40" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="I40" s="51">
         <v>40827</v>
       </c>
-      <c r="J40" s="59">
-        <v>1</v>
-      </c>
-      <c r="K40" s="59" t="s">
+      <c r="J40" s="51">
+        <v>1</v>
+      </c>
+      <c r="K40" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="73" t="s">
-        <v>547</v>
-      </c>
-      <c r="M40" s="61" t="s">
-        <v>548</v>
-      </c>
-      <c r="N40" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O40" s="80" t="str">
+      <c r="L40" s="65" t="s">
+        <v>535</v>
+      </c>
+      <c r="M40" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="N40" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O40" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation. 9 (2): 111-117. DOI: https://doi.org/10.5281/zenodo.15697804</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61">
+    <row r="41" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A41" s="53">
         <v>40</v>
       </c>
-      <c r="B41" s="59" t="s">
-        <v>431</v>
-      </c>
-      <c r="C41" s="59" t="s">
+      <c r="B41" s="51" t="s">
+        <v>420</v>
+      </c>
+      <c r="C41" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="59">
+      <c r="D41" s="51">
         <v>2019</v>
       </c>
-      <c r="E41" s="59" t="s">
+      <c r="E41" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="61">
+      <c r="F41" s="53">
         <v>6</v>
       </c>
-      <c r="G41" s="61">
+      <c r="G41" s="53">
         <v>8</v>
       </c>
-      <c r="H41" s="63" t="s">
-        <v>429</v>
-      </c>
-      <c r="I41" s="59">
+      <c r="H41" s="55" t="s">
+        <v>418</v>
+      </c>
+      <c r="I41" s="51">
         <v>40880</v>
       </c>
-      <c r="J41" s="59">
-        <v>1</v>
-      </c>
-      <c r="K41" s="59" t="s">
+      <c r="J41" s="51">
+        <v>1</v>
+      </c>
+      <c r="K41" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="60" t="s">
-        <v>549</v>
-      </c>
-      <c r="M41" s="62" t="s">
-        <v>550</v>
-      </c>
-      <c r="N41" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O41" s="80" t="str">
+      <c r="L41" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="M41" s="54" t="s">
+        <v>538</v>
+      </c>
+      <c r="N41" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O41" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika. 9 (8): 1-3. DOI: https://doi.org/10.5281/zenodo.15697875</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="61">
+    <row r="42" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A42" s="53">
         <v>41</v>
       </c>
-      <c r="B42" s="59" t="s">
-        <v>430</v>
-      </c>
-      <c r="C42" s="59" t="s">
+      <c r="B42" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="C42" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="59">
+      <c r="D42" s="51">
         <v>2019</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="E42" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="F42" s="61">
+      <c r="F42" s="53">
         <v>6</v>
       </c>
-      <c r="G42" s="61">
+      <c r="G42" s="53">
         <v>3</v>
       </c>
-      <c r="H42" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="I42" s="64" t="s">
+      <c r="H42" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="I42" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="59">
-        <v>1</v>
-      </c>
-      <c r="K42" s="59" t="s">
+      <c r="J42" s="51">
+        <v>1</v>
+      </c>
+      <c r="K42" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="L42" s="60" t="s">
+      <c r="L42" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="M42" s="61" t="s">
+      <c r="M42" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="N42" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O42" s="80" t="str">
+      <c r="N42" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O42" s="72" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies. 4 (3): 51-54. </v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61">
+    <row r="43" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A43" s="53">
         <v>42</v>
       </c>
-      <c r="B43" s="59" t="s">
-        <v>484</v>
-      </c>
-      <c r="C43" s="59" t="s">
+      <c r="B43" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="C43" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="51">
         <v>2019</v>
       </c>
-      <c r="E43" s="59" t="s">
+      <c r="E43" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F43" s="61">
-        <v>1</v>
-      </c>
-      <c r="G43" s="61">
+      <c r="F43" s="53">
+        <v>1</v>
+      </c>
+      <c r="G43" s="53">
         <v>2</v>
       </c>
-      <c r="H43" s="61" t="s">
-        <v>394</v>
-      </c>
-      <c r="I43" s="59" t="s">
+      <c r="H43" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="I43" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="59">
-        <v>1</v>
-      </c>
-      <c r="K43" s="59" t="s">
+      <c r="J43" s="51">
+        <v>1</v>
+      </c>
+      <c r="K43" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="60" t="s">
+      <c r="L43" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="M43" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="N43" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O43" s="80" t="str">
+      <c r="M43" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="N43" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O43" s="72" t="str">
         <f t="shared" si="1"/>
         <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations . 6 (2): 87-89. DOI: https://doi.org/10.46505/IJBI.2019.1210</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="61">
+    <row r="44" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A44" s="53">
         <v>43</v>
       </c>
-      <c r="B44" s="59" t="s">
-        <v>486</v>
-      </c>
-      <c r="C44" s="59" t="s">
+      <c r="B44" s="51" t="s">
+        <v>475</v>
+      </c>
+      <c r="C44" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="59">
+      <c r="D44" s="51">
         <v>2021</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="61">
+      <c r="F44" s="53">
         <v>12</v>
       </c>
-      <c r="G44" s="61">
+      <c r="G44" s="53">
         <v>2</v>
       </c>
-      <c r="H44" s="61" t="s">
-        <v>485</v>
-      </c>
-      <c r="I44" s="59" t="s">
+      <c r="H44" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="I44" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="59">
+      <c r="J44" s="51">
         <v>2</v>
       </c>
-      <c r="K44" s="59" t="s">
+      <c r="K44" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="60" t="s">
+      <c r="L44" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="M44" s="61" t="s">
-        <v>398</v>
-      </c>
-      <c r="N44" s="59" t="s">
-        <v>444</v>
-      </c>
-      <c r="O44" s="61" t="str">
-        <f t="shared" ref="O44:O62" si="2">_xlfn.CONCAT(SUBSTITUTE(N44, ";", ",")," (",D44,") ",B44,". ",C44,". ",F44," (",G44,"): ",H44, ". ", IF(LEFT(L44,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L44),""))</f>
+      <c r="M44" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="N44" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="O44" s="53" t="str">
+        <f t="shared" ref="O44:O55" si="2">_xlfn.CONCAT(SUBSTITUTE(N44, ";", ",")," (",D44,") ",B44,". ",C44,". ",F44," (",G44,"): ",H44, ". ", IF(LEFT(L44,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L44),""))</f>
         <v>Rani, D., Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences. 12 (2): 57-60. DOI: https://doi.org/10.53390/ijbs.v12i2.5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="61">
+    <row r="45" spans="1:17" ht="43.2" customHeight="1" thickBot="1">
+      <c r="A45" s="53">
         <v>44</v>
       </c>
-      <c r="B45" s="59" t="s">
-        <v>487</v>
-      </c>
-      <c r="C45" s="59" t="s">
+      <c r="B45" s="51" t="s">
+        <v>476</v>
+      </c>
+      <c r="C45" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="59">
+      <c r="D45" s="51">
         <v>2021</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="61">
+      <c r="F45" s="53">
         <v>5</v>
       </c>
-      <c r="G45" s="61">
+      <c r="G45" s="53">
         <v>2</v>
       </c>
-      <c r="H45" s="61" t="s">
-        <v>488</v>
-      </c>
-      <c r="I45" s="59" t="s">
+      <c r="H45" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="I45" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="59">
+      <c r="J45" s="51">
         <v>3</v>
       </c>
-      <c r="K45" s="59" t="s">
+      <c r="K45" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L45" s="60" t="s">
+      <c r="L45" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="M45" s="61" t="s">
-        <v>397</v>
-      </c>
-      <c r="N45" s="59" t="s">
-        <v>445</v>
-      </c>
-      <c r="O45" s="61" t="str">
+      <c r="M45" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="N45" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="O45" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Chaudhary, V. K., Arya, S., Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences. 5 (2): 95-99. DOI: https://doi.org/10.53390/ijes.v12i2.1</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="61">
+    <row r="46" spans="1:17" ht="43.2" customHeight="1" thickBot="1">
+      <c r="A46" s="53">
         <v>45</v>
       </c>
-      <c r="B46" s="59" t="s">
-        <v>489</v>
-      </c>
-      <c r="C46" s="74" t="s">
+      <c r="B46" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="C46" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="59">
+      <c r="D46" s="51">
         <v>2022</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="61">
+      <c r="F46" s="53">
         <v>4</v>
       </c>
-      <c r="G46" s="61">
-        <v>1</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>490</v>
-      </c>
-      <c r="I46" s="59" t="s">
+      <c r="G46" s="53">
+        <v>1</v>
+      </c>
+      <c r="H46" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="I46" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="59">
+      <c r="J46" s="51">
         <v>2</v>
       </c>
-      <c r="K46" s="59" t="s">
+      <c r="K46" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L46" s="60" t="s">
+      <c r="L46" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="M46" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="N46" s="59" t="s">
-        <v>446</v>
-      </c>
-      <c r="O46" s="61" t="str">
+      <c r="M46" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="N46" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="O46" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Yadav, V., Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation. 4 (1): 221-226. DOI: https://doi.org/10.46505/IJBI.2022.4124</v>
       </c>
-      <c r="Q46" s="77"/>
-    </row>
-    <row r="47" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="61">
+      <c r="Q46" s="69"/>
+    </row>
+    <row r="47" spans="1:17" ht="44.4" customHeight="1">
+      <c r="A47" s="53">
         <v>46</v>
       </c>
-      <c r="B47" s="59" t="s">
-        <v>491</v>
-      </c>
-      <c r="C47" s="59" t="s">
+      <c r="B47" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="C47" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="51">
         <v>2022</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E47" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="61">
+      <c r="F47" s="53">
         <v>13</v>
       </c>
-      <c r="G47" s="61">
-        <v>1</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>492</v>
-      </c>
-      <c r="I47" s="59" t="s">
+      <c r="G47" s="53">
+        <v>1</v>
+      </c>
+      <c r="H47" s="53" t="s">
+        <v>481</v>
+      </c>
+      <c r="I47" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="59">
+      <c r="J47" s="51">
         <v>2</v>
       </c>
-      <c r="K47" s="59" t="s">
+      <c r="K47" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="60" t="s">
+      <c r="L47" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="M47" s="61" t="s">
+      <c r="M47" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="N47" s="59" t="s">
-        <v>446</v>
-      </c>
-      <c r="O47" s="61" t="str">
+      <c r="N47" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="O47" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Yadav, V., Arya, S. (2022) POPULATION DYNAMICS OF MAJOR INSECT PESTS OF PEA (PISUM SATIVUM L.) IN RELATION TO WEATHER PARAMETERS IN KANPUR, UTTAR PRADESH. International Journal on Biological Sciences. 13 (1): 92-96. </v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="61">
+    <row r="48" spans="1:17" ht="43.2" customHeight="1">
+      <c r="A48" s="53">
         <v>47</v>
       </c>
-      <c r="B48" s="59" t="s">
-        <v>493</v>
-      </c>
-      <c r="C48" s="59" t="s">
+      <c r="B48" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="C48" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="59">
+      <c r="D48" s="51">
         <v>2022</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="61">
+      <c r="F48" s="53">
         <v>4</v>
       </c>
-      <c r="G48" s="61">
+      <c r="G48" s="53">
         <v>10</v>
       </c>
-      <c r="H48" s="65" t="s">
-        <v>500</v>
-      </c>
-      <c r="I48" s="59" t="s">
+      <c r="H48" s="57" t="s">
+        <v>489</v>
+      </c>
+      <c r="I48" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="59">
+      <c r="J48" s="51">
         <v>3</v>
       </c>
-      <c r="K48" s="59" t="s">
+      <c r="K48" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L48" s="60" t="s">
+      <c r="L48" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="N48" s="59" t="s">
-        <v>447</v>
-      </c>
-      <c r="O48" s="61" t="str">
+      <c r="N48" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="O48" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Arya, S., Sudhakar, P., Dwivedi, N. (2022) Pesticides and Its Impact on Biodiversity and Environment. ICONIC RESEARCH AND ENGINEERING JOURNALS. 4 (10): 12-15. </v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="61">
+    <row r="49" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A49" s="53">
         <v>48</v>
       </c>
-      <c r="B49" s="59" t="s">
-        <v>496</v>
-      </c>
-      <c r="C49" s="59" t="s">
+      <c r="B49" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="C49" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="59">
+      <c r="D49" s="51">
         <v>2022</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="E49" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="61">
+      <c r="F49" s="53">
         <v>5</v>
       </c>
-      <c r="G49" s="61">
+      <c r="G49" s="53">
         <v>7</v>
       </c>
-      <c r="H49" s="61" t="s">
-        <v>494</v>
-      </c>
-      <c r="I49" s="59" t="s">
+      <c r="H49" s="53" t="s">
+        <v>483</v>
+      </c>
+      <c r="I49" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="59">
+      <c r="J49" s="51">
         <v>2</v>
       </c>
-      <c r="K49" s="59" t="s">
+      <c r="K49" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L49" s="60" t="s">
+      <c r="L49" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="M49" s="60" t="s">
+      <c r="M49" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="N49" s="59" t="s">
-        <v>448</v>
-      </c>
-      <c r="O49" s="61" t="str">
+      <c r="N49" s="51" t="s">
+        <v>437</v>
+      </c>
+      <c r="O49" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Dubey, I., Arya, S. (2022) Fish Diversity and Climate Change: A Review. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 5 (7): 88-91. </v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="61">
+    <row r="50" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A50" s="53">
         <v>49</v>
       </c>
-      <c r="B50" s="59" t="s">
-        <v>497</v>
-      </c>
-      <c r="C50" s="59" t="s">
+      <c r="B50" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C50" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="59">
+      <c r="D50" s="51">
         <v>2022</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="61">
+      <c r="F50" s="53">
         <v>6</v>
       </c>
-      <c r="G50" s="61">
+      <c r="G50" s="53">
         <v>3</v>
       </c>
-      <c r="H50" s="63" t="s">
-        <v>499</v>
-      </c>
-      <c r="I50" s="59" t="s">
+      <c r="H50" s="55" t="s">
+        <v>488</v>
+      </c>
+      <c r="I50" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="59">
+      <c r="J50" s="51">
         <v>2</v>
       </c>
-      <c r="K50" s="59" t="s">
+      <c r="K50" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="60" t="s">
+      <c r="L50" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="M50" s="61" t="s">
+      <c r="M50" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="N50" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="O50" s="61" t="str">
+      <c r="N50" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="O50" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Singh, R., Sunita, A. (2022) Seasonal Variation in Phytoplankton Diversity in River Sai at Unnao District of U.P. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 6 (3): 5-8. </v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="61">
+    <row r="51" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A51" s="53">
         <v>50</v>
       </c>
-      <c r="B51" s="59" t="s">
-        <v>498</v>
-      </c>
-      <c r="C51" s="59" t="s">
+      <c r="B51" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="C51" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="59">
+      <c r="D51" s="51">
         <v>2023</v>
       </c>
-      <c r="E51" s="66" t="s">
+      <c r="E51" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="53">
         <v>9</v>
       </c>
-      <c r="G51" s="61">
-        <v>1</v>
-      </c>
-      <c r="H51" s="61" t="s">
-        <v>495</v>
-      </c>
-      <c r="I51" s="59" t="s">
+      <c r="G51" s="53">
+        <v>1</v>
+      </c>
+      <c r="H51" s="53" t="s">
+        <v>484</v>
+      </c>
+      <c r="I51" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="J51" s="59">
+      <c r="J51" s="51">
         <v>2</v>
       </c>
-      <c r="K51" s="59" t="s">
+      <c r="K51" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L51" s="60" t="s">
-        <v>533</v>
-      </c>
-      <c r="M51" s="62" t="s">
-        <v>536</v>
-      </c>
-      <c r="N51" s="59" t="s">
-        <v>450</v>
-      </c>
-      <c r="O51" s="61" t="str">
+      <c r="L51" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="M51" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="N51" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="O51" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Arya, S., Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations. 9 (1): 392 – 397. DOI: https://doi.org/10.33745/ijzi.2023.v09i01.044</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="61">
+    <row r="52" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A52" s="53">
         <v>51</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="59">
+      <c r="D52" s="51">
         <v>2023</v>
       </c>
-      <c r="E52" s="66" t="s">
+      <c r="E52" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="61">
+      <c r="F52" s="53">
         <v>8</v>
       </c>
-      <c r="G52" s="61">
+      <c r="G52" s="53">
         <v>6</v>
       </c>
-      <c r="H52" s="61" t="s">
-        <v>508</v>
-      </c>
-      <c r="I52" s="59" t="s">
+      <c r="H52" s="53" t="s">
+        <v>497</v>
+      </c>
+      <c r="I52" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="J52" s="59">
+      <c r="J52" s="51">
         <v>2</v>
       </c>
-      <c r="K52" s="59" t="s">
+      <c r="K52" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="M52" s="61" t="s">
-        <v>507</v>
-      </c>
-      <c r="N52" s="59" t="s">
-        <v>450</v>
-      </c>
-      <c r="O52" s="61" t="str">
+      <c r="L52" s="52" t="s">
+        <v>496</v>
+      </c>
+      <c r="M52" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="N52" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="O52" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Arya, S., Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research. 8 (6): 50-52. </v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="61">
+    <row r="53" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A53" s="53">
         <v>52</v>
       </c>
-      <c r="B53" s="59" t="s">
-        <v>506</v>
-      </c>
-      <c r="C53" s="59" t="s">
+      <c r="B53" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="C53" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="59">
+      <c r="D53" s="51">
         <v>2023</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E53" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="F53" s="61">
+      <c r="F53" s="53">
         <v>10</v>
       </c>
-      <c r="G53" s="61">
+      <c r="G53" s="53">
         <v>3</v>
       </c>
-      <c r="H53" s="61" t="s">
-        <v>504</v>
-      </c>
-      <c r="I53" s="59" t="s">
+      <c r="H53" s="53" t="s">
+        <v>493</v>
+      </c>
+      <c r="I53" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="59">
+      <c r="J53" s="51">
         <v>4</v>
       </c>
-      <c r="K53" s="59" t="s">
+      <c r="K53" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L53" s="60" t="s">
+      <c r="L53" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="M53" s="61" t="s">
+      <c r="M53" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="N53" s="59" t="s">
-        <v>451</v>
-      </c>
-      <c r="O53" s="61" t="str">
+      <c r="N53" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="O53" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Goel, R., Arya, S., Rani, D., Shukla, G. (2023) Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.. International Journal of Fauna and Biological Studies. 10 (3): 16-18. </v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="61">
+    <row r="54" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A54" s="53">
         <v>53</v>
       </c>
-      <c r="B54" s="61" t="s">
-        <v>545</v>
-      </c>
-      <c r="C54" s="59" t="s">
+      <c r="B54" s="53" t="s">
+        <v>533</v>
+      </c>
+      <c r="C54" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D54" s="59">
+      <c r="D54" s="51">
         <v>2023</v>
       </c>
-      <c r="E54" s="66" t="s">
+      <c r="E54" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="61">
+      <c r="F54" s="53">
         <v>14</v>
       </c>
-      <c r="G54" s="61">
+      <c r="G54" s="53">
         <v>2</v>
       </c>
-      <c r="H54" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="I54" s="59" t="s">
+      <c r="H54" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="I54" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="59">
+      <c r="J54" s="51">
         <v>2</v>
       </c>
-      <c r="K54" s="59" t="s">
+      <c r="K54" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L54" s="67" t="s">
-        <v>501</v>
-      </c>
-      <c r="M54" s="62" t="s">
-        <v>501</v>
-      </c>
-      <c r="N54" s="59" t="s">
-        <v>502</v>
-      </c>
-      <c r="O54" s="61" t="str">
+      <c r="L54" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="M54" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="N54" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="O54" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Rani, K., Singh, S., Prakash, S., Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences. 14 (2): 74-80. </v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="61">
+    <row r="55" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A55" s="53">
         <v>54</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="59">
+      <c r="D55" s="51">
         <v>2022</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E55" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="61">
+      <c r="F55" s="53">
         <v>13</v>
       </c>
-      <c r="G55" s="61">
+      <c r="G55" s="53">
         <v>2</v>
       </c>
-      <c r="H55" s="61" t="s">
-        <v>509</v>
-      </c>
-      <c r="I55" s="59" t="s">
+      <c r="H55" s="53" t="s">
+        <v>498</v>
+      </c>
+      <c r="I55" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="59">
+      <c r="J55" s="51">
         <v>3</v>
       </c>
-      <c r="K55" s="59" t="s">
+      <c r="K55" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="60" t="s">
-        <v>510</v>
-      </c>
-      <c r="M55" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="N55" s="59" t="s">
-        <v>452</v>
-      </c>
-      <c r="O55" s="61" t="str">
+      <c r="L55" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="M55" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="N55" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="O55" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Goel, R., Arya, S., Singh, R. (2022) IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH). International Journal on Biological Sciences. 13 (2): 109-111. DOI: https://doi.org/10.53390/ijbs.v13i2.2</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="61">
+    <row r="56" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A56" s="53">
         <v>55</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="D56" s="59">
+      <c r="D56" s="51">
         <v>2024</v>
       </c>
-      <c r="E56" s="59" t="s">
+      <c r="E56" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="F56" s="61">
+      <c r="F56" s="53">
         <v>6</v>
       </c>
-      <c r="G56" s="61">
-        <v>1</v>
-      </c>
-      <c r="H56" s="64" t="s">
-        <v>511</v>
-      </c>
-      <c r="I56" s="59" t="s">
+      <c r="G56" s="53">
+        <v>1</v>
+      </c>
+      <c r="H56" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="I56" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="59">
+      <c r="J56" s="51">
         <v>4</v>
       </c>
-      <c r="K56" s="59" t="s">
+      <c r="K56" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L56" s="60" t="s">
-        <v>557</v>
-      </c>
-      <c r="M56" s="62" t="s">
+      <c r="L56" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="M56" s="54" t="s">
+        <v>490</v>
+      </c>
+      <c r="N56" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="O56" s="53" t="str">
+        <f t="shared" ref="O56:O62" si="3">_xlfn.CONCAT(SUBSTITUTE(N56, ";", ",")," (",D56,") ",B56,". ",C56,". ",F56," (",G56,"): ",H56, ". ", IF(LEFT(L56,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L56),""))</f>
+        <v>Rani K., Singh S., Prakash S., Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry. 6 (1): 01-03. DOI: https://doi.org/10.33545/26646536.2024.v6.i1a.47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A57" s="53">
+        <v>56</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="51">
+        <v>2024</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="53">
+        <v>11</v>
+      </c>
+      <c r="G57" s="53">
+        <v>1</v>
+      </c>
+      <c r="H57" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="N56" s="59" t="s">
-        <v>453</v>
-      </c>
-      <c r="O56" s="61" t="str">
-        <f t="shared" si="2"/>
-        <v>Rani K., Singh S., Prakash S., Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry. 6 (1): 01-03. DOI: https://doi.org/10.33545/26646536.2024.v6.i1a.47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="61">
-        <v>56</v>
-      </c>
-      <c r="B57" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="59" t="s">
+      <c r="I57" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="51">
+        <v>3</v>
+      </c>
+      <c r="K57" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="M57" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="N57" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="O57" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v>Arya, S., Rani, D., Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies. 11 (1): 29-31. DOI: https://doi.org/10.22271/23940522.2024.v11.i1a.1005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A58" s="53">
+        <v>57</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="51">
+        <v>2024</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" s="53">
+        <v>27</v>
+      </c>
+      <c r="G58" s="53">
+        <v>2</v>
+      </c>
+      <c r="H58" s="53" t="s">
+        <v>494</v>
+      </c>
+      <c r="I58" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" s="51">
+        <v>2</v>
+      </c>
+      <c r="K58" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="61" t="s">
+        <v>592</v>
+      </c>
+      <c r="M58" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="N58" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="O58" s="53" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N58, ";", ",")," (",D58,") ",B58,". ",C58,". ",F58," (",G58,"): ",H58, ". ", IF(LEFT(L58,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L58),""))</f>
+        <v>Sachan, R., Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA. 27 (2): 1605-1608. DOI: https://doi.org/10.51470/JEZ.2024.27.2.1605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A59" s="53">
+        <v>58</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="51">
+        <v>2024</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="53">
+        <v>6</v>
+      </c>
+      <c r="G59" s="53">
+        <v>1</v>
+      </c>
+      <c r="H59" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="I59" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="51">
+        <v>3</v>
+      </c>
+      <c r="K59" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="M59" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="N59" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="O59" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v>Rani K., Arya S., Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations. 6 (1): 58-64. DOI: https://doi.org/10.46505/IJBI.2024.6108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A60" s="53">
+        <v>59</v>
+      </c>
+      <c r="B60" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="53">
+        <v>2024</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" s="53">
+        <v>8</v>
+      </c>
+      <c r="G60" s="53">
+        <v>3</v>
+      </c>
+      <c r="H60" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="I60" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="53">
+        <v>2</v>
+      </c>
+      <c r="K60" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="52" t="s">
+        <v>542</v>
+      </c>
+      <c r="M60" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="N60" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="O60" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v>Hemprabha, Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 8 (3): 478-485. DOI: https://doi.org/10.5281/zenodo.15785018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A61" s="53">
+        <v>60</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="53">
+        <v>2025</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="F61" s="53">
+        <v>8</v>
+      </c>
+      <c r="G61" s="53">
+        <v>7</v>
+      </c>
+      <c r="H61" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="I61" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="53">
+        <v>2</v>
+      </c>
+      <c r="K61" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="M61" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="N61" s="51" t="s">
+        <v>445</v>
+      </c>
+      <c r="O61" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v>Arya, S., Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals. 8 (7): 243-440. DOI: https://doi.org/10.5281/zenodo.16890701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A62" s="53">
+        <v>61</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="59">
-        <v>2024</v>
-      </c>
-      <c r="E57" s="59" t="s">
+      <c r="D62" s="53">
+        <v>2025</v>
+      </c>
+      <c r="E62" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="61">
+      <c r="F62" s="53">
         <v>11</v>
       </c>
-      <c r="G57" s="61">
-        <v>1</v>
-      </c>
-      <c r="H57" s="61" t="s">
-        <v>512</v>
-      </c>
-      <c r="I57" s="59" t="s">
+      <c r="G62" s="53">
+        <v>6</v>
+      </c>
+      <c r="H62" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="I62" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="59">
-        <v>3</v>
-      </c>
-      <c r="K57" s="59" t="s">
+      <c r="J62" s="53">
+        <v>1</v>
+      </c>
+      <c r="K62" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="L57" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="M57" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="N57" s="59" t="s">
-        <v>454</v>
-      </c>
-      <c r="O57" s="61" t="str">
-        <f t="shared" si="2"/>
-        <v>Arya, S., Rani, D., Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies. 11 (1): 29-31. DOI: https://doi.org/10.22271/23940522.2024.v11.i1a.1005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="61">
-        <v>57</v>
-      </c>
-      <c r="B58" s="59" t="s">
-        <v>572</v>
-      </c>
-      <c r="C58" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="59">
-        <v>2024</v>
-      </c>
-      <c r="E58" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="F58" s="61">
-        <v>27</v>
-      </c>
-      <c r="G58" s="61">
+      <c r="L62" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="M62" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="N62" s="51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O62" s="53" t="str">
+        <f t="shared" si="3"/>
+        <v>Arya, S. (2025) Wetland Ecosystem: A better place for rich biodiversity. International Journal of Fauna and Biological Studies. 11 (6): 106-110. DOI: https://doi.org/10.22271/23940522.2024.v11.i6b.1066</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A63" s="53">
+        <v>62</v>
+      </c>
+      <c r="B63" s="53" t="s">
+        <v>532</v>
+      </c>
+      <c r="C63" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="53">
+        <v>2025</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="53">
+        <v>11</v>
+      </c>
+      <c r="G63" s="53">
+        <v>1</v>
+      </c>
+      <c r="H63" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="I63" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="J63" s="53">
         <v>2</v>
       </c>
-      <c r="H58" s="61" t="s">
-        <v>505</v>
-      </c>
-      <c r="I58" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="J58" s="59">
-        <v>2</v>
-      </c>
-      <c r="K58" s="59" t="s">
+      <c r="K63" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L58" s="69" t="s">
-        <v>556</v>
-      </c>
-      <c r="M58" s="61" t="s">
-        <v>459</v>
-      </c>
-      <c r="N58" s="59" t="s">
-        <v>460</v>
-      </c>
-      <c r="O58" s="61" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Sachan, R., Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA. 27 (2): 1605-1608. </v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="61">
-        <v>58</v>
-      </c>
-      <c r="B59" s="59" t="s">
-        <v>404</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="59">
-        <v>2024</v>
-      </c>
-      <c r="E59" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="F59" s="61">
-        <v>6</v>
-      </c>
-      <c r="G59" s="61">
-        <v>1</v>
-      </c>
-      <c r="H59" s="61" t="s">
-        <v>405</v>
-      </c>
-      <c r="I59" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="J59" s="59">
-        <v>3</v>
-      </c>
-      <c r="K59" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="L59" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="M59" s="61" t="s">
-        <v>406</v>
-      </c>
-      <c r="N59" s="59" t="s">
-        <v>455</v>
-      </c>
-      <c r="O59" s="61" t="str">
-        <f t="shared" si="2"/>
-        <v>Rani K., Arya S., Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations. 6 (1): 58-64. DOI: https://doi.org/10.46505/IJBI.2024.6108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="61">
-        <v>59</v>
-      </c>
-      <c r="B60" s="61" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="61">
-        <v>2024</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="F60" s="61">
-        <v>8</v>
-      </c>
-      <c r="G60" s="61">
-        <v>3</v>
-      </c>
-      <c r="H60" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="I60" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="J60" s="61">
-        <v>2</v>
-      </c>
-      <c r="K60" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="L60" s="60" t="s">
-        <v>554</v>
-      </c>
-      <c r="M60" s="62" t="s">
-        <v>553</v>
-      </c>
-      <c r="N60" s="59" t="s">
-        <v>461</v>
-      </c>
-      <c r="O60" s="61" t="str">
-        <f t="shared" si="2"/>
-        <v>Hemprabha, Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 8 (3): 478-485. DOI: https://doi.org/10.5281/zenodo.15785018</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" s="61">
-        <v>2025</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="F61" s="61">
-        <v>8</v>
-      </c>
-      <c r="G61" s="61">
-        <v>7</v>
-      </c>
-      <c r="H61" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="I61" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" s="61">
-        <v>2</v>
-      </c>
-      <c r="K61" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="L61" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="M61" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="N61" s="59" t="s">
-        <v>456</v>
-      </c>
-      <c r="O61" s="61" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Arya, S., Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals. 8 (7): 243-440. </v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="61">
-        <v>61</v>
-      </c>
-      <c r="B62" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="61">
-        <v>2025</v>
-      </c>
-      <c r="E62" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="F62" s="61">
-        <v>11</v>
-      </c>
-      <c r="G62" s="61">
-        <v>6</v>
-      </c>
-      <c r="H62" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="I62" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="J62" s="61">
-        <v>1</v>
-      </c>
-      <c r="K62" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="L62" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="M62" s="62" t="s">
-        <v>408</v>
-      </c>
-      <c r="N62" s="59" t="s">
-        <v>435</v>
-      </c>
-      <c r="O62" s="61" t="str">
-        <f t="shared" si="2"/>
-        <v>Arya, S. (2025) Wetland Ecosystem: A better place for rich biodiversity. International Journal of Fauna and Biological Studies. 11 (6): 106-110. DOI: https://doi.org/10.22271/23940522.2024.v11.i6b.1066</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="61">
-        <v>62</v>
-      </c>
-      <c r="B63" s="61" t="s">
-        <v>544</v>
-      </c>
-      <c r="C63" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="61">
-        <v>2025</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="61">
-        <v>11</v>
-      </c>
-      <c r="G63" s="61">
-        <v>1</v>
-      </c>
-      <c r="H63" s="61" t="s">
-        <v>543</v>
-      </c>
-      <c r="I63" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="J63" s="61">
-        <v>2</v>
-      </c>
-      <c r="K63" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" s="61" t="s">
-        <v>542</v>
-      </c>
-      <c r="M63" s="62" t="s">
-        <v>546</v>
-      </c>
-      <c r="N63" s="61" t="s">
-        <v>461</v>
-      </c>
-      <c r="O63" s="80" t="str">
+      <c r="L63" s="53" t="s">
+        <v>530</v>
+      </c>
+      <c r="M63" s="54" t="s">
+        <v>534</v>
+      </c>
+      <c r="N63" s="53" t="s">
+        <v>450</v>
+      </c>
+      <c r="O63" s="72" t="str">
         <f>IF(COUNT(A63:N63)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N63, ";", ",")," (",D63,") ",B63,". ",C63,". ",F61," (",G63,"): ",H63, ". ", IF(LEFT(L63,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L63),"")), "")</f>
         <v>Hemprabha, Arya, S. (2025) Impact of Seasonal Variation on Physiochemical Parameters in Ganga River and Bhimsen Pond Water, Kanpur, India. International Journal of Zoological Investigations. 8 (1): 752-759. DOI: https://doi.org/10.33745/ijzi.2025.v11i01.079</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="61">
+    <row r="64" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A64" s="53">
         <v>63</v>
       </c>
-      <c r="B64" s="61" t="s">
-        <v>565</v>
-      </c>
-      <c r="C64" s="61" t="s">
+      <c r="B64" s="53" t="s">
+        <v>552</v>
+      </c>
+      <c r="C64" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="D64" s="61">
+      <c r="D64" s="53">
         <v>2025</v>
       </c>
-      <c r="E64" s="61" t="s">
+      <c r="E64" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="F64" s="61">
+      <c r="F64" s="53">
         <v>16</v>
       </c>
-      <c r="G64" s="61">
-        <v>1</v>
-      </c>
-      <c r="H64" s="61" t="s">
-        <v>559</v>
-      </c>
-      <c r="I64" s="61" t="s">
+      <c r="G64" s="53">
+        <v>1</v>
+      </c>
+      <c r="H64" s="53" t="s">
+        <v>546</v>
+      </c>
+      <c r="I64" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="61">
+      <c r="J64" s="53">
         <v>3</v>
       </c>
-      <c r="K64" s="61" t="s">
+      <c r="K64" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61" t="s">
-        <v>562</v>
-      </c>
-      <c r="O64" s="61" t="str">
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53" t="s">
+        <v>549</v>
+      </c>
+      <c r="O64" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N64, ";", ",")," (",D64,") ",B64,". ",C64,". ",F64," (",G64,"): ",H64, ". ", IF(LEFT(L64,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L64),""))</f>
         <v xml:space="preserve">Sharma, R., Singh, R., Arya, S. (2025) Study of Morphological Characters, Growth and Yield Yield Performance of Eri Silkworm (Samiya ricini Donovan) Ecoraces. International Journal on Biological Sciences. 16 (1): 70-80. </v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="61">
+    <row r="65" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A65" s="53">
         <v>64</v>
       </c>
-      <c r="B65" s="61" t="s">
-        <v>560</v>
-      </c>
-      <c r="C65" s="61" t="s">
+      <c r="B65" s="53" t="s">
+        <v>547</v>
+      </c>
+      <c r="C65" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="61">
+      <c r="D65" s="53">
         <v>2025</v>
       </c>
-      <c r="E65" s="61" t="s">
+      <c r="E65" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F65" s="61">
+      <c r="F65" s="53">
         <v>16</v>
       </c>
-      <c r="G65" s="61">
+      <c r="G65" s="53">
         <v>2</v>
       </c>
-      <c r="H65" s="61" t="s">
-        <v>561</v>
-      </c>
-      <c r="I65" s="61" t="s">
+      <c r="H65" s="53" t="s">
+        <v>548</v>
+      </c>
+      <c r="I65" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J65" s="61">
+      <c r="J65" s="53">
         <v>3</v>
       </c>
-      <c r="K65" s="61" t="s">
+      <c r="K65" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61" t="s">
-        <v>563</v>
-      </c>
-      <c r="O65" s="61" t="str">
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53" t="s">
+        <v>550</v>
+      </c>
+      <c r="O65" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N65, ";", ",")," (",D65,") ",B65,". ",C65,". ",F65," (",G65,"): ",H65, ". ", IF(LEFT(L65,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L65),""))</f>
         <v xml:space="preserve">Sharma, R., Arya, S., Singh, R. (2025) Pesticides, Herbicides and Their Effects on Population. International Journal of Environmental Science. 16 (2): 110-119. </v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="75">
+    <row r="66" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A66" s="67">
         <v>65</v>
       </c>
-      <c r="B66" s="75" t="s">
-        <v>573</v>
-      </c>
-      <c r="C66" s="75" t="s">
-        <v>574</v>
-      </c>
-      <c r="D66" s="75">
+      <c r="B66" s="72" t="s">
+        <v>560</v>
+      </c>
+      <c r="C66" s="67" t="s">
+        <v>561</v>
+      </c>
+      <c r="D66" s="67">
         <v>2025</v>
       </c>
-      <c r="E66" s="75" t="s">
-        <v>577</v>
-      </c>
-      <c r="F66" s="75">
+      <c r="E66" s="67" t="s">
+        <v>564</v>
+      </c>
+      <c r="F66" s="67">
         <v>46</v>
       </c>
-      <c r="G66" s="75">
+      <c r="G66" s="67">
         <v>13</v>
       </c>
-      <c r="H66" s="75" t="s">
-        <v>578</v>
-      </c>
-      <c r="J66" s="75">
+      <c r="H66" s="67" t="s">
+        <v>565</v>
+      </c>
+      <c r="J66" s="67">
         <v>2</v>
       </c>
-      <c r="K66" s="75" t="s">
+      <c r="K66" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="L66" s="76" t="s">
-        <v>576</v>
+      <c r="L66" s="68" t="s">
+        <v>563</v>
       </c>
       <c r="M66" t="s">
-        <v>575</v>
-      </c>
-      <c r="O66" s="80" t="str">
-        <f t="shared" ref="O66:O77" si="3">IF(COUNT(A66:N66)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N66, ";", ",")," (",D66,") ",B66,". ",C66,". ",F64," (",G66,"): ",H66, ". ", IF(LEFT(L66,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L66),"")), "")</f>
-        <v xml:space="preserve"> (2025) Life Table Parameters of the Tobacco Caterpillar [Spodoptera litura (Fab.)] on Ornamental Roses. Uttar Pradesh Journal of Zoology. 16 (13): 267-278. DOI: https://doi.org/10.56557/upjoz/2025/v46i135105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O67" s="80" t="str">
-        <f t="shared" si="3"/>
+        <v>562</v>
+      </c>
+      <c r="N66" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="O66" s="72" t="str">
+        <f t="shared" ref="O66:O77" si="4">IF(COUNT(A66:N66)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N66, ";", ",")," (",D66,") ",B66,". ",C66,". ",F64," (",G66,"): ",H66, ". ", IF(LEFT(L66,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L66),"")), "")</f>
+        <v>Arya, S., Sachan, R. (2025) Life Table Parameters of the Tobacco Caterpillar [Spodoptera litura (Fab.)] on Ornamental Roses. Uttar Pradesh Journal of Zoology. 16 (13): 267-278. DOI: https://doi.org/10.56557/upjoz/2025/v46i135105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="43.2" customHeight="1">
+      <c r="A67" s="67">
+        <v>66</v>
+      </c>
+      <c r="M67" s="34"/>
+      <c r="O67" s="72" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> () . . 16 (): . </v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="43.2" customHeight="1">
+      <c r="O68" s="72" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O68" s="80" t="str">
-        <f t="shared" si="3"/>
+    <row r="69" spans="1:15" ht="43.2" customHeight="1">
+      <c r="O69" s="72" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O69" s="80" t="str">
-        <f t="shared" si="3"/>
+    <row r="70" spans="1:15" ht="43.2" customHeight="1">
+      <c r="O70" s="72" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O70" s="80" t="str">
-        <f t="shared" si="3"/>
+    <row r="71" spans="1:15" ht="43.2" customHeight="1">
+      <c r="O71" s="72" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O71" s="80" t="str">
-        <f t="shared" si="3"/>
+    <row r="72" spans="1:15" ht="43.2" customHeight="1">
+      <c r="O72" s="72" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O72" s="80" t="str">
-        <f t="shared" si="3"/>
+    <row r="73" spans="1:15" ht="43.2" customHeight="1">
+      <c r="O73" s="72" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O73" s="80" t="str">
-        <f t="shared" si="3"/>
+    <row r="74" spans="1:15" ht="43.2" customHeight="1">
+      <c r="O74" s="72" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O74" s="80" t="str">
-        <f t="shared" si="3"/>
+    <row r="75" spans="1:15" ht="43.2" customHeight="1">
+      <c r="O75" s="72" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O75" s="80" t="str">
-        <f t="shared" si="3"/>
+    <row r="76" spans="1:15" ht="43.2" customHeight="1">
+      <c r="O76" s="72" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O76" s="80" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O77" s="80" t="str">
-        <f t="shared" si="3"/>
+    <row r="77" spans="1:15" ht="43.2" customHeight="1">
+      <c r="O77" s="72" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:L62" xr:uid="{B86B0C5F-3C7A-4DFA-8262-18CDDB72D407}"/>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L56" r:id="rId1" display="https://dx.doi.org/10.33545/26646536.2024.v6.i1a.47" xr:uid="{7E19164F-EB49-4909-A787-B1FC69338129}"/>
     <hyperlink ref="L13" r:id="rId2" xr:uid="{E2B88607-DB60-48E0-9F3F-FE825FC5917E}"/>
@@ -7633,33 +7523,33 @@
     <hyperlink ref="L8" r:id="rId32" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
     <hyperlink ref="L45" r:id="rId33" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
     <hyperlink ref="L48" r:id="rId34" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
-    <hyperlink ref="L61" r:id="rId35" xr:uid="{3C37DCCE-06AB-41E6-8338-4F7C502230EF}"/>
-    <hyperlink ref="L3" r:id="rId36" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
-    <hyperlink ref="L10" r:id="rId37" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
-    <hyperlink ref="M49" r:id="rId38" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
-    <hyperlink ref="M48" r:id="rId39" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
-    <hyperlink ref="L62" r:id="rId40" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
-    <hyperlink ref="L14" r:id="rId41" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
-    <hyperlink ref="L58" r:id="rId42" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
-    <hyperlink ref="M54" r:id="rId43" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
-    <hyperlink ref="L4" r:id="rId44" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
-    <hyperlink ref="L2" r:id="rId45" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
-    <hyperlink ref="M12" r:id="rId46" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
-    <hyperlink ref="L28" r:id="rId47" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
-    <hyperlink ref="M28" r:id="rId48" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
-    <hyperlink ref="M33" r:id="rId49" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
-    <hyperlink ref="M62" r:id="rId50" xr:uid="{773D55EA-F5B6-438C-8698-129A28EA2B02}"/>
-    <hyperlink ref="M63" r:id="rId51" xr:uid="{C4D17878-C89B-41A9-A36C-7279D8B56676}"/>
-    <hyperlink ref="L40" r:id="rId52" xr:uid="{36BBD4AF-A2FB-4091-AF15-559CE5130E26}"/>
-    <hyperlink ref="M41" r:id="rId53" xr:uid="{28978EE3-D3BF-4AF1-A31F-CBA76847CC14}"/>
-    <hyperlink ref="L39" r:id="rId54" xr:uid="{0A008BA3-28F5-44CA-9EC0-F7833C018F84}"/>
-    <hyperlink ref="L29" r:id="rId55" xr:uid="{7EB92BDC-A398-4034-9CEF-FF1A15F2326E}"/>
-    <hyperlink ref="M60" r:id="rId56" xr:uid="{ACC30793-B279-41B2-A431-D9E7EE951BF2}"/>
-    <hyperlink ref="L60" r:id="rId57" xr:uid="{B57BD76C-B68E-40C4-A39B-E56B27A51AFB}"/>
-    <hyperlink ref="L12" r:id="rId58" xr:uid="{06247FD8-B6C9-4FB9-A20F-AE4E7D16426F}"/>
-    <hyperlink ref="L51" r:id="rId59" xr:uid="{ABBC67FA-774E-4CDE-A90E-BA506074F782}"/>
-    <hyperlink ref="M29" r:id="rId60" xr:uid="{FB361421-DC68-4294-92CD-DF6CC3E13E50}"/>
-    <hyperlink ref="M32" r:id="rId61" xr:uid="{7CE9A6A3-113B-483C-B671-35292B160411}"/>
+    <hyperlink ref="L3" r:id="rId35" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
+    <hyperlink ref="L10" r:id="rId36" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
+    <hyperlink ref="M49" r:id="rId37" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
+    <hyperlink ref="M48" r:id="rId38" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
+    <hyperlink ref="L62" r:id="rId39" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
+    <hyperlink ref="L14" r:id="rId40" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
+    <hyperlink ref="L58" r:id="rId41" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
+    <hyperlink ref="M54" r:id="rId42" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
+    <hyperlink ref="L4" r:id="rId43" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
+    <hyperlink ref="L2" r:id="rId44" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
+    <hyperlink ref="M12" r:id="rId45" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
+    <hyperlink ref="L28" r:id="rId46" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
+    <hyperlink ref="M28" r:id="rId47" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
+    <hyperlink ref="M33" r:id="rId48" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
+    <hyperlink ref="M62" r:id="rId49" xr:uid="{773D55EA-F5B6-438C-8698-129A28EA2B02}"/>
+    <hyperlink ref="M63" r:id="rId50" xr:uid="{C4D17878-C89B-41A9-A36C-7279D8B56676}"/>
+    <hyperlink ref="L40" r:id="rId51" xr:uid="{36BBD4AF-A2FB-4091-AF15-559CE5130E26}"/>
+    <hyperlink ref="M41" r:id="rId52" xr:uid="{28978EE3-D3BF-4AF1-A31F-CBA76847CC14}"/>
+    <hyperlink ref="L39" r:id="rId53" xr:uid="{0A008BA3-28F5-44CA-9EC0-F7833C018F84}"/>
+    <hyperlink ref="L29" r:id="rId54" xr:uid="{7EB92BDC-A398-4034-9CEF-FF1A15F2326E}"/>
+    <hyperlink ref="M60" r:id="rId55" xr:uid="{ACC30793-B279-41B2-A431-D9E7EE951BF2}"/>
+    <hyperlink ref="L60" r:id="rId56" xr:uid="{B57BD76C-B68E-40C4-A39B-E56B27A51AFB}"/>
+    <hyperlink ref="L12" r:id="rId57" xr:uid="{06247FD8-B6C9-4FB9-A20F-AE4E7D16426F}"/>
+    <hyperlink ref="L51" r:id="rId58" xr:uid="{ABBC67FA-774E-4CDE-A90E-BA506074F782}"/>
+    <hyperlink ref="M29" r:id="rId59" xr:uid="{FB361421-DC68-4294-92CD-DF6CC3E13E50}"/>
+    <hyperlink ref="M32" r:id="rId60" xr:uid="{7CE9A6A3-113B-483C-B671-35292B160411}"/>
+    <hyperlink ref="L61" r:id="rId61" xr:uid="{A9A6C62C-EBEC-4CDD-9869-3059A255B08D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId62"/>
@@ -7671,399 +7561,539 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="84" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" customWidth="1"/>
+    <col min="12" max="12" width="229.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="36" customHeight="1">
+      <c r="A1" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="D1" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="G1" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>573</v>
+      </c>
+      <c r="K1" s="81" t="s">
+        <v>587</v>
+      </c>
+      <c r="L1" s="81" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="37.950000000000003" customHeight="1">
+      <c r="A2" s="82" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="82">
+        <v>2005</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="82">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="H2" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+    </row>
+    <row r="3" spans="1:12" ht="37.950000000000003" customHeight="1">
+      <c r="A3" s="82" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="82">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="82">
+        <v>2</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>575</v>
+      </c>
+      <c r="L3" s="73" t="str">
+        <f t="shared" ref="L3:L13" si="0">_xlfn.CONCAT(SUBSTITUTE(J3,";",",")," (",D3,") ",B3,". ",C3,". ",E3,IF(LEFT(K3,16)="https://doi.org/",_xlfn.CONCAT(". DOI: ",K3),""))</f>
+        <v>Arya, S.,  Yadav, V. (2017) Insect pests of pea and their management. Ecological imbalances: A threat to flora, fauna, economy and human survival. 228 - 234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="37.950000000000003" customHeight="1">
+      <c r="A4" s="82" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="82">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="82">
+        <v>2</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" s="82" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>Madhulekha, Arya, S. (2017) Chromium (Cr+6) toxicity on fish in river ganga water pollution at Kanpur. Ecological imbalances: A threat to flora, fauna, economy and human survival. 235 – 238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27.6">
+      <c r="A5" s="82" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="82">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>576</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="82">
+        <v>1</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>Arya, S. (2017) Organic Farming and Green Growth for Sustainable Environment. Climate and Environmental Changes: Impact, Challenges and Solutions. 227 – 239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="27.6">
+      <c r="A6" s="82" t="s">
+        <v>582</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="16">
-        <v>2005</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="16">
-        <v>3</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="F6" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="82">
+        <v>1</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>Arya, S. (2018 – 19) Rashtra ke pragati ka Adhar Parivar, Shiksha evam Rajneeti me Anushashan. Abhyudaya. 37 – 41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="41.4">
+      <c r="A7" s="82" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="82">
+        <v>2020</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="G7" s="82">
+        <v>2</v>
+      </c>
+      <c r="H7" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="16">
-        <v>2017</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="I7" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="83" t="s">
+        <v>577</v>
+      </c>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>Arya, S., Singh, V. (2020) Environment and Human Behaviour. Environment and Society . 141-144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="55.2">
+      <c r="A8" s="82" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="82">
+        <v>2021</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="82">
+        <v>1</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>Arya, S. (2021) Discovery of Vaccines for covid and it’s exertion in body. COVID-19 Second Wave: Challenges for Sustainable Development (CCSD 2021). 119 – 121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="55.2">
+      <c r="A9" s="82" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="82">
+        <v>2022</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="82">
         <v>2</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2017</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="H9" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="82" t="s">
+        <v>220</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>439</v>
+      </c>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>Arya, S., Sachan, R. (2022) Agricultural Biodiversity is essential for improvement of social sustainability.. ENVIRONMENT AND SOCIETY 2021. 257-266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="69">
+      <c r="A10" s="82" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="82">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="82">
         <v>2</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2017</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" s="16">
-        <v>1</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="16">
-        <v>2020</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="H10" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>449</v>
+      </c>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>Sachan, R., Arya, S. (2023) Biodiversity of Insects on Roses. ENVIRONMENT AND SOCIETY 2022. 157-165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="69">
+      <c r="A11" s="75">
+        <v>10</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="82">
+        <v>2024</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="82">
+        <v>1</v>
+      </c>
+      <c r="H11" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>Arya, S. (2024) Bioremediation: An Eco-friendly Sustainable Technology for Environmental Management. ENVIRONMENT AND SOCIETY 2023. 1-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="27.6">
+      <c r="A12" s="75">
+        <v>11</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="82">
+        <v>2024</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="82">
         <v>2</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2021</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="H12" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="83" t="s">
+        <v>450</v>
+      </c>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>Hemprabha, Arya, S. (2024) Impact of physiochemical parmeters on aquatic life. Climate Change and Water Security: Environment and Health Concerns. 193-197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="111">
+      <c r="A13" s="73">
+        <v>12</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>590</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" s="78">
+        <v>2024</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>504</v>
+      </c>
+      <c r="F13" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="16">
-        <v>2022</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="G13" s="78">
+        <v>1</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>505</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="J13" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="K13" s="85" t="s">
+        <v>589</v>
+      </c>
+      <c r="L13" s="73" t="str">
+        <f t="shared" si="0"/>
+        <v>Arya, S. (2024) Siliken Horizons: Pioneering Advances in Extensive Sericultrue. Emergin Trend in Sciences and Allied Science. 203-210. DOI: https://doi.org/10.5281/zenodo.10813117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="41.4">
+      <c r="A14" s="73">
+        <v>13</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>567</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" s="78">
+        <v>2025</v>
+      </c>
+      <c r="E14" s="78" t="s">
+        <v>569</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>570</v>
+      </c>
+      <c r="G14" s="78">
         <v>2</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="16">
-        <v>2023</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="G10" s="16">
-        <v>2</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2024</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D12" s="16">
-        <v>2024</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="16">
-        <v>2</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>514</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>515</v>
-      </c>
-      <c r="D13" s="55">
-        <v>2024</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>516</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="55">
-        <v>1</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="I13" t="s">
-        <v>518</v>
-      </c>
-      <c r="J13" s="56"/>
+      <c r="H14" s="83" t="s">
+        <v>571</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>572</v>
+      </c>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73" t="s">
+        <v>566</v>
+      </c>
+      <c r="L14" s="73" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(J14,";",",")," (",D14,") ",B14,". ",C14,". ",E14,IF(LEFT(K14,16)="https://doi.org/",_xlfn.CONCAT(". DOI: ",K14),""))</f>
+        <v xml:space="preserve"> (2025) TRADITION TO INNOVATION: SUSTAINABLE DEVELOPEMENT IN SILK CULTURE. Proceedings of National Seminar on Sustainable Development Goals : Strategies and Challenges. 165-174. DOI: https://doi.org/10.5281/zenodo.16732575</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8079,55 +8109,55 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>524</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>243</v>
+        <v>512</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -8144,295 +8174,295 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" style="31" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="255.6640625" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="28" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="28" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="28" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="28" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="28" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="28" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="28" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="28" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="28" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="28" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="28" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="28" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="28" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="29" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="30" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="31" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="30" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+    <row r="35" spans="1:1" ht="31.2">
+      <c r="A35" s="31" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="28" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+    <row r="38" spans="1:1" ht="31.2">
+      <c r="A38" s="32" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="30" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="30" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="30" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="30" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="30" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="30" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="30" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="30" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="31" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="30" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="30" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="30" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" s="29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" s="32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" s="29" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" s="29" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" s="29" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="29" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -8453,95 +8483,95 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:4" ht="19.8" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickBot="1">
+      <c r="A2" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickBot="1">
+      <c r="A3" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" thickBot="1">
+      <c r="A4" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="47" t="s">
+      <c r="C4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" thickBot="1">
+      <c r="A5" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="B5" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+    <row r="6" spans="1:4" ht="30.6" thickBot="1">
+      <c r="A6" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B6" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>310</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -8559,36 +8589,36 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -8607,9 +8637,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B3">
         <v>9.6999999999999993</v>
@@ -8627,7 +8657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="B14" s="5"/>
     </row>
   </sheetData>
@@ -8644,17 +8674,17 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="75.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="75.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="6"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="6"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="31.2">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -8670,14 +8700,14 @@
       <c r="E1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -8700,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.2">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -8723,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.2">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -8746,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -8769,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -8792,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.2">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -8815,9 +8845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.2">
       <c r="A8" s="10" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>30</v>
@@ -8838,9 +8868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="31.2">
       <c r="A9" s="10" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>30</v>
@@ -8861,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="31.2">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -8884,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="31.2">
       <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
@@ -8907,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="31.2">
       <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
@@ -8930,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="31.2">
       <c r="A13" s="10" t="s">
         <v>46</v>
       </c>
@@ -8953,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="31.2">
       <c r="A14" s="10" t="s">
         <v>50</v>
       </c>
@@ -8976,9 +9006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="10" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>53</v>
@@ -8999,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="31.2">
       <c r="A16" s="10" t="s">
         <v>56</v>
       </c>
@@ -9022,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="46.8">
       <c r="A17" s="10" t="s">
         <v>57</v>
       </c>
@@ -9045,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.2">
       <c r="A18" s="10" t="s">
         <v>59</v>
       </c>
@@ -9068,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.2">
       <c r="A19" s="10" t="s">
         <v>61</v>
       </c>
@@ -9091,7 +9121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31.2">
       <c r="A20" s="10" t="s">
         <v>63</v>
       </c>
@@ -9114,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="46.8">
       <c r="A21" s="10" t="s">
         <v>65</v>
       </c>
@@ -9137,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.2">
       <c r="A22" s="10" t="s">
         <v>67</v>
       </c>
@@ -9160,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31.2">
       <c r="A23" s="10" t="s">
         <v>69</v>
       </c>
@@ -9183,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="31.2">
       <c r="A24" s="10" t="s">
         <v>72</v>
       </c>
@@ -9206,7 +9236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="46.8">
       <c r="A25" s="10" t="s">
         <v>74</v>
       </c>
@@ -9229,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="10" t="s">
         <v>76</v>
       </c>
@@ -9252,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="31.2">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
@@ -9275,7 +9305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="10" t="s">
         <v>82</v>
       </c>
@@ -9298,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="10" t="s">
         <v>83</v>
       </c>
@@ -9321,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="31.2">
       <c r="A30" s="10" t="s">
         <v>86</v>
       </c>
@@ -9344,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="31.2">
       <c r="A31" s="10" t="s">
         <v>89</v>
       </c>
@@ -9367,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="31.2">
       <c r="A32" s="10" t="s">
         <v>90</v>
       </c>
@@ -9390,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="31.2">
       <c r="A33" s="10" t="s">
         <v>94</v>
       </c>
@@ -9413,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="31.2">
       <c r="A34" s="10" t="s">
         <v>97</v>
       </c>
@@ -9436,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="10" t="s">
         <v>99</v>
       </c>
@@ -9459,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="31.2">
       <c r="A36" s="10" t="s">
         <v>100</v>
       </c>
@@ -9482,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="31.2">
       <c r="A37" s="10" t="s">
         <v>102</v>
       </c>
@@ -9505,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="31.2">
       <c r="A38" s="10" t="s">
         <v>104</v>
       </c>
@@ -9528,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="31.2">
       <c r="A39" s="10" t="s">
         <v>106</v>
       </c>
@@ -9551,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="31.2">
       <c r="A40" s="10" t="s">
         <v>107</v>
       </c>
@@ -9574,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.6">
       <c r="A41" s="10" t="s">
         <v>108</v>
       </c>
@@ -9597,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="31.2">
       <c r="A42" s="10" t="s">
         <v>109</v>
       </c>
@@ -9620,7 +9650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="31.2">
       <c r="A43" s="10" t="s">
         <v>112</v>
       </c>
@@ -9643,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.6">
       <c r="A44" s="10" t="s">
         <v>115</v>
       </c>
@@ -9666,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="31.2">
       <c r="A45" s="10" t="s">
         <v>120</v>
       </c>
@@ -9689,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.6">
       <c r="A46" s="10" t="s">
         <v>124</v>
       </c>
@@ -9712,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="31.2">
       <c r="A47" s="10" t="s">
         <v>126</v>
       </c>
@@ -9735,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="31.2">
       <c r="A48" s="10" t="s">
         <v>129</v>
       </c>
@@ -9758,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="46.8">
       <c r="A49" s="10" t="s">
         <v>132</v>
       </c>
@@ -9781,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="31.2">
       <c r="A50" s="10" t="s">
         <v>134</v>
       </c>
@@ -9804,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="31.2">
       <c r="A51" s="10" t="s">
         <v>138</v>
       </c>
@@ -9827,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="31.2">
       <c r="A52" s="13" t="s">
         <v>141</v>
       </c>
@@ -9850,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="13" t="s">
         <v>143</v>
       </c>
@@ -9873,7 +9903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="31.2">
       <c r="A54" s="13" t="s">
         <v>147</v>
       </c>
@@ -9896,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="31.8" thickBot="1">
       <c r="A55" s="13" t="s">
         <v>150</v>
       </c>
@@ -9919,20 +9949,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="B56" s="20" t="s">
+    <row r="56" spans="1:8" ht="15" thickBot="1">
+      <c r="A56" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="20">
         <v>2023</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F56">
@@ -9942,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="31.2">
       <c r="A57" s="13" t="s">
         <v>153</v>
       </c>
@@ -9965,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="16.2" thickBot="1">
       <c r="A58" s="13" t="s">
         <v>154</v>
       </c>
@@ -9988,20 +10018,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
+    <row r="59" spans="1:8" ht="15" thickBot="1">
+      <c r="A59" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="20">
         <v>2024</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="17" t="s">
         <v>25</v>
       </c>
       <c r="F59">
@@ -10011,20 +10041,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
+    <row r="60" spans="1:8" ht="29.4" thickBot="1">
+      <c r="A60" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="20">
         <v>2024</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F60">
@@ -10034,8 +10064,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:8" ht="15" thickBot="1">
+      <c r="A61" s="21" t="s">
         <v>163</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -10057,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="6" t="s">
         <v>166</v>
       </c>
@@ -10070,7 +10100,7 @@
       <c r="D62" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="33" t="s">
         <v>17</v>
       </c>
       <c r="F62">
@@ -10079,20 +10109,20 @@
       <c r="G62" s="6">
         <v>0</v>
       </c>
-      <c r="H62" s="36"/>
-    </row>
-    <row r="63" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="16">
+      <c r="H62" s="34"/>
+    </row>
+    <row r="63" spans="1:8" ht="26.4">
+      <c r="A63" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="15">
         <v>2005</v>
       </c>
-      <c r="D63" s="16" t="s">
-        <v>188</v>
+      <c r="D63" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -10101,18 +10131,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C64" s="16">
+    <row r="64" spans="1:8" ht="26.4">
+      <c r="A64" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="15">
         <v>2017</v>
       </c>
-      <c r="D64" s="16" t="s">
-        <v>195</v>
+      <c r="D64" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -10121,18 +10151,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="16">
+    <row r="65" spans="1:7" ht="26.4">
+      <c r="A65" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="15">
         <v>2017</v>
       </c>
-      <c r="D65" s="16" t="s">
-        <v>195</v>
+      <c r="D65" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -10141,18 +10171,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" s="16">
+    <row r="66" spans="1:7" ht="26.4">
+      <c r="A66" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="15">
         <v>2017</v>
       </c>
-      <c r="D66" s="16" t="s">
-        <v>205</v>
+      <c r="D66" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -10161,18 +10191,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>212</v>
+    <row r="67" spans="1:7">
+      <c r="A67" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -10181,18 +10211,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C68" s="16">
+    <row r="68" spans="1:7">
+      <c r="A68" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="15">
         <v>2020</v>
       </c>
-      <c r="D68" s="16" t="s">
-        <v>217</v>
+      <c r="D68" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -10201,18 +10231,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="16">
+    <row r="69" spans="1:7" ht="27.6">
+      <c r="A69" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="15">
         <v>2021</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>223</v>
+      <c r="D69" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -10221,18 +10251,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="C70" s="16">
+    <row r="70" spans="1:7">
+      <c r="A70" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="15">
         <v>2022</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>230</v>
+      <c r="D70" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -10241,18 +10271,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="16">
+    <row r="71" spans="1:7" ht="15" thickBot="1">
+      <c r="A71" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" s="15">
         <v>2023</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>237</v>
+      <c r="D71" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -10261,18 +10291,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C72" s="39">
+    <row r="72" spans="1:7" ht="15" thickBot="1">
+      <c r="A72" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" s="37">
         <v>2024</v>
       </c>
-      <c r="D72" s="20" t="s">
-        <v>243</v>
+      <c r="D72" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="E72"/>
       <c r="F72">
@@ -10282,18 +10312,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="C73" s="42">
+    <row r="73" spans="1:7" ht="15" thickBot="1">
+      <c r="A73" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="C73" s="40">
         <v>2024</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E73"/>
       <c r="F73">
@@ -10317,26 +10347,26 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <f>(20.28/100)*E2</f>
         <v>39.018720000000002</v>
@@ -10371,187 +10401,187 @@
       <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" s="26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27"/>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27"/>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27"/>
+    </row>
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27"/>
+    </row>
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27"/>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27"/>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="26" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="27"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="26" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="27"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="26" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="27"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="26" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="27"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="26" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="27"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="26" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="27"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="26" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="27"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="26" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="27"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="26" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="27"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="26" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="27"/>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="26" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="27"/>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="26" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/public/db/Research Publications.xlsx
+++ b/public/db/Research Publications.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/Biodata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="946" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE9165B-C40A-4B91-A396-F12D6587C242}"/>
+  <xr:revisionPtr revIDLastSave="981" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58A2F566-E6CA-4E6D-B8EB-694B8F4010F6}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="564" windowWidth="22104" windowHeight="11208" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
+    <workbookView xWindow="11544" yWindow="240" windowWidth="11352" windowHeight="11856" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
     <sheet name="Book Chapters" sheetId="4" r:id="rId2"/>
-    <sheet name="Edited" sheetId="11" r:id="rId3"/>
-    <sheet name="References" sheetId="10" r:id="rId4"/>
-    <sheet name="Books" sheetId="6" r:id="rId5"/>
-    <sheet name="Academic Score" sheetId="2" r:id="rId6"/>
-    <sheet name="Total" sheetId="7" r:id="rId7"/>
-    <sheet name="Research Interest Score" sheetId="3" r:id="rId8"/>
-    <sheet name="Citations" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId3"/>
+    <sheet name="Edited" sheetId="11" r:id="rId4"/>
+    <sheet name="References" sheetId="10" r:id="rId5"/>
+    <sheet name="Books" sheetId="6" r:id="rId6"/>
+    <sheet name="Academic Score" sheetId="2" r:id="rId7"/>
+    <sheet name="Total" sheetId="7" r:id="rId8"/>
+    <sheet name="Research Interest Score" sheetId="3" r:id="rId9"/>
+    <sheet name="Citations" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">References!$A$1:$A$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">References!$A$1:$A$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Research!$B$1:$L$62</definedName>
     <definedName name="_Hlk106315945" localSheetId="0">Research!#REF!</definedName>
     <definedName name="_Hlk106315982" localSheetId="0">Research!#REF!</definedName>
@@ -34,6 +35,7 @@
     <definedName name="_Hlk156246823" localSheetId="0">Research!#REF!</definedName>
     <definedName name="_Hlk156246921" localSheetId="0">Research!#REF!</definedName>
     <definedName name="_Hlk156247055" localSheetId="0">Research!#REF!</definedName>
+    <definedName name="_Hlk206366221" localSheetId="2">Sheet1!#REF!</definedName>
     <definedName name="_Hlk53783041" localSheetId="0">Research!#REF!</definedName>
     <definedName name="_Hlk53783127" localSheetId="0">Research!#REF!</definedName>
     <definedName name="_Hlk53783251" localSheetId="0">Research!#REF!</definedName>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="594">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -3285,6 +3287,9 @@
   </si>
   <si>
     <t>https://doi.org/10.51470/JEZ.2024.27.2.1605</t>
+  </si>
+  <si>
+    <t>Arya, S.; Sharma, R.</t>
   </si>
 </sst>
 </file>
@@ -3294,7 +3299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3481,6 +3486,18 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3496,7 +3513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3691,12 +3708,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3941,6 +3973,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3957,10 +4005,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4266,9 +4310,9 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1"/>
@@ -4365,7 +4409,8 @@
       <c r="I2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="51">
+      <c r="J2" s="91">
+        <f>LEN(N2)-LEN(SUBSTITUTE(N2,";",""))+1</f>
         <v>3</v>
       </c>
       <c r="K2" s="51" t="s">
@@ -4411,7 +4456,8 @@
       <c r="I3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="91">
+        <f>LEN(N3)-LEN(SUBSTITUTE(N3,";",""))+1</f>
         <v>1</v>
       </c>
       <c r="K3" s="51" t="s">
@@ -4457,8 +4503,9 @@
       <c r="I4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="51">
-        <v>3</v>
+      <c r="J4" s="91">
+        <f>LEN(N4)-LEN(SUBSTITUTE(N4,";",""))+1</f>
+        <v>4</v>
       </c>
       <c r="K4" s="51" t="s">
         <v>17</v>
@@ -4503,8 +4550,9 @@
       <c r="I5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="51">
-        <v>2</v>
+      <c r="J5" s="91">
+        <f t="shared" ref="J5:J66" si="1">LEN(N5)-LEN(SUBSTITUTE(N5,";",""))+1</f>
+        <v>1</v>
       </c>
       <c r="K5" s="51" t="s">
         <v>25</v>
@@ -4551,7 +4599,8 @@
       <c r="I6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K6" s="51" t="s">
@@ -4599,7 +4648,8 @@
       <c r="I7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K7" s="51" t="s">
@@ -4647,7 +4697,8 @@
       <c r="I8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="91">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K8" s="51" t="s">
@@ -4695,7 +4746,8 @@
       <c r="I9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="91">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K9" s="51" t="s">
@@ -4743,7 +4795,8 @@
       <c r="I10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K10" s="51" t="s">
@@ -4789,7 +4842,8 @@
       <c r="I11" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K11" s="51" t="s">
@@ -4837,7 +4891,8 @@
       <c r="I12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K12" s="51" t="s">
@@ -4885,7 +4940,8 @@
       <c r="I13" s="51">
         <v>47715</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K13" s="51" t="s">
@@ -4931,7 +4987,8 @@
       <c r="I14" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K14" s="51" t="s">
@@ -4977,7 +5034,8 @@
       <c r="I15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K15" s="51" t="s">
@@ -5025,7 +5083,8 @@
       <c r="I16" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K16" s="51" t="s">
@@ -5073,7 +5132,8 @@
       <c r="I17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K17" s="51" t="s">
@@ -5121,7 +5181,8 @@
       <c r="I18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K18" s="51" t="s">
@@ -5167,7 +5228,8 @@
       <c r="I19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K19" s="51" t="s">
@@ -5215,7 +5277,8 @@
       <c r="I20" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K20" s="51" t="s">
@@ -5263,7 +5326,8 @@
       <c r="I21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K21" s="51" t="s">
@@ -5311,7 +5375,8 @@
       <c r="I22" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K22" s="51" t="s">
@@ -5357,7 +5422,8 @@
       <c r="I23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="51">
+      <c r="J23" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K23" s="51" t="s">
@@ -5405,8 +5471,9 @@
       <c r="I24" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="51">
-        <v>2</v>
+      <c r="J24" s="91">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="K24" s="51" t="s">
         <v>25</v>
@@ -5451,7 +5518,8 @@
       <c r="I25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K25" s="51" t="s">
@@ -5497,7 +5565,8 @@
       <c r="I26" s="51">
         <v>47715</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K26" s="51" t="s">
@@ -5545,7 +5614,8 @@
       <c r="I27" s="51">
         <v>62958</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K27" s="51" t="s">
@@ -5591,8 +5661,9 @@
       <c r="I28" s="51">
         <v>7775</v>
       </c>
-      <c r="J28" s="51">
-        <v>1</v>
+      <c r="J28" s="91">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="K28" s="51" t="s">
         <v>25</v>
@@ -5639,7 +5710,8 @@
       <c r="I29" s="51">
         <v>47715</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K29" s="51" t="s">
@@ -5687,7 +5759,8 @@
       <c r="I30" s="51">
         <v>4662</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K30" s="51" t="s">
@@ -5735,7 +5808,8 @@
       <c r="I31" s="51">
         <v>7783</v>
       </c>
-      <c r="J31" s="51">
+      <c r="J31" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K31" s="51" t="s">
@@ -5781,7 +5855,8 @@
       <c r="I32" s="51">
         <v>7775</v>
       </c>
-      <c r="J32" s="51">
+      <c r="J32" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K32" s="51" t="s">
@@ -5829,7 +5904,8 @@
       <c r="I33" s="51">
         <v>4662</v>
       </c>
-      <c r="J33" s="51">
+      <c r="J33" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K33" s="51" t="s">
@@ -5877,7 +5953,8 @@
       <c r="I34" s="51">
         <v>62958</v>
       </c>
-      <c r="J34" s="51">
+      <c r="J34" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K34" s="51" t="s">
@@ -5923,7 +6000,8 @@
       <c r="I35" s="51">
         <v>7783</v>
       </c>
-      <c r="J35" s="51">
+      <c r="J35" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K35" s="51" t="s">
@@ -5969,7 +6047,8 @@
       <c r="I36" s="51">
         <v>62958</v>
       </c>
-      <c r="J36" s="51">
+      <c r="J36" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K36" s="51" t="s">
@@ -6015,7 +6094,8 @@
       <c r="I37" s="51">
         <v>7783</v>
       </c>
-      <c r="J37" s="51">
+      <c r="J37" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K37" s="51" t="s">
@@ -6029,7 +6109,7 @@
         <v>424</v>
       </c>
       <c r="O37" s="72" t="str">
-        <f t="shared" ref="O37:O43" si="1">IF(COUNT(A37:N37)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N37, ";", ",")," (",D37,") ",B37,". ",C37,". ",F35," (",G37,"): ",H37, ". ", IF(LEFT(L37,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L37),"")), "")</f>
+        <f t="shared" ref="O37:O43" si="2">IF(COUNT(A37:N37)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N37, ";", ",")," (",D37,") ",B37,". ",C37,". ",F35," (",G37,"): ",H37, ". ", IF(LEFT(L37,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L37),"")), "")</f>
         <v xml:space="preserve">Arya, S. (2018) Green Technology to combat environmental degradation and sustainable food production: A Review. International Journal of Environmental Science. 9 (2): 118-123. </v>
       </c>
     </row>
@@ -6061,7 +6141,8 @@
       <c r="I38" s="51">
         <v>62958</v>
       </c>
-      <c r="J38" s="51">
+      <c r="J38" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K38" s="51" t="s">
@@ -6077,7 +6158,7 @@
         <v>424</v>
       </c>
       <c r="O38" s="72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences. 9 (2): 110-114. DOI: https://doi.org/10.5281/zenodo.15823316</v>
       </c>
     </row>
@@ -6109,7 +6190,8 @@
       <c r="I39" s="51">
         <v>7775</v>
       </c>
-      <c r="J39" s="51">
+      <c r="J39" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K39" s="51" t="s">
@@ -6125,7 +6207,7 @@
         <v>424</v>
       </c>
       <c r="O39" s="72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences. 9 (1): 162-165. DOI: https://doi.org/10.5281/zenodo.15669147</v>
       </c>
     </row>
@@ -6157,7 +6239,8 @@
       <c r="I40" s="51">
         <v>40827</v>
       </c>
-      <c r="J40" s="51">
+      <c r="J40" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K40" s="51" t="s">
@@ -6173,7 +6256,7 @@
         <v>424</v>
       </c>
       <c r="O40" s="72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation. 9 (2): 111-117. DOI: https://doi.org/10.5281/zenodo.15697804</v>
       </c>
     </row>
@@ -6205,7 +6288,8 @@
       <c r="I41" s="51">
         <v>40880</v>
       </c>
-      <c r="J41" s="51">
+      <c r="J41" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K41" s="51" t="s">
@@ -6221,7 +6305,7 @@
         <v>424</v>
       </c>
       <c r="O41" s="72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika. 9 (8): 1-3. DOI: https://doi.org/10.5281/zenodo.15697875</v>
       </c>
     </row>
@@ -6253,7 +6337,8 @@
       <c r="I42" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K42" s="51" t="s">
@@ -6269,7 +6354,7 @@
         <v>424</v>
       </c>
       <c r="O42" s="72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies. 4 (3): 51-54. </v>
       </c>
     </row>
@@ -6301,7 +6386,8 @@
       <c r="I43" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="51">
+      <c r="J43" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K43" s="51" t="s">
@@ -6317,7 +6403,7 @@
         <v>424</v>
       </c>
       <c r="O43" s="72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations . 6 (2): 87-89. DOI: https://doi.org/10.46505/IJBI.2019.1210</v>
       </c>
     </row>
@@ -6349,7 +6435,8 @@
       <c r="I44" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="51">
+      <c r="J44" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K44" s="51" t="s">
@@ -6365,7 +6452,7 @@
         <v>433</v>
       </c>
       <c r="O44" s="53" t="str">
-        <f t="shared" ref="O44:O55" si="2">_xlfn.CONCAT(SUBSTITUTE(N44, ";", ",")," (",D44,") ",B44,". ",C44,". ",F44," (",G44,"): ",H44, ". ", IF(LEFT(L44,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L44),""))</f>
+        <f t="shared" ref="O44:O55" si="3">_xlfn.CONCAT(SUBSTITUTE(N44, ";", ",")," (",D44,") ",B44,". ",C44,". ",F44," (",G44,"): ",H44, ". ", IF(LEFT(L44,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L44),""))</f>
         <v>Rani, D., Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences. 12 (2): 57-60. DOI: https://doi.org/10.53390/ijbs.v12i2.5</v>
       </c>
     </row>
@@ -6397,7 +6484,8 @@
       <c r="I45" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="51">
+      <c r="J45" s="91">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K45" s="51" t="s">
@@ -6413,7 +6501,7 @@
         <v>434</v>
       </c>
       <c r="O45" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Chaudhary, V. K., Arya, S., Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences. 5 (2): 95-99. DOI: https://doi.org/10.53390/ijes.v12i2.1</v>
       </c>
     </row>
@@ -6445,7 +6533,8 @@
       <c r="I46" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="51">
+      <c r="J46" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K46" s="51" t="s">
@@ -6461,7 +6550,7 @@
         <v>435</v>
       </c>
       <c r="O46" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Yadav, V., Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation. 4 (1): 221-226. DOI: https://doi.org/10.46505/IJBI.2022.4124</v>
       </c>
       <c r="Q46" s="69"/>
@@ -6494,7 +6583,8 @@
       <c r="I47" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="51">
+      <c r="J47" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K47" s="51" t="s">
@@ -6510,7 +6600,7 @@
         <v>435</v>
       </c>
       <c r="O47" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Yadav, V., Arya, S. (2022) POPULATION DYNAMICS OF MAJOR INSECT PESTS OF PEA (PISUM SATIVUM L.) IN RELATION TO WEATHER PARAMETERS IN KANPUR, UTTAR PRADESH. International Journal on Biological Sciences. 13 (1): 92-96. </v>
       </c>
     </row>
@@ -6542,7 +6632,8 @@
       <c r="I48" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="91">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K48" s="51" t="s">
@@ -6558,7 +6649,7 @@
         <v>436</v>
       </c>
       <c r="O48" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Arya, S., Sudhakar, P., Dwivedi, N. (2022) Pesticides and Its Impact on Biodiversity and Environment. ICONIC RESEARCH AND ENGINEERING JOURNALS. 4 (10): 12-15. </v>
       </c>
     </row>
@@ -6590,7 +6681,8 @@
       <c r="I49" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="51">
+      <c r="J49" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K49" s="51" t="s">
@@ -6606,7 +6698,7 @@
         <v>437</v>
       </c>
       <c r="O49" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Dubey, I., Arya, S. (2022) Fish Diversity and Climate Change: A Review. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 5 (7): 88-91. </v>
       </c>
     </row>
@@ -6638,7 +6730,8 @@
       <c r="I50" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="51">
+      <c r="J50" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K50" s="51" t="s">
@@ -6654,7 +6747,7 @@
         <v>438</v>
       </c>
       <c r="O50" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Singh, R., Sunita, A. (2022) Seasonal Variation in Phytoplankton Diversity in River Sai at Unnao District of U.P. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 6 (3): 5-8. </v>
       </c>
     </row>
@@ -6686,7 +6779,8 @@
       <c r="I51" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="J51" s="51">
+      <c r="J51" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K51" s="51" t="s">
@@ -6702,7 +6796,7 @@
         <v>439</v>
       </c>
       <c r="O51" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Arya, S., Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations. 9 (1): 392 – 397. DOI: https://doi.org/10.33745/ijzi.2023.v09i01.044</v>
       </c>
     </row>
@@ -6734,7 +6828,8 @@
       <c r="I52" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="J52" s="51">
+      <c r="J52" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K52" s="51" t="s">
@@ -6750,7 +6845,7 @@
         <v>439</v>
       </c>
       <c r="O52" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Arya, S., Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research. 8 (6): 50-52. </v>
       </c>
     </row>
@@ -6782,7 +6877,8 @@
       <c r="I53" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="51">
+      <c r="J53" s="91">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K53" s="51" t="s">
@@ -6798,7 +6894,7 @@
         <v>440</v>
       </c>
       <c r="O53" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Goel, R., Arya, S., Rani, D., Shukla, G. (2023) Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.. International Journal of Fauna and Biological Studies. 10 (3): 16-18. </v>
       </c>
     </row>
@@ -6830,8 +6926,9 @@
       <c r="I54" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="51">
-        <v>2</v>
+      <c r="J54" s="91">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="K54" s="51" t="s">
         <v>17</v>
@@ -6846,7 +6943,7 @@
         <v>491</v>
       </c>
       <c r="O54" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Rani, K., Singh, S., Prakash, S., Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences. 14 (2): 74-80. </v>
       </c>
     </row>
@@ -6878,7 +6975,8 @@
       <c r="I55" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="51">
+      <c r="J55" s="91">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K55" s="51" t="s">
@@ -6894,7 +6992,7 @@
         <v>441</v>
       </c>
       <c r="O55" s="53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Goel, R., Arya, S., Singh, R. (2022) IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH). International Journal on Biological Sciences. 13 (2): 109-111. DOI: https://doi.org/10.53390/ijbs.v13i2.2</v>
       </c>
     </row>
@@ -6926,7 +7024,8 @@
       <c r="I56" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="51">
+      <c r="J56" s="91">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K56" s="51" t="s">
@@ -6942,7 +7041,7 @@
         <v>442</v>
       </c>
       <c r="O56" s="53" t="str">
-        <f t="shared" ref="O56:O62" si="3">_xlfn.CONCAT(SUBSTITUTE(N56, ";", ",")," (",D56,") ",B56,". ",C56,". ",F56," (",G56,"): ",H56, ". ", IF(LEFT(L56,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L56),""))</f>
+        <f t="shared" ref="O56:O62" si="4">_xlfn.CONCAT(SUBSTITUTE(N56, ";", ",")," (",D56,") ",B56,". ",C56,". ",F56," (",G56,"): ",H56, ". ", IF(LEFT(L56,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L56),""))</f>
         <v>Rani K., Singh S., Prakash S., Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry. 6 (1): 01-03. DOI: https://doi.org/10.33545/26646536.2024.v6.i1a.47</v>
       </c>
     </row>
@@ -6974,7 +7073,8 @@
       <c r="I57" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="51">
+      <c r="J57" s="91">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K57" s="51" t="s">
@@ -6990,7 +7090,7 @@
         <v>443</v>
       </c>
       <c r="O57" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Arya, S., Rani, D., Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies. 11 (1): 29-31. DOI: https://doi.org/10.22271/23940522.2024.v11.i1a.1005</v>
       </c>
     </row>
@@ -7022,7 +7122,8 @@
       <c r="I58" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="J58" s="51">
+      <c r="J58" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K58" s="51" t="s">
@@ -7070,7 +7171,8 @@
       <c r="I59" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J59" s="51">
+      <c r="J59" s="91">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K59" s="51" t="s">
@@ -7086,7 +7188,7 @@
         <v>444</v>
       </c>
       <c r="O59" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Rani K., Arya S., Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations. 6 (1): 58-64. DOI: https://doi.org/10.46505/IJBI.2024.6108</v>
       </c>
     </row>
@@ -7118,7 +7220,8 @@
       <c r="I60" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="53">
+      <c r="J60" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K60" s="53" t="s">
@@ -7134,7 +7237,7 @@
         <v>450</v>
       </c>
       <c r="O60" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Hemprabha, Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 8 (3): 478-485. DOI: https://doi.org/10.5281/zenodo.15785018</v>
       </c>
     </row>
@@ -7166,7 +7269,8 @@
       <c r="I61" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="53">
+      <c r="J61" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K61" s="53" t="s">
@@ -7182,7 +7286,7 @@
         <v>445</v>
       </c>
       <c r="O61" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Arya, S., Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals. 8 (7): 243-440. DOI: https://doi.org/10.5281/zenodo.16890701</v>
       </c>
     </row>
@@ -7214,7 +7318,8 @@
       <c r="I62" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="53">
+      <c r="J62" s="91">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K62" s="53" t="s">
@@ -7230,7 +7335,7 @@
         <v>424</v>
       </c>
       <c r="O62" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>Arya, S. (2025) Wetland Ecosystem: A better place for rich biodiversity. International Journal of Fauna and Biological Studies. 11 (6): 106-110. DOI: https://doi.org/10.22271/23940522.2024.v11.i6b.1066</v>
       </c>
     </row>
@@ -7262,7 +7367,8 @@
       <c r="I63" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="J63" s="53">
+      <c r="J63" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K63" s="53" t="s">
@@ -7310,7 +7416,8 @@
       <c r="I64" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="53">
+      <c r="J64" s="91">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K64" s="53" t="s">
@@ -7354,7 +7461,8 @@
       <c r="I65" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J65" s="53">
+      <c r="J65" s="91">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K65" s="53" t="s">
@@ -7395,7 +7503,8 @@
       <c r="H66" s="67" t="s">
         <v>565</v>
       </c>
-      <c r="J66" s="67">
+      <c r="J66" s="91">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K66" s="67" t="s">
@@ -7411,7 +7520,7 @@
         <v>439</v>
       </c>
       <c r="O66" s="72" t="str">
-        <f t="shared" ref="O66:O77" si="4">IF(COUNT(A66:N66)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N66, ";", ",")," (",D66,") ",B66,". ",C66,". ",F64," (",G66,"): ",H66, ". ", IF(LEFT(L66,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L66),"")), "")</f>
+        <f t="shared" ref="O66:O77" si="5">IF(COUNT(A66:N66)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N66, ";", ",")," (",D66,") ",B66,". ",C66,". ",F64," (",G66,"): ",H66, ". ", IF(LEFT(L66,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L66),"")), "")</f>
         <v>Arya, S., Sachan, R. (2025) Life Table Parameters of the Tobacco Caterpillar [Spodoptera litura (Fab.)] on Ornamental Roses. Uttar Pradesh Journal of Zoology. 16 (13): 267-278. DOI: https://doi.org/10.56557/upjoz/2025/v46i135105</v>
       </c>
     </row>
@@ -7421,67 +7530,67 @@
       </c>
       <c r="M67" s="34"/>
       <c r="O67" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> () . . 16 (): . </v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="43.2" customHeight="1">
       <c r="O68" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:15" ht="43.2" customHeight="1">
       <c r="O69" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:15" ht="43.2" customHeight="1">
       <c r="O70" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:15" ht="43.2" customHeight="1">
       <c r="O71" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:15" ht="43.2" customHeight="1">
       <c r="O72" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:15" ht="43.2" customHeight="1">
       <c r="O73" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:15" ht="43.2" customHeight="1">
       <c r="O74" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:15" ht="43.2" customHeight="1">
       <c r="O75" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:15" ht="43.2" customHeight="1">
       <c r="O76" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:15" ht="43.2" customHeight="1">
       <c r="O77" s="72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -7500,59 +7609,256 @@
     <hyperlink ref="L43" r:id="rId9" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
     <hyperlink ref="L9" r:id="rId10" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
     <hyperlink ref="L49" r:id="rId11" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
-    <hyperlink ref="L57" r:id="rId12" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
-    <hyperlink ref="L53" r:id="rId13" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
-    <hyperlink ref="L59" r:id="rId14" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
-    <hyperlink ref="L19" r:id="rId15" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
-    <hyperlink ref="L5" r:id="rId16" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
-    <hyperlink ref="L6" r:id="rId17" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
-    <hyperlink ref="L7" r:id="rId18" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
-    <hyperlink ref="L11" r:id="rId19" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
-    <hyperlink ref="L15" r:id="rId20" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
-    <hyperlink ref="L16" r:id="rId21" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
-    <hyperlink ref="L17" r:id="rId22" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
-    <hyperlink ref="L20" r:id="rId23" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
-    <hyperlink ref="L21" r:id="rId24" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
-    <hyperlink ref="L23" r:id="rId25" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
-    <hyperlink ref="L24" r:id="rId26" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
-    <hyperlink ref="L25" r:id="rId27" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
-    <hyperlink ref="L44" r:id="rId28" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
-    <hyperlink ref="L46" r:id="rId29" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
-    <hyperlink ref="L47" r:id="rId30" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
-    <hyperlink ref="L50" r:id="rId31" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
-    <hyperlink ref="L8" r:id="rId32" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
-    <hyperlink ref="L45" r:id="rId33" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
-    <hyperlink ref="L48" r:id="rId34" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
-    <hyperlink ref="L3" r:id="rId35" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
-    <hyperlink ref="L10" r:id="rId36" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
-    <hyperlink ref="M49" r:id="rId37" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
-    <hyperlink ref="M48" r:id="rId38" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
-    <hyperlink ref="L62" r:id="rId39" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
-    <hyperlink ref="L14" r:id="rId40" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
-    <hyperlink ref="L58" r:id="rId41" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
-    <hyperlink ref="M54" r:id="rId42" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
-    <hyperlink ref="L4" r:id="rId43" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
-    <hyperlink ref="L2" r:id="rId44" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
-    <hyperlink ref="M12" r:id="rId45" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
-    <hyperlink ref="L28" r:id="rId46" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
-    <hyperlink ref="M28" r:id="rId47" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
-    <hyperlink ref="M33" r:id="rId48" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
-    <hyperlink ref="M62" r:id="rId49" xr:uid="{773D55EA-F5B6-438C-8698-129A28EA2B02}"/>
-    <hyperlink ref="M63" r:id="rId50" xr:uid="{C4D17878-C89B-41A9-A36C-7279D8B56676}"/>
-    <hyperlink ref="L40" r:id="rId51" xr:uid="{36BBD4AF-A2FB-4091-AF15-559CE5130E26}"/>
-    <hyperlink ref="M41" r:id="rId52" xr:uid="{28978EE3-D3BF-4AF1-A31F-CBA76847CC14}"/>
-    <hyperlink ref="L39" r:id="rId53" xr:uid="{0A008BA3-28F5-44CA-9EC0-F7833C018F84}"/>
-    <hyperlink ref="L29" r:id="rId54" xr:uid="{7EB92BDC-A398-4034-9CEF-FF1A15F2326E}"/>
-    <hyperlink ref="M60" r:id="rId55" xr:uid="{ACC30793-B279-41B2-A431-D9E7EE951BF2}"/>
-    <hyperlink ref="L60" r:id="rId56" xr:uid="{B57BD76C-B68E-40C4-A39B-E56B27A51AFB}"/>
-    <hyperlink ref="L12" r:id="rId57" xr:uid="{06247FD8-B6C9-4FB9-A20F-AE4E7D16426F}"/>
-    <hyperlink ref="L51" r:id="rId58" xr:uid="{ABBC67FA-774E-4CDE-A90E-BA506074F782}"/>
-    <hyperlink ref="M29" r:id="rId59" xr:uid="{FB361421-DC68-4294-92CD-DF6CC3E13E50}"/>
-    <hyperlink ref="M32" r:id="rId60" xr:uid="{7CE9A6A3-113B-483C-B671-35292B160411}"/>
-    <hyperlink ref="L61" r:id="rId61" xr:uid="{A9A6C62C-EBEC-4CDD-9869-3059A255B08D}"/>
+    <hyperlink ref="L53" r:id="rId12" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
+    <hyperlink ref="L59" r:id="rId13" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
+    <hyperlink ref="L19" r:id="rId14" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
+    <hyperlink ref="L5" r:id="rId15" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
+    <hyperlink ref="L6" r:id="rId16" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
+    <hyperlink ref="L7" r:id="rId17" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
+    <hyperlink ref="L11" r:id="rId18" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
+    <hyperlink ref="L15" r:id="rId19" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
+    <hyperlink ref="L16" r:id="rId20" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
+    <hyperlink ref="L17" r:id="rId21" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
+    <hyperlink ref="L20" r:id="rId22" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
+    <hyperlink ref="L21" r:id="rId23" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
+    <hyperlink ref="L23" r:id="rId24" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
+    <hyperlink ref="L24" r:id="rId25" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
+    <hyperlink ref="L25" r:id="rId26" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
+    <hyperlink ref="L44" r:id="rId27" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
+    <hyperlink ref="L46" r:id="rId28" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
+    <hyperlink ref="L47" r:id="rId29" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
+    <hyperlink ref="L50" r:id="rId30" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
+    <hyperlink ref="L8" r:id="rId31" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
+    <hyperlink ref="L45" r:id="rId32" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
+    <hyperlink ref="L48" r:id="rId33" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
+    <hyperlink ref="L3" r:id="rId34" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
+    <hyperlink ref="L10" r:id="rId35" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
+    <hyperlink ref="M49" r:id="rId36" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
+    <hyperlink ref="M48" r:id="rId37" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
+    <hyperlink ref="L62" r:id="rId38" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
+    <hyperlink ref="L14" r:id="rId39" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
+    <hyperlink ref="L58" r:id="rId40" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
+    <hyperlink ref="M54" r:id="rId41" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
+    <hyperlink ref="L4" r:id="rId42" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
+    <hyperlink ref="L2" r:id="rId43" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
+    <hyperlink ref="M12" r:id="rId44" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
+    <hyperlink ref="L28" r:id="rId45" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
+    <hyperlink ref="M28" r:id="rId46" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
+    <hyperlink ref="M33" r:id="rId47" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
+    <hyperlink ref="M62" r:id="rId48" xr:uid="{773D55EA-F5B6-438C-8698-129A28EA2B02}"/>
+    <hyperlink ref="M63" r:id="rId49" xr:uid="{C4D17878-C89B-41A9-A36C-7279D8B56676}"/>
+    <hyperlink ref="L40" r:id="rId50" xr:uid="{36BBD4AF-A2FB-4091-AF15-559CE5130E26}"/>
+    <hyperlink ref="M41" r:id="rId51" xr:uid="{28978EE3-D3BF-4AF1-A31F-CBA76847CC14}"/>
+    <hyperlink ref="L39" r:id="rId52" xr:uid="{0A008BA3-28F5-44CA-9EC0-F7833C018F84}"/>
+    <hyperlink ref="L29" r:id="rId53" xr:uid="{7EB92BDC-A398-4034-9CEF-FF1A15F2326E}"/>
+    <hyperlink ref="M60" r:id="rId54" xr:uid="{ACC30793-B279-41B2-A431-D9E7EE951BF2}"/>
+    <hyperlink ref="L60" r:id="rId55" xr:uid="{B57BD76C-B68E-40C4-A39B-E56B27A51AFB}"/>
+    <hyperlink ref="L12" r:id="rId56" xr:uid="{06247FD8-B6C9-4FB9-A20F-AE4E7D16426F}"/>
+    <hyperlink ref="L51" r:id="rId57" xr:uid="{ABBC67FA-774E-4CDE-A90E-BA506074F782}"/>
+    <hyperlink ref="M29" r:id="rId58" xr:uid="{FB361421-DC68-4294-92CD-DF6CC3E13E50}"/>
+    <hyperlink ref="M32" r:id="rId59" xr:uid="{7CE9A6A3-113B-483C-B671-35292B160411}"/>
+    <hyperlink ref="L61" r:id="rId60" xr:uid="{A9A6C62C-EBEC-4CDD-9869-3059A255B08D}"/>
+    <hyperlink ref="L57" r:id="rId61" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId62"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70A7285-F465-4FE9-812A-C274411590FB}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A2:A46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="15">
+      <c r="A2" s="26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="27"/>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="27"/>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" s="26" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="27"/>
+    </row>
+    <row r="10" spans="1:1" ht="15">
+      <c r="A10" s="26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="27"/>
+    </row>
+    <row r="12" spans="1:1" ht="15">
+      <c r="A12" s="26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="27"/>
+    </row>
+    <row r="14" spans="1:1" ht="15">
+      <c r="A14" s="26" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="27"/>
+    </row>
+    <row r="16" spans="1:1" ht="15">
+      <c r="A16" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="27"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="27"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="27"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="26" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="26" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="27"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="26" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="27"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="27"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="26" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="27"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="27"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="27"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="26" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="27"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="26" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="27"/>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="27"/>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="26" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7564,8 +7870,8 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4"/>
@@ -7578,7 +7884,7 @@
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="229.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="229.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1">
@@ -7669,7 +7975,8 @@
       <c r="F3" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="82">
+      <c r="G3" s="78">
+        <f>LEN(J3)-LEN(SUBSTITUTE(J3,";",""))+1</f>
         <v>2</v>
       </c>
       <c r="H3" s="82" t="s">
@@ -7705,7 +8012,8 @@
       <c r="F4" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="78">
+        <f t="shared" ref="G4:G13" si="1">LEN(J4)-LEN(SUBSTITUTE(J4,";",""))+1</f>
         <v>2</v>
       </c>
       <c r="H4" s="82" t="s">
@@ -7742,7 +8050,8 @@
       <c r="F5" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="78">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="82" t="s">
@@ -7779,7 +8088,8 @@
       <c r="F6" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="82">
+      <c r="G6" s="78">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="82" t="s">
@@ -7816,7 +8126,8 @@
       <c r="F7" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="78">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H7" s="82" t="s">
@@ -7853,7 +8164,8 @@
       <c r="F8" s="82" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="78">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H8" s="82" t="s">
@@ -7890,7 +8202,8 @@
       <c r="F9" s="82" t="s">
         <v>218</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="78">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H9" s="82" t="s">
@@ -7927,7 +8240,8 @@
       <c r="F10" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="G10" s="82">
+      <c r="G10" s="78">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H10" s="82" t="s">
@@ -7964,7 +8278,8 @@
       <c r="F11" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="78">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" s="82" t="s">
@@ -8001,7 +8316,8 @@
       <c r="F12" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="78">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H12" s="82" t="s">
@@ -8039,6 +8355,7 @@
         <v>224</v>
       </c>
       <c r="G13" s="78">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13" s="77" t="s">
@@ -8078,6 +8395,7 @@
         <v>570</v>
       </c>
       <c r="G14" s="78">
+        <f>LEN(J14)-LEN(SUBSTITUTE(J14,";",""))+1</f>
         <v>2</v>
       </c>
       <c r="H14" s="83" t="s">
@@ -8086,22 +8404,269 @@
       <c r="I14" s="73" t="s">
         <v>572</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73" t="s">
+      <c r="J14" s="73" t="s">
+        <v>593</v>
+      </c>
+      <c r="K14" s="86" t="s">
         <v>566</v>
       </c>
       <c r="L14" s="73" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(J14,";",",")," (",D14,") ",B14,". ",C14,". ",E14,IF(LEFT(K14,16)="https://doi.org/",_xlfn.CONCAT(". DOI: ",K14),""))</f>
-        <v xml:space="preserve"> (2025) TRADITION TO INNOVATION: SUSTAINABLE DEVELOPEMENT IN SILK CULTURE. Proceedings of National Seminar on Sustainable Development Goals : Strategies and Challenges. 165-174. DOI: https://doi.org/10.5281/zenodo.16732575</v>
+        <v>Arya, S., Sharma, R. (2025) TRADITION TO INNOVATION: SUSTAINABLE DEVELOPEMENT IN SILK CULTURE. Proceedings of National Seminar on Sustainable Development Goals : Strategies and Challenges. 165-174. DOI: https://doi.org/10.5281/zenodo.16732575</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K14" r:id="rId1" xr:uid="{4509CC0D-FF62-45AF-8F68-5BFB38A3FEF5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AE34A7-14FF-4C2E-B90E-65B2371309B1}">
+  <dimension ref="A1:A45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A1" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A2" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A3" s="87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A4" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A5" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A6" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A7" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A8" s="87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A9" s="87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A10" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A11" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.6" thickBot="1">
+      <c r="A12" s="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A13" s="88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A14" s="88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A15" s="88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A16" s="88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A17" s="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A18" s="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A19" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A20" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A21" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A22" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A23" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A24" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A25" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A26" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A27" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A28" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A29" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A30" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A31" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A32" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A33" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A34" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A35" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A36" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A37" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A38" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A39" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A40" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A41" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A42" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A43" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16.2" thickBot="1">
+      <c r="A44" s="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <f>SUM(A1:A44)</f>
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2AA03A-5971-4793-B637-FA18797D9660}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -8165,7 +8730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9167AE5-E109-4384-8BD7-58711856413C}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:A57"/>
@@ -8472,7 +9037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5DCC29-D0ED-4346-8982-07AC721D94C7}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
@@ -8580,7 +9145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB2F668-E436-4D46-B61A-CB76A3868A56}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F14"/>
@@ -8665,7 +9230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBB95AA-983A-45C9-BB03-67E0BF0197F3}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:H73"/>
@@ -10338,7 +10903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5A2A6B-24EA-415F-9C10-AE241850016B}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E2"/>
@@ -10390,201 +10955,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70A7285-F465-4FE9-812A-C274411590FB}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:A46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="2" spans="1:1" ht="15">
-      <c r="A2" s="26" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="27"/>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="26" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="27"/>
-    </row>
-    <row r="6" spans="1:1" ht="15">
-      <c r="A6" s="26" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="27"/>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="26" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="27"/>
-    </row>
-    <row r="10" spans="1:1" ht="15">
-      <c r="A10" s="26" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="27"/>
-    </row>
-    <row r="12" spans="1:1" ht="15">
-      <c r="A12" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="27"/>
-    </row>
-    <row r="14" spans="1:1" ht="15">
-      <c r="A14" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="27"/>
-    </row>
-    <row r="16" spans="1:1" ht="15">
-      <c r="A16" s="26" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="27"/>
-    </row>
-    <row r="18" spans="1:1" ht="15">
-      <c r="A18" s="26" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="27"/>
-    </row>
-    <row r="20" spans="1:1" ht="15">
-      <c r="A20" s="26" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="27"/>
-    </row>
-    <row r="22" spans="1:1" ht="15">
-      <c r="A22" s="26" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="27"/>
-    </row>
-    <row r="24" spans="1:1" ht="15">
-      <c r="A24" s="26" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="27"/>
-    </row>
-    <row r="26" spans="1:1" ht="15">
-      <c r="A26" s="26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="27"/>
-    </row>
-    <row r="28" spans="1:1" ht="15">
-      <c r="A28" s="26" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="27"/>
-    </row>
-    <row r="30" spans="1:1" ht="15">
-      <c r="A30" s="26" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="27"/>
-    </row>
-    <row r="32" spans="1:1" ht="15">
-      <c r="A32" s="26" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="27"/>
-    </row>
-    <row r="34" spans="1:1" ht="15">
-      <c r="A34" s="26" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="27"/>
-    </row>
-    <row r="36" spans="1:1" ht="15">
-      <c r="A36" s="26" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="27"/>
-    </row>
-    <row r="38" spans="1:1" ht="15">
-      <c r="A38" s="26" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="27"/>
-    </row>
-    <row r="40" spans="1:1" ht="15">
-      <c r="A40" s="26" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="27"/>
-    </row>
-    <row r="42" spans="1:1" ht="15">
-      <c r="A42" s="26" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="27"/>
-    </row>
-    <row r="44" spans="1:1" ht="15">
-      <c r="A44" s="26" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="27"/>
-    </row>
-    <row r="46" spans="1:1" ht="15">
-      <c r="A46" s="26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/db/Research Publications.xlsx
+++ b/public/db/Research Publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/Biodata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/SunitaArya/public/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="981" documentId="8_{EB781921-888A-4BEC-A54E-4B6AFBF17015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58A2F566-E6CA-4E6D-B8EB-694B8F4010F6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB63012-F00A-4AD0-9659-75C34020B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11544" yWindow="240" windowWidth="11352" windowHeight="11856" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="599">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -3290,6 +3290,21 @@
   </si>
   <si>
     <t>Arya, S.; Sharma, R.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.17055708</t>
+  </si>
+  <si>
+    <t>HERITABILITY, GENETIC ADVANCE AND COVARIANCE STUDIES IN HYBRID TEA ROSES</t>
+  </si>
+  <si>
+    <t>221-229</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/17137149/files/HERITABILITY,%20GENETIC%20ADVANCE%20AND%20COVARIANCE%20STUDIES%20IN%20HYBRID%20TEA%20ROSES.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.17137149</t>
   </si>
 </sst>
 </file>
@@ -3485,6 +3500,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4007,6 +4023,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4310,9 +4330,9 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1"/>
@@ -6835,8 +6855,8 @@
       <c r="K52" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="52" t="s">
-        <v>496</v>
+      <c r="L52" s="61" t="s">
+        <v>594</v>
       </c>
       <c r="M52" s="53" t="s">
         <v>496</v>
@@ -6846,7 +6866,7 @@
       </c>
       <c r="O52" s="53" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">Arya, S., Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research. 8 (6): 50-52. </v>
+        <v>Arya, S., Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research. 8 (6): 50-52. DOI: https://doi.org/10.5281/zenodo.17055708</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="43.2" customHeight="1">
@@ -7528,10 +7548,46 @@
       <c r="A67" s="67">
         <v>66</v>
       </c>
-      <c r="M67" s="34"/>
+      <c r="B67" t="s">
+        <v>595</v>
+      </c>
+      <c r="C67" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="67">
+        <v>2025</v>
+      </c>
+      <c r="E67" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="67">
+        <v>7</v>
+      </c>
+      <c r="G67" s="67">
+        <v>2</v>
+      </c>
+      <c r="H67" s="67" t="s">
+        <v>596</v>
+      </c>
+      <c r="J67" s="91">
+        <f>LEN(N67)-LEN(SUBSTITUTE(N67,";",""))+1</f>
+        <v>2</v>
+      </c>
+      <c r="K67" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="68" t="s">
+        <v>598</v>
+      </c>
+      <c r="M67" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="N67" s="67" t="s">
+        <v>438</v>
+      </c>
       <c r="O67" s="72" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> () . . 16 (): . </v>
+        <v>Singh, R., Sunita, A. (2025) HERITABILITY, GENETIC ADVANCE AND COVARIANCE STUDIES IN HYBRID TEA ROSES. International Journal of Zoological Investigations. 16 (2): 221-229. DOI: https://doi.org/10.5281/zenodo.17137149</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="43.2" customHeight="1">
@@ -7659,9 +7715,10 @@
     <hyperlink ref="M32" r:id="rId59" xr:uid="{7CE9A6A3-113B-483C-B671-35292B160411}"/>
     <hyperlink ref="L61" r:id="rId60" xr:uid="{A9A6C62C-EBEC-4CDD-9869-3059A255B08D}"/>
     <hyperlink ref="L57" r:id="rId61" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
+    <hyperlink ref="M67" r:id="rId62" xr:uid="{7149B27D-6791-450F-9AEB-5AC904309389}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId62"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId63"/>
 </worksheet>
 </file>
 

--- a/public/db/Research Publications.xlsx
+++ b/public/db/Research Publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/SunitaArya/public/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB63012-F00A-4AD0-9659-75C34020B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4C2D581-2D5C-4475-A1F6-ACE5D6A40C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">References!$A$1:$A$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Research!$B$1:$L$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Research!$A$1:$P$77</definedName>
     <definedName name="_Hlk106315945" localSheetId="0">Research!#REF!</definedName>
     <definedName name="_Hlk106315982" localSheetId="0">Research!#REF!</definedName>
     <definedName name="_Hlk106316155" localSheetId="0">Research!#REF!</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="609">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India., 6(8): 7164-7170</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/publication/324475070_Study_of_Correlation_Coefficient_for_Physico-chemical_parameter_to_assess_the_water_quality_of_river_Ganga_at_Kanpur_India</t>
-  </si>
-  <si>
     <t>Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.), 3(1): 21-25</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
   </si>
   <si>
     <t>2455-3611</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/publication/324454448_CADMIUM_TOXICITY_INDUCED_MORPHOLOGICAL_ALTERATION_IN_INDIGENOUS_FISH_Heteropneustes_fossilis_Bloch</t>
   </si>
   <si>
     <t>Vermicomposting: Profitable Organic Fertilizer, 4(1): 7-10</t>
@@ -3305,6 +3299,42 @@
   </si>
   <si>
     <t>https://doi.org/10.5281/zenodo.17137149</t>
+  </si>
+  <si>
+    <t>Seasonal Variations in Hematological and Biochemical Parameters of Labeo rohita from River and Pond Habitats</t>
+  </si>
+  <si>
+    <t>157-971</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.56557/upjoz/2025/v46i185248</t>
+  </si>
+  <si>
+    <t>https://mbimph.com/index.php/UPJOZ/article/download/5248/7183/8181</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.53390/IJES.2025.16204</t>
+  </si>
+  <si>
+    <t>http://journal.nesa-india.org/archieve-files/IJES/2025/2nd-issue/Paper4_IJES_Vol16_2nd_Issue_2025.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.17178134</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.17178442</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/17178442/files/Study%20of%20Correlation%20Coefficient%20for%20Physico-Chemical%20Parameter%20to%20Assess%20the%20Water%20Quality%20of%20River%20Ganga%20at%20Kanpur,%20India.pdf</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.18510/gctl.2017.315</t>
+  </si>
+  <si>
+    <t>https://mgesjournals.com/gctl/article/download/gctl.2017.315/479/1043</t>
   </si>
 </sst>
 </file>
@@ -4023,10 +4053,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4329,28 +4355,28 @@
   </sheetPr>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.5546875" style="67" customWidth="1"/>
     <col min="2" max="2" width="75.33203125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="49.21875" style="67" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="67" customWidth="1"/>
     <col min="5" max="5" width="18" style="67" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="67" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="67" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="67" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" style="67" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="67" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" style="67" customWidth="1"/>
-    <col min="12" max="12" width="51.88671875" style="68" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="67" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="67" customWidth="1"/>
+    <col min="12" max="12" width="51.77734375" style="68" customWidth="1"/>
     <col min="13" max="14" width="30.109375" style="67"/>
-    <col min="15" max="15" width="255.6640625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="255.77734375" style="67" customWidth="1"/>
     <col min="16" max="16384" width="30.109375" style="67"/>
   </cols>
   <sheetData>
@@ -4359,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C1" s="50" t="s">
         <v>2</v>
@@ -4392,13 +4418,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N1" s="50" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="O1" s="50" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="43.2" customHeight="1">
@@ -4406,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>13</v>
@@ -4424,7 +4450,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I2" s="51" t="s">
         <v>16</v>
@@ -4437,14 +4463,14 @@
         <v>17</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M2" s="52"/>
       <c r="N2" s="51" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O2" s="53" t="str">
-        <f t="shared" ref="O2:O36" si="0">_xlfn.CONCAT(SUBSTITUTE(N2, ";", ",")," (",D2,") ",B2,". ",C2,". ",F2," (",G2,"): ",H2, ". ", IF(LEFT(L2,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L2),""))</f>
+        <f t="shared" ref="O2:O36" si="0">_xlfn.CONCAT(SUBSTITUTE(N2,";",",")," (",D2,") ",B2,". ",C2,". ",F2," (",G2,"): ",H2,". ",IF(LEFT(L2,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L2,(LEN(L2)-16))), ""))</f>
         <v xml:space="preserve">Tewari, U.C., Kumar, R., Arya, S. (1994) Association Studies in Roses. Farm Science Journal. 6 (9): 189-191. </v>
       </c>
     </row>
@@ -4453,7 +4479,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>24</v>
@@ -4468,10 +4494,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I3" s="51" t="s">
         <v>16</v>
@@ -4484,11 +4510,11 @@
         <v>25</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M3" s="52"/>
       <c r="N3" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O3" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4500,7 +4526,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>27</v>
@@ -4515,10 +4541,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I4" s="51" t="s">
         <v>16</v>
@@ -4531,11 +4557,11 @@
         <v>17</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M4" s="52"/>
       <c r="N4" s="51" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="O4" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4547,7 +4573,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>30</v>
@@ -4565,7 +4591,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I5" s="51" t="s">
         <v>16</v>
@@ -4584,7 +4610,7 @@
         <v>32</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O5" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4633,7 +4659,7 @@
         <v>35</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O6" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4682,7 +4708,7 @@
         <v>38</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O7" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4694,7 +4720,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>30</v>
@@ -4712,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I8" s="51" t="s">
         <v>16</v>
@@ -4731,7 +4757,7 @@
         <v>40</v>
       </c>
       <c r="N8" s="51" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O8" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4761,7 +4787,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I9" s="51" t="s">
         <v>16</v>
@@ -4780,7 +4806,7 @@
         <v>42</v>
       </c>
       <c r="N9" s="51" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="O9" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4792,10 +4818,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D10" s="51">
         <v>2016</v>
@@ -4807,10 +4833,10 @@
         <v>5</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I10" s="51" t="s">
         <v>16</v>
@@ -4823,11 +4849,11 @@
         <v>25</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M10" s="54"/>
       <c r="N10" s="51" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O10" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4857,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I11" s="51" t="s">
         <v>16</v>
@@ -4876,7 +4902,7 @@
         <v>49</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O11" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4888,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>51</v>
@@ -4906,7 +4932,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I12" s="51" t="s">
         <v>16</v>
@@ -4919,17 +4945,17 @@
         <v>25</v>
       </c>
       <c r="L12" s="62" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M12" s="54" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O12" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>Madhulekha, Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India). International Journal of Innovative Trends in Engineering. 20 (2): 97-100. DOI: https://doi.org/10.5281/zenodo.15669228</v>
+        <v>Madhulekha, Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India). International Journal of Innovative Trends in Engineering. 20 (2): 97-100. DOI: 10.5281/zenodo.15669228</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="43.2" customHeight="1">
@@ -4937,7 +4963,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C13" s="51" t="s">
         <v>53</v>
@@ -4955,7 +4981,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I13" s="51">
         <v>47715</v>
@@ -4972,7 +4998,7 @@
       </c>
       <c r="M13" s="53"/>
       <c r="N13" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O13" s="53" t="str">
         <f t="shared" si="0"/>
@@ -4984,7 +5010,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>53</v>
@@ -5002,7 +5028,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I14" s="51" t="s">
         <v>16</v>
@@ -5015,11 +5041,11 @@
         <v>25</v>
       </c>
       <c r="L14" s="52" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M14" s="53"/>
       <c r="N14" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O14" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5031,7 +5057,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>30</v>
@@ -5049,7 +5075,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I15" s="51" t="s">
         <v>16</v>
@@ -5068,7 +5094,7 @@
         <v>58</v>
       </c>
       <c r="N15" s="51" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O15" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5080,7 +5106,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>30</v>
@@ -5098,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I16" s="51" t="s">
         <v>16</v>
@@ -5117,19 +5143,19 @@
         <v>60</v>
       </c>
       <c r="N16" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O16" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Microbiological Research Studies on Anar Butterfly (Virachola Isocrates F.) Population with Different Factors in Guava Fruit. International Journal of Innovative Research in Science, Engineering and Technology. 6 (3): 5089-5093. </v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="43.2" customHeight="1">
+    <row r="17" spans="1:16" ht="43.2" customHeight="1">
       <c r="A17" s="53">
         <v>16</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>30</v>
@@ -5147,7 +5173,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I17" s="51" t="s">
         <v>16</v>
@@ -5166,19 +5192,19 @@
         <v>62</v>
       </c>
       <c r="N17" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O17" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Studies on Application, Importance and Effect of Neem Tree (AzadiachtaIndica) Oil on Effect and Intensity of Guava Insect.. International Journal of Innovative Research in Science, Engineering and Technology. 6 (4): 6280-6283. </v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="43.2" customHeight="1">
+    <row r="18" spans="1:16" ht="43.2" customHeight="1">
       <c r="A18" s="53">
         <v>17</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>64</v>
@@ -5196,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="53" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I18" s="51" t="s">
         <v>16</v>
@@ -5209,18 +5235,18 @@
         <v>25</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M18" s="53"/>
       <c r="N18" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O18" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2017) Economics and Bioefficacy of Parapheromones On Fruit Fly, Their Traps and Dispenser. Acadmic Science Research. 3 (1): 134-136. </v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="43.2" customHeight="1">
+    <row r="19" spans="1:16" ht="43.2" customHeight="1">
       <c r="A19" s="53">
         <v>18</v>
       </c>
@@ -5243,7 +5269,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I19" s="51" t="s">
         <v>16</v>
@@ -5262,19 +5288,19 @@
         <v>66</v>
       </c>
       <c r="N19" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O19" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Scientific Studies on Effective Applications of Some Important Essential Elements Nitrogens(N), Phosphorus (P), Zinc (Zn) Nutrional Values on Spike and Floret Development in Gladiolus Crop.,. International Journal of Innovative Research in Science, Engineering and Technology. 6 (4): 6275-6279. </v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="43.2" customHeight="1">
+    <row r="20" spans="1:16" ht="43.2" customHeight="1">
       <c r="A20" s="53">
         <v>19</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>30</v>
@@ -5292,7 +5318,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I20" s="51" t="s">
         <v>16</v>
@@ -5311,19 +5337,19 @@
         <v>68</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O20" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) A Scientific Study and Analysis of Incidence and Intensity of Bark Eating Catapillar (Inderbela Spp.) In Guava (P. Guajava) Tree. International Journal of Innovative Research in Science, Engineering and Technology. 6 (5): 10032-10034. </v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="43.2" customHeight="1">
+    <row r="21" spans="1:16" ht="43.2" customHeight="1">
       <c r="A21" s="53">
         <v>20</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>70</v>
@@ -5341,7 +5367,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="53" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I21" s="51" t="s">
         <v>16</v>
@@ -5360,19 +5386,19 @@
         <v>71</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O21" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Scientific and Academic Studies on Changing Pattern and Factors on Environment Conditions and Socio-Economic Etics. International Journal of Innovative Research in Science, Engineering and Technology.. 6 (5): 10040-10043. </v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="43.2" customHeight="1">
+    <row r="22" spans="1:16" ht="43.2" customHeight="1">
       <c r="A22" s="53">
         <v>21</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>53</v>
@@ -5390,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="53" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I22" s="51" t="s">
         <v>16</v>
@@ -5407,19 +5433,19 @@
       </c>
       <c r="M22" s="53"/>
       <c r="N22" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O22" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2017) Influence of Ecological factor on Mango Fruit Fly, Bactrocera dorsalis Hendel Bactrocera. Academic Social Research. 3 (1): 116-118. </v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30">
+    <row r="23" spans="1:16" ht="30">
       <c r="A23" s="53">
         <v>22</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>30</v>
@@ -5437,7 +5463,7 @@
         <v>6</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I23" s="51" t="s">
         <v>16</v>
@@ -5456,19 +5482,19 @@
         <v>75</v>
       </c>
       <c r="N23" s="51" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O23" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) A Comparative Study and Analysis of Susceptibility Conditions of Fruit Fly BacteroceraCorrectaBezzi To Entomopathogenic Micro-Organisms. International Journal of Innovative Research in Science, Engineering and Technology. 6 (6): 14444-14447. </v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="43.2" customHeight="1">
+    <row r="24" spans="1:16" ht="43.2" customHeight="1">
       <c r="A24" s="53">
         <v>23</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C24" s="51" t="s">
         <v>70</v>
@@ -5486,7 +5512,7 @@
         <v>8</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I24" s="51" t="s">
         <v>16</v>
@@ -5499,32 +5525,34 @@
         <v>25</v>
       </c>
       <c r="L24" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="53"/>
+        <v>605</v>
+      </c>
+      <c r="M24" s="70" t="s">
+        <v>606</v>
+      </c>
       <c r="N24" s="51" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O24" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Shukla, M., Arya, S., Agarwal, S. (2017) Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India. International Journal of Innovative Research in Science, Engineering and Technology.. 6 (8): 7164-7170. </v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="43.2" customHeight="1">
+        <v>Shukla, M., Arya, S., Agarwal, S. (2017) Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India. International Journal of Innovative Research in Science, Engineering and Technology.. 6 (8): 7164-7170. DOI: 10.5281/zenodo.17178442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="43.2" customHeight="1">
       <c r="A25" s="53">
         <v>24</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="51">
         <v>2017</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="53">
         <v>3</v>
@@ -5533,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="53" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I25" s="51" t="s">
         <v>16</v>
@@ -5546,23 +5574,25 @@
         <v>25</v>
       </c>
       <c r="L25" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="M25" s="53"/>
+        <v>607</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>608</v>
+      </c>
       <c r="N25" s="51" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O25" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Shukla, M., Arya, S. (2017) Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.). Green Chemistry and Technology Letters. 3 (1): 21-25. </v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="43.2" customHeight="1">
+        <v>Shukla, M., Arya, S. (2017) Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.). Green Chemistry and Technology Letters. 3 (1): 21-25. DOI: 10.18510/gctl.2017.315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="43.2" customHeight="1">
       <c r="A26" s="53">
         <v>25</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>53</v>
@@ -5580,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I26" s="51">
         <v>47715</v>
@@ -5593,34 +5623,34 @@
         <v>25</v>
       </c>
       <c r="L26" s="52" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M26" s="53" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N26" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O26" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Vermicomposting: Profitable Organic Fertilizer. Academic Social Research. 4 (1): 7-0. DOI: https://doi.org/10.5281/zenodo.15669102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="43.2" customHeight="1">
+        <v>Arya, S. (2018) Vermicomposting: Profitable Organic Fertilizer. Academic Social Research. 4 (1): 7-0. DOI: 10.5281/zenodo.15669102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="43.2" customHeight="1">
       <c r="A27" s="53">
         <v>26</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="51">
         <v>2018</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="53">
         <v>9</v>
@@ -5629,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="53" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I27" s="51">
         <v>62958</v>
@@ -5646,28 +5676,28 @@
       </c>
       <c r="M27" s="53"/>
       <c r="N27" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O27" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Bio-efficacy of insect pests of Brinzal (Solanummelongena). International Journal on Agricultural Sciences. 9 (1): 52-55. </v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="43.2" customHeight="1">
+    <row r="28" spans="1:16" ht="43.2" customHeight="1">
       <c r="A28" s="53">
         <v>27</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="51">
         <v>2018</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F28" s="53">
         <v>9</v>
@@ -5676,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="53" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I28" s="51">
         <v>7775</v>
@@ -5689,25 +5719,28 @@
         <v>25</v>
       </c>
       <c r="L28" s="54" t="s">
+        <v>523</v>
+      </c>
+      <c r="M28" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="N28" s="51" t="s">
         <v>525</v>
-      </c>
-      <c r="M28" s="54" t="s">
-        <v>526</v>
-      </c>
-      <c r="N28" s="51" t="s">
-        <v>527</v>
       </c>
       <c r="O28" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S., Shukla, M. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article. International Journal on Biological Sciences. 9 (1): 69-73. DOI: https://doi.org/10.5281/zenodo.15670053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="43.2" customHeight="1">
+        <v>Arya, S., Shukla, M. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article. International Journal on Biological Sciences. 9 (1): 69-73. DOI: 10.5281/zenodo.15670053</v>
+      </c>
+      <c r="P28" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="43.2" customHeight="1">
       <c r="A29" s="53">
         <v>28</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>53</v>
@@ -5725,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I29" s="51">
         <v>47715</v>
@@ -5738,34 +5771,37 @@
         <v>25</v>
       </c>
       <c r="L29" s="63" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M29" s="70" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N29" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O29" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Insect Pest and Diseases of Roses: Symptoms and Control Measures. Academic Social Research. 4 (1): 312-319. DOI: https://doi.org/10.5281/zenodo.15697980</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="43.2" customHeight="1">
+        <v>Arya, S. (2018) Insect Pest and Diseases of Roses: Symptoms and Control Measures. Academic Social Research. 4 (1): 312-319. DOI: 10.5281/zenodo.15697980</v>
+      </c>
+      <c r="P29" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="43.2" customHeight="1">
       <c r="A30" s="53">
         <v>29</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="51">
         <v>2018</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F30" s="53">
         <v>15</v>
@@ -5774,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I30" s="51">
         <v>4662</v>
@@ -5787,34 +5823,37 @@
         <v>25</v>
       </c>
       <c r="L30" s="52" t="s">
-        <v>93</v>
+        <v>604</v>
       </c>
       <c r="M30" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N30" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O30" s="53" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Arya, S. (2018) Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae. Life Science Bulletin. 15 (1): 63-65. </v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="43.2" customHeight="1">
+        <v>Arya, S. (2018) Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae. Life Science Bulletin. 15 (1): 63-65. DOI: 10.5281/zenodo.17178134</v>
+      </c>
+      <c r="P30" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="43.2" customHeight="1">
       <c r="A31" s="53">
         <v>30</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="51">
         <v>2018</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F31" s="53">
         <v>9</v>
@@ -5823,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I31" s="51">
         <v>7783</v>
@@ -5840,28 +5879,28 @@
       </c>
       <c r="M31" s="53"/>
       <c r="N31" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O31" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Use of Biopesticides against Papilio Demoleus infestation and yield in citrus (Citrus aurantifolia). International Journal on Environmental Science. 9 (1): 61 – 66. </v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="43.2" customHeight="1">
+    <row r="32" spans="1:16" ht="43.2" customHeight="1">
       <c r="A32" s="53">
         <v>31</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="51">
         <v>2018</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="53">
         <v>9</v>
@@ -5870,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I32" s="51">
         <v>7775</v>
@@ -5883,17 +5922,20 @@
         <v>25</v>
       </c>
       <c r="L32" s="71" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M32" s="70" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N32" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O32" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Effect of Marigold oil (Tageteserecta L.) and its fractions against sitophillusoryzae. International Journal of Biological Sciences. 9 (1): 85-89. DOI: https://doi.org/10.5281/zenodo.15823186</v>
+        <v>Arya, S. (2018) Effect of Marigold oil (Tageteserecta L.) and its fractions against sitophillusoryzae. International Journal of Biological Sciences. 9 (1): 85-89. DOI: 10.5281/zenodo.15823186</v>
+      </c>
+      <c r="P32" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="43.2" customHeight="1">
@@ -5901,16 +5943,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D33" s="51">
         <v>2018</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F33" s="53">
         <v>15</v>
@@ -5919,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I33" s="51">
         <v>4662</v>
@@ -5932,17 +5974,20 @@
         <v>25</v>
       </c>
       <c r="L33" s="64" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M33" s="54" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N33" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O33" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>Arya, S. (2018) Isolation of Phenol Degrading Bacteria from Industrial Waste. Life Science Bulletin. 15 (1): 47-50. DOI: https://doi.org/10.5281/zenodo.15676310</v>
+        <v>Arya, S. (2018) Isolation of Phenol Degrading Bacteria from Industrial Waste. Life Science Bulletin. 15 (1): 47-50. DOI: 10.5281/zenodo.15676310</v>
+      </c>
+      <c r="P33" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="43.2" customHeight="1">
@@ -5950,16 +5995,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="51">
         <v>2018</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F34" s="53">
         <v>9</v>
@@ -5968,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I34" s="51">
         <v>62958</v>
@@ -5985,7 +6030,7 @@
       </c>
       <c r="M34" s="53"/>
       <c r="N34" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O34" s="53" t="str">
         <f t="shared" si="0"/>
@@ -5997,16 +6042,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="51">
         <v>2018</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" s="53">
         <v>9</v>
@@ -6015,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="53" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I35" s="51">
         <v>7783</v>
@@ -6028,32 +6073,35 @@
         <v>25</v>
       </c>
       <c r="L35" s="52" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M35" s="53"/>
       <c r="N35" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O35" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Spectrophotometric Determination of Chromium in River Ganga water samples using 1,5-diphenyl carbazide at Kanpur, India-2018. International Journal of Environmental Science. 9 (1): 36-39. </v>
       </c>
+      <c r="P35" s="67" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="36" spans="1:17" ht="43.2" customHeight="1">
       <c r="A36" s="53">
         <v>35</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="51">
         <v>2018</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F36" s="53">
         <v>9</v>
@@ -6062,7 +6110,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="53" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I36" s="51">
         <v>62958</v>
@@ -6075,32 +6123,35 @@
         <v>25</v>
       </c>
       <c r="L36" s="52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M36" s="53"/>
       <c r="N36" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O36" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria. International Journal of Agricultural Sciences. 9 (2): 103-109. </v>
       </c>
+      <c r="P36" s="67" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="37" spans="1:17" ht="43.2" customHeight="1">
       <c r="A37" s="53">
         <v>36</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" s="51">
         <v>2018</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F37" s="53">
         <v>9</v>
@@ -6109,7 +6160,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="53" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I37" s="51">
         <v>7783</v>
@@ -6122,15 +6173,18 @@
         <v>25</v>
       </c>
       <c r="L37" s="61" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M37" s="53"/>
       <c r="N37" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="O37" s="72" t="str">
-        <f t="shared" ref="O37:O43" si="2">IF(COUNT(A37:N37)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N37, ";", ",")," (",D37,") ",B37,". ",C37,". ",F35," (",G37,"): ",H37, ". ", IF(LEFT(L37,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L37),"")), "")</f>
+        <v>422</v>
+      </c>
+      <c r="O37" s="53" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N37,";",",")," (",D37,") ",B37,". ",C37,". ",F37," (",G37,"): ",H37,". ",IF(LEFT(L37,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L37,(LEN(L37)-16))), ""))</f>
         <v xml:space="preserve">Arya, S. (2018) Green Technology to combat environmental degradation and sustainable food production: A Review. International Journal of Environmental Science. 9 (2): 118-123. </v>
+      </c>
+      <c r="P37" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="43.2" customHeight="1">
@@ -6138,16 +6192,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D38" s="51">
         <v>2018</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F38" s="53">
         <v>9</v>
@@ -6156,7 +6210,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="53" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I38" s="51">
         <v>62958</v>
@@ -6169,17 +6223,20 @@
         <v>25</v>
       </c>
       <c r="L38" s="52" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M38" s="53" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="N38" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="O38" s="72" t="str">
-        <f t="shared" si="2"/>
-        <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences. 9 (2): 110-114. DOI: https://doi.org/10.5281/zenodo.15823316</v>
+        <v>422</v>
+      </c>
+      <c r="O38" s="53" t="str">
+        <f t="shared" ref="O38:O54" si="2">_xlfn.CONCAT(SUBSTITUTE(N38,";",",")," (",D38,") ",B38,". ",C38,". ",F38," (",G38,"): ",H38,". ",IF(LEFT(L38,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L38,(LEN(L38)-16))), ""))</f>
+        <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences. 9 (2): 110-114. DOI: 10.5281/zenodo.15823316</v>
+      </c>
+      <c r="P38" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="43.2" customHeight="1">
@@ -6187,16 +6244,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="51">
         <v>2018</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F39" s="53">
         <v>9</v>
@@ -6205,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="53" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I39" s="51">
         <v>7775</v>
@@ -6218,17 +6275,20 @@
         <v>25</v>
       </c>
       <c r="L39" s="62" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M39" s="54" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N39" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="O39" s="72" t="str">
+        <v>422</v>
+      </c>
+      <c r="O39" s="53" t="str">
         <f t="shared" si="2"/>
-        <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences. 9 (1): 162-165. DOI: https://doi.org/10.5281/zenodo.15669147</v>
+        <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences. 9 (1): 162-165. DOI: 10.5281/zenodo.15669147</v>
+      </c>
+      <c r="P39" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="43.2" customHeight="1">
@@ -6236,16 +6296,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="51">
         <v>2019</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F40" s="53">
         <v>4</v>
@@ -6254,7 +6314,7 @@
         <v>2</v>
       </c>
       <c r="H40" s="53" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I40" s="51">
         <v>40827</v>
@@ -6267,17 +6327,20 @@
         <v>25</v>
       </c>
       <c r="L40" s="65" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M40" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N40" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="O40" s="72" t="str">
+        <v>422</v>
+      </c>
+      <c r="O40" s="53" t="str">
         <f t="shared" si="2"/>
-        <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation. 9 (2): 111-117. DOI: https://doi.org/10.5281/zenodo.15697804</v>
+        <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation. 4 (2): 111-117. DOI: 10.5281/zenodo.15697804</v>
+      </c>
+      <c r="P40" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="43.2" customHeight="1">
@@ -6285,16 +6348,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D41" s="51">
         <v>2019</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F41" s="53">
         <v>6</v>
@@ -6303,7 +6366,7 @@
         <v>8</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I41" s="51">
         <v>40880</v>
@@ -6316,17 +6379,20 @@
         <v>25</v>
       </c>
       <c r="L41" s="52" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M41" s="54" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="N41" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="O41" s="72" t="str">
+        <v>422</v>
+      </c>
+      <c r="O41" s="53" t="str">
         <f t="shared" si="2"/>
-        <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika. 9 (8): 1-3. DOI: https://doi.org/10.5281/zenodo.15697875</v>
+        <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika. 6 (8): 1-3. DOI: 10.5281/zenodo.15697875</v>
+      </c>
+      <c r="P41" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="43.2" customHeight="1">
@@ -6334,16 +6400,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D42" s="51">
         <v>2019</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F42" s="53">
         <v>6</v>
@@ -6352,7 +6418,7 @@
         <v>3</v>
       </c>
       <c r="H42" s="53" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I42" s="56" t="s">
         <v>16</v>
@@ -6362,20 +6428,23 @@
         <v>1</v>
       </c>
       <c r="K42" s="51" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L42" s="52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M42" s="53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N42" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="O42" s="72" t="str">
+        <v>422</v>
+      </c>
+      <c r="O42" s="53" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies. 4 (3): 51-54. </v>
+        <v xml:space="preserve">Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies. 6 (3): 51-54. </v>
+      </c>
+      <c r="P42" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="43.2" customHeight="1">
@@ -6383,16 +6452,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="51" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D43" s="51">
         <v>2019</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F43" s="53">
         <v>1</v>
@@ -6401,7 +6470,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I43" s="51" t="s">
         <v>16</v>
@@ -6414,17 +6483,20 @@
         <v>25</v>
       </c>
       <c r="L43" s="52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M43" s="53" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="N43" s="51" t="s">
-        <v>424</v>
-      </c>
-      <c r="O43" s="72" t="str">
+        <v>422</v>
+      </c>
+      <c r="O43" s="53" t="str">
         <f t="shared" si="2"/>
-        <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations . 6 (2): 87-89. DOI: https://doi.org/10.46505/IJBI.2019.1210</v>
+        <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations . 1 (2): 87-89. DOI: 10.46505/IJBI.2019.1210</v>
+      </c>
+      <c r="P43" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="43.2" customHeight="1">
@@ -6432,16 +6504,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D44" s="51">
         <v>2021</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44" s="53">
         <v>12</v>
@@ -6450,7 +6522,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="53" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I44" s="51" t="s">
         <v>16</v>
@@ -6463,17 +6535,20 @@
         <v>25</v>
       </c>
       <c r="L44" s="52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M44" s="53" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N44" s="51" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O44" s="53" t="str">
-        <f t="shared" ref="O44:O55" si="3">_xlfn.CONCAT(SUBSTITUTE(N44, ";", ",")," (",D44,") ",B44,". ",C44,". ",F44," (",G44,"): ",H44, ". ", IF(LEFT(L44,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L44),""))</f>
-        <v>Rani, D., Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences. 12 (2): 57-60. DOI: https://doi.org/10.53390/ijbs.v12i2.5</v>
+        <f t="shared" si="2"/>
+        <v>Rani, D., Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences. 12 (2): 57-60. DOI: 10.53390/ijbs.v12i2.5</v>
+      </c>
+      <c r="P44" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="43.2" customHeight="1" thickBot="1">
@@ -6481,16 +6556,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" s="51">
         <v>2021</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F45" s="53">
         <v>5</v>
@@ -6499,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="53" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I45" s="51" t="s">
         <v>16</v>
@@ -6512,17 +6587,20 @@
         <v>17</v>
       </c>
       <c r="L45" s="52" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M45" s="53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N45" s="51" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="O45" s="53" t="str">
-        <f t="shared" si="3"/>
-        <v>Chaudhary, V. K., Arya, S., Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences. 5 (2): 95-99. DOI: https://doi.org/10.53390/ijes.v12i2.1</v>
+        <f t="shared" si="2"/>
+        <v>Chaudhary, V. K., Arya, S., Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences. 5 (2): 95-99. DOI: 10.53390/ijes.v12i2.1</v>
+      </c>
+      <c r="P45" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="43.2" customHeight="1" thickBot="1">
@@ -6530,16 +6608,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" s="51">
         <v>2022</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F46" s="53">
         <v>4</v>
@@ -6548,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I46" s="51" t="s">
         <v>16</v>
@@ -6561,17 +6639,20 @@
         <v>17</v>
       </c>
       <c r="L46" s="52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M46" s="53" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O46" s="53" t="str">
-        <f t="shared" si="3"/>
-        <v>Yadav, V., Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation. 4 (1): 221-226. DOI: https://doi.org/10.46505/IJBI.2022.4124</v>
+        <f t="shared" si="2"/>
+        <v>Yadav, V., Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation. 4 (1): 221-226. DOI: 10.46505/IJBI.2022.4124</v>
+      </c>
+      <c r="P46" s="67" t="s">
+        <v>601</v>
       </c>
       <c r="Q46" s="69"/>
     </row>
@@ -6580,16 +6661,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="51">
         <v>2022</v>
       </c>
       <c r="E47" s="51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F47" s="53">
         <v>13</v>
@@ -6598,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I47" s="51" t="s">
         <v>16</v>
@@ -6611,17 +6692,20 @@
         <v>17</v>
       </c>
       <c r="L47" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N47" s="51" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O47" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Yadav, V., Arya, S. (2022) POPULATION DYNAMICS OF MAJOR INSECT PESTS OF PEA (PISUM SATIVUM L.) IN RELATION TO WEATHER PARAMETERS IN KANPUR, UTTAR PRADESH. International Journal on Biological Sciences. 13 (1): 92-96. </v>
+      </c>
+      <c r="P47" s="67" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="43.2" customHeight="1">
@@ -6629,16 +6713,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D48" s="51">
         <v>2022</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F48" s="53">
         <v>4</v>
@@ -6647,7 +6731,7 @@
         <v>10</v>
       </c>
       <c r="H48" s="57" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I48" s="51" t="s">
         <v>16</v>
@@ -6660,34 +6744,37 @@
         <v>25</v>
       </c>
       <c r="L48" s="52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M48" s="52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="O48" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Arya, S., Sudhakar, P., Dwivedi, N. (2022) Pesticides and Its Impact on Biodiversity and Environment. ICONIC RESEARCH AND ENGINEERING JOURNALS. 4 (10): 12-15. </v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="43.2" customHeight="1">
+      <c r="P48" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="43.2" customHeight="1">
       <c r="A49" s="53">
         <v>48</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D49" s="51">
         <v>2022</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F49" s="53">
         <v>5</v>
@@ -6696,7 +6783,7 @@
         <v>7</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I49" s="51" t="s">
         <v>16</v>
@@ -6709,34 +6796,37 @@
         <v>17</v>
       </c>
       <c r="L49" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M49" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N49" s="51" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O49" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Dubey, I., Arya, S. (2022) Fish Diversity and Climate Change: A Review. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 5 (7): 88-91. </v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="43.2" customHeight="1">
+      <c r="P49" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="43.2" customHeight="1">
       <c r="A50" s="53">
         <v>49</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D50" s="51">
         <v>2022</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F50" s="53">
         <v>6</v>
@@ -6745,7 +6835,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I50" s="51" t="s">
         <v>16</v>
@@ -6758,34 +6848,37 @@
         <v>17</v>
       </c>
       <c r="L50" s="52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M50" s="53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N50" s="51" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O50" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Singh, R., Sunita, A. (2022) Seasonal Variation in Phytoplankton Diversity in River Sai at Unnao District of U.P. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 6 (3): 5-8. </v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="43.2" customHeight="1">
+      <c r="P50" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="43.2" customHeight="1">
       <c r="A51" s="53">
         <v>50</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D51" s="51">
         <v>2023</v>
       </c>
       <c r="E51" s="58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F51" s="53">
         <v>9</v>
@@ -6794,10 +6887,10 @@
         <v>1</v>
       </c>
       <c r="H51" s="53" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I51" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J51" s="91">
         <f t="shared" si="1"/>
@@ -6807,34 +6900,37 @@
         <v>25</v>
       </c>
       <c r="L51" s="52" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M51" s="54" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N51" s="51" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O51" s="53" t="str">
-        <f t="shared" si="3"/>
-        <v>Arya, S., Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations. 9 (1): 392 – 397. DOI: https://doi.org/10.33745/ijzi.2023.v09i01.044</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="43.2" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>Arya, S., Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations. 9 (1): 392 – 397. DOI: 10.33745/ijzi.2023.v09i01.044</v>
+      </c>
+      <c r="P51" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="43.2" customHeight="1">
       <c r="A52" s="53">
         <v>51</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="51">
         <v>2023</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F52" s="53">
         <v>8</v>
@@ -6843,10 +6939,10 @@
         <v>6</v>
       </c>
       <c r="H52" s="53" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I52" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J52" s="91">
         <f t="shared" si="1"/>
@@ -6856,34 +6952,37 @@
         <v>25</v>
       </c>
       <c r="L52" s="61" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M52" s="53" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N52" s="51" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O52" s="53" t="str">
-        <f t="shared" si="3"/>
-        <v>Arya, S., Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research. 8 (6): 50-52. DOI: https://doi.org/10.5281/zenodo.17055708</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="43.2" customHeight="1">
+        <f t="shared" si="2"/>
+        <v>Arya, S., Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research. 8 (6): 50-52. DOI: 10.5281/zenodo.17055708</v>
+      </c>
+      <c r="P52" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="43.2" customHeight="1">
       <c r="A53" s="53">
         <v>52</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D53" s="51">
         <v>2023</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F53" s="53">
         <v>10</v>
@@ -6892,7 +6991,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="53" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I53" s="51" t="s">
         <v>16</v>
@@ -6905,34 +7004,37 @@
         <v>17</v>
       </c>
       <c r="L53" s="52" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M53" s="53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N53" s="51" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O53" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Goel, R., Arya, S., Rani, D., Shukla, G. (2023) Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.. International Journal of Fauna and Biological Studies. 10 (3): 16-18. </v>
       </c>
-    </row>
-    <row r="54" spans="1:15" ht="43.2" customHeight="1">
+      <c r="P53" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="43.2" customHeight="1">
       <c r="A54" s="53">
         <v>53</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D54" s="51">
         <v>2023</v>
       </c>
       <c r="E54" s="58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F54" s="53">
         <v>14</v>
@@ -6941,7 +7043,7 @@
         <v>2</v>
       </c>
       <c r="H54" s="53" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I54" s="51" t="s">
         <v>16</v>
@@ -6954,34 +7056,37 @@
         <v>17</v>
       </c>
       <c r="L54" s="59" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M54" s="54" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N54" s="51" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O54" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Rani, K., Singh, S., Prakash, S., Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences. 14 (2): 74-80. </v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="43.2" customHeight="1">
+      <c r="P54" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="43.2" customHeight="1">
       <c r="A55" s="53">
         <v>54</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D55" s="51">
         <v>2022</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F55" s="53">
         <v>13</v>
@@ -6990,7 +7095,7 @@
         <v>2</v>
       </c>
       <c r="H55" s="53" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I55" s="51" t="s">
         <v>16</v>
@@ -7003,34 +7108,37 @@
         <v>17</v>
       </c>
       <c r="L55" s="52" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M55" s="52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N55" s="51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O55" s="53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O55" si="3">_xlfn.CONCAT(SUBSTITUTE(N55, ";", ",")," (",D55,") ",B55,". ",C55,". ",F55," (",G55,"): ",H55, ". ", IF(LEFT(L55,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L55),""))</f>
         <v>Goel, R., Arya, S., Singh, R. (2022) IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH). International Journal on Biological Sciences. 13 (2): 109-111. DOI: https://doi.org/10.53390/ijbs.v13i2.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="43.2" customHeight="1">
+      <c r="P55" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="43.2" customHeight="1">
       <c r="A56" s="53">
         <v>55</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D56" s="51">
         <v>2024</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F56" s="53">
         <v>6</v>
@@ -7039,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="56" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I56" s="51" t="s">
         <v>16</v>
@@ -7052,34 +7160,37 @@
         <v>17</v>
       </c>
       <c r="L56" s="52" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M56" s="54" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N56" s="51" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O56" s="53" t="str">
-        <f t="shared" ref="O56:O62" si="4">_xlfn.CONCAT(SUBSTITUTE(N56, ";", ",")," (",D56,") ",B56,". ",C56,". ",F56," (",G56,"): ",H56, ". ", IF(LEFT(L56,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L56),""))</f>
-        <v>Rani K., Singh S., Prakash S., Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry. 6 (1): 01-03. DOI: https://doi.org/10.33545/26646536.2024.v6.i1a.47</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="43.2" customHeight="1">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N56,";",",")," (",D56,") ",B56,". ",C56,". ",F56," (",G56,"): ",H56,". ",IF(LEFT(L56,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L56,(LEN(L56)-16))), ""))</f>
+        <v>Rani K., Singh S., Prakash S., Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry. 6 (1): 01-03. DOI: 10.33545/26646536.2024.v6.i1a.47</v>
+      </c>
+      <c r="P56" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="43.2" customHeight="1">
       <c r="A57" s="53">
         <v>56</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D57" s="51">
         <v>2024</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F57" s="53">
         <v>11</v>
@@ -7088,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="53" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I57" s="51" t="s">
         <v>16</v>
@@ -7101,34 +7212,37 @@
         <v>25</v>
       </c>
       <c r="L57" s="52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M57" s="53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N57" s="51" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O57" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>Arya, S., Rani, D., Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies. 11 (1): 29-31. DOI: https://doi.org/10.22271/23940522.2024.v11.i1a.1005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="43.2" customHeight="1">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N57,";",",")," (",D57,") ",B57,". ",C57,". ",F57," (",G57,"): ",H57,". ",IF(LEFT(L57,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L57,(LEN(L57)-16))), ""))</f>
+        <v>Arya, S., Rani, D., Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies. 11 (1): 29-31. DOI: 10.22271/23940522.2024.v11.i1a.1005</v>
+      </c>
+      <c r="P57" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="43.2" customHeight="1">
       <c r="A58" s="53">
         <v>57</v>
       </c>
       <c r="B58" s="51" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D58" s="51">
         <v>2024</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F58" s="53">
         <v>27</v>
@@ -7137,10 +7251,10 @@
         <v>2</v>
       </c>
       <c r="H58" s="53" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I58" s="60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J58" s="91">
         <f t="shared" si="1"/>
@@ -7150,34 +7264,37 @@
         <v>17</v>
       </c>
       <c r="L58" s="61" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M58" s="53" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N58" s="51" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O58" s="53" t="str">
-        <f>_xlfn.CONCAT(SUBSTITUTE(N58, ";", ",")," (",D58,") ",B58,". ",C58,". ",F58," (",G58,"): ",H58, ". ", IF(LEFT(L58,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L58),""))</f>
-        <v>Sachan, R., Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA. 27 (2): 1605-1608. DOI: https://doi.org/10.51470/JEZ.2024.27.2.1605</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="43.2" customHeight="1">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N58,";",",")," (",D58,") ",B58,". ",C58,". ",F58," (",G58,"): ",H58,". ",IF(LEFT(L58,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L58,(LEN(L58)-16))), ""))</f>
+        <v>Sachan, R., Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA. 27 (2): 1605-1608. DOI: 10.51470/JEZ.2024.27.2.1605</v>
+      </c>
+      <c r="P58" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="43.2" customHeight="1">
       <c r="A59" s="53">
         <v>58</v>
       </c>
       <c r="B59" s="51" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D59" s="51">
         <v>2024</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F59" s="53">
         <v>6</v>
@@ -7186,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="53" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I59" s="51" t="s">
         <v>16</v>
@@ -7199,34 +7316,37 @@
         <v>17</v>
       </c>
       <c r="L59" s="52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M59" s="53" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N59" s="51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O59" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>Rani K., Arya S., Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations. 6 (1): 58-64. DOI: https://doi.org/10.46505/IJBI.2024.6108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="43.2" customHeight="1">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N59,";",",")," (",D59,") ",B59,". ",C59,". ",F59," (",G59,"): ",H59,". ",IF(LEFT(L59,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L59,(LEN(L59)-16))), ""))</f>
+        <v>Rani K., Arya S., Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations. 6 (1): 58-64. DOI: 10.46505/IJBI.2024.6108</v>
+      </c>
+      <c r="P59" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="43.2" customHeight="1">
       <c r="A60" s="53">
         <v>59</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" s="53">
         <v>2024</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F60" s="53">
         <v>8</v>
@@ -7235,7 +7355,7 @@
         <v>3</v>
       </c>
       <c r="H60" s="53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I60" s="56" t="s">
         <v>16</v>
@@ -7248,34 +7368,37 @@
         <v>17</v>
       </c>
       <c r="L60" s="52" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M60" s="54" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N60" s="51" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O60" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>Hemprabha, Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 8 (3): 478-485. DOI: https://doi.org/10.5281/zenodo.15785018</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="43.2" customHeight="1">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N60,";",",")," (",D60,") ",B60,". ",C60,". ",F60," (",G60,"): ",H60,". ",IF(LEFT(L60,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L60,(LEN(L60)-16))), ""))</f>
+        <v>Hemprabha, Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 8 (3): 478-485. DOI: 10.5281/zenodo.15785018</v>
+      </c>
+      <c r="P60" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="43.2" customHeight="1">
       <c r="A61" s="53">
         <v>60</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D61" s="53">
         <v>2025</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F61" s="53">
         <v>8</v>
@@ -7284,7 +7407,7 @@
         <v>7</v>
       </c>
       <c r="H61" s="53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I61" s="53" t="s">
         <v>16</v>
@@ -7297,34 +7420,37 @@
         <v>25</v>
       </c>
       <c r="L61" s="70" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M61" s="53" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N61" s="51" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O61" s="53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O61" si="4">_xlfn.CONCAT(SUBSTITUTE(N61, ";", ",")," (",D61,") ",B61,". ",C61,". ",F61," (",G61,"): ",H61, ". ", IF(LEFT(L61,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L61),""))</f>
         <v>Arya, S., Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals. 8 (7): 243-440. DOI: https://doi.org/10.5281/zenodo.16890701</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="43.2" customHeight="1">
+      <c r="P61" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="43.2" customHeight="1">
       <c r="A62" s="53">
         <v>61</v>
       </c>
       <c r="B62" s="53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D62" s="53">
         <v>2025</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F62" s="53">
         <v>11</v>
@@ -7333,7 +7459,7 @@
         <v>6</v>
       </c>
       <c r="H62" s="53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I62" s="53" t="s">
         <v>16</v>
@@ -7346,34 +7472,37 @@
         <v>25</v>
       </c>
       <c r="L62" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M62" s="54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N62" s="51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="O62" s="53" t="str">
-        <f t="shared" si="4"/>
-        <v>Arya, S. (2025) Wetland Ecosystem: A better place for rich biodiversity. International Journal of Fauna and Biological Studies. 11 (6): 106-110. DOI: https://doi.org/10.22271/23940522.2024.v11.i6b.1066</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="43.2" customHeight="1">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N62,";",",")," (",D62,") ",B62,". ",C62,". ",F62," (",G62,"): ",H62,". ",IF(LEFT(L62,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L62,(LEN(L62)-16))), ""))</f>
+        <v>Arya, S. (2025) Wetland Ecosystem: A better place for rich biodiversity. International Journal of Fauna and Biological Studies. 11 (6): 106-110. DOI: 10.22271/23940522.2024.v11.i6b.1066</v>
+      </c>
+      <c r="P62" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="43.2" customHeight="1">
       <c r="A63" s="53">
         <v>62</v>
       </c>
       <c r="B63" s="53" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C63" s="53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D63" s="53">
         <v>2025</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F63" s="53">
         <v>11</v>
@@ -7382,10 +7511,10 @@
         <v>1</v>
       </c>
       <c r="H63" s="53" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I63" s="53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J63" s="91">
         <f t="shared" si="1"/>
@@ -7394,35 +7523,38 @@
       <c r="K63" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L63" s="53" t="s">
-        <v>530</v>
+      <c r="L63" s="70" t="s">
+        <v>528</v>
       </c>
       <c r="M63" s="54" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="N63" s="53" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O63" s="72" t="str">
         <f>IF(COUNT(A63:N63)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N63, ";", ",")," (",D63,") ",B63,". ",C63,". ",F61," (",G63,"): ",H63, ". ", IF(LEFT(L63,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L63),"")), "")</f>
         <v>Hemprabha, Arya, S. (2025) Impact of Seasonal Variation on Physiochemical Parameters in Ganga River and Bhimsen Pond Water, Kanpur, India. International Journal of Zoological Investigations. 8 (1): 752-759. DOI: https://doi.org/10.33745/ijzi.2025.v11i01.079</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="43.2" customHeight="1">
+      <c r="P63" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="43.2" customHeight="1">
       <c r="A64" s="53">
         <v>63</v>
       </c>
       <c r="B64" s="53" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D64" s="53">
         <v>2025</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F64" s="53">
         <v>16</v>
@@ -7431,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="53" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I64" s="53" t="s">
         <v>16</v>
@@ -7446,28 +7578,28 @@
       <c r="L64" s="53"/>
       <c r="M64" s="53"/>
       <c r="N64" s="53" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="O64" s="53" t="str">
-        <f>_xlfn.CONCAT(SUBSTITUTE(N64, ";", ",")," (",D64,") ",B64,". ",C64,". ",F64," (",G64,"): ",H64, ". ", IF(LEFT(L64,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L64),""))</f>
+        <f>_xlfn.CONCAT(SUBSTITUTE(N64,";",",")," (",D64,") ",B64,". ",C64,". ",F64," (",G64,"): ",H64,". ",IF(LEFT(L64,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L64,(LEN(L64)-16))), ""))</f>
         <v xml:space="preserve">Sharma, R., Singh, R., Arya, S. (2025) Study of Morphological Characters, Growth and Yield Yield Performance of Eri Silkworm (Samiya ricini Donovan) Ecoraces. International Journal on Biological Sciences. 16 (1): 70-80. </v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="43.2" customHeight="1">
+    <row r="65" spans="1:16" ht="43.2" customHeight="1">
       <c r="A65" s="53">
         <v>64</v>
       </c>
       <c r="B65" s="53" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D65" s="53">
         <v>2025</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F65" s="53">
         <v>16</v>
@@ -7476,7 +7608,7 @@
         <v>2</v>
       </c>
       <c r="H65" s="53" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I65" s="53" t="s">
         <v>16</v>
@@ -7488,31 +7620,38 @@
       <c r="K65" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
+      <c r="L65" s="53" t="s">
+        <v>602</v>
+      </c>
+      <c r="M65" s="86" t="s">
+        <v>603</v>
+      </c>
       <c r="N65" s="53" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O65" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N65, ";", ",")," (",D65,") ",B65,". ",C65,". ",F65," (",G65,"): ",H65, ". ", IF(LEFT(L65,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L65),""))</f>
-        <v xml:space="preserve">Sharma, R., Arya, S., Singh, R. (2025) Pesticides, Herbicides and Their Effects on Population. International Journal of Environmental Science. 16 (2): 110-119. </v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="43.2" customHeight="1">
+        <v>Sharma, R., Arya, S., Singh, R. (2025) Pesticides, Herbicides and Their Effects on Population. International Journal of Environmental Science. 16 (2): 110-119. DOI: https://doi.org/10.53390/IJES.2025.16204</v>
+      </c>
+      <c r="P65" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="43.2" customHeight="1">
       <c r="A66" s="67">
         <v>65</v>
       </c>
       <c r="B66" s="72" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C66" s="67" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D66" s="67">
         <v>2025</v>
       </c>
       <c r="E66" s="67" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F66" s="67">
         <v>46</v>
@@ -7521,7 +7660,10 @@
         <v>13</v>
       </c>
       <c r="H66" s="67" t="s">
-        <v>565</v>
+        <v>563</v>
+      </c>
+      <c r="I66" s="67" t="s">
+        <v>144</v>
       </c>
       <c r="J66" s="91">
         <f t="shared" si="1"/>
@@ -7531,34 +7673,37 @@
         <v>25</v>
       </c>
       <c r="L66" s="68" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M66" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N66" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="O66" s="72" t="str">
-        <f t="shared" ref="O66:O77" si="5">IF(COUNT(A66:N66)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N66, ";", ",")," (",D66,") ",B66,". ",C66,". ",F64," (",G66,"): ",H66, ". ", IF(LEFT(L66,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L66),"")), "")</f>
-        <v>Arya, S., Sachan, R. (2025) Life Table Parameters of the Tobacco Caterpillar [Spodoptera litura (Fab.)] on Ornamental Roses. Uttar Pradesh Journal of Zoology. 16 (13): 267-278. DOI: https://doi.org/10.56557/upjoz/2025/v46i135105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="43.2" customHeight="1">
+        <v>437</v>
+      </c>
+      <c r="O66" s="53" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N66,";",",")," (",D66,") ",B66,". ",C66,". ",F66," (",G66,"): ",H66,". ",IF(LEFT(L66,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L66,(LEN(L66)-16))), ""))</f>
+        <v>Arya, S., Sachan, R. (2025) Life Table Parameters of the Tobacco Caterpillar [Spodoptera litura (Fab.)] on Ornamental Roses. Uttar Pradesh Journal of Zoology. 46 (13): 267-278. DOI: 10.56557/upjoz/2025/v46i135105</v>
+      </c>
+      <c r="P66" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="43.2" customHeight="1">
       <c r="A67" s="67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D67" s="67">
         <v>2025</v>
       </c>
       <c r="E67" s="67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F67" s="67">
         <v>7</v>
@@ -7567,7 +7712,7 @@
         <v>2</v>
       </c>
       <c r="H67" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J67" s="91">
         <f>LEN(N67)-LEN(SUBSTITUTE(N67,";",""))+1</f>
@@ -7576,149 +7721,199 @@
       <c r="K67" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="L67" s="68" t="s">
+      <c r="L67" s="86" t="s">
+        <v>596</v>
+      </c>
+      <c r="M67" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="N67" s="67" t="s">
+        <v>436</v>
+      </c>
+      <c r="O67" s="72" t="str">
+        <f t="shared" ref="O67" si="5">IF(COUNT(A67:N67)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N67, ";", ",")," (",D67,") ",B67,". ",C67,". ",F65," (",G67,"): ",H67, ". ", IF(LEFT(L67,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L67),"")), "")</f>
+        <v>Singh, R., Sunita, A. (2025) HERITABILITY, GENETIC ADVANCE AND COVARIANCE STUDIES IN HYBRID TEA ROSES. International Journal of Biological Innovations. 16 (2): 221-229. DOI: https://doi.org/10.5281/zenodo.17137149</v>
+      </c>
+      <c r="P67" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="43.2" customHeight="1">
+      <c r="A68" s="67">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>597</v>
+      </c>
+      <c r="C68" s="67" t="s">
+        <v>559</v>
+      </c>
+      <c r="D68" s="67">
+        <v>2025</v>
+      </c>
+      <c r="E68" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="F68" s="67">
+        <v>46</v>
+      </c>
+      <c r="G68" s="67">
+        <v>18</v>
+      </c>
+      <c r="H68" s="67" t="s">
         <v>598</v>
       </c>
-      <c r="M67" s="34" t="s">
-        <v>597</v>
-      </c>
-      <c r="N67" s="67" t="s">
-        <v>438</v>
-      </c>
-      <c r="O67" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v>Singh, R., Sunita, A. (2025) HERITABILITY, GENETIC ADVANCE AND COVARIANCE STUDIES IN HYBRID TEA ROSES. International Journal of Zoological Investigations. 16 (2): 221-229. DOI: https://doi.org/10.5281/zenodo.17137149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="43.2" customHeight="1">
-      <c r="O68" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="43.2" customHeight="1">
-      <c r="O69" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="43.2" customHeight="1">
-      <c r="O70" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="43.2" customHeight="1">
-      <c r="O71" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="43.2" customHeight="1">
-      <c r="O72" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="43.2" customHeight="1">
-      <c r="O73" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="43.2" customHeight="1">
-      <c r="O74" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="43.2" customHeight="1">
-      <c r="O75" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="43.2" customHeight="1">
-      <c r="O76" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="43.2" customHeight="1">
-      <c r="O77" s="72" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+      <c r="I68" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="J68" s="91">
+        <f>LEN(N68)-LEN(SUBSTITUTE(N68,";",""))+1</f>
+        <v>2</v>
+      </c>
+      <c r="K68" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="68" t="s">
+        <v>599</v>
+      </c>
+      <c r="M68" s="67" t="s">
+        <v>600</v>
+      </c>
+      <c r="N68" s="67" t="s">
+        <v>448</v>
+      </c>
+      <c r="O68" s="53" t="str">
+        <f t="shared" ref="O68:O77" si="6">_xlfn.CONCAT(SUBSTITUTE(N68,";",",")," (",D68,") ",B68,". ",C68,". ",F68," (",G68,"): ",H68,". ",IF(LEFT(L68,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L68,(LEN(L68)-16))), ""))</f>
+        <v>Hemprabha, Arya, S. (2025) Seasonal Variations in Hematological and Biochemical Parameters of Labeo rohita from River and Pond Habitats. Uttar Pradesh Journal of Zoology. 46 (18): 157-971. DOI: 10.56557/upjoz/2025/v46i185248</v>
+      </c>
+      <c r="P68" s="67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="43.2" customHeight="1">
+      <c r="O69" s="53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> () . .  (): . </v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="43.2" customHeight="1">
+      <c r="O70" s="53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> () . .  (): . </v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="43.2" customHeight="1">
+      <c r="O71" s="53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> () . .  (): . </v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="43.2" customHeight="1">
+      <c r="O72" s="53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> () . .  (): . </v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="43.2" customHeight="1">
+      <c r="O73" s="53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> () . .  (): . </v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="43.2" customHeight="1">
+      <c r="O74" s="53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> () . .  (): . </v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="43.2" customHeight="1">
+      <c r="O75" s="53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> () . .  (): . </v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="43.2" customHeight="1">
+      <c r="O76" s="53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> () . .  (): . </v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="43.2" customHeight="1">
+      <c r="O77" s="53" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> () . .  (): . </v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:L62" xr:uid="{B86B0C5F-3C7A-4DFA-8262-18CDDB72D407}"/>
+  <autoFilter ref="A1:P77" xr:uid="{B86B0C5F-3C7A-4DFA-8262-18CDDB72D407}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L56" r:id="rId1" display="https://dx.doi.org/10.33545/26646536.2024.v6.i1a.47" xr:uid="{7E19164F-EB49-4909-A787-B1FC69338129}"/>
     <hyperlink ref="L13" r:id="rId2" xr:uid="{E2B88607-DB60-48E0-9F3F-FE825FC5917E}"/>
     <hyperlink ref="L22" r:id="rId3" xr:uid="{D3EED5D0-F187-4FB1-842E-42E68C009F81}"/>
-    <hyperlink ref="L30" r:id="rId4" xr:uid="{03E9C74E-324C-44DC-91AB-CFECE4362CCB}"/>
-    <hyperlink ref="L35" r:id="rId5" xr:uid="{A6AE41EE-0DB0-44B7-B6A1-09B4A5C4D590}"/>
-    <hyperlink ref="L36" r:id="rId6" xr:uid="{6EC3FC89-2874-4391-9418-B15DF9BD17BA}"/>
-    <hyperlink ref="L37" r:id="rId7" xr:uid="{4E227E20-5D78-4960-828B-4FB892F69935}"/>
-    <hyperlink ref="L42" r:id="rId8" xr:uid="{CF80D6E9-FC01-41DE-AE5B-C18A8FEE4B61}"/>
-    <hyperlink ref="L43" r:id="rId9" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
-    <hyperlink ref="L9" r:id="rId10" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
-    <hyperlink ref="L49" r:id="rId11" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
-    <hyperlink ref="L53" r:id="rId12" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
-    <hyperlink ref="L59" r:id="rId13" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
-    <hyperlink ref="L19" r:id="rId14" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
-    <hyperlink ref="L5" r:id="rId15" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
-    <hyperlink ref="L6" r:id="rId16" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
-    <hyperlink ref="L7" r:id="rId17" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
-    <hyperlink ref="L11" r:id="rId18" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
-    <hyperlink ref="L15" r:id="rId19" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
-    <hyperlink ref="L16" r:id="rId20" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
-    <hyperlink ref="L17" r:id="rId21" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
-    <hyperlink ref="L20" r:id="rId22" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
-    <hyperlink ref="L21" r:id="rId23" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
-    <hyperlink ref="L23" r:id="rId24" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
-    <hyperlink ref="L24" r:id="rId25" xr:uid="{FABC4DDC-CDB9-4B67-93B2-A76C80983B06}"/>
-    <hyperlink ref="L25" r:id="rId26" xr:uid="{902BA5BE-7542-45C9-A543-186FEE73E7FB}"/>
-    <hyperlink ref="L44" r:id="rId27" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
-    <hyperlink ref="L46" r:id="rId28" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
-    <hyperlink ref="L47" r:id="rId29" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
-    <hyperlink ref="L50" r:id="rId30" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
-    <hyperlink ref="L8" r:id="rId31" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
-    <hyperlink ref="L45" r:id="rId32" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
-    <hyperlink ref="L48" r:id="rId33" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
-    <hyperlink ref="L3" r:id="rId34" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
-    <hyperlink ref="L10" r:id="rId35" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
-    <hyperlink ref="M49" r:id="rId36" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
-    <hyperlink ref="M48" r:id="rId37" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
-    <hyperlink ref="L62" r:id="rId38" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
-    <hyperlink ref="L14" r:id="rId39" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
-    <hyperlink ref="L58" r:id="rId40" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
-    <hyperlink ref="M54" r:id="rId41" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
-    <hyperlink ref="L4" r:id="rId42" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
-    <hyperlink ref="L2" r:id="rId43" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
-    <hyperlink ref="M12" r:id="rId44" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
-    <hyperlink ref="L28" r:id="rId45" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
-    <hyperlink ref="M28" r:id="rId46" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
-    <hyperlink ref="M33" r:id="rId47" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
-    <hyperlink ref="M62" r:id="rId48" xr:uid="{773D55EA-F5B6-438C-8698-129A28EA2B02}"/>
-    <hyperlink ref="M63" r:id="rId49" xr:uid="{C4D17878-C89B-41A9-A36C-7279D8B56676}"/>
-    <hyperlink ref="L40" r:id="rId50" xr:uid="{36BBD4AF-A2FB-4091-AF15-559CE5130E26}"/>
-    <hyperlink ref="M41" r:id="rId51" xr:uid="{28978EE3-D3BF-4AF1-A31F-CBA76847CC14}"/>
-    <hyperlink ref="L39" r:id="rId52" xr:uid="{0A008BA3-28F5-44CA-9EC0-F7833C018F84}"/>
-    <hyperlink ref="L29" r:id="rId53" xr:uid="{7EB92BDC-A398-4034-9CEF-FF1A15F2326E}"/>
-    <hyperlink ref="M60" r:id="rId54" xr:uid="{ACC30793-B279-41B2-A431-D9E7EE951BF2}"/>
-    <hyperlink ref="L60" r:id="rId55" xr:uid="{B57BD76C-B68E-40C4-A39B-E56B27A51AFB}"/>
-    <hyperlink ref="L12" r:id="rId56" xr:uid="{06247FD8-B6C9-4FB9-A20F-AE4E7D16426F}"/>
-    <hyperlink ref="L51" r:id="rId57" xr:uid="{ABBC67FA-774E-4CDE-A90E-BA506074F782}"/>
-    <hyperlink ref="M29" r:id="rId58" xr:uid="{FB361421-DC68-4294-92CD-DF6CC3E13E50}"/>
-    <hyperlink ref="M32" r:id="rId59" xr:uid="{7CE9A6A3-113B-483C-B671-35292B160411}"/>
-    <hyperlink ref="L61" r:id="rId60" xr:uid="{A9A6C62C-EBEC-4CDD-9869-3059A255B08D}"/>
-    <hyperlink ref="L57" r:id="rId61" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
-    <hyperlink ref="M67" r:id="rId62" xr:uid="{7149B27D-6791-450F-9AEB-5AC904309389}"/>
+    <hyperlink ref="L35" r:id="rId4" xr:uid="{A6AE41EE-0DB0-44B7-B6A1-09B4A5C4D590}"/>
+    <hyperlink ref="L36" r:id="rId5" xr:uid="{6EC3FC89-2874-4391-9418-B15DF9BD17BA}"/>
+    <hyperlink ref="L37" r:id="rId6" xr:uid="{4E227E20-5D78-4960-828B-4FB892F69935}"/>
+    <hyperlink ref="L42" r:id="rId7" xr:uid="{CF80D6E9-FC01-41DE-AE5B-C18A8FEE4B61}"/>
+    <hyperlink ref="L43" r:id="rId8" xr:uid="{8268F96D-EE6E-424F-A780-A9A621B1C35E}"/>
+    <hyperlink ref="L9" r:id="rId9" xr:uid="{6867DEF7-4BA1-4BF3-B425-3F8967541E72}"/>
+    <hyperlink ref="L49" r:id="rId10" xr:uid="{4E9033FC-A61F-4AD0-BC6E-D7421AC28653}"/>
+    <hyperlink ref="L53" r:id="rId11" xr:uid="{DE3778B1-705A-49E1-A100-75DA33795FA6}"/>
+    <hyperlink ref="L59" r:id="rId12" xr:uid="{477017B3-6F7C-49B3-BFE7-B938F0C3100E}"/>
+    <hyperlink ref="L19" r:id="rId13" xr:uid="{C88FE0F4-D228-4503-BF70-DBE03BC1CBA6}"/>
+    <hyperlink ref="L5" r:id="rId14" xr:uid="{31443853-D09F-4F84-954E-7CA1C491F26B}"/>
+    <hyperlink ref="L6" r:id="rId15" xr:uid="{0E4C160D-27D4-4820-A77F-2EAA9F203707}"/>
+    <hyperlink ref="L7" r:id="rId16" xr:uid="{ACA4D640-165B-4F8B-BF3D-DBAB68382E57}"/>
+    <hyperlink ref="L11" r:id="rId17" xr:uid="{BC957234-9508-4452-B750-7DF5EC1A82F4}"/>
+    <hyperlink ref="L15" r:id="rId18" xr:uid="{28CB395D-13FE-43C2-BC2A-83EF346B04DA}"/>
+    <hyperlink ref="L16" r:id="rId19" xr:uid="{4E3641D7-9236-41F3-A2E8-7DFE0D56395D}"/>
+    <hyperlink ref="L17" r:id="rId20" xr:uid="{E314DAFE-489B-44AD-B143-AB69A26DB205}"/>
+    <hyperlink ref="L20" r:id="rId21" xr:uid="{46851F44-0B2B-41AC-911A-7A55F0724FAD}"/>
+    <hyperlink ref="L21" r:id="rId22" xr:uid="{B135E44C-0B39-4DEC-BEA6-373B3C21A245}"/>
+    <hyperlink ref="L23" r:id="rId23" xr:uid="{C3BC703A-7189-4836-8AC5-30C4B58AF752}"/>
+    <hyperlink ref="L44" r:id="rId24" xr:uid="{E89D8D04-2626-4DD1-BC43-3E8499E23866}"/>
+    <hyperlink ref="L46" r:id="rId25" xr:uid="{9BF0ABF8-76D5-4F4D-835C-53C7E28686EB}"/>
+    <hyperlink ref="L47" r:id="rId26" xr:uid="{8983D919-2AE3-4D93-9C5A-2AB6FC2614E1}"/>
+    <hyperlink ref="L50" r:id="rId27" xr:uid="{F9FA591D-3B49-44FA-BC60-F87BFCF59004}"/>
+    <hyperlink ref="L8" r:id="rId28" xr:uid="{979F3417-CA79-4985-8AB3-5B890F650DE3}"/>
+    <hyperlink ref="L45" r:id="rId29" xr:uid="{61AEACD3-FA78-4AA3-91D8-7628AF5DAD8C}"/>
+    <hyperlink ref="L48" r:id="rId30" xr:uid="{8340D5B2-721B-4E62-84F8-6B633874B227}"/>
+    <hyperlink ref="L3" r:id="rId31" xr:uid="{CD488C54-7A78-456C-9C76-A705C17C1576}"/>
+    <hyperlink ref="L10" r:id="rId32" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392657659_Infestation_of_Insect_Pests_on_Guava_Psidium_guajava_Tree_in_river_bed_area_of_Ganga_in_KANPUR/links/684c2dd7df3fa4286a409aaf/Infestation-of-Insect-Pests-on-Guava-Psidium-guajava-Tree-in-river-bed-area-of-Ganga-in-KANPUR.pdf" xr:uid="{485E13B4-C940-484D-9BF4-83239DD5EF4A}"/>
+    <hyperlink ref="M49" r:id="rId33" xr:uid="{A1789E01-7C3E-4D89-B30D-BC4C209FE541}"/>
+    <hyperlink ref="M48" r:id="rId34" xr:uid="{8F9B066A-44C7-4AE0-B706-2A72F1B4B373}"/>
+    <hyperlink ref="L62" r:id="rId35" xr:uid="{10604477-C977-4506-A575-B3D00193B9B1}"/>
+    <hyperlink ref="L14" r:id="rId36" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691074_Response_of_Abiotic_Factors_on_Population_of_Oriental_Fruit_Fly_B_Dorsalis_In_Guava_Varieties/links/684d45ba24267473b776f98b/Response-of-Abiotic-Factors-on-Population-of-Oriental-Fruit-Fly-B-Dorsalis-In-Guava-Varieties.pdf" xr:uid="{589BF496-0A60-4FB6-B971-DA0DCCD38E52}"/>
+    <hyperlink ref="L58" r:id="rId37" xr:uid="{07821277-A1BA-4230-AD0B-6DE7B6DA41F0}"/>
+    <hyperlink ref="M54" r:id="rId38" xr:uid="{A16ABE52-117C-4DBA-987F-684F36613A94}"/>
+    <hyperlink ref="L4" r:id="rId39" xr:uid="{04D0DFCF-36E6-4D8F-93D9-D60BE8511C16}"/>
+    <hyperlink ref="L2" r:id="rId40" xr:uid="{856839CC-CEE6-40BA-A7A8-B71E29F0557F}"/>
+    <hyperlink ref="M12" r:id="rId41" xr:uid="{F6EB5B1D-6844-4B8A-ADC7-839B16C3AC9C}"/>
+    <hyperlink ref="L28" r:id="rId42" xr:uid="{DDE91EC4-46E3-463E-A747-0E2B6B9A043D}"/>
+    <hyperlink ref="M28" r:id="rId43" xr:uid="{33C61B6E-2FCD-4F05-861C-0043F8D2E3BF}"/>
+    <hyperlink ref="M33" r:id="rId44" xr:uid="{BB110ED7-C7BE-4F13-A505-9928A1859175}"/>
+    <hyperlink ref="M62" r:id="rId45" xr:uid="{773D55EA-F5B6-438C-8698-129A28EA2B02}"/>
+    <hyperlink ref="M63" r:id="rId46" xr:uid="{C4D17878-C89B-41A9-A36C-7279D8B56676}"/>
+    <hyperlink ref="L40" r:id="rId47" xr:uid="{36BBD4AF-A2FB-4091-AF15-559CE5130E26}"/>
+    <hyperlink ref="M41" r:id="rId48" xr:uid="{28978EE3-D3BF-4AF1-A31F-CBA76847CC14}"/>
+    <hyperlink ref="L39" r:id="rId49" xr:uid="{0A008BA3-28F5-44CA-9EC0-F7833C018F84}"/>
+    <hyperlink ref="L29" r:id="rId50" xr:uid="{7EB92BDC-A398-4034-9CEF-FF1A15F2326E}"/>
+    <hyperlink ref="M60" r:id="rId51" xr:uid="{ACC30793-B279-41B2-A431-D9E7EE951BF2}"/>
+    <hyperlink ref="L60" r:id="rId52" xr:uid="{B57BD76C-B68E-40C4-A39B-E56B27A51AFB}"/>
+    <hyperlink ref="L12" r:id="rId53" xr:uid="{06247FD8-B6C9-4FB9-A20F-AE4E7D16426F}"/>
+    <hyperlink ref="L51" r:id="rId54" xr:uid="{ABBC67FA-774E-4CDE-A90E-BA506074F782}"/>
+    <hyperlink ref="M29" r:id="rId55" xr:uid="{FB361421-DC68-4294-92CD-DF6CC3E13E50}"/>
+    <hyperlink ref="M32" r:id="rId56" xr:uid="{7CE9A6A3-113B-483C-B671-35292B160411}"/>
+    <hyperlink ref="L61" r:id="rId57" xr:uid="{A9A6C62C-EBEC-4CDD-9869-3059A255B08D}"/>
+    <hyperlink ref="L57" r:id="rId58" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
+    <hyperlink ref="M67" r:id="rId59" xr:uid="{7149B27D-6791-450F-9AEB-5AC904309389}"/>
+    <hyperlink ref="L63" r:id="rId60" xr:uid="{C0781CC1-608C-4532-97EA-5F98BEC76BD2}"/>
+    <hyperlink ref="M65" r:id="rId61" xr:uid="{165B0635-4FE9-4F5C-AEAE-6B75DAF704B5}"/>
+    <hyperlink ref="L67" r:id="rId62" xr:uid="{F1655B9F-CC63-4BE7-9866-6424E6FF5C68}"/>
+    <hyperlink ref="M24" r:id="rId63" xr:uid="{BE5BF1E1-9EE7-4C3A-9B10-50F045151F21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId63"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId64"/>
 </worksheet>
 </file>
 
@@ -7735,7 +7930,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7743,7 +7938,7 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -7751,7 +7946,7 @@
     </row>
     <row r="6" spans="1:1" ht="15">
       <c r="A6" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -7759,7 +7954,7 @@
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -7767,7 +7962,7 @@
     </row>
     <row r="10" spans="1:1" ht="15">
       <c r="A10" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -7775,7 +7970,7 @@
     </row>
     <row r="12" spans="1:1" ht="15">
       <c r="A12" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -7783,7 +7978,7 @@
     </row>
     <row r="14" spans="1:1" ht="15">
       <c r="A14" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -7791,7 +7986,7 @@
     </row>
     <row r="16" spans="1:1" ht="15">
       <c r="A16" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -7799,7 +7994,7 @@
     </row>
     <row r="18" spans="1:1" ht="15">
       <c r="A18" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -7807,7 +8002,7 @@
     </row>
     <row r="20" spans="1:1" ht="15">
       <c r="A20" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -7815,7 +8010,7 @@
     </row>
     <row r="22" spans="1:1" ht="15">
       <c r="A22" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -7823,7 +8018,7 @@
     </row>
     <row r="24" spans="1:1" ht="15">
       <c r="A24" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -7831,7 +8026,7 @@
     </row>
     <row r="26" spans="1:1" ht="15">
       <c r="A26" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -7839,7 +8034,7 @@
     </row>
     <row r="28" spans="1:1" ht="15">
       <c r="A28" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -7847,7 +8042,7 @@
     </row>
     <row r="30" spans="1:1" ht="15">
       <c r="A30" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -7855,7 +8050,7 @@
     </row>
     <row r="32" spans="1:1" ht="15">
       <c r="A32" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -7863,7 +8058,7 @@
     </row>
     <row r="34" spans="1:1" ht="15">
       <c r="A34" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -7871,7 +8066,7 @@
     </row>
     <row r="36" spans="1:1" ht="15">
       <c r="A36" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -7879,7 +8074,7 @@
     </row>
     <row r="38" spans="1:1" ht="15">
       <c r="A38" s="26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -7887,7 +8082,7 @@
     </row>
     <row r="40" spans="1:1" ht="15">
       <c r="A40" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -7895,7 +8090,7 @@
     </row>
     <row r="42" spans="1:1" ht="15">
       <c r="A42" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -7903,7 +8098,7 @@
     </row>
     <row r="44" spans="1:1" ht="15">
       <c r="A44" s="26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -7911,7 +8106,7 @@
     </row>
     <row r="46" spans="1:1" ht="15">
       <c r="A46" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -7927,11 +8122,11 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="19.33203125" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="49.5546875" customWidth="1"/>
@@ -7939,20 +8134,20 @@
     <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="229.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="229.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" customHeight="1">
       <c r="A1" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>176</v>
       </c>
       <c r="D1" s="81" t="s">
         <v>3</v>
@@ -7961,89 +8156,89 @@
         <v>7</v>
       </c>
       <c r="F1" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="I1" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="81" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="81" t="s">
-        <v>180</v>
-      </c>
       <c r="J1" s="81" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K1" s="81" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L1" s="81" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="37.950000000000003" customHeight="1">
       <c r="A2" s="82" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D2" s="82">
         <v>2005</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F2" s="82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G2" s="82">
         <v>3</v>
       </c>
       <c r="H2" s="82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:12" ht="37.950000000000003" customHeight="1">
       <c r="A3" s="82" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" s="82">
         <v>2017</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G3" s="78">
         <f>LEN(J3)-LEN(SUBSTITUTE(J3,";",""))+1</f>
         <v>2</v>
       </c>
       <c r="H3" s="82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J3" s="78" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L3" s="73" t="str">
         <f t="shared" ref="L3:L13" si="0">_xlfn.CONCAT(SUBSTITUTE(J3,";",",")," (",D3,") ",B3,". ",C3,". ",E3,IF(LEFT(K3,16)="https://doi.org/",_xlfn.CONCAT(". DOI: ",K3),""))</f>
@@ -8052,35 +8247,35 @@
     </row>
     <row r="4" spans="1:12" ht="37.950000000000003" customHeight="1">
       <c r="A4" s="82" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="82">
         <v>2017</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F4" s="82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G4" s="78">
         <f t="shared" ref="G4:G13" si="1">LEN(J4)-LEN(SUBSTITUTE(J4,";",""))+1</f>
         <v>2</v>
       </c>
       <c r="H4" s="82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I4" s="82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J4" s="78" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K4" s="73"/>
       <c r="L4" s="73" t="str">
@@ -8090,35 +8285,35 @@
     </row>
     <row r="5" spans="1:12" ht="27.6">
       <c r="A5" s="82" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="82">
         <v>2017</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G5" s="78">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="82" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I5" s="82" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J5" s="78" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K5" s="73"/>
       <c r="L5" s="73" t="str">
@@ -8128,35 +8323,35 @@
     </row>
     <row r="6" spans="1:12" ht="27.6">
       <c r="A6" s="82" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B6" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="E6" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="82" t="s">
         <v>201</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>203</v>
       </c>
       <c r="G6" s="78">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="82" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I6" s="82" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K6" s="73"/>
       <c r="L6" s="73" t="str">
@@ -8166,35 +8361,35 @@
     </row>
     <row r="7" spans="1:12" ht="41.4">
       <c r="A7" s="82" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D7" s="82">
         <v>2020</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F7" s="82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G7" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H7" s="82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J7" s="83" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K7" s="73"/>
       <c r="L7" s="73" t="str">
@@ -8204,35 +8399,35 @@
     </row>
     <row r="8" spans="1:12" ht="55.2">
       <c r="A8" s="82" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" s="82">
         <v>2021</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G8" s="78">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H8" s="82" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I8" s="82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K8" s="73"/>
       <c r="L8" s="73" t="str">
@@ -8242,35 +8437,35 @@
     </row>
     <row r="9" spans="1:12" ht="55.2">
       <c r="A9" s="82" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D9" s="82">
         <v>2022</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G9" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H9" s="82" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I9" s="82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K9" s="73"/>
       <c r="L9" s="73" t="str">
@@ -8280,35 +8475,35 @@
     </row>
     <row r="10" spans="1:12" ht="69">
       <c r="A10" s="82" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D10" s="82">
         <v>2023</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G10" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H10" s="82" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J10" s="83" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K10" s="73"/>
       <c r="L10" s="73" t="str">
@@ -8321,32 +8516,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D11" s="82">
         <v>2024</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G11" s="78">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H11" s="82" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J11" s="83" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K11" s="73"/>
       <c r="L11" s="73" t="str">
@@ -8359,32 +8554,32 @@
         <v>11</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D12" s="82">
         <v>2024</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G12" s="78">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H12" s="82" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J12" s="83" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K12" s="73"/>
       <c r="L12" s="73" t="str">
@@ -8397,35 +8592,35 @@
         <v>12</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D13" s="78">
         <v>2024</v>
       </c>
       <c r="E13" s="78" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G13" s="78">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J13" s="78" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K13" s="85" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L13" s="73" t="str">
         <f t="shared" si="0"/>
@@ -8437,35 +8632,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D14" s="78">
         <v>2025</v>
       </c>
       <c r="E14" s="78" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G14" s="78">
         <f>LEN(J14)-LEN(SUBSTITUTE(J14,";",""))+1</f>
         <v>2</v>
       </c>
       <c r="H14" s="83" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I14" s="73" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K14" s="86" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="L14" s="73" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(J14,";",",")," (",D14,") ",B14,". ",C14,". ",E14,IF(LEFT(K14,16)="https://doi.org/",_xlfn.CONCAT(". DOI: ",K14),""))</f>
@@ -8740,46 +8935,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -8798,293 +8993,293 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="255.77734375" style="29" customWidth="1"/>
     <col min="2" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="28" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="31.2">
       <c r="A35" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="31.2">
       <c r="A38" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -9114,86 +9309,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.8" thickBot="1">
       <c r="A1" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>295</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" thickBot="1">
       <c r="A2" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="46" t="s">
         <v>299</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" thickBot="1">
       <c r="A3" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="D3" s="46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" thickBot="1">
       <c r="A4" s="45" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" thickBot="1">
       <c r="A5" s="45" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>306</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.6" thickBot="1">
       <c r="A6" s="47" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -9213,34 +9408,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" t="s">
         <v>311</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>312</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>313</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>314</v>
-      </c>
-      <c r="E1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -9261,7 +9456,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3">
         <v>9.6999999999999993</v>
@@ -9299,8 +9494,8 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="75.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="30.109375" style="6"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -9323,10 +9518,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6">
@@ -9469,7 +9664,7 @@
     </row>
     <row r="8" spans="1:7" ht="31.2">
       <c r="A8" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>30</v>
@@ -9492,7 +9687,7 @@
     </row>
     <row r="9" spans="1:7" ht="31.2">
       <c r="A9" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>30</v>
@@ -9630,7 +9825,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>53</v>
@@ -9906,16 +10101,16 @@
     </row>
     <row r="27" spans="1:7" ht="31.2">
       <c r="A27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="C27" s="11">
         <v>2017</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>25</v>
@@ -9929,7 +10124,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>53</v>
@@ -9952,16 +10147,16 @@
     </row>
     <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="11">
         <v>2018</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>25</v>
@@ -9975,16 +10170,16 @@
     </row>
     <row r="30" spans="1:7" ht="31.2">
       <c r="A30" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="11">
         <v>2018</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>25</v>
@@ -9998,7 +10193,7 @@
     </row>
     <row r="31" spans="1:7" ht="31.2">
       <c r="A31" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>53</v>
@@ -10021,16 +10216,16 @@
     </row>
     <row r="32" spans="1:7" ht="31.2">
       <c r="A32" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11">
         <v>2018</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>25</v>
@@ -10044,16 +10239,16 @@
     </row>
     <row r="33" spans="1:7" ht="31.2">
       <c r="A33" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" s="11">
         <v>2018</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>25</v>
@@ -10067,16 +10262,16 @@
     </row>
     <row r="34" spans="1:7" ht="31.2">
       <c r="A34" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C34" s="11">
         <v>2018</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>25</v>
@@ -10090,16 +10285,16 @@
     </row>
     <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="11">
         <v>2018</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>25</v>
@@ -10113,16 +10308,16 @@
     </row>
     <row r="36" spans="1:7" ht="31.2">
       <c r="A36" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="11">
         <v>2018</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>25</v>
@@ -10136,16 +10331,16 @@
     </row>
     <row r="37" spans="1:7" ht="31.2">
       <c r="A37" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" s="11">
         <v>2018</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>25</v>
@@ -10159,16 +10354,16 @@
     </row>
     <row r="38" spans="1:7" ht="31.2">
       <c r="A38" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="11">
         <v>2018</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>25</v>
@@ -10182,16 +10377,16 @@
     </row>
     <row r="39" spans="1:7" ht="31.2">
       <c r="A39" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" s="11">
         <v>2018</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>25</v>
@@ -10205,16 +10400,16 @@
     </row>
     <row r="40" spans="1:7" ht="31.2">
       <c r="A40" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40" s="11">
         <v>2018</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>25</v>
@@ -10228,16 +10423,16 @@
     </row>
     <row r="41" spans="1:7" ht="15.6">
       <c r="A41" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C41" s="11">
         <v>2018</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>25</v>
@@ -10251,16 +10446,16 @@
     </row>
     <row r="42" spans="1:7" ht="31.2">
       <c r="A42" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C42" s="11">
         <v>2019</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>25</v>
@@ -10274,16 +10469,16 @@
     </row>
     <row r="43" spans="1:7" ht="31.2">
       <c r="A43" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11">
         <v>2019</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>25</v>
@@ -10295,21 +10490,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.6">
+    <row r="44" spans="1:7" ht="31.2">
       <c r="A44" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C44" s="11">
         <v>2019</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -10320,16 +10515,16 @@
     </row>
     <row r="45" spans="1:7" ht="31.2">
       <c r="A45" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="11">
         <v>2019</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>25</v>
@@ -10343,16 +10538,16 @@
     </row>
     <row r="46" spans="1:7" ht="15.6">
       <c r="A46" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" s="11">
         <v>2021</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>25</v>
@@ -10366,16 +10561,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.2">
       <c r="A47" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C47" s="11">
         <v>2021</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>17</v>
@@ -10389,16 +10584,16 @@
     </row>
     <row r="48" spans="1:7" ht="31.2">
       <c r="A48" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="11">
         <v>2022</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>17</v>
@@ -10412,16 +10607,16 @@
     </row>
     <row r="49" spans="1:8" ht="46.8">
       <c r="A49" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C49" s="11">
         <v>2022</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>17</v>
@@ -10435,16 +10630,16 @@
     </row>
     <row r="50" spans="1:8" ht="31.2">
       <c r="A50" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C50" s="11">
         <v>2022</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>25</v>
@@ -10458,16 +10653,16 @@
     </row>
     <row r="51" spans="1:8" ht="31.2">
       <c r="A51" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C51" s="11">
         <v>2022</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>17</v>
@@ -10481,16 +10676,16 @@
     </row>
     <row r="52" spans="1:8" ht="31.2">
       <c r="A52" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C52" s="11">
         <v>2022</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>17</v>
@@ -10504,16 +10699,16 @@
     </row>
     <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" s="11">
         <v>2023</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>25</v>
@@ -10527,16 +10722,16 @@
     </row>
     <row r="54" spans="1:8" ht="31.2">
       <c r="A54" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C54" s="11">
         <v>2023</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>25</v>
@@ -10550,16 +10745,16 @@
     </row>
     <row r="55" spans="1:8" ht="31.8" thickBot="1">
       <c r="A55" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C55" s="11">
         <v>2023</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>17</v>
@@ -10573,16 +10768,16 @@
     </row>
     <row r="56" spans="1:8" ht="15" thickBot="1">
       <c r="A56" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C56" s="20">
         <v>2023</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>17</v>
@@ -10596,16 +10791,16 @@
     </row>
     <row r="57" spans="1:8" ht="31.2">
       <c r="A57" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C57" s="11">
         <v>2023</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>17</v>
@@ -10619,16 +10814,16 @@
     </row>
     <row r="58" spans="1:8" ht="16.2" thickBot="1">
       <c r="A58" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C58" s="11">
         <v>2024</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>17</v>
@@ -10642,16 +10837,16 @@
     </row>
     <row r="59" spans="1:8" ht="15" thickBot="1">
       <c r="A59" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C59" s="20">
         <v>2024</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>25</v>
@@ -10665,16 +10860,16 @@
     </row>
     <row r="60" spans="1:8" ht="29.4" thickBot="1">
       <c r="A60" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60" s="20">
         <v>2024</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>17</v>
@@ -10688,16 +10883,16 @@
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C61" s="4">
         <v>2024</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>17</v>
@@ -10711,16 +10906,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" s="6">
         <v>2024</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>17</v>
@@ -10735,16 +10930,16 @@
     </row>
     <row r="63" spans="1:8" ht="26.4">
       <c r="A63" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C63" s="15">
         <v>2005</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -10755,16 +10950,16 @@
     </row>
     <row r="64" spans="1:8" ht="26.4">
       <c r="A64" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" s="15">
         <v>2017</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -10775,16 +10970,16 @@
     </row>
     <row r="65" spans="1:7" ht="26.4">
       <c r="A65" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C65" s="15">
         <v>2017</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -10795,16 +10990,16 @@
     </row>
     <row r="66" spans="1:7" ht="26.4">
       <c r="A66" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C66" s="15">
         <v>2017</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -10815,16 +11010,16 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="D67" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -10835,16 +11030,16 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C68" s="15">
         <v>2020</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -10855,16 +11050,16 @@
     </row>
     <row r="69" spans="1:7" ht="27.6">
       <c r="A69" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C69" s="15">
         <v>2021</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -10875,16 +11070,16 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C70" s="15">
         <v>2022</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -10895,16 +11090,16 @@
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1">
       <c r="A71" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C71" s="15">
         <v>2023</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -10915,16 +11110,16 @@
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1">
       <c r="A72" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C72" s="37">
         <v>2024</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E72"/>
       <c r="F72">
@@ -10936,16 +11131,16 @@
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1">
       <c r="A73" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C73" s="40">
         <v>2024</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E73"/>
       <c r="F73">
@@ -10973,19 +11168,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
         <v>326</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>327</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>328</v>
-      </c>
-      <c r="D1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/public/db/Research Publications.xlsx
+++ b/public/db/Research Publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6ebe70412253074/Desktop/Sunita Arya/SunitaArya/public/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/C6EBE70412253074/Desktop/Sunita Arya/SunitaArya/public/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4C2D581-2D5C-4475-A1F6-ACE5D6A40C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{120B6E78-0A8A-4F54-9DE2-5748A9E1287C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
+    <workbookView xWindow="30" yWindow="135" windowWidth="20430" windowHeight="10635" tabRatio="842" xr2:uid="{0132C604-1F6F-4428-A8EE-276A2034DAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Research" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="615">
   <si>
     <t>Sr. no.</t>
   </si>
@@ -370,9 +370,6 @@
   </si>
   <si>
     <t>Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria, 9(2): 103-109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.researchgate.net/publication/376173511_Effect_of_herbal_formulations_on_lemon_grass_oil_and_Basil_oil_on_MDR_Bacteria </t>
   </si>
   <si>
     <t>Green Technology to combat environmental degradation and sustainable food production: A Review, 9(2):118-123</t>
@@ -3319,9 +3316,6 @@
     <t>https://doi.org/10.53390/IJES.2025.16204</t>
   </si>
   <si>
-    <t>http://journal.nesa-india.org/archieve-files/IJES/2025/2nd-issue/Paper4_IJES_Vol16_2nd_Issue_2025.pdf</t>
-  </si>
-  <si>
     <t>https://doi.org/10.5281/zenodo.17178134</t>
   </si>
   <si>
@@ -3335,6 +3329,30 @@
   </si>
   <si>
     <t>https://mgesjournals.com/gctl/article/download/gctl.2017.315/479/1043</t>
+  </si>
+  <si>
+    <t>Study of Pre-Mating Behavior and Reproductive Indicators in Indian Rhinoceros (Rhinoceros unicornis) with Ethogram</t>
+  </si>
+  <si>
+    <t>338-346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponding </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.56557/upjoz/2025/v46i195290</t>
+  </si>
+  <si>
+    <t>Pandey, N.; Arya, S.</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/17404700/files/Study of Pre-Mating Behavior and Reproductive Indicators in Indian Rhinoceros (Rhinoceros unicornis) with Ethogram.pdf</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/376173511</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/17449197/files/Pesticides,%20Herbicides%20and%20Their%20Effects%20on%20Population.pdf</t>
   </si>
 </sst>
 </file>
@@ -3344,7 +3362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3774,7 +3792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3944,9 +3962,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4034,6 +4049,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4355,37 +4376,37 @@
   </sheetPr>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P68" sqref="P68"/>
+      <selection pane="bottomLeft" activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="43.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="43.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="49.21875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="67" customWidth="1"/>
-    <col min="5" max="5" width="18" style="67" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="67" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="67" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="67" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="67" customWidth="1"/>
-    <col min="12" max="12" width="51.77734375" style="68" customWidth="1"/>
-    <col min="13" max="14" width="30.109375" style="67"/>
-    <col min="15" max="15" width="255.77734375" style="67" customWidth="1"/>
-    <col min="16" max="16384" width="30.109375" style="67"/>
+    <col min="1" max="1" width="8.5703125" style="66" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" style="66" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="66" customWidth="1"/>
+    <col min="5" max="5" width="18" style="66" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="66" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="66" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="66" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="66" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="66" customWidth="1"/>
+    <col min="12" max="12" width="51.7109375" style="67" customWidth="1"/>
+    <col min="13" max="14" width="30.140625" style="66"/>
+    <col min="15" max="15" width="255.7109375" style="66" customWidth="1"/>
+    <col min="16" max="16384" width="30.140625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.2" customHeight="1">
+    <row r="1" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C1" s="50" t="s">
         <v>2</v>
@@ -4418,21 +4439,21 @@
         <v>11</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N1" s="50" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O1" s="50" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="43.2" customHeight="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53">
         <v>1</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>13</v>
@@ -4450,12 +4471,12 @@
         <v>9</v>
       </c>
       <c r="H2" s="53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="91">
+      <c r="J2" s="90">
         <f>LEN(N2)-LEN(SUBSTITUTE(N2,";",""))+1</f>
         <v>3</v>
       </c>
@@ -4463,23 +4484,23 @@
         <v>17</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M2" s="52"/>
       <c r="N2" s="51" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O2" s="53" t="str">
         <f t="shared" ref="O2:O36" si="0">_xlfn.CONCAT(SUBSTITUTE(N2,";",",")," (",D2,") ",B2,". ",C2,". ",F2," (",G2,"): ",H2,". ",IF(LEFT(L2,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L2,(LEN(L2)-16))), ""))</f>
         <v xml:space="preserve">Tewari, U.C., Kumar, R., Arya, S. (1994) Association Studies in Roses. Farm Science Journal. 6 (9): 189-191. </v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="43.2" customHeight="1">
+    <row r="3" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53">
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>24</v>
@@ -4494,15 +4515,15 @@
         <v>12</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="91">
+      <c r="J3" s="90">
         <f>LEN(N3)-LEN(SUBSTITUTE(N3,";",""))+1</f>
         <v>1</v>
       </c>
@@ -4510,23 +4531,23 @@
         <v>25</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M3" s="52"/>
       <c r="N3" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O3" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2003) Population Dynamics of lemon butterfly in citrus crop. Farm Science Journal . 12 (review of muscovi duck): 507-511. </v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="43.2" customHeight="1">
+    <row r="4" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53">
         <v>3</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>27</v>
@@ -4541,15 +4562,15 @@
         <v>2</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="91">
+      <c r="J4" s="90">
         <f>LEN(N4)-LEN(SUBSTITUTE(N4,";",""))+1</f>
         <v>4</v>
       </c>
@@ -4557,23 +4578,23 @@
         <v>17</v>
       </c>
       <c r="L4" s="52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M4" s="52"/>
       <c r="N4" s="51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O4" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Tewari, U.C., Kumar, R., Arya, S., Dwivedi, A. (2005) Investigation on phenotypic correlation in gladiolus genotype. National Journal of Science. 2 (Suppl): 507-511. </v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.2" customHeight="1">
+    <row r="5" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53">
         <v>4</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>30</v>
@@ -4591,12 +4612,12 @@
         <v>11</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="91">
+      <c r="J5" s="90">
         <f t="shared" ref="J5:J66" si="1">LEN(N5)-LEN(SUBSTITUTE(N5,";",""))+1</f>
         <v>1</v>
       </c>
@@ -4610,14 +4631,14 @@
         <v>32</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O5" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2013) A research study of phytohormone on vegetative growth and flowering behavior in gladiolus (gladiolus grandifloras). International Journal of Innovative Research in Science, Engineering and Technology. 2 (11): 7060-7062. </v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="43.2" customHeight="1">
+    <row r="6" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <v>5</v>
       </c>
@@ -4645,7 +4666,7 @@
       <c r="I6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="91">
+      <c r="J6" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4659,14 +4680,14 @@
         <v>35</v>
       </c>
       <c r="N6" s="51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O6" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2013) Bio efficacy of entomopathogenic fungi against oriental fruit fly (dacus dorsalis H.) infesting guava in riverbed area of ganga. International Journal of Innovative Research in Science, Engineering and Technology. 2 (11): 7066-7068. </v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.2" customHeight="1">
+    <row r="7" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53">
         <v>6</v>
       </c>
@@ -4694,7 +4715,7 @@
       <c r="I7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="91">
+      <c r="J7" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4708,19 +4729,19 @@
         <v>38</v>
       </c>
       <c r="N7" s="51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O7" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2013) Studies on citrus crop insect –pest management with adhesive cage under integrated pest management programme. International Journal of Innovative Research in Science, Engineering and Technology. 2 (12): 8088-8091. </v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="43.2" customHeight="1">
+    <row r="8" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
         <v>7</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>30</v>
@@ -4738,12 +4759,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="91">
+      <c r="J8" s="90">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4757,14 +4778,14 @@
         <v>40</v>
       </c>
       <c r="N8" s="51" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O8" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Dubey, R. K., Dixit, P., Arya, S. (2014) Naturally occurring aurones and chromones –a potential organic therapeutic agents improvising nutritional security. International Journal of Innovative Research in Science, Engineering and Technology. 3 (1): 8141-8144. </v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="43.2" customHeight="1">
+    <row r="9" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="53">
         <v>8</v>
       </c>
@@ -4787,12 +4808,12 @@
         <v>6</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="91">
+      <c r="J9" s="90">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4806,22 +4827,22 @@
         <v>42</v>
       </c>
       <c r="N9" s="51" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O9" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Dubey, R.K., Katiyar, P., Dipankar, A., Tuck, R.R., Arya, S. (2014) A microbiological study on asthma and allergy management. International Journal of Innovative Research in Science, Engineering and Technology. 3 (6): 13763-13766. </v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="43.2" customHeight="1">
+    <row r="10" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
         <v>9</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D10" s="51">
         <v>2016</v>
@@ -4833,15 +4854,15 @@
         <v>5</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4849,18 +4870,18 @@
         <v>25</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M10" s="54"/>
       <c r="N10" s="51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O10" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Jaswant, S. (2016) Infestation of insect-pest on guava (psidiumquajava) tree in riverbed area of ganga river in Kanpur. International Research and Reviews. 5 (1 (III)): 60-65. </v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.2" customHeight="1">
+    <row r="11" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <v>10</v>
       </c>
@@ -4883,12 +4904,12 @@
         <v>1</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="91">
+        <v>159</v>
+      </c>
+      <c r="J11" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4902,19 +4923,19 @@
         <v>49</v>
       </c>
       <c r="N11" s="51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O11" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Madhulekha, Arya, S. (2016) Assessment of Water Pollution of River Ganga by Tannery Effluent Using Fish as an Indicator in Kanpur, India. Journal of Biochemical and Cellular Archives . 16 (1): 120-123. </v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.2" customHeight="1">
+    <row r="12" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53">
         <v>11</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>51</v>
@@ -4932,38 +4953,38 @@
         <v>2</v>
       </c>
       <c r="H12" s="53" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="91">
+      <c r="J12" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K12" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="62" t="s">
-        <v>541</v>
+      <c r="L12" s="61" t="s">
+        <v>540</v>
       </c>
       <c r="M12" s="54" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O12" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Madhulekha, Arya, S. (2016) Evaluation of Water Quality in River Ganga Due to Contaminant of Heavy Metals, Kanpur (India). International Journal of Innovative Trends in Engineering. 20 (2): 97-100. DOI: 10.5281/zenodo.15669228</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="43.2" customHeight="1">
+    <row r="13" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
         <v>12</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="51" t="s">
         <v>53</v>
@@ -4981,12 +5002,12 @@
         <v>6</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I13" s="51">
         <v>47715</v>
       </c>
-      <c r="J13" s="91">
+      <c r="J13" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4998,19 +5019,19 @@
       </c>
       <c r="M13" s="53"/>
       <c r="N13" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O13" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2016) Extent of damage and seasonal abundance of citrus psylla (d. citri) on citrus plant. Academic Social Research. 2 (6): 131-136. </v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="43.2" customHeight="1">
+    <row r="14" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53">
         <v>13</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>53</v>
@@ -5028,12 +5049,12 @@
         <v>4</v>
       </c>
       <c r="H14" s="53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I14" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="91">
+      <c r="J14" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5041,23 +5062,23 @@
         <v>25</v>
       </c>
       <c r="L14" s="52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M14" s="53"/>
       <c r="N14" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O14" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2016) Response of Abiotic Factors on Population of Oriental Fruit Fly (B. Dorsalis) In Guava Varieties. Academic Social Research. 2 (4): 73-76. </v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="43.2" customHeight="1">
+    <row r="15" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53">
         <v>14</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>30</v>
@@ -5075,12 +5096,12 @@
         <v>3</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="91">
+      <c r="J15" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5094,19 +5115,19 @@
         <v>58</v>
       </c>
       <c r="N15" s="51" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O15" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R.K. (2017) Physico-Chemical and Scientific Analysis of Ganga River Water with Special Respect to Bacteriophage Activity and Its Comparative Studies with Sewage Water Treatment. International Journal of Innovative Research in Science, Engineering and Technology. 6 (3): 5094-5104. </v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="43.2" customHeight="1">
+    <row r="16" spans="1:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="53">
         <v>15</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>30</v>
@@ -5124,12 +5145,12 @@
         <v>3</v>
       </c>
       <c r="H16" s="53" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I16" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="91">
+      <c r="J16" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5143,19 +5164,19 @@
         <v>60</v>
       </c>
       <c r="N16" s="51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O16" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Microbiological Research Studies on Anar Butterfly (Virachola Isocrates F.) Population with Different Factors in Guava Fruit. International Journal of Innovative Research in Science, Engineering and Technology. 6 (3): 5089-5093. </v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="43.2" customHeight="1">
+    <row r="17" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="53">
         <v>16</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>30</v>
@@ -5173,12 +5194,12 @@
         <v>4</v>
       </c>
       <c r="H17" s="53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="91">
+      <c r="J17" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5192,19 +5213,19 @@
         <v>62</v>
       </c>
       <c r="N17" s="51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O17" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Studies on Application, Importance and Effect of Neem Tree (AzadiachtaIndica) Oil on Effect and Intensity of Guava Insect.. International Journal of Innovative Research in Science, Engineering and Technology. 6 (4): 6280-6283. </v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="43.2" customHeight="1">
+    <row r="18" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53">
         <v>17</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C18" s="51" t="s">
         <v>64</v>
@@ -5222,31 +5243,31 @@
         <v>1</v>
       </c>
       <c r="H18" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="91">
+      <c r="J18" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K18" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="51" t="s">
-        <v>397</v>
+      <c r="L18" s="60" t="s">
+        <v>396</v>
       </c>
       <c r="M18" s="53"/>
       <c r="N18" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O18" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2017) Economics and Bioefficacy of Parapheromones On Fruit Fly, Their Traps and Dispenser. Acadmic Science Research. 3 (1): 134-136. </v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="43.2" customHeight="1">
+    <row r="19" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53">
         <v>18</v>
       </c>
@@ -5269,12 +5290,12 @@
         <v>4</v>
       </c>
       <c r="H19" s="53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="91">
+      <c r="J19" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5288,19 +5309,19 @@
         <v>66</v>
       </c>
       <c r="N19" s="51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O19" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Scientific Studies on Effective Applications of Some Important Essential Elements Nitrogens(N), Phosphorus (P), Zinc (Zn) Nutrional Values on Spike and Floret Development in Gladiolus Crop.,. International Journal of Innovative Research in Science, Engineering and Technology. 6 (4): 6275-6279. </v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="43.2" customHeight="1">
+    <row r="20" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53">
         <v>19</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>30</v>
@@ -5318,12 +5339,12 @@
         <v>5</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I20" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="91">
+      <c r="J20" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5337,19 +5358,19 @@
         <v>68</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O20" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) A Scientific Study and Analysis of Incidence and Intensity of Bark Eating Catapillar (Inderbela Spp.) In Guava (P. Guajava) Tree. International Journal of Innovative Research in Science, Engineering and Technology. 6 (5): 10032-10034. </v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="43.2" customHeight="1">
+    <row r="21" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53">
         <v>20</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>70</v>
@@ -5367,12 +5388,12 @@
         <v>5</v>
       </c>
       <c r="H21" s="53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="91">
+      <c r="J21" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5386,19 +5407,19 @@
         <v>71</v>
       </c>
       <c r="N21" s="51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O21" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) Scientific and Academic Studies on Changing Pattern and Factors on Environment Conditions and Socio-Economic Etics. International Journal of Innovative Research in Science, Engineering and Technology.. 6 (5): 10040-10043. </v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="43.2" customHeight="1">
+    <row r="22" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53">
         <v>21</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C22" s="51" t="s">
         <v>53</v>
@@ -5416,12 +5437,12 @@
         <v>1</v>
       </c>
       <c r="H22" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I22" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="91">
+      <c r="J22" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5433,19 +5454,19 @@
       </c>
       <c r="M22" s="53"/>
       <c r="N22" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O22" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2017) Influence of Ecological factor on Mango Fruit Fly, Bactrocera dorsalis Hendel Bactrocera. Academic Social Research. 3 (1): 116-118. </v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="30">
+    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="53">
         <v>22</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C23" s="51" t="s">
         <v>30</v>
@@ -5463,12 +5484,12 @@
         <v>6</v>
       </c>
       <c r="H23" s="53" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I23" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="91">
+      <c r="J23" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5482,19 +5503,19 @@
         <v>75</v>
       </c>
       <c r="N23" s="51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O23" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S., Dubey, R. K. (2017) A Comparative Study and Analysis of Susceptibility Conditions of Fruit Fly BacteroceraCorrectaBezzi To Entomopathogenic Micro-Organisms. International Journal of Innovative Research in Science, Engineering and Technology. 6 (6): 14444-14447. </v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="43.2" customHeight="1">
+    <row r="24" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
         <v>23</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C24" s="51" t="s">
         <v>70</v>
@@ -5512,12 +5533,12 @@
         <v>8</v>
       </c>
       <c r="H24" s="53" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I24" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="91">
+      <c r="J24" s="90">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5525,25 +5546,25 @@
         <v>25</v>
       </c>
       <c r="L24" s="52" t="s">
-        <v>605</v>
-      </c>
-      <c r="M24" s="70" t="s">
-        <v>606</v>
+        <v>603</v>
+      </c>
+      <c r="M24" s="69" t="s">
+        <v>604</v>
       </c>
       <c r="N24" s="51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O24" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Shukla, M., Arya, S., Agarwal, S. (2017) Study of Correlation Coefficient for Physico-Chemical Parameter to Assess the Water Quality of River Ganga at Kanpur, India. International Journal of Innovative Research in Science, Engineering and Technology.. 6 (8): 7164-7170. DOI: 10.5281/zenodo.17178442</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="43.2" customHeight="1">
+    <row r="25" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53">
         <v>24</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C25" s="51" t="s">
         <v>78</v>
@@ -5561,12 +5582,12 @@
         <v>1</v>
       </c>
       <c r="H25" s="53" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I25" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="91">
+      <c r="J25" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5574,25 +5595,25 @@
         <v>25</v>
       </c>
       <c r="L25" s="52" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="M25" s="53" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N25" s="51" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O25" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Shukla, M., Arya, S. (2017) Cadmium Toxicity Induced Morphological Alteration in Indigenous Fish Heteropneustes fossils (Bloch.). Green Chemistry and Technology Letters. 3 (1): 21-25. DOI: 10.18510/gctl.2017.315</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="43.2" customHeight="1">
+    <row r="26" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53">
         <v>25</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>53</v>
@@ -5610,12 +5631,12 @@
         <v>1</v>
       </c>
       <c r="H26" s="53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I26" s="51">
         <v>47715</v>
       </c>
-      <c r="J26" s="91">
+      <c r="J26" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5623,25 +5644,25 @@
         <v>25</v>
       </c>
       <c r="L26" s="52" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M26" s="53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N26" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O26" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Vermicomposting: Profitable Organic Fertilizer. Academic Social Research. 4 (1): 7-0. DOI: 10.5281/zenodo.15669102</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="43.2" customHeight="1">
+    <row r="27" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="53">
         <v>26</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>82</v>
@@ -5659,12 +5680,12 @@
         <v>1</v>
       </c>
       <c r="H27" s="53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I27" s="51">
         <v>62958</v>
       </c>
-      <c r="J27" s="91">
+      <c r="J27" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5676,19 +5697,19 @@
       </c>
       <c r="M27" s="53"/>
       <c r="N27" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O27" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Bio-efficacy of insect pests of Brinzal (Solanummelongena). International Journal on Agricultural Sciences. 9 (1): 52-55. </v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="43.2" customHeight="1">
+    <row r="28" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53">
         <v>27</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C28" s="51" t="s">
         <v>85</v>
@@ -5706,12 +5727,12 @@
         <v>1</v>
       </c>
       <c r="H28" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I28" s="51">
         <v>7775</v>
       </c>
-      <c r="J28" s="91">
+      <c r="J28" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5719,28 +5740,28 @@
         <v>25</v>
       </c>
       <c r="L28" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="M28" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="M28" s="54" t="s">
+      <c r="N28" s="51" t="s">
         <v>524</v>
-      </c>
-      <c r="N28" s="51" t="s">
-        <v>525</v>
       </c>
       <c r="O28" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S., Shukla, M. (2018) Chromium (Cr+6) toxicity and its adverse health effect on freshwater fish. A review article. International Journal on Biological Sciences. 9 (1): 69-73. DOI: 10.5281/zenodo.15670053</v>
       </c>
-      <c r="P28" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P28" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="53">
         <v>28</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>53</v>
@@ -5758,41 +5779,41 @@
         <v>1</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I29" s="51">
         <v>47715</v>
       </c>
-      <c r="J29" s="91">
+      <c r="J29" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K29" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="63" t="s">
-        <v>538</v>
-      </c>
-      <c r="M29" s="70" t="s">
-        <v>552</v>
+      <c r="L29" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="M29" s="69" t="s">
+        <v>551</v>
       </c>
       <c r="N29" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O29" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Insect Pest and Diseases of Roses: Symptoms and Control Measures. Academic Social Research. 4 (1): 312-319. DOI: 10.5281/zenodo.15697980</v>
       </c>
-      <c r="P29" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P29" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53">
         <v>29</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C30" s="51" t="s">
         <v>89</v>
@@ -5810,12 +5831,12 @@
         <v>1</v>
       </c>
       <c r="H30" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I30" s="51">
         <v>4662</v>
       </c>
-      <c r="J30" s="91">
+      <c r="J30" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5823,28 +5844,28 @@
         <v>25</v>
       </c>
       <c r="L30" s="52" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M30" s="53" t="s">
         <v>91</v>
       </c>
       <c r="N30" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O30" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Effect of Neem Excel on the Biology of Papilio demoleus L. Lepidoptera: Papilio nidae. Life Science Bulletin. 15 (1): 63-65. DOI: 10.5281/zenodo.17178134</v>
       </c>
-      <c r="P30" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P30" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53">
         <v>30</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C31" s="51" t="s">
         <v>93</v>
@@ -5862,12 +5883,12 @@
         <v>1</v>
       </c>
       <c r="H31" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I31" s="51">
         <v>7783</v>
       </c>
-      <c r="J31" s="91">
+      <c r="J31" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5879,19 +5900,19 @@
       </c>
       <c r="M31" s="53"/>
       <c r="N31" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O31" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Use of Biopesticides against Papilio Demoleus infestation and yield in citrus (Citrus aurantifolia). International Journal on Environmental Science. 9 (1): 61 – 66. </v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="43.2" customHeight="1">
+    <row r="32" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53">
         <v>31</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C32" s="51" t="s">
         <v>96</v>
@@ -5909,41 +5930,41 @@
         <v>1</v>
       </c>
       <c r="H32" s="53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I32" s="51">
         <v>7775</v>
       </c>
-      <c r="J32" s="91">
+      <c r="J32" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K32" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="71" t="s">
+      <c r="L32" s="70" t="s">
+        <v>552</v>
+      </c>
+      <c r="M32" s="69" t="s">
         <v>553</v>
       </c>
-      <c r="M32" s="70" t="s">
-        <v>554</v>
-      </c>
       <c r="N32" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O32" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Effect of Marigold oil (Tageteserecta L.) and its fractions against sitophillusoryzae. International Journal of Biological Sciences. 9 (1): 85-89. DOI: 10.5281/zenodo.15823186</v>
       </c>
-      <c r="P32" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P32" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="53">
         <v>32</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>89</v>
@@ -5961,41 +5982,41 @@
         <v>1</v>
       </c>
       <c r="H33" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I33" s="51">
         <v>4662</v>
       </c>
-      <c r="J33" s="91">
+      <c r="J33" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K33" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="64" t="s">
+      <c r="L33" s="63" t="s">
+        <v>525</v>
+      </c>
+      <c r="M33" s="54" t="s">
         <v>526</v>
       </c>
-      <c r="M33" s="54" t="s">
-        <v>527</v>
-      </c>
       <c r="N33" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O33" s="53" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018) Isolation of Phenol Degrading Bacteria from Industrial Waste. Life Science Bulletin. 15 (1): 47-50. DOI: 10.5281/zenodo.15676310</v>
       </c>
-      <c r="P33" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P33" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="53">
         <v>33</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>99</v>
@@ -6013,12 +6034,12 @@
         <v>1</v>
       </c>
       <c r="H34" s="53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I34" s="51">
         <v>62958</v>
       </c>
-      <c r="J34" s="91">
+      <c r="J34" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6030,19 +6051,19 @@
       </c>
       <c r="M34" s="53"/>
       <c r="N34" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O34" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) A Scientific Study of Transplanting Date effect on Infestation of Insect Pests of Cabbage. International Journal of Agricultural Sciences. 9 (1): 41-46. </v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="43.2" customHeight="1">
+    <row r="35" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="53">
         <v>34</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>101</v>
@@ -6060,12 +6081,12 @@
         <v>1</v>
       </c>
       <c r="H35" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I35" s="51">
         <v>7783</v>
       </c>
-      <c r="J35" s="91">
+      <c r="J35" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6073,26 +6094,26 @@
         <v>25</v>
       </c>
       <c r="L35" s="52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M35" s="53"/>
       <c r="N35" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O35" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Spectrophotometric Determination of Chromium in River Ganga water samples using 1,5-diphenyl carbazide at Kanpur, India-2018. International Journal of Environmental Science. 9 (1): 36-39. </v>
       </c>
-      <c r="P35" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P35" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="53">
         <v>35</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>99</v>
@@ -6110,39 +6131,39 @@
         <v>2</v>
       </c>
       <c r="H36" s="53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I36" s="51">
         <v>62958</v>
       </c>
-      <c r="J36" s="91">
+      <c r="J36" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K36" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="52" t="s">
-        <v>103</v>
+      <c r="L36" s="60" t="s">
+        <v>613</v>
       </c>
       <c r="M36" s="53"/>
       <c r="N36" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O36" s="53" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">Arya, S. (2018) Effect of herbal formulations on lemon grass oil and Basil oil on MDR Bacteria. International Journal of Agricultural Sciences. 9 (2): 103-109. </v>
       </c>
-      <c r="P36" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P36" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="53">
         <v>36</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>101</v>
@@ -6160,39 +6181,39 @@
         <v>2</v>
       </c>
       <c r="H37" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I37" s="51">
         <v>7783</v>
       </c>
-      <c r="J37" s="91">
+      <c r="J37" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K37" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="61" t="s">
-        <v>551</v>
+      <c r="L37" s="60" t="s">
+        <v>550</v>
       </c>
       <c r="M37" s="53"/>
       <c r="N37" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O37" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N37,";",",")," (",D37,") ",B37,". ",C37,". ",F37," (",G37,"): ",H37,". ",IF(LEFT(L37,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L37,(LEN(L37)-16))), ""))</f>
         <v xml:space="preserve">Arya, S. (2018) Green Technology to combat environmental degradation and sustainable food production: A Review. International Journal of Environmental Science. 9 (2): 118-123. </v>
       </c>
-      <c r="P37" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P37" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="53">
         <v>37</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C38" s="51" t="s">
         <v>99</v>
@@ -6210,12 +6231,12 @@
         <v>2</v>
       </c>
       <c r="H38" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I38" s="51">
         <v>62958</v>
       </c>
-      <c r="J38" s="91">
+      <c r="J38" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6223,28 +6244,28 @@
         <v>25</v>
       </c>
       <c r="L38" s="52" t="s">
+        <v>554</v>
+      </c>
+      <c r="M38" s="53" t="s">
         <v>555</v>
       </c>
-      <c r="M38" s="53" t="s">
-        <v>556</v>
-      </c>
       <c r="N38" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O38" s="53" t="str">
         <f t="shared" ref="O38:O54" si="2">_xlfn.CONCAT(SUBSTITUTE(N38,";",",")," (",D38,") ",B38,". ",C38,". ",F38," (",G38,"): ",H38,". ",IF(LEFT(L38,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L38,(LEN(L38)-16))), ""))</f>
         <v>Arya, S. (2018) Insect Pest Management of Cabbage with the help of ITK Cow Urine. International Journal of Agricultural Sciences. 9 (2): 110-114. DOI: 10.5281/zenodo.15823316</v>
       </c>
-      <c r="P38" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P38" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="53">
         <v>38</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>96</v>
@@ -6262,50 +6283,50 @@
         <v>1</v>
       </c>
       <c r="H39" s="53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I39" s="51">
         <v>7775</v>
       </c>
-      <c r="J39" s="91">
+      <c r="J39" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K39" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="62" t="s">
+      <c r="L39" s="61" t="s">
+        <v>516</v>
+      </c>
+      <c r="M39" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="M39" s="54" t="s">
-        <v>518</v>
-      </c>
       <c r="N39" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O39" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Arya, S. (2018) Biometrical Studies of Floribunda Roses. International Journal of Biological Sciences. 9 (1): 162-165. DOI: 10.5281/zenodo.15669147</v>
       </c>
-      <c r="P39" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P39" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="53">
         <v>39</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" s="51">
         <v>2019</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F40" s="53">
         <v>4</v>
@@ -6314,50 +6335,50 @@
         <v>2</v>
       </c>
       <c r="H40" s="53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I40" s="51">
         <v>40827</v>
       </c>
-      <c r="J40" s="91">
+      <c r="J40" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K40" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="65" t="s">
+      <c r="L40" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="M40" s="53" t="s">
         <v>533</v>
       </c>
-      <c r="M40" s="53" t="s">
-        <v>534</v>
-      </c>
       <c r="N40" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O40" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Arya, S. (2019) Population Dynamics of Citrus butterfly Papillio demoleus on Citrus crop. Remarking an Analisation. 4 (2): 111-117. DOI: 10.5281/zenodo.15697804</v>
       </c>
-      <c r="P40" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P40" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="53">
         <v>40</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="51">
         <v>2019</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="53">
         <v>6</v>
@@ -6366,12 +6387,12 @@
         <v>8</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I41" s="51">
         <v>40880</v>
       </c>
-      <c r="J41" s="91">
+      <c r="J41" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6379,37 +6400,37 @@
         <v>25</v>
       </c>
       <c r="L41" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="M41" s="54" t="s">
         <v>535</v>
       </c>
-      <c r="M41" s="54" t="s">
-        <v>536</v>
-      </c>
       <c r="N41" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O41" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Arya, S. (2019) Studies on leaf miner (Phyllocnistic citrella) in relation to temperature and relative humidity in Kanpur, India. Shrinkhla Ek Shodhparak Vicharak Patrika. 6 (8): 1-3. DOI: 10.5281/zenodo.15697875</v>
       </c>
-      <c r="P41" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P41" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="53">
         <v>41</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="51">
         <v>2019</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F42" s="53">
         <v>6</v>
@@ -6418,50 +6439,50 @@
         <v>3</v>
       </c>
       <c r="H42" s="53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I42" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="91">
+      <c r="J42" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K42" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="L42" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="L42" s="52" t="s">
-        <v>117</v>
-      </c>
       <c r="M42" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N42" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O42" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Arya, S. (2019) Scientific validation of ITK oil to protect pulses from storage pests. International Journal of Fauna and Biological Studies. 6 (3): 51-54. </v>
       </c>
-      <c r="P42" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P42" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="53">
         <v>42</v>
       </c>
       <c r="B43" s="51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="51">
         <v>2019</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F43" s="53">
         <v>1</v>
@@ -6470,12 +6491,12 @@
         <v>2</v>
       </c>
       <c r="H43" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I43" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="91">
+      <c r="J43" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6483,28 +6504,28 @@
         <v>25</v>
       </c>
       <c r="L43" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M43" s="53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N43" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O43" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Arya, S. (2019) Evaluation of Bio efficacy of Azadirachta indica and Mentha piperita extract against Papilio demoleus L. on Citrus crop. International Journal of Biological Innovations . 1 (2): 87-89. DOI: 10.46505/IJBI.2019.1210</v>
       </c>
-      <c r="P43" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P43" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="53">
         <v>43</v>
       </c>
       <c r="B44" s="51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C44" s="51" t="s">
         <v>85</v>
@@ -6522,12 +6543,12 @@
         <v>2</v>
       </c>
       <c r="H44" s="53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I44" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="91">
+      <c r="J44" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6535,31 +6556,31 @@
         <v>25</v>
       </c>
       <c r="L44" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M44" s="53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N44" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O44" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Rani, D., Arya, S. (2021) Macrozoobenthos diversity of Sai River at Raebareli. International Journal on Biological Sciences. 12 (2): 57-60. DOI: 10.53390/ijbs.v12i2.5</v>
       </c>
-      <c r="P44" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="43.2" customHeight="1" thickBot="1">
+      <c r="P44" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53">
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="51">
         <v>2021</v>
@@ -6574,12 +6595,12 @@
         <v>2</v>
       </c>
       <c r="H45" s="53" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I45" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="91">
+      <c r="J45" s="90">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6587,37 +6608,37 @@
         <v>17</v>
       </c>
       <c r="L45" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M45" s="53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N45" s="51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O45" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Chaudhary, V. K., Arya, S., Singh, P. (2021) EFFECTS OF PESTICIDES ON BIODIVERSITY AND CLIMATE CHANGE. International Journal on Environmental Sciences. 5 (2): 95-99. DOI: 10.53390/ijes.v12i2.1</v>
       </c>
-      <c r="P45" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="43.2" customHeight="1" thickBot="1">
+      <c r="P45" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="43.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53">
         <v>45</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>128</v>
+        <v>475</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>127</v>
       </c>
       <c r="D46" s="51">
         <v>2022</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F46" s="53">
         <v>4</v>
@@ -6626,12 +6647,12 @@
         <v>1</v>
       </c>
       <c r="H46" s="53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I46" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="91">
+      <c r="J46" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6639,29 +6660,29 @@
         <v>17</v>
       </c>
       <c r="L46" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M46" s="53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O46" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Yadav, V., Arya, S. (2022) Effect of Guard Crops on Population Density of Pea Aphid (Acyrthosiphon pisum Harris) Against Pea (Pisum sativum L.). International Journal of Biological Innovation. 4 (1): 221-226. DOI: 10.46505/IJBI.2022.4124</v>
       </c>
-      <c r="P46" s="67" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q46" s="69"/>
-    </row>
-    <row r="47" spans="1:17" ht="44.4" customHeight="1">
+      <c r="P46" s="66" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q46" s="68"/>
+    </row>
+    <row r="47" spans="1:17" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="53">
         <v>46</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C47" s="51" t="s">
         <v>85</v>
@@ -6679,12 +6700,12 @@
         <v>1</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I47" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="91">
+      <c r="J47" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6692,37 +6713,37 @@
         <v>17</v>
       </c>
       <c r="L47" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M47" s="53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N47" s="51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O47" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Yadav, V., Arya, S. (2022) POPULATION DYNAMICS OF MAJOR INSECT PESTS OF PEA (PISUM SATIVUM L.) IN RELATION TO WEATHER PARAMETERS IN KANPUR, UTTAR PRADESH. International Journal on Biological Sciences. 13 (1): 92-96. </v>
       </c>
-      <c r="P47" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" ht="43.2" customHeight="1">
+      <c r="P47" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="53">
         <v>47</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="51">
         <v>2022</v>
       </c>
       <c r="E48" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F48" s="53">
         <v>4</v>
@@ -6731,12 +6752,12 @@
         <v>10</v>
       </c>
       <c r="H48" s="57" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I48" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="91">
+      <c r="J48" s="90">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6744,37 +6765,37 @@
         <v>25</v>
       </c>
       <c r="L48" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M48" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N48" s="51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O48" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Arya, S., Sudhakar, P., Dwivedi, N. (2022) Pesticides and Its Impact on Biodiversity and Environment. ICONIC RESEARCH AND ENGINEERING JOURNALS. 4 (10): 12-15. </v>
       </c>
-      <c r="P48" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P48" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="53">
         <v>48</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="51">
         <v>2022</v>
       </c>
       <c r="E49" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F49" s="53">
         <v>5</v>
@@ -6783,12 +6804,12 @@
         <v>7</v>
       </c>
       <c r="H49" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I49" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="91">
+      <c r="J49" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6796,37 +6817,37 @@
         <v>17</v>
       </c>
       <c r="L49" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M49" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N49" s="51" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O49" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Dubey, I., Arya, S. (2022) Fish Diversity and Climate Change: A Review. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 5 (7): 88-91. </v>
       </c>
-      <c r="P49" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P49" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="53">
         <v>49</v>
       </c>
       <c r="B50" s="51" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="51">
         <v>2022</v>
       </c>
       <c r="E50" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F50" s="53">
         <v>6</v>
@@ -6835,12 +6856,12 @@
         <v>3</v>
       </c>
       <c r="H50" s="55" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I50" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J50" s="91">
+      <c r="J50" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6848,37 +6869,37 @@
         <v>17</v>
       </c>
       <c r="L50" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M50" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N50" s="51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O50" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Singh, R., Sunita, A. (2022) Seasonal Variation in Phytoplankton Diversity in River Sai at Unnao District of U.P. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 6 (3): 5-8. </v>
       </c>
-      <c r="P50" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P50" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="53">
         <v>50</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51" s="51">
         <v>2023</v>
       </c>
       <c r="E51" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F51" s="53">
         <v>9</v>
@@ -6887,12 +6908,12 @@
         <v>1</v>
       </c>
       <c r="H51" s="53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I51" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="J51" s="91">
+        <v>143</v>
+      </c>
+      <c r="J51" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6900,37 +6921,37 @@
         <v>25</v>
       </c>
       <c r="L51" s="52" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M51" s="54" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N51" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O51" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Arya, S., Sachan, R. (2023) Studies on Pathogenicity of Nematode Infecting Roses. International Journal of Zoological Investigations. 9 (1): 392 – 397. DOI: 10.33745/ijzi.2023.v09i01.044</v>
       </c>
-      <c r="P51" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P51" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="53">
         <v>51</v>
       </c>
       <c r="B52" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="51" t="s">
         <v>145</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>146</v>
       </c>
       <c r="D52" s="51">
         <v>2023</v>
       </c>
       <c r="E52" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" s="53">
         <v>8</v>
@@ -6939,50 +6960,50 @@
         <v>6</v>
       </c>
       <c r="H52" s="53" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I52" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="J52" s="91">
+        <v>143</v>
+      </c>
+      <c r="J52" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K52" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="61" t="s">
-        <v>592</v>
+      <c r="L52" s="60" t="s">
+        <v>591</v>
       </c>
       <c r="M52" s="53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N52" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O52" s="53" t="str">
         <f t="shared" si="2"/>
         <v>Arya, S., Sachan, R. (2023) Bionomics and morphometric studies of tobacco caterpillar (Spodoptera litura) on rose plants. International Journal of Entomology Research. 8 (6): 50-52. DOI: 10.5281/zenodo.17055708</v>
       </c>
-      <c r="P52" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P52" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="53">
         <v>52</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" s="51">
         <v>2023</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F53" s="53">
         <v>10</v>
@@ -6991,12 +7012,12 @@
         <v>3</v>
       </c>
       <c r="H53" s="53" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I53" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="91">
+      <c r="J53" s="90">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -7004,28 +7025,28 @@
         <v>17</v>
       </c>
       <c r="L53" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M53" s="53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N53" s="51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O53" s="53" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">Goel, R., Arya, S., Rani, D., Shukla, G. (2023) Diversity and distribution of aquatic insects in Sai River at Raebareli, U.P.. International Journal of Fauna and Biological Studies. 10 (3): 16-18. </v>
       </c>
-      <c r="P53" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P53" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="53">
         <v>53</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C54" s="51" t="s">
         <v>85</v>
@@ -7043,41 +7064,41 @@
         <v>2</v>
       </c>
       <c r="H54" s="53" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I54" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="91">
+      <c r="J54" s="90">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K54" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L54" s="59" t="s">
+      <c r="L54" s="91" t="s">
+        <v>541</v>
+      </c>
+      <c r="M54" s="54" t="s">
+        <v>487</v>
+      </c>
+      <c r="N54" s="51" t="s">
         <v>488</v>
-      </c>
-      <c r="M54" s="54" t="s">
-        <v>488</v>
-      </c>
-      <c r="N54" s="51" t="s">
-        <v>489</v>
       </c>
       <c r="O54" s="53" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">Rani, K., Singh, S., Prakash, S., Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences. 14 (2): 74-80. </v>
-      </c>
-      <c r="P54" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="43.2" customHeight="1">
+        <v>Rani, K., Singh, S., Prakash, S., Arya, S. (2023) A REVIEW ON BEHAVIOR OF MUSCOVY DUCK (CAIRINA MOSCHATA). International Journal on Biological Sciences. 14 (2): 74-80. DOI: 10.33545/26646536.2024.v6.i1a.47</v>
+      </c>
+      <c r="P54" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="53">
         <v>54</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="51" t="s">
         <v>85</v>
@@ -7095,12 +7116,12 @@
         <v>2</v>
       </c>
       <c r="H55" s="53" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I55" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J55" s="91">
+      <c r="J55" s="90">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7108,37 +7129,37 @@
         <v>17</v>
       </c>
       <c r="L55" s="52" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M55" s="52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N55" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O55" s="53" t="str">
         <f t="shared" ref="O55" si="3">_xlfn.CONCAT(SUBSTITUTE(N55, ";", ",")," (",D55,") ",B55,". ",C55,". ",F55," (",G55,"): ",H55, ". ", IF(LEFT(L55,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L55),""))</f>
         <v>Goel, R., Arya, S., Singh, R. (2022) IMPACT OF PYRETHROID INSECTICIDES ON THE HAEMATOLOGY OF CHANNA PUNCTATA (BLOCH). International Journal on Biological Sciences. 13 (2): 109-111. DOI: https://doi.org/10.53390/ijbs.v13i2.2</v>
       </c>
-      <c r="P55" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P55" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="53">
         <v>55</v>
       </c>
       <c r="B56" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="51" t="s">
         <v>152</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>153</v>
       </c>
       <c r="D56" s="51">
         <v>2024</v>
       </c>
       <c r="E56" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F56" s="53">
         <v>6</v>
@@ -7147,12 +7168,12 @@
         <v>1</v>
       </c>
       <c r="H56" s="56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I56" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="91">
+      <c r="J56" s="90">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -7160,37 +7181,37 @@
         <v>17</v>
       </c>
       <c r="L56" s="52" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M56" s="54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N56" s="51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O56" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N56,";",",")," (",D56,") ",B56,". ",C56,". ",F56," (",G56,"): ",H56,". ",IF(LEFT(L56,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L56,(LEN(L56)-16))), ""))</f>
         <v>Rani K., Singh S., Prakash S., Arya S. (2024) Role of pesticides in biodiversity loss. International Journal of Bioscience and Biochemistry. 6 (1): 01-03. DOI: 10.33545/26646536.2024.v6.i1a.47</v>
       </c>
-      <c r="P56" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P56" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="53">
         <v>56</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" s="51">
         <v>2024</v>
       </c>
       <c r="E57" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F57" s="53">
         <v>11</v>
@@ -7199,12 +7220,12 @@
         <v>1</v>
       </c>
       <c r="H57" s="53" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I57" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="91">
+      <c r="J57" s="90">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7212,37 +7233,37 @@
         <v>25</v>
       </c>
       <c r="L57" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M57" s="53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N57" s="51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O57" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N57,";",",")," (",D57,") ",B57,". ",C57,". ",F57," (",G57,"): ",H57,". ",IF(LEFT(L57,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L57,(LEN(L57)-16))), ""))</f>
         <v>Arya, S., Rani, D., Singh, R. (2024) Sarus crane, biodiversity and pesticides: A review. International Journal of Fauna and Biological Studies. 11 (1): 29-31. DOI: 10.22271/23940522.2024.v11.i1a.1005</v>
       </c>
-      <c r="P57" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P57" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="53">
         <v>57</v>
       </c>
       <c r="B58" s="51" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D58" s="51">
         <v>2024</v>
       </c>
       <c r="E58" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F58" s="53">
         <v>27</v>
@@ -7251,50 +7272,50 @@
         <v>2</v>
       </c>
       <c r="H58" s="53" t="s">
-        <v>492</v>
-      </c>
-      <c r="I58" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="J58" s="91">
+        <v>491</v>
+      </c>
+      <c r="I58" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="J58" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K58" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L58" s="61" t="s">
-        <v>590</v>
+      <c r="L58" s="60" t="s">
+        <v>589</v>
       </c>
       <c r="M58" s="53" t="s">
+        <v>445</v>
+      </c>
+      <c r="N58" s="51" t="s">
         <v>446</v>
-      </c>
-      <c r="N58" s="51" t="s">
-        <v>447</v>
       </c>
       <c r="O58" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N58,";",",")," (",D58,") ",B58,". ",C58,". ",F58," (",G58,"): ",H58,". ",IF(LEFT(L58,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L58,(LEN(L58)-16))), ""))</f>
         <v>Sachan, R., Arya, S. (2024) POPULATION DYNAMICS OF CHAFER BEETLE, OXYCETONIA VERSICOLOR (FABRICUS) ON ROSA CHINENSIS AND ROSA HYBRIDA. JOURNAL OF EXPERIMENTAL ZOOLOGY INDIA. 27 (2): 1605-1608. DOI: 10.51470/JEZ.2024.27.2.1605</v>
       </c>
-      <c r="P58" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P58" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="53">
         <v>58</v>
       </c>
       <c r="B59" s="51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D59" s="51">
         <v>2024</v>
       </c>
       <c r="E59" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F59" s="53">
         <v>6</v>
@@ -7303,12 +7324,12 @@
         <v>1</v>
       </c>
       <c r="H59" s="53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I59" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J59" s="91">
+      <c r="J59" s="90">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7316,37 +7337,37 @@
         <v>17</v>
       </c>
       <c r="L59" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M59" s="53" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N59" s="51" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O59" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N59,";",",")," (",D59,") ",B59,". ",C59,". ",F59," (",G59,"): ",H59,". ",IF(LEFT(L59,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L59,(LEN(L59)-16))), ""))</f>
         <v>Rani K., Arya S., Mishra B.K. (2024) EFFECT OF ARSENIC ON AQUATIC ANIMALS: A REVIEW. International Journal of Biological Innovations. 6 (1): 58-64. DOI: 10.46505/IJBI.2024.6108</v>
       </c>
-      <c r="P59" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P59" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="53">
         <v>59</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D60" s="53">
         <v>2024</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60" s="53">
         <v>8</v>
@@ -7355,12 +7376,12 @@
         <v>3</v>
       </c>
       <c r="H60" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I60" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="J60" s="91">
+      <c r="J60" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -7368,37 +7389,37 @@
         <v>17</v>
       </c>
       <c r="L60" s="52" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M60" s="54" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N60" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O60" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N60,";",",")," (",D60,") ",B60,". ",C60,". ",F60," (",G60,"): ",H60,". ",IF(LEFT(L60,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L60,(LEN(L60)-16))), ""))</f>
         <v>Hemprabha, Arya, S. (2024) Sustainable Fisheries: Reducing Poverty through Byproduct Utilization. ICONIC RESEARCH AND ENGINEERING (IRE) JOURNALS. 8 (3): 478-485. DOI: 10.5281/zenodo.15785018</v>
       </c>
-      <c r="P60" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P60" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="53">
         <v>60</v>
       </c>
       <c r="B61" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="53" t="s">
         <v>166</v>
-      </c>
-      <c r="C61" s="53" t="s">
-        <v>167</v>
       </c>
       <c r="D61" s="53">
         <v>2025</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61" s="53">
         <v>8</v>
@@ -7407,50 +7428,50 @@
         <v>7</v>
       </c>
       <c r="H61" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I61" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J61" s="91">
+      <c r="J61" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K61" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="L61" s="70" t="s">
-        <v>589</v>
+      <c r="L61" s="69" t="s">
+        <v>588</v>
       </c>
       <c r="M61" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N61" s="51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O61" s="53" t="str">
         <f t="shared" ref="O61" si="4">_xlfn.CONCAT(SUBSTITUTE(N61, ";", ",")," (",D61,") ",B61,". ",C61,". ",F61," (",G61,"): ",H61, ". ", IF(LEFT(L61,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L61),""))</f>
         <v>Arya, S., Hemprabha (2025) Role of Metagenomics in Modern Science: A Review. Iconic Research and Engineering Journals. 8 (7): 243-440. DOI: https://doi.org/10.5281/zenodo.16890701</v>
       </c>
-      <c r="P61" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P61" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="53">
         <v>61</v>
       </c>
       <c r="B62" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D62" s="53">
         <v>2025</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F62" s="53">
         <v>11</v>
@@ -7459,12 +7480,12 @@
         <v>6</v>
       </c>
       <c r="H62" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I62" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J62" s="91">
+      <c r="J62" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7472,37 +7493,37 @@
         <v>25</v>
       </c>
       <c r="L62" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M62" s="54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N62" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O62" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N62,";",",")," (",D62,") ",B62,". ",C62,". ",F62," (",G62,"): ",H62,". ",IF(LEFT(L62,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L62,(LEN(L62)-16))), ""))</f>
         <v>Arya, S. (2025) Wetland Ecosystem: A better place for rich biodiversity. International Journal of Fauna and Biological Studies. 11 (6): 106-110. DOI: 10.22271/23940522.2024.v11.i6b.1066</v>
       </c>
-      <c r="P62" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P62" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="53">
         <v>62</v>
       </c>
       <c r="B63" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C63" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D63" s="53">
         <v>2025</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F63" s="53">
         <v>11</v>
@@ -7511,41 +7532,41 @@
         <v>1</v>
       </c>
       <c r="H63" s="53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I63" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="J63" s="91">
+        <v>143</v>
+      </c>
+      <c r="J63" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K63" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="L63" s="70" t="s">
-        <v>528</v>
+      <c r="L63" s="69" t="s">
+        <v>527</v>
       </c>
       <c r="M63" s="54" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N63" s="53" t="s">
-        <v>448</v>
-      </c>
-      <c r="O63" s="72" t="str">
+        <v>447</v>
+      </c>
+      <c r="O63" s="71" t="str">
         <f>IF(COUNT(A63:N63)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N63, ";", ",")," (",D63,") ",B63,". ",C63,". ",F61," (",G63,"): ",H63, ". ", IF(LEFT(L63,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L63),"")), "")</f>
         <v>Hemprabha, Arya, S. (2025) Impact of Seasonal Variation on Physiochemical Parameters in Ganga River and Bhimsen Pond Water, Kanpur, India. International Journal of Zoological Investigations. 8 (1): 752-759. DOI: https://doi.org/10.33745/ijzi.2025.v11i01.079</v>
       </c>
-      <c r="P63" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="43.2" customHeight="1">
+      <c r="P63" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="53">
         <v>63</v>
       </c>
       <c r="B64" s="53" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C64" s="53" t="s">
         <v>85</v>
@@ -7563,12 +7584,12 @@
         <v>1</v>
       </c>
       <c r="H64" s="53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I64" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J64" s="91">
+      <c r="J64" s="90">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7578,19 +7599,19 @@
       <c r="L64" s="53"/>
       <c r="M64" s="53"/>
       <c r="N64" s="53" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O64" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N64,";",",")," (",D64,") ",B64,". ",C64,". ",F64," (",G64,"): ",H64,". ",IF(LEFT(L64,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L64,(LEN(L64)-16))), ""))</f>
         <v xml:space="preserve">Sharma, R., Singh, R., Arya, S. (2025) Study of Morphological Characters, Growth and Yield Yield Performance of Eri Silkworm (Samiya ricini Donovan) Ecoraces. International Journal on Biological Sciences. 16 (1): 70-80. </v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="43.2" customHeight="1">
+    <row r="65" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="53">
         <v>64</v>
       </c>
       <c r="B65" s="53" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C65" s="53" t="s">
         <v>101</v>
@@ -7608,12 +7629,12 @@
         <v>2</v>
       </c>
       <c r="H65" s="53" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I65" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="J65" s="91">
+      <c r="J65" s="90">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7621,226 +7642,289 @@
         <v>17</v>
       </c>
       <c r="L65" s="53" t="s">
-        <v>602</v>
-      </c>
-      <c r="M65" s="86" t="s">
-        <v>603</v>
+        <v>601</v>
+      </c>
+      <c r="M65" s="85" t="s">
+        <v>614</v>
       </c>
       <c r="N65" s="53" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O65" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N65, ";", ",")," (",D65,") ",B65,". ",C65,". ",F65," (",G65,"): ",H65, ". ", IF(LEFT(L65,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L65),""))</f>
         <v>Sharma, R., Arya, S., Singh, R. (2025) Pesticides, Herbicides and Their Effects on Population. International Journal of Environmental Science. 16 (2): 110-119. DOI: https://doi.org/10.53390/IJES.2025.16204</v>
       </c>
-      <c r="P65" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="43.2" customHeight="1">
-      <c r="A66" s="67">
+      <c r="P65" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="66">
         <v>65</v>
       </c>
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="71" t="s">
+        <v>557</v>
+      </c>
+      <c r="C66" s="66" t="s">
         <v>558</v>
       </c>
-      <c r="C66" s="67" t="s">
-        <v>559</v>
-      </c>
-      <c r="D66" s="67">
+      <c r="D66" s="66">
         <v>2025</v>
       </c>
-      <c r="E66" s="67" t="s">
+      <c r="E66" s="66" t="s">
+        <v>561</v>
+      </c>
+      <c r="F66" s="66">
+        <v>46</v>
+      </c>
+      <c r="G66" s="66">
+        <v>13</v>
+      </c>
+      <c r="H66" s="66" t="s">
         <v>562</v>
       </c>
-      <c r="F66" s="67">
-        <v>46</v>
-      </c>
-      <c r="G66" s="67">
-        <v>13</v>
-      </c>
-      <c r="H66" s="67" t="s">
-        <v>563</v>
-      </c>
-      <c r="I66" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="J66" s="91">
+      <c r="I66" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" s="90">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K66" s="67" t="s">
+      <c r="K66" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="L66" s="68" t="s">
-        <v>561</v>
+      <c r="L66" s="67" t="s">
+        <v>560</v>
       </c>
       <c r="M66" t="s">
-        <v>560</v>
-      </c>
-      <c r="N66" s="67" t="s">
-        <v>437</v>
+        <v>559</v>
+      </c>
+      <c r="N66" s="66" t="s">
+        <v>436</v>
       </c>
       <c r="O66" s="53" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(N66,";",",")," (",D66,") ",B66,". ",C66,". ",F66," (",G66,"): ",H66,". ",IF(LEFT(L66,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L66,(LEN(L66)-16))), ""))</f>
         <v>Arya, S., Sachan, R. (2025) Life Table Parameters of the Tobacco Caterpillar [Spodoptera litura (Fab.)] on Ornamental Roses. Uttar Pradesh Journal of Zoology. 46 (13): 267-278. DOI: 10.56557/upjoz/2025/v46i135105</v>
       </c>
-      <c r="P66" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="43.2" customHeight="1">
-      <c r="A67" s="67">
+      <c r="P66" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="66">
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>592</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="66">
+        <v>2025</v>
+      </c>
+      <c r="E67" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="F67" s="66">
+        <v>7</v>
+      </c>
+      <c r="G67" s="66">
+        <v>2</v>
+      </c>
+      <c r="H67" s="66" t="s">
         <v>593</v>
       </c>
-      <c r="C67" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="D67" s="67">
+      <c r="J67" s="90">
+        <f t="shared" ref="J67:J74" si="5">LEN(N67)-LEN(SUBSTITUTE(N67,";",""))+1</f>
+        <v>2</v>
+      </c>
+      <c r="K67" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="85" t="s">
+        <v>595</v>
+      </c>
+      <c r="M67" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="N67" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="O67" s="71" t="str">
+        <f t="shared" ref="O67" si="6">IF(COUNT(A67:N67)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N67, ";", ",")," (",D67,") ",B67,". ",C67,". ",F65," (",G67,"): ",H67, ". ", IF(LEFT(L67,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L67),"")), "")</f>
+        <v>Singh, R., Sunita, A. (2025) HERITABILITY, GENETIC ADVANCE AND COVARIANCE STUDIES IN HYBRID TEA ROSES. International Journal of Biological Innovations. 16 (2): 221-229. DOI: https://doi.org/10.5281/zenodo.17137149</v>
+      </c>
+      <c r="P67" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="66">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>596</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>558</v>
+      </c>
+      <c r="D68" s="66">
         <v>2025</v>
       </c>
-      <c r="E67" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="F67" s="67">
-        <v>7</v>
-      </c>
-      <c r="G67" s="67">
+      <c r="E68" s="66" t="s">
+        <v>561</v>
+      </c>
+      <c r="F68" s="66">
+        <v>46</v>
+      </c>
+      <c r="G68" s="66">
+        <v>18</v>
+      </c>
+      <c r="H68" s="66" t="s">
+        <v>597</v>
+      </c>
+      <c r="I68" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="90">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="H67" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="J67" s="91">
-        <f>LEN(N67)-LEN(SUBSTITUTE(N67,";",""))+1</f>
+      <c r="K68" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="85" t="s">
+        <v>598</v>
+      </c>
+      <c r="M68" s="66" t="s">
+        <v>599</v>
+      </c>
+      <c r="N68" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="O68" s="53" t="str">
+        <f t="shared" ref="O68:O77" si="7">_xlfn.CONCAT(SUBSTITUTE(N68,";",",")," (",D68,") ",B68,". ",C68,". ",F68," (",G68,"): ",H68,". ",IF(LEFT(L68,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L68,(LEN(L68)-16))), ""))</f>
+        <v>Hemprabha, Arya, S. (2025) Seasonal Variations in Hematological and Biochemical Parameters of Labeo rohita from River and Pond Habitats. Uttar Pradesh Journal of Zoology. 46 (18): 157-971. DOI: 10.56557/upjoz/2025/v46i185248</v>
+      </c>
+      <c r="P68" s="66" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="66">
+        <v>68</v>
+      </c>
+      <c r="B69" s="92" t="s">
+        <v>607</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>558</v>
+      </c>
+      <c r="D69" s="66">
+        <v>2025</v>
+      </c>
+      <c r="E69" s="66" t="s">
+        <v>561</v>
+      </c>
+      <c r="F69" s="66">
+        <v>46</v>
+      </c>
+      <c r="G69" s="66">
+        <v>19</v>
+      </c>
+      <c r="H69" s="66" t="s">
+        <v>608</v>
+      </c>
+      <c r="I69" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="90">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="K67" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="L67" s="86" t="s">
-        <v>596</v>
-      </c>
-      <c r="M67" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="N67" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="O67" s="72" t="str">
-        <f t="shared" ref="O67" si="5">IF(COUNT(A67:N67)&lt;&gt;0,_xlfn.CONCAT(SUBSTITUTE(N67, ";", ",")," (",D67,") ",B67,". ",C67,". ",F65," (",G67,"): ",H67, ". ", IF(LEFT(L67,15)="https://doi.org",_xlfn.CONCAT("DOI: ",L67),"")), "")</f>
-        <v>Singh, R., Sunita, A. (2025) HERITABILITY, GENETIC ADVANCE AND COVARIANCE STUDIES IN HYBRID TEA ROSES. International Journal of Biological Innovations. 16 (2): 221-229. DOI: https://doi.org/10.5281/zenodo.17137149</v>
-      </c>
-      <c r="P67" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="43.2" customHeight="1">
-      <c r="A68" s="67">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>597</v>
-      </c>
-      <c r="C68" s="67" t="s">
-        <v>559</v>
-      </c>
-      <c r="D68" s="67">
-        <v>2025</v>
-      </c>
-      <c r="E68" s="67" t="s">
-        <v>562</v>
-      </c>
-      <c r="F68" s="67">
-        <v>46</v>
-      </c>
-      <c r="G68" s="67">
-        <v>18</v>
-      </c>
-      <c r="H68" s="67" t="s">
-        <v>598</v>
-      </c>
-      <c r="I68" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="J68" s="91">
-        <f>LEN(N68)-LEN(SUBSTITUTE(N68,";",""))+1</f>
-        <v>2</v>
-      </c>
-      <c r="K68" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="L68" s="68" t="s">
-        <v>599</v>
-      </c>
-      <c r="M68" s="67" t="s">
-        <v>600</v>
-      </c>
-      <c r="N68" s="67" t="s">
-        <v>448</v>
-      </c>
-      <c r="O68" s="53" t="str">
-        <f t="shared" ref="O68:O77" si="6">_xlfn.CONCAT(SUBSTITUTE(N68,";",",")," (",D68,") ",B68,". ",C68,". ",F68," (",G68,"): ",H68,". ",IF(LEFT(L68,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L68,(LEN(L68)-16))), ""))</f>
-        <v>Hemprabha, Arya, S. (2025) Seasonal Variations in Hematological and Biochemical Parameters of Labeo rohita from River and Pond Habitats. Uttar Pradesh Journal of Zoology. 46 (18): 157-971. DOI: 10.56557/upjoz/2025/v46i185248</v>
-      </c>
-      <c r="P68" s="67" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="43.2" customHeight="1">
+      <c r="K69" s="66" t="s">
+        <v>609</v>
+      </c>
+      <c r="L69" s="85" t="s">
+        <v>610</v>
+      </c>
+      <c r="M69" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="N69" s="66" t="s">
+        <v>611</v>
+      </c>
       <c r="O69" s="53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
+        <v>Pandey, N., Arya, S. (2025) Study of Pre-Mating Behavior and Reproductive Indicators in Indian Rhinoceros (Rhinoceros unicornis) with Ethogram. Uttar Pradesh Journal of Zoology. 46 (19): 338-346. DOI: 10.56557/upjoz/2025/v46i195290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O70" s="53" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> () . .  (): . </v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="43.2" customHeight="1">
-      <c r="O70" s="53" t="str">
-        <f t="shared" si="6"/>
+    <row r="71" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J71" s="90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O71" s="53" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> () . .  (): . </v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="43.2" customHeight="1">
-      <c r="O71" s="53" t="str">
-        <f t="shared" si="6"/>
+    <row r="72" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J72" s="90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O72" s="53" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N72,";",",")," (",D72,") ",B72,". ",C72,". ",F72," (",G72,"): ",H72,". ",IF(LEFT(L72,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L72,(LEN(L72)-16))), ""))</f>
         <v xml:space="preserve"> () . .  (): . </v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="43.2" customHeight="1">
-      <c r="O72" s="53" t="str">
-        <f t="shared" si="6"/>
+    <row r="73" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J73" s="90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O73" s="53" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> () . .  (): . </v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="43.2" customHeight="1">
-      <c r="O73" s="53" t="str">
-        <f t="shared" si="6"/>
+    <row r="74" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="90">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O74" s="53" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(N74,";",",")," (",D74,") ",B74,". ",C74,". ",F74," (",G74,"): ",H74,". ",IF(LEFT(L74,15)="https://doi.org",_xlfn.CONCAT("DOI: ",RIGHT(L74,(LEN(L74)-16))), ""))</f>
         <v xml:space="preserve"> () . .  (): . </v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="43.2" customHeight="1">
-      <c r="O74" s="53" t="str">
-        <f t="shared" si="6"/>
+    <row r="75" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O75" s="53" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> () . .  (): . </v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="43.2" customHeight="1">
-      <c r="O75" s="53" t="str">
-        <f t="shared" si="6"/>
+    <row r="76" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O76" s="53" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> () . .  (): . </v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="43.2" customHeight="1">
-      <c r="O76" s="53" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve"> () . .  (): . </v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="43.2" customHeight="1">
+    <row r="77" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O77" s="53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve"> () . .  (): . </v>
       </c>
     </row>
@@ -7908,12 +7992,17 @@
     <hyperlink ref="L57" r:id="rId58" xr:uid="{47A6894C-149E-4662-BD85-6A52A2CA00E0}"/>
     <hyperlink ref="M67" r:id="rId59" xr:uid="{7149B27D-6791-450F-9AEB-5AC904309389}"/>
     <hyperlink ref="L63" r:id="rId60" xr:uid="{C0781CC1-608C-4532-97EA-5F98BEC76BD2}"/>
-    <hyperlink ref="M65" r:id="rId61" xr:uid="{165B0635-4FE9-4F5C-AEAE-6B75DAF704B5}"/>
-    <hyperlink ref="L67" r:id="rId62" xr:uid="{F1655B9F-CC63-4BE7-9866-6424E6FF5C68}"/>
-    <hyperlink ref="M24" r:id="rId63" xr:uid="{BE5BF1E1-9EE7-4C3A-9B10-50F045151F21}"/>
+    <hyperlink ref="L67" r:id="rId61" xr:uid="{F1655B9F-CC63-4BE7-9866-6424E6FF5C68}"/>
+    <hyperlink ref="M24" r:id="rId62" xr:uid="{BE5BF1E1-9EE7-4C3A-9B10-50F045151F21}"/>
+    <hyperlink ref="L54" r:id="rId63" xr:uid="{C049661F-8E7F-4168-A8DC-3621E1EAEB7C}"/>
+    <hyperlink ref="L69" r:id="rId64" xr:uid="{2B32EF67-B81B-0C49-AC2E-8208876EB3A2}"/>
+    <hyperlink ref="L68" r:id="rId65" xr:uid="{CCF130DB-8EED-BC48-A4DF-3A41EEBF6039}"/>
+    <hyperlink ref="L18" r:id="rId66" display="https://www.researchgate.net/profile/Sunita-Arya-2/publication/392691390_Economics_and_Bioefficacy_of_Parapheromones_On_Fruit_Fly_Their_Traps_and_Dispenser/links/684d430311be4823fbde4c65/Economics-and-Bioefficacy-of-Parapheromones-On-Fruit-Fly-Their-Traps-and-Dispenser.pdf" xr:uid="{4F46039B-29BF-49D8-B727-D31819161338}"/>
+    <hyperlink ref="M69" r:id="rId67" xr:uid="{382AD3A8-1DA4-415C-9DB6-8BE377C59CDA}"/>
+    <hyperlink ref="M65" r:id="rId68" xr:uid="{3647E822-FA28-48BD-B7A7-68D1146766BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId64"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId69"/>
 </worksheet>
 </file>
 
@@ -7926,187 +8015,187 @@
       <selection activeCell="A2" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" ht="15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="27"/>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="26" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="27"/>
-    </row>
-    <row r="6" spans="1:1" ht="15">
-      <c r="A6" s="26" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="27"/>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" s="26" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="27"/>
-    </row>
-    <row r="10" spans="1:1" ht="15">
-      <c r="A10" s="26" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="27"/>
-    </row>
-    <row r="12" spans="1:1" ht="15">
-      <c r="A12" s="26" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="27"/>
-    </row>
-    <row r="14" spans="1:1" ht="15">
-      <c r="A14" s="26" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="27"/>
-    </row>
-    <row r="16" spans="1:1" ht="15">
-      <c r="A16" s="26" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="27"/>
-    </row>
-    <row r="18" spans="1:1" ht="15">
-      <c r="A18" s="26" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="27"/>
-    </row>
-    <row r="20" spans="1:1" ht="15">
-      <c r="A20" s="26" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="27"/>
-    </row>
-    <row r="22" spans="1:1" ht="15">
-      <c r="A22" s="26" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="27"/>
-    </row>
-    <row r="24" spans="1:1" ht="15">
-      <c r="A24" s="26" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="27"/>
-    </row>
-    <row r="26" spans="1:1" ht="15">
-      <c r="A26" s="26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="27"/>
-    </row>
-    <row r="28" spans="1:1" ht="15">
-      <c r="A28" s="26" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="27"/>
-    </row>
-    <row r="30" spans="1:1" ht="15">
-      <c r="A30" s="26" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="27"/>
-    </row>
-    <row r="32" spans="1:1" ht="15">
-      <c r="A32" s="26" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="27"/>
-    </row>
-    <row r="34" spans="1:1" ht="15">
-      <c r="A34" s="26" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="27"/>
-    </row>
-    <row r="36" spans="1:1" ht="15">
-      <c r="A36" s="26" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="27"/>
-    </row>
-    <row r="38" spans="1:1" ht="15">
-      <c r="A38" s="26" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="27"/>
-    </row>
-    <row r="40" spans="1:1" ht="15">
-      <c r="A40" s="26" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="27"/>
-    </row>
-    <row r="42" spans="1:1" ht="15">
-      <c r="A42" s="26" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="27"/>
-    </row>
-    <row r="44" spans="1:1" ht="15">
-      <c r="A44" s="26" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="27"/>
-    </row>
-    <row r="46" spans="1:1" ht="15">
-      <c r="A46" s="26" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -8121,548 +8210,548 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.33203125" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="49.5546875" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" customWidth="1"/>
-    <col min="12" max="12" width="229.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.7109375" customWidth="1"/>
+    <col min="12" max="12" width="229.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36" customHeight="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="C1" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="G1" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="80" t="s">
+        <v>570</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>584</v>
+      </c>
+      <c r="L1" s="80" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="81">
+        <v>2005</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="81">
         <v>3</v>
       </c>
-      <c r="E1" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="81" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="81" t="s">
-        <v>571</v>
-      </c>
-      <c r="K1" s="81" t="s">
-        <v>585</v>
-      </c>
-      <c r="L1" s="81" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="37.950000000000003" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="H2" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+    </row>
+    <row r="3" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>576</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>572</v>
-      </c>
-      <c r="C2" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="82">
-        <v>2005</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="82">
-        <v>3</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="82" t="s">
+      <c r="B3" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-    </row>
-    <row r="3" spans="1:12" ht="37.950000000000003" customHeight="1">
-      <c r="A3" s="82" t="s">
-        <v>577</v>
-      </c>
-      <c r="B3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="D3" s="81">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="82">
-        <v>2017</v>
-      </c>
-      <c r="E3" s="82" t="s">
+      <c r="F3" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="F3" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="78">
+      <c r="G3" s="77">
         <f>LEN(J3)-LEN(SUBSTITUTE(J3,";",""))+1</f>
         <v>2</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="I3" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="J3" s="78" t="s">
-        <v>573</v>
-      </c>
-      <c r="L3" s="73" t="str">
+      <c r="J3" s="77" t="s">
+        <v>572</v>
+      </c>
+      <c r="L3" s="72" t="str">
         <f t="shared" ref="L3:L13" si="0">_xlfn.CONCAT(SUBSTITUTE(J3,";",",")," (",D3,") ",B3,". ",C3,". ",E3,IF(LEFT(K3,16)="https://doi.org/",_xlfn.CONCAT(". DOI: ",K3),""))</f>
         <v>Arya, S.,  Yadav, V. (2017) Insect pests of pea and their management. Ecological imbalances: A threat to flora, fauna, economy and human survival. 228 - 234</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="37.950000000000003" customHeight="1">
-      <c r="A4" s="82" t="s">
-        <v>578</v>
-      </c>
-      <c r="B4" s="74" t="s">
+    <row r="4" spans="1:12" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="81">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="82">
-        <v>2017</v>
-      </c>
-      <c r="E4" s="82" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="78">
+      <c r="F4" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="77">
         <f t="shared" ref="G4:G13" si="1">LEN(J4)-LEN(SUBSTITUTE(J4,";",""))+1</f>
         <v>2</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="82" t="s">
-        <v>190</v>
-      </c>
-      <c r="J4" s="78" t="s">
-        <v>427</v>
-      </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73" t="str">
+      <c r="J4" s="77" t="s">
+        <v>426</v>
+      </c>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Madhulekha, Arya, S. (2017) Chromium (Cr+6) toxicity on fish in river ganga water pollution at Kanpur. Ecological imbalances: A threat to flora, fauna, economy and human survival. 235 – 238</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27.6">
-      <c r="A5" s="82" t="s">
-        <v>579</v>
-      </c>
-      <c r="B5" s="74" t="s">
+    <row r="5" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
+        <v>578</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="D5" s="81">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>573</v>
+      </c>
+      <c r="F5" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="82">
-        <v>2017</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>574</v>
-      </c>
-      <c r="F5" s="82" t="s">
+      <c r="G5" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="G5" s="78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="82" t="s">
+      <c r="I5" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="J5" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73" t="str">
+      <c r="J5" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2017) Organic Farming and Green Growth for Sustainable Environment. Climate and Environmental Changes: Impact, Challenges and Solutions. 227 – 239</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="27.6">
-      <c r="A6" s="82" t="s">
-        <v>580</v>
-      </c>
-      <c r="B6" s="74" t="s">
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
+        <v>579</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="D6" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="E6" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="82" t="s">
+      <c r="G6" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="82" t="s">
+      <c r="I6" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="I6" s="82" t="s">
-        <v>203</v>
-      </c>
-      <c r="J6" s="83" t="s">
-        <v>422</v>
-      </c>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73" t="str">
+      <c r="J6" s="82" t="s">
+        <v>421</v>
+      </c>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2018 – 19) Rashtra ke pragati ka Adhar Parivar, Shiksha evam Rajneeti me Anushashan. Abhyudaya. 37 – 41</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="41.4">
-      <c r="A7" s="82" t="s">
-        <v>581</v>
-      </c>
-      <c r="B7" s="74" t="s">
+    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
+        <v>580</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="73" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="D7" s="81">
+        <v>2020</v>
+      </c>
+      <c r="E7" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="82">
-        <v>2020</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="78">
+      <c r="F7" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="77">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H7" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="J7" s="83" t="s">
-        <v>575</v>
-      </c>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73" t="str">
+      <c r="H7" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="82" t="s">
+        <v>574</v>
+      </c>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S., Singh, V. (2020) Environment and Human Behaviour. Environment and Society . 141-144</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="55.2">
-      <c r="A8" s="82" t="s">
-        <v>582</v>
-      </c>
-      <c r="B8" s="74" t="s">
+    <row r="8" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
+        <v>581</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="D8" s="81">
+        <v>2021</v>
+      </c>
+      <c r="E8" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="82">
-        <v>2021</v>
-      </c>
-      <c r="E8" s="82" t="s">
+      <c r="F8" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="G8" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="G8" s="78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="83" t="s">
-        <v>422</v>
-      </c>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73" t="str">
+      <c r="J8" s="82" t="s">
+        <v>421</v>
+      </c>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2021) Discovery of Vaccines for covid and it’s exertion in body. COVID-19 Second Wave: Challenges for Sustainable Development (CCSD 2021). 119 – 121</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="55.2">
-      <c r="A9" s="82" t="s">
-        <v>583</v>
-      </c>
-      <c r="B9" s="74" t="s">
+    <row r="9" spans="1:12" ht="57" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
+        <v>582</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="D9" s="81">
+        <v>2022</v>
+      </c>
+      <c r="E9" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="82">
-        <v>2022</v>
-      </c>
-      <c r="E9" s="82" t="s">
+      <c r="F9" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="78">
+      <c r="G9" s="77">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="H9" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="I9" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="J9" s="83" t="s">
-        <v>437</v>
-      </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73" t="str">
+      <c r="J9" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S., Sachan, R. (2022) Agricultural Biodiversity is essential for improvement of social sustainability.. ENVIRONMENT AND SOCIETY 2021. 257-266</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="69">
-      <c r="A10" s="82" t="s">
-        <v>584</v>
-      </c>
-      <c r="B10" s="74" t="s">
+    <row r="10" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
+        <v>583</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="81">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="82">
-        <v>2023</v>
-      </c>
-      <c r="E10" s="82" t="s">
+      <c r="F10" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="F10" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="78">
+      <c r="G10" s="77">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="I10" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="J10" s="83" t="s">
-        <v>447</v>
-      </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73" t="str">
+      <c r="J10" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Sachan, R., Arya, S. (2023) Biodiversity of Insects on Roses. ENVIRONMENT AND SOCIETY 2022. 157-165</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="69">
-      <c r="A11" s="75">
+    <row r="11" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="74">
         <v>10</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="D11" s="81">
+        <v>2024</v>
+      </c>
+      <c r="E11" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="82">
-        <v>2024</v>
-      </c>
-      <c r="E11" s="84" t="s">
+      <c r="F11" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="G11" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="G11" s="78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="82" t="s">
+      <c r="I11" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="I11" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" s="83" t="s">
-        <v>422</v>
-      </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73" t="str">
+      <c r="J11" s="82" t="s">
+        <v>421</v>
+      </c>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2024) Bioremediation: An Eco-friendly Sustainable Technology for Environmental Management. ENVIRONMENT AND SOCIETY 2023. 1-9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="27.6">
-      <c r="A12" s="75">
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
         <v>11</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="73" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="D12" s="81">
+        <v>2024</v>
+      </c>
+      <c r="E12" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="82">
-        <v>2024</v>
-      </c>
-      <c r="E12" s="82" t="s">
+      <c r="F12" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="F12" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="78">
+      <c r="G12" s="77">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="I12" s="82" t="s">
-        <v>236</v>
-      </c>
-      <c r="J12" s="83" t="s">
-        <v>448</v>
-      </c>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73" t="str">
+      <c r="J12" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Hemprabha, Arya, S. (2024) Impact of physiochemical parmeters on aquatic life. Climate Change and Water Security: Environment and Health Concerns. 193-197</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="111">
-      <c r="A13" s="73">
+    <row r="13" spans="1:12" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
         <v>12</v>
       </c>
-      <c r="B13" s="76" t="s">
-        <v>588</v>
-      </c>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D13" s="77">
+        <v>2024</v>
+      </c>
+      <c r="E13" s="77" t="s">
         <v>501</v>
       </c>
-      <c r="D13" s="78">
-        <v>2024</v>
-      </c>
-      <c r="E13" s="78" t="s">
+      <c r="F13" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="77">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="76" t="s">
         <v>502</v>
       </c>
-      <c r="F13" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="77" t="s">
+      <c r="I13" s="72" t="s">
         <v>503</v>
       </c>
-      <c r="I13" s="73" t="s">
-        <v>504</v>
-      </c>
-      <c r="J13" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="K13" s="85" t="s">
-        <v>587</v>
-      </c>
-      <c r="L13" s="73" t="str">
+      <c r="J13" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="K13" s="84" t="s">
+        <v>586</v>
+      </c>
+      <c r="L13" s="72" t="str">
         <f t="shared" si="0"/>
         <v>Arya, S. (2024) Siliken Horizons: Pioneering Advances in Extensive Sericultrue. Emergin Trend in Sciences and Allied Science. 203-210. DOI: https://doi.org/10.5281/zenodo.10813117</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="41.4">
-      <c r="A14" s="73">
+    <row r="14" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
         <v>13</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="78" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" s="79" t="s">
         <v>565</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="D14" s="77">
+        <v>2025</v>
+      </c>
+      <c r="E14" s="77" t="s">
         <v>566</v>
       </c>
-      <c r="D14" s="78">
-        <v>2025</v>
-      </c>
-      <c r="E14" s="78" t="s">
+      <c r="F14" s="77" t="s">
         <v>567</v>
       </c>
-      <c r="F14" s="78" t="s">
-        <v>568</v>
-      </c>
-      <c r="G14" s="78">
+      <c r="G14" s="77">
         <f>LEN(J14)-LEN(SUBSTITUTE(J14,";",""))+1</f>
         <v>2</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="82" t="s">
+        <v>568</v>
+      </c>
+      <c r="I14" s="72" t="s">
         <v>569</v>
       </c>
-      <c r="I14" s="73" t="s">
-        <v>570</v>
-      </c>
-      <c r="J14" s="73" t="s">
-        <v>591</v>
-      </c>
-      <c r="K14" s="86" t="s">
-        <v>564</v>
-      </c>
-      <c r="L14" s="73" t="str">
+      <c r="J14" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="K14" s="85" t="s">
+        <v>563</v>
+      </c>
+      <c r="L14" s="72" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(J14,";",",")," (",D14,") ",B14,". ",C14,". ",E14,IF(LEFT(K14,16)="https://doi.org/",_xlfn.CONCAT(". DOI: ",K14),""))</f>
         <v>Arya, S., Sharma, R. (2025) TRADITION TO INNOVATION: SUSTAINABLE DEVELOPEMENT IN SILK CULTURE. Proceedings of National Seminar on Sustainable Development Goals : Strategies and Challenges. 165-174. DOI: https://doi.org/10.5281/zenodo.16732575</v>
       </c>
@@ -8684,229 +8773,229 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A1" s="87">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A2" s="87">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A3" s="87">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="86">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A4" s="87">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A5" s="87">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A6" s="87">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A7" s="87">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A8" s="87">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="86">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A9" s="87">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="86">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A10" s="87">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A11" s="87">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.6" thickBot="1">
-      <c r="A12" s="87">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="86">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A13" s="88">
+    <row r="13" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A14" s="88">
+    <row r="14" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="87">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A15" s="88">
+    <row r="15" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="87">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A16" s="88">
+    <row r="16" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="87">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A17" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A18" s="90">
+    <row r="17" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A19" s="89">
+    <row r="19" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A20" s="89">
+    <row r="20" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A21" s="89">
+    <row r="21" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A22" s="89">
+    <row r="22" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A23" s="89">
+    <row r="23" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A24" s="89">
+    <row r="24" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A25" s="89">
+    <row r="25" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A26" s="89">
+    <row r="26" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A27" s="89">
+    <row r="27" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A28" s="89">
+    <row r="28" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A29" s="89">
+    <row r="29" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A30" s="89">
+    <row r="30" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A31" s="89">
+    <row r="31" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A32" s="89">
+    <row r="32" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A33" s="89">
+    <row r="33" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A34" s="89">
+    <row r="34" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A35" s="89">
+    <row r="35" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A36" s="89">
+    <row r="36" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A37" s="89">
+    <row r="37" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A38" s="89">
+    <row r="38" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A39" s="89">
+    <row r="39" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A40" s="89">
+    <row r="40" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A41" s="89">
+    <row r="41" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A42" s="89">
+    <row r="42" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A43" s="89">
+    <row r="43" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="16.2" thickBot="1">
-      <c r="A44" s="89">
+    <row r="44" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="88">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>SUM(A1:A44)</f>
         <v>123</v>
@@ -8926,55 +9015,55 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>505</v>
       </c>
-      <c r="C1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>506</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
         <v>507</v>
       </c>
-      <c r="C2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>508</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" t="s">
-        <v>510</v>
-      </c>
       <c r="C4" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -8991,295 +9080,295 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" style="29" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="29"/>
+    <col min="1" max="1" width="255.7109375" style="29" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="28" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="28" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="28" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="28" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="28" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="28" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="28" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="28" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="28" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="28" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="28" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="28" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="28" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="28" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="28" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="28" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="28" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="28" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="28" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="28" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="28" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="28" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="28" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="28" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="28" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="28" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="29" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="30" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="31" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="28" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="28" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="30" t="s">
+    <row r="35" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="31.2">
-      <c r="A35" s="31" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="28" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="28" t="s">
+    <row r="38" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="31.2">
-      <c r="A38" s="32" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="30" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="30" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="30" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="30" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="30" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="30" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="30" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="30" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="31" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="30" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="30" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="30" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="29" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="29" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="32" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="29" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="29" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="29" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="29" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -9300,95 +9389,95 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" thickBot="1">
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="44" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A2" s="45" t="s">
+      <c r="B2" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="46" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A3" s="45" t="s">
+      <c r="B3" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="D3" s="46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A4" s="45" t="s">
+      <c r="B4" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A5" s="45" t="s">
+      <c r="B5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" s="46" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.6" thickBot="1">
-      <c r="A6" s="47" t="s">
+      <c r="B6" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>307</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -9406,36 +9495,36 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" t="s">
         <v>309</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>310</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>311</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>312</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>313</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>315</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -9454,9 +9543,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3">
         <v>9.6999999999999993</v>
@@ -9474,7 +9563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
   </sheetData>
@@ -9491,17 +9580,17 @@
       <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="75.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="49.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="75.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" style="6"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="6"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -9518,13 +9607,13 @@
         <v>10</v>
       </c>
       <c r="F1" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -9547,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.2">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
@@ -9570,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.2">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -9593,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -9616,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
@@ -9639,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.2">
+    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -9662,9 +9751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.2">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>30</v>
@@ -9685,9 +9774,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.2">
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>30</v>
@@ -9708,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.2">
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
@@ -9731,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.2">
+    <row r="11" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
@@ -9754,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.2">
+    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>43</v>
       </c>
@@ -9777,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.2">
+    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>46</v>
       </c>
@@ -9800,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.2">
+    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>50</v>
       </c>
@@ -9823,9 +9912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>53</v>
@@ -9846,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.2">
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>56</v>
       </c>
@@ -9869,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="46.8">
+    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>57</v>
       </c>
@@ -9892,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.2">
+    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>59</v>
       </c>
@@ -9915,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.2">
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>61</v>
       </c>
@@ -9938,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.2">
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>63</v>
       </c>
@@ -9961,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="46.8">
+    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>65</v>
       </c>
@@ -9984,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.2">
+    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>67</v>
       </c>
@@ -10007,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.2">
+    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>69</v>
       </c>
@@ -10030,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31.2">
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>72</v>
       </c>
@@ -10053,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="46.8">
+    <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>74</v>
       </c>
@@ -10076,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.2">
+    <row r="26" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>76</v>
       </c>
@@ -10099,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="31.2">
+    <row r="27" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>77</v>
       </c>
@@ -10122,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.6">
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>80</v>
       </c>
@@ -10145,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.6">
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>81</v>
       </c>
@@ -10168,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31.2">
+    <row r="30" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>84</v>
       </c>
@@ -10191,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.2">
+    <row r="31" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>87</v>
       </c>
@@ -10214,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="31.2">
+    <row r="32" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>88</v>
       </c>
@@ -10237,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.2">
+    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>92</v>
       </c>
@@ -10260,7 +10349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="31.2">
+    <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>95</v>
       </c>
@@ -10283,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.6">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>97</v>
       </c>
@@ -10306,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.2">
+    <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>98</v>
       </c>
@@ -10329,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="31.2">
+    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>100</v>
       </c>
@@ -10352,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.2">
+    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>102</v>
       </c>
@@ -10375,9 +10464,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="31.2">
+    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>101</v>
@@ -10398,9 +10487,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="31.2">
+    <row r="40" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>99</v>
@@ -10421,9 +10510,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.6">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>96</v>
@@ -10444,18 +10533,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="31.2">
+    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="C42" s="11">
         <v>2019</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>25</v>
@@ -10467,18 +10556,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="31.2">
+    <row r="43" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>111</v>
       </c>
       <c r="C43" s="11">
         <v>2019</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>25</v>
@@ -10490,21 +10579,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="31.2">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="C44" s="11">
         <v>2019</v>
       </c>
       <c r="D44" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -10513,18 +10602,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="31.2">
+    <row r="45" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="C45" s="11">
         <v>2019</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>25</v>
@@ -10536,9 +10625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6">
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>85</v>
@@ -10559,12 +10648,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="31.2">
+    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="C47" s="11">
         <v>2021</v>
@@ -10582,18 +10671,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="31.2">
+    <row r="48" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="C48" s="11">
         <v>2022</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>17</v>
@@ -10605,9 +10694,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="46.8">
+    <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>85</v>
@@ -10628,18 +10717,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="31.2">
+    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="C50" s="11">
         <v>2022</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>25</v>
@@ -10651,18 +10740,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="31.2">
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="C51" s="11">
         <v>2022</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>17</v>
@@ -10674,18 +10763,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.2">
+    <row r="52" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" s="11">
         <v>2022</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>17</v>
@@ -10697,18 +10786,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="C53" s="11">
         <v>2023</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>25</v>
@@ -10720,18 +10809,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="31.2">
+    <row r="54" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>146</v>
       </c>
       <c r="C54" s="11">
         <v>2023</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>25</v>
@@ -10743,18 +10832,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="31.8" thickBot="1">
+    <row r="55" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C55" s="11">
         <v>2023</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>17</v>
@@ -10766,9 +10855,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>85</v>
@@ -10789,9 +10878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="31.2">
+    <row r="57" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>85</v>
@@ -10812,18 +10901,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.2" thickBot="1">
+    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="C58" s="11">
         <v>2024</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>17</v>
@@ -10835,18 +10924,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="20">
         <v>2024</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>25</v>
@@ -10858,18 +10947,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="29.4" thickBot="1">
+    <row r="60" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="C60" s="20">
         <v>2024</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E60" s="17" t="s">
         <v>17</v>
@@ -10881,18 +10970,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C61" s="4">
         <v>2024</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>17</v>
@@ -10904,18 +10993,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" s="6">
         <v>2024</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>17</v>
@@ -10928,18 +11017,18 @@
       </c>
       <c r="H62" s="34"/>
     </row>
-    <row r="63" spans="1:8" ht="26.4">
+    <row r="63" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="C63" s="15">
         <v>2005</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -10948,18 +11037,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="26.4">
+    <row r="64" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="C64" s="15">
         <v>2017</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -10968,18 +11057,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="26.4">
+    <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C65" s="15">
         <v>2017</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -10988,18 +11077,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="26.4">
+    <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="C66" s="15">
         <v>2017</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -11008,18 +11097,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>200</v>
-      </c>
       <c r="D67" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -11028,18 +11117,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="C68" s="15">
         <v>2020</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -11048,18 +11137,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27.6">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>209</v>
       </c>
       <c r="C69" s="15">
         <v>2021</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -11068,18 +11157,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>214</v>
       </c>
       <c r="C70" s="15">
         <v>2022</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -11088,18 +11177,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1">
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>219</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>220</v>
       </c>
       <c r="C71" s="15">
         <v>2023</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -11108,18 +11197,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1">
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B72" s="36" t="s">
         <v>225</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>226</v>
       </c>
       <c r="C72" s="37">
         <v>2024</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E72"/>
       <c r="F72">
@@ -11129,18 +11218,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1">
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C73" s="40">
         <v>2024</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E73"/>
       <c r="F73">
@@ -11164,26 +11253,26 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" t="s">
         <v>324</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>325</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>326</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>327</v>
       </c>
-      <c r="E1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>(20.28/100)*E2</f>
         <v>39.018720000000002</v>
